--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D9C98-15BF-B649-8AAA-A88F8AA2CB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516DBF59-9E75-054C-AFB0-23EA6C83F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Activity Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="eHG88Ee/JMH/jW9KTtG3b02qZehfeKYRphRQxHMo2fE="/>
     </ext>
@@ -2641,7 +2652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2696,6 +2707,13 @@
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2850,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2989,6 +3007,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4504,10 +4525,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4628,10 +4649,10 @@
       <c r="U1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="62" t="s">
         <v>47</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -4661,7 +4682,7 @@
       <c r="AF1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="62" t="s">
         <v>57</v>
       </c>
       <c r="AH1" s="16" t="s">

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516DBF59-9E75-054C-AFB0-23EA6C83F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB52921-185D-DE44-99B5-3E46D26D3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="180" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="910">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -2646,6 +2646,144 @@
   </si>
   <si>
     <t>2019;2021</t>
+  </si>
+  <si>
+    <t>Professor Rudra Kafle</t>
+  </si>
+  <si>
+    <t>Kristina A. Lynch</t>
+  </si>
+  <si>
+    <t>Robert Cordery</t>
+  </si>
+  <si>
+    <t>David Morin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Checkelsky
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spencer Smith
+</t>
+  </si>
+  <si>
+    <t>Professor William Karstens</t>
+  </si>
+  <si>
+    <t>Joyce Palmer-Fortune</t>
+  </si>
+  <si>
+    <t>Frank Dudish</t>
+  </si>
+  <si>
+    <t>Sumientra Rampersad</t>
+  </si>
+  <si>
+    <t>Dr. Benjamin Chandran</t>
+  </si>
+  <si>
+    <t>Rudra Kafle</t>
+  </si>
+  <si>
+    <t>Sarah Demers</t>
+  </si>
+  <si>
+    <t>William Loinaz</t>
+  </si>
+  <si>
+    <t>Robert Carey</t>
+  </si>
+  <si>
+    <t>Dr. Thayaparan Paramanathan</t>
+  </si>
+  <si>
+    <t>Thomas Burton</t>
+  </si>
+  <si>
+    <t>Joseph Ribaudo</t>
+  </si>
+  <si>
+    <t>Matt Guthrie</t>
+  </si>
+  <si>
+    <t>Ben Brau</t>
+  </si>
+  <si>
+    <t>John Smedley</t>
+  </si>
+  <si>
+    <t>Mark O. Battle</t>
+  </si>
+  <si>
+    <t>Richard Fell</t>
+  </si>
+  <si>
+    <t>Dr. Michael Boyer</t>
+  </si>
+  <si>
+    <t>Dr. Michael Weinstein</t>
+  </si>
+  <si>
+    <t>Dr. Cornely</t>
+  </si>
+  <si>
+    <t>Dr. Steven Harfenist</t>
+  </si>
+  <si>
+    <t>Richard Hyde</t>
+  </si>
+  <si>
+    <t>Nancy Lee</t>
+  </si>
+  <si>
+    <t>Sps Advisor</t>
+  </si>
+  <si>
+    <t>Loraine Allen</t>
+  </si>
+  <si>
+    <t>James McDonald</t>
+  </si>
+  <si>
+    <t>Gerald Darling</t>
+  </si>
+  <si>
+    <t>Paul Nakroshis</t>
+  </si>
+  <si>
+    <t>Candice Etson</t>
+  </si>
+  <si>
+    <t>Alica Chance</t>
+  </si>
+  <si>
+    <t>Kristina.A.Lynch@dartmouth.edu</t>
+  </si>
+  <si>
+    <t>checkelsky@mit.edu</t>
+  </si>
+  <si>
+    <t>smiths@mtholyoke.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngugliucci@anselm.edu
+</t>
+  </si>
+  <si>
+    <t>frank.dudish@maine.edu</t>
+  </si>
+  <si>
+    <t>rpk101@wpi.edu</t>
+  </si>
+  <si>
+    <t>sarah.demers@yale.edu</t>
+  </si>
+  <si>
+    <t>TPARAMANATHAN@bridgew.edu</t>
+  </si>
+  <si>
+    <t>fell@brandeis.edu</t>
   </si>
 </sst>
 </file>
@@ -2664,49 +2802,58 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2868,7 +3015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3003,18 +3150,54 @@
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3042,9 +3225,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Activity Report-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3059,7 +3242,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AZ74" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AZ1048576" headerRowCount="0">
   <tableColumns count="52">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3082,7 +3265,7 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22" dataDxfId="0"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
@@ -3424,21 +3607,21 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4525,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4649,10 +4832,10 @@
       <c r="U1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="62" t="s">
+      <c r="W1" s="16" t="s">
         <v>47</v>
       </c>
       <c r="X1" s="16" t="s">
@@ -4682,7 +4865,7 @@
       <c r="AF1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="62" t="s">
+      <c r="AG1" s="60" t="s">
         <v>57</v>
       </c>
       <c r="AH1" s="16" t="s">
@@ -4803,8 +4986,12 @@
       <c r="U2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="23"/>
+      <c r="V2" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>77</v>
+      </c>
       <c r="X2" s="23" t="s">
         <v>85</v>
       </c>
@@ -4937,8 +5124,12 @@
       <c r="U3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="V3" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="63" t="s">
+        <v>108</v>
+      </c>
       <c r="X3" s="23" t="s">
         <v>85</v>
       </c>
@@ -5057,8 +5248,12 @@
       <c r="U4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="V4" s="64" t="s">
+        <v>866</v>
+      </c>
+      <c r="W4" s="64" t="s">
+        <v>901</v>
+      </c>
       <c r="X4" s="23" t="s">
         <v>85</v>
       </c>
@@ -5171,8 +5366,12 @@
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
+      <c r="V5" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="W5" s="63" t="s">
+        <v>133</v>
+      </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23" t="s">
@@ -5279,8 +5478,12 @@
       <c r="U6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="V6" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="W6" s="63" t="s">
+        <v>145</v>
+      </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23" t="s">
@@ -5403,8 +5606,12 @@
       <c r="U7" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
+      <c r="V7" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="W7" s="63" t="s">
+        <v>902</v>
+      </c>
       <c r="X7" s="23" t="s">
         <v>166</v>
       </c>
@@ -5541,8 +5748,12 @@
       <c r="U8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="V8" s="26" t="s">
+        <v>870</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>903</v>
+      </c>
       <c r="X8" s="26" t="s">
         <v>85</v>
       </c>
@@ -5671,8 +5882,12 @@
       </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="V9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>904</v>
+      </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23" t="s">
@@ -5789,8 +6004,12 @@
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="V10" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>223</v>
+      </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23" t="s">
@@ -5907,8 +6126,12 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="V11" s="63" t="s">
+        <v>872</v>
+      </c>
+      <c r="W11" s="63" t="s">
+        <v>238</v>
+      </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23" t="s">
@@ -6037,8 +6260,12 @@
       <c r="U12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="V12" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="W12" s="63" t="s">
+        <v>263</v>
+      </c>
       <c r="X12" s="23" t="s">
         <v>85</v>
       </c>
@@ -6163,8 +6390,12 @@
       <c r="U13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="V13" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="W13" s="63" t="s">
+        <v>277</v>
+      </c>
       <c r="X13" s="23" t="s">
         <v>85</v>
       </c>
@@ -6285,8 +6516,12 @@
       <c r="U14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
+      <c r="V14" s="63" t="s">
+        <v>289</v>
+      </c>
+      <c r="W14" s="63" t="s">
+        <v>290</v>
+      </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23" t="s">
@@ -6417,8 +6652,12 @@
       <c r="U15" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="V15" s="64" t="s">
+        <v>873</v>
+      </c>
+      <c r="W15" s="64" t="s">
+        <v>905</v>
+      </c>
       <c r="X15" s="23" t="s">
         <v>315</v>
       </c>
@@ -6559,8 +6798,12 @@
       <c r="U16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="V16" s="64" t="s">
+        <v>874</v>
+      </c>
+      <c r="W16" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="X16" s="23" t="s">
         <v>85</v>
       </c>
@@ -6681,8 +6924,12 @@
       <c r="U17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="V17" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="W17" s="63" t="s">
+        <v>353</v>
+      </c>
       <c r="X17" s="23" t="s">
         <v>85</v>
       </c>
@@ -6815,8 +7062,12 @@
       <c r="U18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="V18" s="63" t="s">
+        <v>875</v>
+      </c>
+      <c r="W18" s="63" t="s">
+        <v>368</v>
+      </c>
       <c r="X18" s="23" t="s">
         <v>85</v>
       </c>
@@ -6933,8 +7184,12 @@
       <c r="U19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
+      <c r="V19" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="W19" s="63" t="s">
+        <v>386</v>
+      </c>
       <c r="X19" s="23" t="s">
         <v>85</v>
       </c>
@@ -7065,8 +7320,12 @@
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
+      <c r="V20" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>906</v>
+      </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23" t="s">
@@ -7195,8 +7454,12 @@
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="V21" s="64" t="s">
+        <v>877</v>
+      </c>
+      <c r="W21" s="64" t="s">
+        <v>907</v>
+      </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24" t="s">
@@ -7311,8 +7574,12 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
+      <c r="V22" s="65" t="s">
+        <v>878</v>
+      </c>
+      <c r="W22" s="65" t="s">
+        <v>444</v>
+      </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -7417,8 +7684,12 @@
       <c r="U23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
+      <c r="V23" s="66" t="s">
+        <v>879</v>
+      </c>
+      <c r="W23" s="66" t="s">
+        <v>453</v>
+      </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
       <c r="Z23" s="50" t="s">
@@ -7541,8 +7812,12 @@
       <c r="U24" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
+      <c r="V24" s="66" t="s">
+        <v>880</v>
+      </c>
+      <c r="W24" s="66" t="s">
+        <v>908</v>
+      </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
       <c r="Z24" s="50" t="s">
@@ -7667,8 +7942,12 @@
       <c r="U25" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
+      <c r="V25" s="66" t="s">
+        <v>881</v>
+      </c>
+      <c r="W25" s="66" t="s">
+        <v>499</v>
+      </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50" t="s">
@@ -7797,8 +8076,12 @@
       <c r="U26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
+      <c r="V26" s="66" t="s">
+        <v>882</v>
+      </c>
+      <c r="W26" s="66" t="s">
+        <v>518</v>
+      </c>
       <c r="X26" s="50" t="s">
         <v>85</v>
       </c>
@@ -7917,8 +8200,12 @@
       <c r="U27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
+      <c r="V27" s="65" t="s">
+        <v>883</v>
+      </c>
+      <c r="W27" s="65" t="s">
+        <v>525</v>
+      </c>
       <c r="X27" s="45" t="s">
         <v>85</v>
       </c>
@@ -8027,8 +8314,12 @@
       <c r="U28" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
+      <c r="V28" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="W28" s="51" t="s">
+        <v>538</v>
+      </c>
       <c r="X28" s="51" t="s">
         <v>85</v>
       </c>
@@ -8235,8 +8526,8 @@
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
@@ -8309,8 +8600,8 @@
       <c r="S31" s="55"/>
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
@@ -8397,8 +8688,12 @@
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
+      <c r="V32" s="67" t="s">
+        <v>885</v>
+      </c>
+      <c r="W32" s="67" t="s">
+        <v>569</v>
+      </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
@@ -8475,8 +8770,8 @@
       <c r="S33" s="55"/>
       <c r="T33" s="55"/>
       <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
       <c r="Z33" s="55" t="s">
@@ -8549,8 +8844,8 @@
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
@@ -8639,8 +8934,12 @@
       <c r="S35" s="55"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
+      <c r="V35" s="67" t="s">
+        <v>886</v>
+      </c>
+      <c r="W35" s="67" t="s">
+        <v>581</v>
+      </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
       <c r="Z35" s="55" t="s">
@@ -8743,8 +9042,12 @@
       <c r="U36" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
+      <c r="V36" s="67" t="s">
+        <v>887</v>
+      </c>
+      <c r="W36" s="67" t="s">
+        <v>909</v>
+      </c>
       <c r="X36" s="55" t="s">
         <v>85</v>
       </c>
@@ -8825,8 +9128,8 @@
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
       <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
       <c r="X37" s="55"/>
       <c r="Y37" s="55"/>
       <c r="Z37" s="55" t="s">
@@ -8925,8 +9228,12 @@
       <c r="U38" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
+      <c r="V38" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="W38" s="67" t="s">
+        <v>601</v>
+      </c>
       <c r="X38" s="55" t="s">
         <v>85</v>
       </c>
@@ -9041,8 +9348,12 @@
       <c r="U39" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
+      <c r="V39" s="67" t="s">
+        <v>888</v>
+      </c>
+      <c r="W39" s="67" t="s">
+        <v>612</v>
+      </c>
       <c r="X39" s="55" t="s">
         <v>85</v>
       </c>
@@ -9151,8 +9462,12 @@
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
+      <c r="V40" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="W40" s="67" t="s">
+        <v>628</v>
+      </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
       <c r="Z40" s="55" t="s">
@@ -9261,8 +9576,12 @@
       <c r="U41" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
+      <c r="V41" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="W41" s="67" t="s">
+        <v>630</v>
+      </c>
       <c r="X41" s="55" t="s">
         <v>85</v>
       </c>
@@ -9375,8 +9694,12 @@
       <c r="U42" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
+      <c r="V42" s="67" t="s">
+        <v>889</v>
+      </c>
+      <c r="W42" s="67" t="s">
+        <v>638</v>
+      </c>
       <c r="X42" s="55" t="s">
         <v>85</v>
       </c>
@@ -9481,8 +9804,12 @@
       <c r="U43" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
+      <c r="V43" s="67" t="s">
+        <v>890</v>
+      </c>
+      <c r="W43" s="67" t="s">
+        <v>647</v>
+      </c>
       <c r="X43" s="55" t="s">
         <v>85</v>
       </c>
@@ -9563,8 +9890,8 @@
       <c r="S44" s="55"/>
       <c r="T44" s="55"/>
       <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
@@ -9635,8 +9962,8 @@
       <c r="S45" s="55"/>
       <c r="T45" s="55"/>
       <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
       <c r="X45" s="55"/>
       <c r="Y45" s="55"/>
       <c r="Z45" s="55" t="s">
@@ -9709,8 +10036,8 @@
       <c r="S46" s="55"/>
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
       <c r="X46" s="55"/>
       <c r="Y46" s="55"/>
       <c r="Z46" s="55" t="s">
@@ -9807,8 +10134,12 @@
       <c r="U47" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
+      <c r="V47" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="W47" s="67" t="s">
+        <v>659</v>
+      </c>
       <c r="X47" s="55" t="s">
         <v>85</v>
       </c>
@@ -9909,8 +10240,8 @@
       <c r="S48" s="55"/>
       <c r="T48" s="55"/>
       <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
       <c r="X48" s="55"/>
       <c r="Y48" s="55"/>
       <c r="Z48" s="55" t="s">
@@ -10009,8 +10340,12 @@
       <c r="U49" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
+      <c r="V49" s="67" t="s">
+        <v>891</v>
+      </c>
+      <c r="W49" s="67" t="s">
+        <v>677</v>
+      </c>
       <c r="X49" s="55" t="s">
         <v>85</v>
       </c>
@@ -10103,8 +10438,8 @@
       <c r="S50" s="55"/>
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
@@ -10187,8 +10522,8 @@
       <c r="S51" s="55"/>
       <c r="T51" s="55"/>
       <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="55"/>
       <c r="Y51" s="55"/>
       <c r="Z51" s="55" t="s">
@@ -10277,8 +10612,8 @@
       <c r="S52" s="55"/>
       <c r="T52" s="55"/>
       <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
@@ -10379,8 +10714,12 @@
       <c r="U53" s="55" t="s">
         <v>709</v>
       </c>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
+      <c r="V53" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="W53" s="67" t="s">
+        <v>704</v>
+      </c>
       <c r="X53" s="55" t="s">
         <v>85</v>
       </c>
@@ -10483,8 +10822,12 @@
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
+      <c r="V54" s="67" t="s">
+        <v>892</v>
+      </c>
+      <c r="W54" s="67" t="s">
+        <v>714</v>
+      </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
@@ -10563,8 +10906,8 @@
       <c r="S55" s="55"/>
       <c r="T55" s="55"/>
       <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
@@ -10651,8 +10994,12 @@
       <c r="U56" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
+      <c r="V56" s="67" t="s">
+        <v>893</v>
+      </c>
+      <c r="W56" s="67" t="s">
+        <v>724</v>
+      </c>
       <c r="X56" s="55" t="s">
         <v>85</v>
       </c>
@@ -10737,8 +11084,8 @@
       <c r="S57" s="55"/>
       <c r="T57" s="55"/>
       <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
@@ -10831,8 +11178,12 @@
       <c r="U58" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
+      <c r="V58" s="67" t="s">
+        <v>737</v>
+      </c>
+      <c r="W58" s="67" t="s">
+        <v>734</v>
+      </c>
       <c r="X58" s="55" t="s">
         <v>85</v>
       </c>
@@ -10937,8 +11288,12 @@
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
+      <c r="V59" s="67" t="s">
+        <v>894</v>
+      </c>
+      <c r="W59" s="67" t="s">
+        <v>740</v>
+      </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
       <c r="Z59" s="55" t="s">
@@ -11037,8 +11392,12 @@
       <c r="U60" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
+      <c r="V60" s="67" t="s">
+        <v>895</v>
+      </c>
+      <c r="W60" s="67" t="s">
+        <v>752</v>
+      </c>
       <c r="X60" s="55" t="s">
         <v>85</v>
       </c>
@@ -11135,8 +11494,8 @@
       <c r="U61" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
       <c r="X61" s="55" t="s">
         <v>85</v>
       </c>
@@ -11233,8 +11592,12 @@
       <c r="U62" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
+      <c r="V62" s="67" t="s">
+        <v>896</v>
+      </c>
+      <c r="W62" s="67" t="s">
+        <v>761</v>
+      </c>
       <c r="X62" s="55" t="s">
         <v>85</v>
       </c>
@@ -11319,8 +11682,8 @@
       <c r="S63" s="55"/>
       <c r="T63" s="55"/>
       <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
@@ -11417,8 +11780,12 @@
       <c r="U64" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
+      <c r="V64" s="67" t="s">
+        <v>776</v>
+      </c>
+      <c r="W64" s="67" t="s">
+        <v>771</v>
+      </c>
       <c r="X64" s="55" t="s">
         <v>85</v>
       </c>
@@ -11523,8 +11890,12 @@
       <c r="U65" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
+      <c r="V65" s="67" t="s">
+        <v>787</v>
+      </c>
+      <c r="W65" s="67" t="s">
+        <v>783</v>
+      </c>
       <c r="X65" s="55" t="s">
         <v>85</v>
       </c>
@@ -11637,8 +12008,12 @@
       <c r="U66" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V66" s="55"/>
-      <c r="W66" s="55"/>
+      <c r="V66" s="67" t="s">
+        <v>796</v>
+      </c>
+      <c r="W66" s="67" t="s">
+        <v>791</v>
+      </c>
       <c r="X66" s="55" t="s">
         <v>85</v>
       </c>
@@ -11743,8 +12118,12 @@
       </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
+      <c r="V67" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="W67" s="67" t="s">
+        <v>800</v>
+      </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
       <c r="Z67" s="55" t="s">
@@ -11833,8 +12212,12 @@
       <c r="U68" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
+      <c r="V68" s="67" t="s">
+        <v>898</v>
+      </c>
+      <c r="W68" s="67" t="s">
+        <v>806</v>
+      </c>
       <c r="X68" s="55" t="s">
         <v>85</v>
       </c>
@@ -11943,8 +12326,12 @@
       <c r="U69" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V69" s="55"/>
-      <c r="W69" s="55"/>
+      <c r="V69" s="67" t="s">
+        <v>819</v>
+      </c>
+      <c r="W69" s="67" t="s">
+        <v>814</v>
+      </c>
       <c r="X69" s="55" t="s">
         <v>85</v>
       </c>
@@ -12073,8 +12460,12 @@
       <c r="U70" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V70" s="55"/>
-      <c r="W70" s="55"/>
+      <c r="V70" s="67" t="s">
+        <v>899</v>
+      </c>
+      <c r="W70" s="67" t="s">
+        <v>836</v>
+      </c>
       <c r="X70" s="55" t="s">
         <v>840</v>
       </c>
@@ -12181,8 +12572,12 @@
       <c r="U71" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V71" s="55"/>
-      <c r="W71" s="55"/>
+      <c r="V71" s="67" t="s">
+        <v>900</v>
+      </c>
+      <c r="W71" s="67" t="s">
+        <v>848</v>
+      </c>
       <c r="X71" s="55" t="s">
         <v>85</v>
       </c>
@@ -12265,8 +12660,8 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="55"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
@@ -12351,8 +12746,12 @@
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
+      <c r="V73" s="67" t="s">
+        <v>861</v>
+      </c>
+      <c r="W73" s="67" t="s">
+        <v>856</v>
+      </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
@@ -12429,8 +12828,8 @@
       <c r="S74" s="55"/>
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
-      <c r="W74" s="55"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
       <c r="X74" s="55"/>
       <c r="Y74" s="55"/>
       <c r="Z74" s="55" t="s">

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB52921-185D-DE44-99B5-3E46D26D3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E45CEB-4FC7-F749-90BA-61360F55834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="180" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -997,9 +997,6 @@
     <t>aps055@maine.edu</t>
   </si>
   <si>
-    <t xml:space="preserve"> Charles Thomas Hess</t>
-  </si>
-  <si>
     <t xml:space="preserve"> hess@maine.edu</t>
   </si>
   <si>
@@ -2784,6 +2781,9 @@
   </si>
   <si>
     <t>fell@brandeis.edu</t>
+  </si>
+  <si>
+    <t>Charles Thomas Hess</t>
   </si>
 </sst>
 </file>
@@ -4708,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4987,7 +4987,7 @@
         <v>85</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="W2" s="63" t="s">
         <v>77</v>
@@ -5249,10 +5249,10 @@
         <v>85</v>
       </c>
       <c r="V4" s="64" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="W4" s="64" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>85</v>
@@ -5367,7 +5367,7 @@
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="63" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="W5" s="63" t="s">
         <v>133</v>
@@ -5479,7 +5479,7 @@
         <v>85</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="W6" s="63" t="s">
         <v>145</v>
@@ -5607,10 +5607,10 @@
         <v>167</v>
       </c>
       <c r="V7" s="63" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="W7" s="63" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="X7" s="23" t="s">
         <v>166</v>
@@ -5749,10 +5749,10 @@
         <v>85</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="X8" s="26" t="s">
         <v>85</v>
@@ -5886,7 +5886,7 @@
         <v>206</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -6005,7 +6005,7 @@
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="W10" s="26" t="s">
         <v>223</v>
@@ -6127,7 +6127,7 @@
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="63" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="W11" s="63" t="s">
         <v>238</v>
@@ -6653,16 +6653,16 @@
         <v>314</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="W15" s="64" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="X15" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="Y15" s="23" t="s">
         <v>315</v>
-      </c>
-      <c r="Y15" s="23" t="s">
-        <v>316</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>19</v>
@@ -6671,51 +6671,51 @@
         <v>19</v>
       </c>
       <c r="AB15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC15" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="AC15" s="23" t="s">
+      <c r="AD15" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="AD15" s="26" t="s">
+      <c r="AE15" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="AE15" s="23" t="s">
+      <c r="AF15" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="AF15" s="23" t="s">
-        <v>321</v>
       </c>
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI15" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="AI15" s="27" t="s">
+      <c r="AJ15" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="AJ15" s="27" t="s">
+      <c r="AK15" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="AK15" s="27" t="s">
+      <c r="AL15" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="AL15" s="24" t="s">
+      <c r="AM15" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="AM15" s="24" t="s">
+      <c r="AN15" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="AN15" s="24" t="s">
+      <c r="AO15" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="AO15" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="AP15" s="24"/>
       <c r="AQ15" s="24"/>
       <c r="AR15" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AS15" s="23">
         <v>2018</v>
@@ -6728,25 +6728,25 @@
         <v>2023</v>
       </c>
       <c r="AW15" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AX15" s="24" t="s">
         <v>99</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>334</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>335</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
@@ -6760,7 +6760,7 @@
         <v>617</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>83</v>
@@ -6787,10 +6787,10 @@
         <v>27895</v>
       </c>
       <c r="R16" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="S16" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>338</v>
       </c>
       <c r="T16" s="23" t="s">
         <v>85</v>
@@ -6799,10 +6799,10 @@
         <v>85</v>
       </c>
       <c r="V16" s="64" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="W16" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>85</v>
@@ -6817,24 +6817,24 @@
         <v>19</v>
       </c>
       <c r="AB16" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC16" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AD16" s="40" t="s">
         <v>340</v>
-      </c>
-      <c r="AD16" s="40" t="s">
-        <v>341</v>
       </c>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH16" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI16" s="30" t="s">
         <v>342</v>
-      </c>
-      <c r="AI16" s="30" t="s">
-        <v>343</v>
       </c>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="26"/>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU16" s="23"/>
       <c r="AV16" s="23">
@@ -6858,35 +6858,35 @@
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>347</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>348</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H17" s="23">
         <v>978</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>83</v>
@@ -6913,10 +6913,10 @@
         <v>25165</v>
       </c>
       <c r="R17" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="S17" s="23" t="s">
         <v>352</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>353</v>
       </c>
       <c r="T17" s="23" t="s">
         <v>85</v>
@@ -6925,10 +6925,10 @@
         <v>85</v>
       </c>
       <c r="V17" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="W17" s="63" t="s">
         <v>352</v>
-      </c>
-      <c r="W17" s="63" t="s">
-        <v>353</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>85</v>
@@ -6943,48 +6943,48 @@
         <v>19</v>
       </c>
       <c r="AB17" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC17" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="AC17" s="23" t="s">
+      <c r="AD17" s="23" t="s">
         <v>355</v>
-      </c>
-      <c r="AD17" s="23" t="s">
-        <v>356</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AH17" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI17" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AI17" s="27" t="s">
+      <c r="AJ17" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="AJ17" s="23" t="s">
+      <c r="AK17" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="AK17" s="27" t="s">
+      <c r="AL17" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="AL17" s="27" t="s">
+      <c r="AM17" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="AM17" s="27" t="s">
+      <c r="AN17" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="AN17" s="27" t="s">
+      <c r="AO17" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="AO17" s="27" t="s">
+      <c r="AP17" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="AP17" s="27" t="s">
+      <c r="AQ17" s="27" t="s">
         <v>365</v>
-      </c>
-      <c r="AQ17" s="27" t="s">
-        <v>366</v>
       </c>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
@@ -7002,29 +7002,29 @@
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>368</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>369</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>122</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H18" s="23">
         <v>603</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>83</v>
@@ -7051,10 +7051,10 @@
         <v>18409</v>
       </c>
       <c r="R18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="S18" s="23" t="s">
         <v>373</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>374</v>
       </c>
       <c r="T18" s="23" t="s">
         <v>85</v>
@@ -7063,10 +7063,10 @@
         <v>85</v>
       </c>
       <c r="V18" s="63" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W18" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X18" s="23" t="s">
         <v>85</v>
@@ -7081,18 +7081,18 @@
         <v>19</v>
       </c>
       <c r="AB18" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC18" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="AC18" s="23" t="s">
+      <c r="AD18" s="23" t="s">
         <v>376</v>
-      </c>
-      <c r="AD18" s="23" t="s">
-        <v>377</v>
       </c>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AY18" s="23">
         <v>2023</v>
@@ -7124,29 +7124,29 @@
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>380</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>381</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>219</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H19" s="23">
         <v>802</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>83</v>
@@ -7173,10 +7173,10 @@
         <v>38107</v>
       </c>
       <c r="R19" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="S19" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>386</v>
       </c>
       <c r="T19" s="23" t="s">
         <v>85</v>
@@ -7185,10 +7185,10 @@
         <v>85</v>
       </c>
       <c r="V19" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="W19" s="63" t="s">
         <v>385</v>
-      </c>
-      <c r="W19" s="63" t="s">
-        <v>386</v>
       </c>
       <c r="X19" s="23" t="s">
         <v>85</v>
@@ -7203,48 +7203,48 @@
         <v>19</v>
       </c>
       <c r="AB19" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC19" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="AC19" s="23" t="s">
+      <c r="AD19" s="23" t="s">
         <v>388</v>
-      </c>
-      <c r="AD19" s="23" t="s">
-        <v>389</v>
       </c>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH19" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="AH19" s="27" t="s">
+      <c r="AI19" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="AI19" s="27" t="s">
+      <c r="AJ19" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="AJ19" s="30" t="s">
+      <c r="AK19" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="AK19" s="27" t="s">
+      <c r="AL19" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="AL19" s="30" t="s">
+      <c r="AM19" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="AM19" s="30" t="s">
+      <c r="AN19" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="AN19" s="30" t="s">
+      <c r="AO19" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="AO19" s="30" t="s">
+      <c r="AP19" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="AP19" s="30" t="s">
+      <c r="AQ19" s="30" t="s">
         <v>399</v>
-      </c>
-      <c r="AQ19" s="30" t="s">
-        <v>400</v>
       </c>
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
@@ -7255,38 +7255,38 @@
       </c>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY19" s="23" t="s">
         <v>401</v>
-      </c>
-      <c r="AY19" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="C20" s="23" t="s">
         <v>404</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>405</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H20" s="23">
         <v>508</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>83</v>
@@ -7313,18 +7313,18 @@
         <v>25619</v>
       </c>
       <c r="R20" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="S20" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7335,48 +7335,48 @@
         <v>19</v>
       </c>
       <c r="AB20" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC20" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="AC20" s="23" t="s">
-        <v>412</v>
       </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH20" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI20" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="AH20" s="32" t="s">
+      <c r="AJ20" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="AI20" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ20" s="32" t="s">
+      <c r="AK20" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="AK20" s="32" t="s">
+      <c r="AL20" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="AL20" s="27" t="s">
+      <c r="AM20" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="AM20" s="27" t="s">
+      <c r="AN20" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="AN20" s="24" t="s">
+      <c r="AO20" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="AO20" s="24" t="s">
+      <c r="AP20" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="AP20" s="27" t="s">
+      <c r="AQ20" s="27" t="s">
         <v>421</v>
-      </c>
-      <c r="AQ20" s="27" t="s">
-        <v>422</v>
       </c>
       <c r="AR20" s="23">
         <v>2019</v>
@@ -7394,23 +7394,23 @@
         <v>99</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>426</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>136</v>
@@ -7420,7 +7420,7 @@
         <v>203</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>83</v>
@@ -7447,18 +7447,18 @@
         <v>44112</v>
       </c>
       <c r="R21" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="S21" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>430</v>
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="64" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="W21" s="64" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -7469,47 +7469,47 @@
         <v>19</v>
       </c>
       <c r="AB21" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC21" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="AC21" s="24" t="s">
-        <v>432</v>
       </c>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="AI21" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="AH21" s="30" t="s">
+      <c r="AJ21" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="AI21" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ21" s="30" t="s">
-        <v>435</v>
-      </c>
       <c r="AK21" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO21" s="30" t="s">
         <v>436</v>
       </c>
-      <c r="AO21" s="30" t="s">
+      <c r="AP21" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="AP21" s="30" t="s">
+      <c r="AQ21" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="AQ21" s="30" t="s">
+      <c r="AR21" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="AR21" s="24" t="s">
-        <v>440</v>
       </c>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
@@ -7521,26 +7521,26 @@
         <v>115</v>
       </c>
       <c r="AX21" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="AY21" s="24" t="s">
         <v>441</v>
-      </c>
-      <c r="AY21" s="24" t="s">
-        <v>442</v>
       </c>
       <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="C22" s="45" t="s">
         <v>444</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>445</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>80</v>
@@ -7550,7 +7550,7 @@
         <v>413</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>83</v>
@@ -7575,30 +7575,30 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="W22" s="65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC22" s="45" t="s">
         <v>448</v>
       </c>
-      <c r="AC22" s="45" t="s">
+      <c r="AD22" s="45" t="s">
         <v>449</v>
       </c>
-      <c r="AD22" s="45" t="s">
+      <c r="AE22" s="45" t="s">
         <v>450</v>
-      </c>
-      <c r="AE22" s="45" t="s">
-        <v>451</v>
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
@@ -7624,13 +7624,13 @@
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="C23" s="50" t="s">
         <v>453</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>454</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50" t="s">
@@ -7640,13 +7640,13 @@
         <v>80</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H23" s="50">
         <v>617</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>83</v>
@@ -7673,10 +7673,10 @@
         <v>29692</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S23" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T23" s="50" t="s">
         <v>85</v>
@@ -7685,10 +7685,10 @@
         <v>85</v>
       </c>
       <c r="V23" s="66" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="W23" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
@@ -7699,53 +7699,53 @@
         <v>19</v>
       </c>
       <c r="AB23" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC23" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="AC23" s="50" t="s">
+      <c r="AD23" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="AD23" s="50" t="s">
+      <c r="AE23" s="50" t="s">
         <v>460</v>
-      </c>
-      <c r="AE23" s="50" t="s">
-        <v>461</v>
       </c>
       <c r="AF23" s="50"/>
       <c r="AG23" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AH23" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI23" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="AI23" s="50" t="s">
+      <c r="AJ23" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="AJ23" s="50" t="s">
+      <c r="AK23" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="AK23" s="50" t="s">
+      <c r="AL23" s="50" t="s">
         <v>465</v>
       </c>
-      <c r="AL23" s="50" t="s">
+      <c r="AM23" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="AM23" s="50" t="s">
+      <c r="AN23" s="50" t="s">
         <v>467</v>
       </c>
-      <c r="AN23" s="50" t="s">
+      <c r="AO23" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="AO23" s="50" t="s">
+      <c r="AP23" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="AP23" s="50" t="s">
+      <c r="AQ23" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="AQ23" s="50" t="s">
+      <c r="AR23" s="50" t="s">
         <v>471</v>
-      </c>
-      <c r="AR23" s="50" t="s">
-        <v>472</v>
       </c>
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
@@ -7755,24 +7755,24 @@
       </c>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AY23" s="50"/>
       <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>475</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>476</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>80</v>
@@ -7782,7 +7782,7 @@
         <v>508</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J24" s="50" t="s">
         <v>83</v>
@@ -7813,10 +7813,10 @@
         <v>85</v>
       </c>
       <c r="V24" s="66" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="W24" s="66" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7827,42 +7827,42 @@
         <v>19</v>
       </c>
       <c r="AB24" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC24" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="AC24" s="50" t="s">
+      <c r="AD24" s="50" t="s">
         <v>480</v>
-      </c>
-      <c r="AD24" s="50" t="s">
-        <v>481</v>
       </c>
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH24" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="AH24" s="50" t="s">
+      <c r="AI24" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="AI24" s="50" t="s">
+      <c r="AJ24" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="AJ24" s="50" t="s">
+      <c r="AK24" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="AK24" s="50" t="s">
+      <c r="AL24" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="AL24" s="50" t="s">
+      <c r="AM24" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="AM24" s="50" t="s">
+      <c r="AN24" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="AN24" s="50" t="s">
+      <c r="AO24" s="50" t="s">
         <v>489</v>
-      </c>
-      <c r="AO24" s="50" t="s">
-        <v>490</v>
       </c>
       <c r="AP24" s="50"/>
       <c r="AQ24" s="50"/>
@@ -7876,35 +7876,35 @@
       <c r="AW24" s="50"/>
       <c r="AX24" s="45"/>
       <c r="AY24" s="50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="C25" s="50" t="s">
         <v>493</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>494</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H25" s="50">
         <v>413</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J25" s="50" t="s">
         <v>83</v>
@@ -7931,10 +7931,10 @@
         <v>41012</v>
       </c>
       <c r="R25" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="S25" s="50" t="s">
         <v>498</v>
-      </c>
-      <c r="S25" s="50" t="s">
-        <v>499</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>85</v>
@@ -7943,10 +7943,10 @@
         <v>85</v>
       </c>
       <c r="V25" s="66" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="W25" s="66" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
@@ -7957,42 +7957,42 @@
         <v>19</v>
       </c>
       <c r="AB25" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC25" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="AC25" s="50" t="s">
+      <c r="AD25" s="50" t="s">
         <v>501</v>
-      </c>
-      <c r="AD25" s="50" t="s">
-        <v>502</v>
       </c>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH25" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI25" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="AI25" s="50" t="s">
+      <c r="AJ25" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="AJ25" s="50" t="s">
+      <c r="AK25" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="AK25" s="50" t="s">
+      <c r="AL25" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="AL25" s="50" t="s">
+      <c r="AM25" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="AM25" s="50" t="s">
+      <c r="AN25" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="AN25" s="50" t="s">
+      <c r="AO25" s="50" t="s">
         <v>509</v>
-      </c>
-      <c r="AO25" s="50" t="s">
-        <v>510</v>
       </c>
       <c r="AP25" s="50"/>
       <c r="AQ25" s="50"/>
@@ -8010,19 +8010,19 @@
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="C26" s="50" t="s">
         <v>513</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>514</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50" t="s">
@@ -8032,13 +8032,13 @@
         <v>104</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H26" s="50">
         <v>401</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>83</v>
@@ -8065,10 +8065,10 @@
         <v>22787</v>
       </c>
       <c r="R26" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="S26" s="50" t="s">
         <v>517</v>
-      </c>
-      <c r="S26" s="50" t="s">
-        <v>518</v>
       </c>
       <c r="T26" s="50" t="s">
         <v>85</v>
@@ -8077,10 +8077,10 @@
         <v>85</v>
       </c>
       <c r="V26" s="66" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="W26" s="66" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="X26" s="50" t="s">
         <v>85</v>
@@ -8095,28 +8095,28 @@
         <v>19</v>
       </c>
       <c r="AB26" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC26" s="50" t="s">
         <v>519</v>
-      </c>
-      <c r="AC26" s="50" t="s">
-        <v>520</v>
       </c>
       <c r="AD26" s="50"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="AH26" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI26" s="50" t="s">
         <v>512</v>
       </c>
-      <c r="AH26" s="50" t="s">
+      <c r="AJ26" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="AI26" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ26" s="50" t="s">
+      <c r="AK26" s="50" t="s">
         <v>522</v>
-      </c>
-      <c r="AK26" s="50" t="s">
-        <v>523</v>
       </c>
       <c r="AL26" s="50"/>
       <c r="AM26" s="50"/>
@@ -8140,29 +8140,29 @@
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="C27" s="45" t="s">
         <v>525</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>526</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>136</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H27" s="45">
         <v>860</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>83</v>
@@ -8189,10 +8189,10 @@
         <v>18408</v>
       </c>
       <c r="R27" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="S27" s="45" t="s">
         <v>530</v>
-      </c>
-      <c r="S27" s="45" t="s">
-        <v>531</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>85</v>
@@ -8201,10 +8201,10 @@
         <v>85</v>
       </c>
       <c r="V27" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="W27" s="65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="X27" s="45" t="s">
         <v>85</v>
@@ -8219,20 +8219,20 @@
         <v>19</v>
       </c>
       <c r="AB27" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC27" s="45" t="s">
         <v>532</v>
       </c>
-      <c r="AC27" s="45" t="s">
+      <c r="AD27" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="AD27" s="45" t="s">
+      <c r="AE27" s="45" t="s">
         <v>534</v>
-      </c>
-      <c r="AE27" s="45" t="s">
-        <v>535</v>
       </c>
       <c r="AF27" s="45"/>
       <c r="AG27" s="45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AH27" s="45"/>
       <c r="AI27" s="45"/>
@@ -8245,7 +8245,7 @@
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45"/>
       <c r="AR27" s="45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
@@ -8258,23 +8258,23 @@
         <v>99</v>
       </c>
       <c r="AY27" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ27" s="48"/>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="C28" s="51" t="s">
         <v>538</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>539</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>80</v>
@@ -8284,7 +8284,7 @@
         <v>413</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J28" s="51" t="s">
         <v>83</v>
@@ -8315,10 +8315,10 @@
         <v>85</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="W28" s="51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="X28" s="51" t="s">
         <v>85</v>
@@ -8333,18 +8333,18 @@
         <v>19</v>
       </c>
       <c r="AB28" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC28" s="51" t="s">
         <v>541</v>
       </c>
-      <c r="AC28" s="51" t="s">
+      <c r="AD28" s="51" t="s">
         <v>542</v>
-      </c>
-      <c r="AD28" s="51" t="s">
-        <v>543</v>
       </c>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AH28" s="51"/>
       <c r="AI28" s="51"/>
@@ -8364,35 +8364,35 @@
       <c r="AW28" s="51"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="C29" s="51" t="s">
         <v>546</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>547</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H29" s="51">
         <v>508</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>83</v>
@@ -8429,52 +8429,52 @@
         <v>19</v>
       </c>
       <c r="AB29" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC29" s="51" t="s">
         <v>551</v>
       </c>
-      <c r="AC29" s="51" t="s">
+      <c r="AD29" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="AD29" s="51" t="s">
+      <c r="AE29" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="AE29" s="51" t="s">
+      <c r="AF29" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="AF29" s="51" t="s">
+      <c r="AG29" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="AH29" s="51" t="s">
         <v>555</v>
       </c>
-      <c r="AG29" s="51" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH29" s="51" t="s">
+      <c r="AI29" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="AI29" s="51" t="s">
+      <c r="AJ29" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="AJ29" s="51" t="s">
+      <c r="AK29" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="AK29" s="51" t="s">
+      <c r="AL29" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="AL29" s="51" t="s">
+      <c r="AM29" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="AM29" s="51" t="s">
+      <c r="AN29" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="AN29" s="51" t="s">
+      <c r="AO29" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="AO29" s="51" t="s">
+      <c r="AP29" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="AP29" s="51" t="s">
+      <c r="AQ29" s="51" t="s">
         <v>564</v>
-      </c>
-      <c r="AQ29" s="51" t="s">
-        <v>565</v>
       </c>
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -8540,7 +8540,7 @@
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AH30" s="55"/>
       <c r="AI30" s="55"/>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -8614,7 +8614,7 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -8633,36 +8633,36 @@
       <c r="AV31" s="55"/>
       <c r="AW31" s="55"/>
       <c r="AX31" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="57"/>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="C32" s="55" t="s">
         <v>569</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>570</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F32" s="55" t="s">
         <v>308</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H32" s="55">
         <v>207</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J32" s="55" t="s">
         <v>83</v>
@@ -8689,10 +8689,10 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W32" s="67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
@@ -8701,18 +8701,18 @@
       </c>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC32" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="AC32" s="55" t="s">
+      <c r="AD32" s="55" t="s">
         <v>575</v>
-      </c>
-      <c r="AD32" s="55" t="s">
-        <v>576</v>
       </c>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
       <c r="AG32" s="55" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AH32" s="55"/>
       <c r="AI32" s="55"/>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -8784,7 +8784,7 @@
       <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AH33" s="55"/>
       <c r="AI33" s="55"/>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -8858,7 +8858,7 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AH34" s="55"/>
       <c r="AI34" s="55"/>
@@ -8880,35 +8880,35 @@
         <v>99</v>
       </c>
       <c r="AY34" s="55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="B35" s="55" t="s">
         <v>580</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="C35" s="55" t="s">
         <v>581</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>582</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F35" s="55" t="s">
         <v>308</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H35" s="55">
         <v>207</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J35" s="55" t="s">
         <v>83</v>
@@ -8935,10 +8935,10 @@
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
       <c r="V35" s="67" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="W35" s="67" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
@@ -8947,18 +8947,18 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC35" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="AC35" s="55" t="s">
+      <c r="AD35" s="55" t="s">
         <v>587</v>
-      </c>
-      <c r="AD35" s="55" t="s">
-        <v>588</v>
       </c>
       <c r="AE35" s="55"/>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AH35" s="55"/>
       <c r="AI35" s="55"/>
@@ -8971,16 +8971,16 @@
       <c r="AP35" s="55"/>
       <c r="AQ35" s="55"/>
       <c r="AR35" s="55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AS35" s="55" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AT35" s="55"/>
       <c r="AU35" s="55"/>
       <c r="AV35" s="55"/>
       <c r="AW35" s="55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AX35" s="56" t="s">
         <v>99</v>
@@ -8992,17 +8992,17 @@
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="55" t="s">
         <v>591</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="C36" s="55" t="s">
         <v>592</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>593</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>80</v>
@@ -9012,7 +9012,7 @@
         <v>781</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J36" s="55" t="s">
         <v>83</v>
@@ -9043,10 +9043,10 @@
         <v>85</v>
       </c>
       <c r="V36" s="67" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W36" s="67" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="X36" s="55" t="s">
         <v>85</v>
@@ -9061,16 +9061,16 @@
         <v>126</v>
       </c>
       <c r="AB36" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="AC36" s="55" t="s">
         <v>596</v>
-      </c>
-      <c r="AC36" s="55" t="s">
-        <v>597</v>
       </c>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AH36" s="55"/>
       <c r="AI36" s="55"/>
@@ -9089,14 +9089,14 @@
       <c r="AV36" s="55"/>
       <c r="AW36" s="55"/>
       <c r="AX36" s="56" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -9142,7 +9142,7 @@
       <c r="AE37" s="55"/>
       <c r="AF37" s="55"/>
       <c r="AG37" s="55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AH37" s="55"/>
       <c r="AI37" s="55"/>
@@ -9168,29 +9168,29 @@
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="B38" s="55" t="s">
         <v>600</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="C38" s="55" t="s">
         <v>601</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>602</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F38" s="55" t="s">
         <v>136</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H38" s="55">
         <v>860</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J38" s="55" t="s">
         <v>83</v>
@@ -9217,10 +9217,10 @@
         <v>33738</v>
       </c>
       <c r="R38" s="55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S38" s="55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T38" s="55" t="s">
         <v>85</v>
@@ -9229,10 +9229,10 @@
         <v>85</v>
       </c>
       <c r="V38" s="67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="W38" s="67" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="X38" s="55" t="s">
         <v>85</v>
@@ -9247,10 +9247,10 @@
         <v>19</v>
       </c>
       <c r="AB38" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC38" s="55" t="s">
         <v>607</v>
-      </c>
-      <c r="AC38" s="55" t="s">
-        <v>608</v>
       </c>
       <c r="AD38" s="55" t="s">
         <v>143</v>
@@ -9258,7 +9258,7 @@
       <c r="AE38" s="55"/>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AH38" s="55"/>
       <c r="AI38" s="55"/>
@@ -9271,7 +9271,7 @@
       <c r="AP38" s="55"/>
       <c r="AQ38" s="55"/>
       <c r="AR38" s="55" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
@@ -9281,36 +9281,36 @@
       </c>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="B39" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="C39" s="55" t="s">
         <v>612</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>613</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H39" s="55">
         <v>508</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J39" s="55" t="s">
         <v>83</v>
@@ -9337,10 +9337,10 @@
         <v>22763</v>
       </c>
       <c r="R39" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="S39" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="S39" s="55" t="s">
-        <v>617</v>
       </c>
       <c r="T39" s="55" t="s">
         <v>85</v>
@@ -9349,10 +9349,10 @@
         <v>85</v>
       </c>
       <c r="V39" s="67" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="W39" s="67" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="X39" s="55" t="s">
         <v>85</v>
@@ -9367,10 +9367,10 @@
         <v>126</v>
       </c>
       <c r="AB39" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC39" s="55" t="s">
         <v>618</v>
-      </c>
-      <c r="AC39" s="55" t="s">
-        <v>619</v>
       </c>
       <c r="AD39" s="55" t="s">
         <v>143</v>
@@ -9378,7 +9378,7 @@
       <c r="AE39" s="55"/>
       <c r="AF39" s="55"/>
       <c r="AG39" s="55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="55"/>
@@ -9391,7 +9391,7 @@
       <c r="AP39" s="55"/>
       <c r="AQ39" s="55"/>
       <c r="AR39" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
@@ -9406,29 +9406,29 @@
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="B40" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="C40" s="55" t="s">
         <v>622</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>623</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F40" s="55" t="s">
         <v>308</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H40" s="55">
         <v>207</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J40" s="55" t="s">
         <v>83</v>
@@ -9455,18 +9455,18 @@
         <v>17658</v>
       </c>
       <c r="R40" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="S40" s="55" t="s">
         <v>627</v>
-      </c>
-      <c r="S40" s="55" t="s">
-        <v>628</v>
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
       <c r="V40" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="W40" s="67" t="s">
         <v>627</v>
-      </c>
-      <c r="W40" s="67" t="s">
-        <v>628</v>
       </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
@@ -9477,16 +9477,16 @@
         <v>19</v>
       </c>
       <c r="AB40" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC40" s="55" t="s">
         <v>627</v>
-      </c>
-      <c r="AC40" s="55" t="s">
-        <v>628</v>
       </c>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AH40" s="55"/>
       <c r="AI40" s="55"/>
@@ -9510,35 +9510,35 @@
         <v>99</v>
       </c>
       <c r="AY40" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ40" s="57"/>
     </row>
     <row r="41" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="B41" s="55" t="s">
         <v>629</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="C41" s="55" t="s">
         <v>630</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>631</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H41" s="55">
         <v>508</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J41" s="55" t="s">
         <v>83</v>
@@ -9565,10 +9565,10 @@
         <v>25618</v>
       </c>
       <c r="R41" s="55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S41" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T41" s="55" t="s">
         <v>85</v>
@@ -9577,10 +9577,10 @@
         <v>85</v>
       </c>
       <c r="V41" s="67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="W41" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="X41" s="55" t="s">
         <v>85</v>
@@ -9595,10 +9595,10 @@
         <v>19</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD41" s="55" t="s">
         <v>143</v>
@@ -9606,12 +9606,12 @@
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH41" s="55"/>
       <c r="AI41" s="55"/>
       <c r="AJ41" s="55" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AK41" s="55"/>
       <c r="AL41" s="55"/>
@@ -9634,29 +9634,29 @@
     </row>
     <row r="42" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="B42" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="C42" s="55" t="s">
         <v>638</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>639</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>136</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H42" s="55">
         <v>860</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J42" s="55" t="s">
         <v>83</v>
@@ -9683,10 +9683,10 @@
         <v>35543</v>
       </c>
       <c r="R42" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="S42" s="55" t="s">
         <v>643</v>
-      </c>
-      <c r="S42" s="55" t="s">
-        <v>644</v>
       </c>
       <c r="T42" s="55" t="s">
         <v>85</v>
@@ -9695,10 +9695,10 @@
         <v>85</v>
       </c>
       <c r="V42" s="67" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W42" s="67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="X42" s="55" t="s">
         <v>85</v>
@@ -9713,18 +9713,18 @@
         <v>19</v>
       </c>
       <c r="AB42" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC42" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="AC42" s="55" t="s">
+      <c r="AD42" s="55" t="s">
         <v>644</v>
-      </c>
-      <c r="AD42" s="55" t="s">
-        <v>645</v>
       </c>
       <c r="AE42" s="55"/>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -9745,36 +9745,36 @@
       </c>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="57"/>
     </row>
     <row r="43" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B43" s="55" t="s">
         <v>646</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="C43" s="55" t="s">
         <v>647</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>648</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H43" s="55">
         <v>617</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J43" s="55" t="s">
         <v>83</v>
@@ -9805,10 +9805,10 @@
         <v>85</v>
       </c>
       <c r="V43" s="67" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W43" s="67" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="X43" s="55" t="s">
         <v>85</v>
@@ -9821,10 +9821,10 @@
       </c>
       <c r="AA43" s="55"/>
       <c r="AB43" s="55" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AC43" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AD43" s="55" t="s">
         <v>143</v>
@@ -9832,7 +9832,7 @@
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
       <c r="AG43" s="55" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AH43" s="55"/>
       <c r="AI43" s="55"/>
@@ -9856,7 +9856,7 @@
     </row>
     <row r="44" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -9904,7 +9904,7 @@
       <c r="AE44" s="55"/>
       <c r="AF44" s="55"/>
       <c r="AG44" s="55" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -9976,7 +9976,7 @@
       <c r="AE45" s="55"/>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH45" s="55"/>
       <c r="AI45" s="55"/>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -10050,7 +10050,7 @@
       <c r="AE46" s="55"/>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH46" s="55"/>
       <c r="AI46" s="55"/>
@@ -10070,23 +10070,23 @@
       <c r="AW46" s="55"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AZ46" s="57"/>
     </row>
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="B47" s="55" t="s">
         <v>658</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>659</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>660</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>80</v>
@@ -10096,7 +10096,7 @@
         <v>978</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J47" s="55" t="s">
         <v>83</v>
@@ -10123,10 +10123,10 @@
         <v>41015</v>
       </c>
       <c r="R47" s="55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S47" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T47" s="55" t="s">
         <v>85</v>
@@ -10135,10 +10135,10 @@
         <v>85</v>
       </c>
       <c r="V47" s="67" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W47" s="67" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="X47" s="55" t="s">
         <v>85</v>
@@ -10153,25 +10153,25 @@
         <v>19</v>
       </c>
       <c r="AB47" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC47" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="AD47" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="AC47" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="AD47" s="55" t="s">
+      <c r="AE47" s="55" t="s">
         <v>665</v>
-      </c>
-      <c r="AE47" s="55" t="s">
-        <v>666</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="55" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="55"/>
       <c r="AJ47" s="55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AK47" s="55"/>
       <c r="AL47" s="55"/>
@@ -10189,20 +10189,20 @@
       </c>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="AY47" s="55" t="s">
         <v>668</v>
-      </c>
-      <c r="AY47" s="55" t="s">
-        <v>669</v>
       </c>
       <c r="AZ47" s="57"/>
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
@@ -10216,7 +10216,7 @@
         <v>617</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J48" s="55" t="s">
         <v>83</v>
@@ -10249,16 +10249,16 @@
       </c>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC48" s="55" t="s">
         <v>673</v>
-      </c>
-      <c r="AC48" s="55" t="s">
-        <v>674</v>
       </c>
       <c r="AD48" s="55"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -10278,35 +10278,35 @@
       <c r="AW48" s="55"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="B49" s="55" t="s">
         <v>676</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="C49" s="55" t="s">
         <v>677</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>678</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H49" s="55">
         <v>603</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J49" s="55" t="s">
         <v>83</v>
@@ -10341,10 +10341,10 @@
         <v>85</v>
       </c>
       <c r="V49" s="67" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W49" s="67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="X49" s="55" t="s">
         <v>85</v>
@@ -10357,18 +10357,18 @@
         <v>19</v>
       </c>
       <c r="AB49" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC49" s="55" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD49" s="55" t="s">
         <v>682</v>
-      </c>
-      <c r="AC49" s="55" t="s">
-        <v>677</v>
-      </c>
-      <c r="AD49" s="55" t="s">
-        <v>683</v>
       </c>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AH49" s="55"/>
       <c r="AI49" s="55"/>
@@ -10389,22 +10389,22 @@
       </c>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AY49" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>219</v>
@@ -10414,7 +10414,7 @@
         <v>802</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J50" s="55" t="s">
         <v>83</v>
@@ -10447,16 +10447,16 @@
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC50" s="55" t="s">
         <v>688</v>
-      </c>
-      <c r="AC50" s="55" t="s">
-        <v>689</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="55"/>
       <c r="AG50" s="55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH50" s="55"/>
       <c r="AI50" s="55"/>
@@ -10480,15 +10480,15 @@
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>80</v>
@@ -10498,7 +10498,7 @@
         <v>978</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J51" s="55" t="s">
         <v>83</v>
@@ -10531,16 +10531,16 @@
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC51" s="55" t="s">
         <v>694</v>
-      </c>
-      <c r="AC51" s="55" t="s">
-        <v>695</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH51" s="55"/>
       <c r="AI51" s="55"/>
@@ -10559,26 +10559,26 @@
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
       <c r="AX51" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="AY51" s="55" t="s">
         <v>696</v>
-      </c>
-      <c r="AY51" s="55" t="s">
-        <v>697</v>
       </c>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="B52" s="55" t="s">
         <v>698</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="C52" s="55" t="s">
         <v>699</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>700</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>219</v>
@@ -10621,16 +10621,16 @@
       </c>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AD52" s="55"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AH52" s="55"/>
       <c r="AI52" s="55"/>
@@ -10654,13 +10654,13 @@
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="B53" s="55" t="s">
         <v>703</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="C53" s="55" t="s">
         <v>704</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>705</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
@@ -10670,13 +10670,13 @@
         <v>80</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H53" s="55">
         <v>617</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J53" s="55" t="s">
         <v>83</v>
@@ -10703,22 +10703,22 @@
         <v>31565</v>
       </c>
       <c r="R53" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="S53" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="T53" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="U53" s="55" t="s">
         <v>708</v>
       </c>
-      <c r="S53" s="55" t="s">
-        <v>704</v>
-      </c>
-      <c r="T53" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="U53" s="55" t="s">
-        <v>709</v>
-      </c>
       <c r="V53" s="67" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="W53" s="67" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="X53" s="55" t="s">
         <v>85</v>
@@ -10733,18 +10733,18 @@
         <v>19</v>
       </c>
       <c r="AB53" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC53" s="55" t="s">
         <v>710</v>
-      </c>
-      <c r="AC53" s="55" t="s">
-        <v>711</v>
       </c>
       <c r="AD53" s="55"/>
       <c r="AE53" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AH53" s="55"/>
       <c r="AI53" s="55"/>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="AS53" s="55"/>
       <c r="AT53" s="55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AU53" s="55"/>
       <c r="AV53" s="55">
@@ -10776,29 +10776,29 @@
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="B54" s="55" t="s">
         <v>713</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="C54" s="55" t="s">
         <v>714</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>715</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>219</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H54" s="55">
         <v>802</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J54" s="55" t="s">
         <v>83</v>
@@ -10823,10 +10823,10 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
       <c r="V54" s="67" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W54" s="67" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
@@ -10835,21 +10835,21 @@
       </c>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55" t="s">
+        <v>718</v>
+      </c>
+      <c r="AC54" s="55" t="s">
         <v>719</v>
-      </c>
-      <c r="AC54" s="55" t="s">
-        <v>720</v>
       </c>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AH54" s="55"/>
       <c r="AI54" s="55"/>
       <c r="AJ54" s="55" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AK54" s="55"/>
       <c r="AL54" s="55"/>
@@ -10865,14 +10865,14 @@
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
       <c r="AX54" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -10920,7 +10920,7 @@
       <c r="AE55" s="55"/>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="55"/>
@@ -10944,13 +10944,13 @@
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
+        <v>722</v>
+      </c>
+      <c r="B56" s="55" t="s">
         <v>723</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="C56" s="55" t="s">
         <v>724</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>725</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55" t="s">
@@ -10964,7 +10964,7 @@
         <v>617</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J56" s="55" t="s">
         <v>83</v>
@@ -10995,10 +10995,10 @@
         <v>85</v>
       </c>
       <c r="V56" s="67" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W56" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X56" s="55" t="s">
         <v>85</v>
@@ -11013,18 +11013,18 @@
         <v>19</v>
       </c>
       <c r="AB56" s="55" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC56" s="55" t="s">
         <v>727</v>
-      </c>
-      <c r="AC56" s="55" t="s">
-        <v>728</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH56" s="55"/>
       <c r="AI56" s="55"/>
@@ -11044,13 +11044,13 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -11098,7 +11098,7 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AH57" s="55"/>
       <c r="AI57" s="55"/>
@@ -11118,23 +11118,23 @@
       <c r="AW57" s="55"/>
       <c r="AX57" s="56"/>
       <c r="AY57" s="55" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
+        <v>732</v>
+      </c>
+      <c r="B58" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="C58" s="55" t="s">
         <v>734</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>735</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F58" s="55" t="s">
         <v>136</v>
@@ -11144,7 +11144,7 @@
         <v>203</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J58" s="55" t="s">
         <v>83</v>
@@ -11167,10 +11167,10 @@
       <c r="P58" s="56"/>
       <c r="Q58" s="56"/>
       <c r="R58" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S58" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="T58" s="55" t="s">
         <v>85</v>
@@ -11179,10 +11179,10 @@
         <v>85</v>
       </c>
       <c r="V58" s="67" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W58" s="67" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="X58" s="55" t="s">
         <v>85</v>
@@ -11197,16 +11197,16 @@
         <v>126</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AD58" s="55"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AH58" s="55"/>
       <c r="AI58" s="55"/>
@@ -11219,7 +11219,7 @@
       <c r="AP58" s="55"/>
       <c r="AQ58" s="55"/>
       <c r="AR58" s="55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
@@ -11227,36 +11227,36 @@
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
       <c r="AX58" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
+        <v>738</v>
+      </c>
+      <c r="B59" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="C59" s="55" t="s">
         <v>740</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>741</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
+        <v>741</v>
+      </c>
+      <c r="F59" s="55" t="s">
         <v>742</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="G59" s="55" t="s">
         <v>743</v>
-      </c>
-      <c r="G59" s="55" t="s">
-        <v>744</v>
       </c>
       <c r="H59" s="55">
         <v>301</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J59" s="55" t="s">
         <v>83</v>
@@ -11283,16 +11283,16 @@
         <v>41760</v>
       </c>
       <c r="R59" s="55" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="67" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W59" s="67" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
@@ -11303,24 +11303,24 @@
         <v>126</v>
       </c>
       <c r="AB59" s="55" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC59" s="55" t="s">
         <v>747</v>
       </c>
-      <c r="AC59" s="55" t="s">
-        <v>748</v>
-      </c>
       <c r="AD59" s="55" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AH59" s="55" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI59" s="55" t="s">
         <v>749</v>
-      </c>
-      <c r="AI59" s="55" t="s">
-        <v>750</v>
       </c>
       <c r="AJ59" s="55"/>
       <c r="AK59" s="55"/>
@@ -11342,17 +11342,17 @@
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
+        <v>750</v>
+      </c>
+      <c r="B60" s="55" t="s">
         <v>751</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="C60" s="55" t="s">
         <v>752</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>753</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>136</v>
@@ -11362,7 +11362,7 @@
         <v>860</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J60" s="55" t="s">
         <v>83</v>
@@ -11393,10 +11393,10 @@
         <v>85</v>
       </c>
       <c r="V60" s="67" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W60" s="67" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X60" s="55" t="s">
         <v>85</v>
@@ -11411,18 +11411,18 @@
         <v>19</v>
       </c>
       <c r="AB60" s="55" t="s">
+        <v>754</v>
+      </c>
+      <c r="AC60" s="55" t="s">
         <v>755</v>
       </c>
-      <c r="AC60" s="55" t="s">
+      <c r="AD60" s="55" t="s">
         <v>756</v>
-      </c>
-      <c r="AD60" s="55" t="s">
-        <v>757</v>
       </c>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AH60" s="55"/>
       <c r="AI60" s="55"/>
@@ -11441,16 +11441,16 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AY60" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11514,7 +11514,7 @@
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AH61" s="55"/>
       <c r="AI61" s="55"/>
@@ -11542,17 +11542,17 @@
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
+        <v>759</v>
+      </c>
+      <c r="B62" s="55" t="s">
         <v>760</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="C62" s="55" t="s">
         <v>761</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>762</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F62" s="55" t="s">
         <v>136</v>
@@ -11562,7 +11562,7 @@
         <v>860</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J62" s="55" t="s">
         <v>83</v>
@@ -11593,10 +11593,10 @@
         <v>85</v>
       </c>
       <c r="V62" s="67" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W62" s="67" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="X62" s="55" t="s">
         <v>85</v>
@@ -11611,16 +11611,16 @@
         <v>19</v>
       </c>
       <c r="AB62" s="55" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC62" s="55" t="s">
         <v>765</v>
-      </c>
-      <c r="AC62" s="55" t="s">
-        <v>766</v>
       </c>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AH62" s="55"/>
       <c r="AI62" s="55"/>
@@ -11639,16 +11639,16 @@
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
       <c r="AX62" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="AY62" s="55" t="s">
         <v>767</v>
-      </c>
-      <c r="AY62" s="55" t="s">
-        <v>768</v>
       </c>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11696,7 +11696,7 @@
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="55"/>
@@ -11720,29 +11720,29 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="B64" s="55" t="s">
         <v>770</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="C64" s="55" t="s">
         <v>771</v>
-      </c>
-      <c r="C64" s="55" t="s">
-        <v>772</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H64" s="55">
         <v>508</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J64" s="55" t="s">
         <v>83</v>
@@ -11769,10 +11769,10 @@
         <v>30438</v>
       </c>
       <c r="R64" s="55" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T64" s="55" t="s">
         <v>85</v>
@@ -11781,10 +11781,10 @@
         <v>85</v>
       </c>
       <c r="V64" s="67" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W64" s="67" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X64" s="55" t="s">
         <v>85</v>
@@ -11799,22 +11799,22 @@
         <v>126</v>
       </c>
       <c r="AB64" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC64" s="55" t="s">
         <v>777</v>
-      </c>
-      <c r="AC64" s="55" t="s">
-        <v>778</v>
       </c>
       <c r="AD64" s="55"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
+        <v>778</v>
+      </c>
+      <c r="AH64" s="55" t="s">
         <v>779</v>
       </c>
-      <c r="AH64" s="55" t="s">
+      <c r="AI64" s="55" t="s">
         <v>780</v>
-      </c>
-      <c r="AI64" s="55" t="s">
-        <v>781</v>
       </c>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
@@ -11840,17 +11840,17 @@
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
+        <v>781</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>782</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="C65" s="55" t="s">
         <v>783</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>784</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>136</v>
@@ -11860,7 +11860,7 @@
         <v>203</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J65" s="55" t="s">
         <v>83</v>
@@ -11891,10 +11891,10 @@
         <v>85</v>
       </c>
       <c r="V65" s="67" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="W65" s="67" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="X65" s="55" t="s">
         <v>85</v>
@@ -11909,18 +11909,18 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="AC65" s="55" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD65" s="55" t="s">
         <v>787</v>
-      </c>
-      <c r="AC65" s="55" t="s">
-        <v>783</v>
-      </c>
-      <c r="AD65" s="55" t="s">
-        <v>788</v>
       </c>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH65" s="55"/>
       <c r="AI65" s="55"/>
@@ -11939,38 +11939,38 @@
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AY65" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
+        <v>789</v>
+      </c>
+      <c r="B66" s="55" t="s">
         <v>790</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="C66" s="55" t="s">
         <v>791</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>792</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>104</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H66" s="55">
         <v>401</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J66" s="55" t="s">
         <v>83</v>
@@ -11997,10 +11997,10 @@
         <v>25332</v>
       </c>
       <c r="R66" s="55" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="T66" s="55" t="s">
         <v>85</v>
@@ -12009,10 +12009,10 @@
         <v>85</v>
       </c>
       <c r="V66" s="67" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="W66" s="67" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="X66" s="55" t="s">
         <v>85</v>
@@ -12027,16 +12027,16 @@
         <v>19</v>
       </c>
       <c r="AB66" s="55" t="s">
+        <v>796</v>
+      </c>
+      <c r="AC66" s="55" t="s">
         <v>797</v>
-      </c>
-      <c r="AC66" s="55" t="s">
-        <v>798</v>
       </c>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AH66" s="55"/>
       <c r="AI66" s="55"/>
@@ -12066,23 +12066,23 @@
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
+        <v>798</v>
+      </c>
+      <c r="B67" s="55" t="s">
         <v>799</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="C67" s="55" t="s">
         <v>800</v>
-      </c>
-      <c r="C67" s="55" t="s">
-        <v>801</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>136</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H67" s="55">
         <v>860</v>
@@ -12111,18 +12111,18 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
       <c r="R67" s="55" t="s">
+        <v>802</v>
+      </c>
+      <c r="S67" s="55" t="s">
         <v>803</v>
-      </c>
-      <c r="S67" s="55" t="s">
-        <v>804</v>
       </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
       <c r="V67" s="67" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W67" s="67" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
@@ -12138,7 +12138,7 @@
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AH67" s="55"/>
       <c r="AI67" s="55"/>
@@ -12162,17 +12162,17 @@
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="B68" s="55" t="s">
         <v>805</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="C68" s="55" t="s">
         <v>806</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>807</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F68" s="55" t="s">
         <v>308</v>
@@ -12182,7 +12182,7 @@
         <v>800</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J68" s="55" t="s">
         <v>83</v>
@@ -12213,10 +12213,10 @@
         <v>85</v>
       </c>
       <c r="V68" s="67" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W68" s="67" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>85</v>
@@ -12231,16 +12231,16 @@
         <v>126</v>
       </c>
       <c r="AB68" s="55" t="s">
+        <v>809</v>
+      </c>
+      <c r="AC68" s="55" t="s">
         <v>810</v>
-      </c>
-      <c r="AC68" s="55" t="s">
-        <v>811</v>
       </c>
       <c r="AD68" s="55"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AH68" s="55"/>
       <c r="AI68" s="55"/>
@@ -12259,36 +12259,36 @@
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AY68" s="55"/>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
+        <v>812</v>
+      </c>
+      <c r="B69" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="C69" s="55" t="s">
         <v>814</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>815</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H69" s="55">
         <v>781</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J69" s="55" t="s">
         <v>83</v>
@@ -12315,10 +12315,10 @@
         <v>32258</v>
       </c>
       <c r="R69" s="55" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S69" s="55" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T69" s="55" t="s">
         <v>85</v>
@@ -12327,10 +12327,10 @@
         <v>85</v>
       </c>
       <c r="V69" s="67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="W69" s="67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="X69" s="55" t="s">
         <v>85</v>
@@ -12345,51 +12345,51 @@
         <v>126</v>
       </c>
       <c r="AB69" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="AC69" s="55" t="s">
         <v>820</v>
-      </c>
-      <c r="AC69" s="55" t="s">
-        <v>821</v>
       </c>
       <c r="AD69" s="55"/>
       <c r="AE69" s="55" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AH69" s="55" t="s">
+        <v>822</v>
+      </c>
+      <c r="AI69" s="55" t="s">
         <v>823</v>
       </c>
-      <c r="AI69" s="55" t="s">
+      <c r="AJ69" s="55" t="s">
         <v>824</v>
       </c>
-      <c r="AJ69" s="55" t="s">
+      <c r="AK69" s="55" t="s">
         <v>825</v>
       </c>
-      <c r="AK69" s="55" t="s">
+      <c r="AL69" s="55" t="s">
         <v>826</v>
       </c>
-      <c r="AL69" s="55" t="s">
+      <c r="AM69" s="55" t="s">
         <v>827</v>
       </c>
-      <c r="AM69" s="55" t="s">
+      <c r="AN69" s="55" t="s">
         <v>828</v>
       </c>
-      <c r="AN69" s="55" t="s">
+      <c r="AO69" s="55" t="s">
         <v>829</v>
       </c>
-      <c r="AO69" s="55" t="s">
+      <c r="AP69" s="55" t="s">
         <v>830</v>
       </c>
-      <c r="AP69" s="55" t="s">
+      <c r="AQ69" s="55" t="s">
         <v>831</v>
       </c>
-      <c r="AQ69" s="55" t="s">
+      <c r="AR69" s="55" t="s">
         <v>832</v>
-      </c>
-      <c r="AR69" s="55" t="s">
-        <v>833</v>
       </c>
       <c r="AS69" s="55">
         <v>2013</v>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AY69" s="55">
         <v>2016</v>
@@ -12410,17 +12410,17 @@
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
+        <v>834</v>
+      </c>
+      <c r="B70" s="55" t="s">
         <v>835</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="C70" s="55" t="s">
         <v>836</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>837</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>136</v>
@@ -12430,7 +12430,7 @@
         <v>860</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J70" s="55" t="s">
         <v>83</v>
@@ -12461,16 +12461,16 @@
         <v>85</v>
       </c>
       <c r="V70" s="67" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W70" s="67" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X70" s="55" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y70" s="55" t="s">
         <v>840</v>
-      </c>
-      <c r="Y70" s="55" t="s">
-        <v>841</v>
       </c>
       <c r="Z70" s="55" t="s">
         <v>126</v>
@@ -12479,25 +12479,25 @@
         <v>126</v>
       </c>
       <c r="AB70" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="AC70" s="55" t="s">
         <v>842</v>
-      </c>
-      <c r="AC70" s="55" t="s">
-        <v>843</v>
       </c>
       <c r="AD70" s="55">
         <v>8606852046</v>
       </c>
       <c r="AE70" s="55" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AH70" s="55"/>
       <c r="AI70" s="55"/>
       <c r="AJ70" s="55" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AK70" s="55"/>
       <c r="AL70" s="55"/>
@@ -12515,24 +12515,24 @@
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
+        <v>846</v>
+      </c>
+      <c r="B71" s="55" t="s">
         <v>847</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="C71" s="55" t="s">
         <v>848</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>849</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F71" s="55" t="s">
         <v>136</v>
@@ -12542,7 +12542,7 @@
         <v>877</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J71" s="55" t="s">
         <v>83</v>
@@ -12573,10 +12573,10 @@
         <v>85</v>
       </c>
       <c r="V71" s="67" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="W71" s="67" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="X71" s="55" t="s">
         <v>85</v>
@@ -12591,16 +12591,16 @@
         <v>126</v>
       </c>
       <c r="AB71" s="55" t="s">
+        <v>851</v>
+      </c>
+      <c r="AC71" s="55" t="s">
         <v>852</v>
-      </c>
-      <c r="AC71" s="55" t="s">
-        <v>853</v>
       </c>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AH71" s="55"/>
       <c r="AI71" s="55"/>
@@ -12619,14 +12619,14 @@
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
       <c r="AX71" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -12674,7 +12674,7 @@
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AH72" s="55"/>
       <c r="AI72" s="55"/>
@@ -12698,29 +12698,29 @@
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
+        <v>854</v>
+      </c>
+      <c r="B73" s="55" t="s">
         <v>855</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="C73" s="55" t="s">
         <v>856</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>857</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="55" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H73" s="55">
         <v>413</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J73" s="55" t="s">
         <v>83</v>
@@ -12747,28 +12747,28 @@
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
       <c r="V73" s="67" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="W73" s="67" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
       <c r="AA73" s="55"/>
       <c r="AB73" s="55" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC73" s="55" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD73" s="55" t="s">
         <v>861</v>
-      </c>
-      <c r="AC73" s="55" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD73" s="55" t="s">
-        <v>862</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AH73" s="55"/>
       <c r="AI73" s="55"/>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12842,7 +12842,7 @@
       <c r="AE74" s="55"/>
       <c r="AF74" s="55"/>
       <c r="AG74" s="55" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AH74" s="55"/>
       <c r="AI74" s="55"/>
@@ -12862,7 +12862,7 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="55" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AZ74" s="57"/>
     </row>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E45CEB-4FC7-F749-90BA-61360F55834B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFBB82-5870-584C-B6C0-64538AFE8CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="751">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -309,30 +309,6 @@
     <t>2010 Undergraduate Research</t>
   </si>
   <si>
-    <t>Elizabeth McAnally</t>
-  </si>
-  <si>
-    <t>mcanalle@bc.edu</t>
-  </si>
-  <si>
-    <t>Katerina Donahue</t>
-  </si>
-  <si>
-    <t>donahutu@bc.edu</t>
-  </si>
-  <si>
-    <t>Sarah Collins</t>
-  </si>
-  <si>
-    <t>collinwv@bc.edu</t>
-  </si>
-  <si>
-    <t>Mira Belle Mahendru; Public Relations Manager; Kendra Fitzpatrick; Operations Manager</t>
-  </si>
-  <si>
-    <t>mahendru@bc.edu; fitzpakx@bc.edu</t>
-  </si>
-  <si>
     <t>2012; 2019</t>
   </si>
   <si>
@@ -426,15 +402,6 @@
     <t>James.W.LaBelle@dartmouth.edu</t>
   </si>
   <si>
-    <t>Rahul Gupta</t>
-  </si>
-  <si>
-    <t>Annabelle Niblet</t>
-  </si>
-  <si>
-    <t>annabelle.e.niblett.26@dartmouth.edu</t>
-  </si>
-  <si>
     <t>Fairfield University</t>
   </si>
   <si>
@@ -501,22 +468,6 @@
     <t>2018 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Elizabeth Kozlov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elizabethkozlov@college.harvard.edu
-</t>
-  </si>
-  <si>
-    <t>Jorge Garcia Ponce</t>
-  </si>
-  <si>
-    <t>jorgegarciaponce@college.harvard.edu</t>
-  </si>
-  <si>
-    <t>benji_kan@college.harvard.edu</t>
-  </si>
-  <si>
     <t>Massachusetts Institute of Technology</t>
   </si>
   <si>
@@ -556,34 +507,6 @@
     <t>2022-2023 Outstanding Undergrad Research</t>
   </si>
   <si>
-    <t>Chirag Falor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfalor@mit.edu
-</t>
-  </si>
-  <si>
-    <t>Hope Fu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hopefu@mit.edu
-</t>
-  </si>
-  <si>
-    <t>Katherine Panebianco</t>
-  </si>
-  <si>
-    <t>kpanebia@mit.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine Panebianco
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpanebia@mit.edu
-</t>
-  </si>
-  <si>
     <t>2004; 2012; 2019</t>
   </si>
   <si>
@@ -620,36 +543,6 @@
     <t>2012 Outstanding Chapter; 2015  Outstanding Chapter ; 2016  Outstanding Chapter; 2015  Future Faces of Physics; 2018 Outstanding Chapter; 2019 Outstanding Chapter; 2018-2019 Blake Lilly; Blake Lilly 2019; 2022-2023 Marsh White</t>
   </si>
   <si>
-    <t>Co Presidents: Mysha Jahin Khan, Sasha Toole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khan59m@mtholyoke.edu ; toole22s@mtholyoke.edu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latika Joshi
-</t>
-  </si>
-  <si>
-    <t>joshi23l@mtholyoke.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midge Hartshorn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harts22m@mtholyoke.edu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taylor Dunn; Senator/Social Chair
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dunn22t@mtholyoke.edu
-</t>
-  </si>
-  <si>
     <t>2011, 2021</t>
   </si>
   <si>
@@ -734,30 +627,6 @@
     <t>; 2015  Outstanding Chapter</t>
   </si>
   <si>
-    <t>Brook Hodgeman</t>
-  </si>
-  <si>
-    <t>bhodgeman@mail.smcvt.edu</t>
-  </si>
-  <si>
-    <t>Christian Vogt</t>
-  </si>
-  <si>
-    <t>cvogt2@mail.smcvt.edu</t>
-  </si>
-  <si>
-    <t>Chris Kombo</t>
-  </si>
-  <si>
-    <t>ckombo@mail.smcvt.edu</t>
-  </si>
-  <si>
-    <t>Samuel Vandewalle</t>
-  </si>
-  <si>
-    <t>svandewalle@mail.smcvt.edu</t>
-  </si>
-  <si>
     <t>2017-2020</t>
   </si>
   <si>
@@ -780,30 +649,6 @@
   </si>
   <si>
     <t>nfortune@smith.edu</t>
-  </si>
-  <si>
-    <t>Ian Wolter</t>
-  </si>
-  <si>
-    <t>iwolter@smith.edu</t>
-  </si>
-  <si>
-    <t>Ash Messier</t>
-  </si>
-  <si>
-    <t>amessier@smith.edu</t>
-  </si>
-  <si>
-    <t>Rebecca Webster</t>
-  </si>
-  <si>
-    <t>rwebster@smith.edu</t>
-  </si>
-  <si>
-    <t>Emma Davis</t>
-  </si>
-  <si>
-    <t>edavis@smith.edu</t>
   </si>
   <si>
     <t>November 21, 1975</t>
@@ -931,33 +776,6 @@
     <t>larry.ford@tufts.edu</t>
   </si>
   <si>
-    <t>Mallika Sinha</t>
-  </si>
-  <si>
-    <t>mallika.sinha@tufts.edu</t>
-  </si>
-  <si>
-    <t>Noah Stiegler</t>
-  </si>
-  <si>
-    <t>Elizabeth Panner</t>
-  </si>
-  <si>
-    <t>Elizabeth.Panner@tufts.edu</t>
-  </si>
-  <si>
-    <t>Ryan Luo</t>
-  </si>
-  <si>
-    <t>ryan.luo@tufts.edu</t>
-  </si>
-  <si>
-    <t>Leo_Sajkov; Event_Coordinator;</t>
-  </si>
-  <si>
-    <t>Leo.Sajkov@tufts.edu;</t>
-  </si>
-  <si>
     <t>2014; 2018</t>
   </si>
   <si>
@@ -1015,30 +833,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>Aleigha Morgan</t>
-  </si>
-  <si>
-    <t>aleigha.morgan@maine.edu</t>
-  </si>
-  <si>
-    <t>Ryan Corzo</t>
-  </si>
-  <si>
-    <t>ryan.corzo@maine.edu</t>
-  </si>
-  <si>
-    <t>Theo Brucker</t>
-  </si>
-  <si>
-    <t>theodore.brucker@maine.edu</t>
-  </si>
-  <si>
-    <t>Nhan Ngo</t>
-  </si>
-  <si>
-    <t>vinhnhan.ngo@maine.edu</t>
-  </si>
-  <si>
     <t>2004; 2016; 2019; 2022</t>
   </si>
   <si>
@@ -1073,12 +867,6 @@
   </si>
   <si>
     <t>617-287-5408</t>
-  </si>
-  <si>
-    <t>Miranda Harkess</t>
-  </si>
-  <si>
-    <t>Miranda.Harkess001@umb.edu</t>
   </si>
   <si>
     <t>2023-2024</t>
@@ -1121,36 +909,6 @@
     <t>978-934-3775</t>
   </si>
   <si>
-    <t>Margaret Tseng</t>
-  </si>
-  <si>
-    <t>Margaret_Tseng@student.uml.edu</t>
-  </si>
-  <si>
-    <t>Patrick O'Keefe</t>
-  </si>
-  <si>
-    <t>Patrick_OKeefe2@student.uml.edu</t>
-  </si>
-  <si>
-    <t>Kevin Murphy</t>
-  </si>
-  <si>
-    <t>Kevin_Murphy4@student.uml.edu</t>
-  </si>
-  <si>
-    <t>Akshay Soni</t>
-  </si>
-  <si>
-    <t>Akshay_Soni@student.uml.edu</t>
-  </si>
-  <si>
-    <t>William Reggio, Webmaster; Griffin May, Head of Communication</t>
-  </si>
-  <si>
-    <t>William_Reggio@student.uml.edu, Griffin_May@student.uml.edu</t>
-  </si>
-  <si>
     <t>University of New Hampshire</t>
   </si>
   <si>
@@ -1223,36 +981,6 @@
     <t>University of Vermont</t>
   </si>
   <si>
-    <t>Anders Holm-Brown</t>
-  </si>
-  <si>
-    <t>Anders.Holm-Brown@uvm.edu</t>
-  </si>
-  <si>
-    <t>Nam Dinh</t>
-  </si>
-  <si>
-    <t>Nam.Dinh@uvm.edu</t>
-  </si>
-  <si>
-    <t>Isabelle Lapierre</t>
-  </si>
-  <si>
-    <t>Isabelle.Lapierre@uvm.edu</t>
-  </si>
-  <si>
-    <t>Liam Bennett</t>
-  </si>
-  <si>
-    <t>Liam.Bennett.1@uvm.edu</t>
-  </si>
-  <si>
-    <t>Jeremy Elliot, Outreach Chair</t>
-  </si>
-  <si>
-    <t>Jeremy.Elliott@uvm.edu</t>
-  </si>
-  <si>
     <t>June 15, 1971</t>
   </si>
   <si>
@@ -1292,33 +1020,6 @@
     <t>2011 Undergraduate Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Michelle Sangillo</t>
-  </si>
-  <si>
-    <t>Charlie Tribble</t>
-  </si>
-  <si>
-    <t>cmtribble@wpi.edu</t>
-  </si>
-  <si>
-    <t>Emrys Adams</t>
-  </si>
-  <si>
-    <t>ladams1@wpi.edu</t>
-  </si>
-  <si>
-    <t>Luciano Malavasi</t>
-  </si>
-  <si>
-    <t>lkmalavasi@wpi.edu</t>
-  </si>
-  <si>
-    <t>Syrena Prytko; Activities Director</t>
-  </si>
-  <si>
-    <t>smprytko@wpi.edu</t>
-  </si>
-  <si>
     <t>2021; 2022; 2023</t>
   </si>
   <si>
@@ -1352,24 +1053,6 @@
     <t>2016  Chapter Reporter - PhysCon; Travel Award 2020; 2022-2023 Outstanding Undergrad Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Barkotel Zemenu</t>
-  </si>
-  <si>
-    <t>Wyatt Kremer</t>
-  </si>
-  <si>
-    <t>Argyris Giannisis Manes</t>
-  </si>
-  <si>
-    <t>argyris.giannisismanes@yale.edu</t>
-  </si>
-  <si>
-    <t>Rose Branson ‘24 (Outreach Co-Chair), Ethan Martinez ‘26 (Outreach Co- Chair), ’26 (Media Co-Chair), Ryan Bose-Roy ’24 (Media Co-Chair), David Saunders ’23 (Co-Liaison to National SPS), Ruthie Gu ‘25 (Co-Liaison to National SPS), Maddi Brown ‘26 (DEI Co-Liaison), Lumisa Bista ’24 (DEI Co-Liaison), Misheal Saah ‘24 (Physics Community Coordinator), Maddie Butchko ’24 (Prize Lecture Chair)</t>
-  </si>
-  <si>
-    <t>Rose.Branson@yale.edu, Ethan.Martinez@yale.edu, Robin.Tsai@yale.edu, Ryan.Bose-Roy@yale.edu, David.Saunders@yale.edu, Ruthie.Gu@yale.edu, Maddi Brown@yale.edu, Lumisa.Bista@yale.edu, Misheal.Saah@yale.edu, Maddie.Butchko@yale.edu</t>
-  </si>
-  <si>
     <t>2016; 2022</t>
   </si>
   <si>
@@ -1436,36 +1119,6 @@
     <t>2008 Outstanding Chapter; 2009 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Suparna Samavedham</t>
-  </si>
-  <si>
-    <t>suparnas@bu.edu</t>
-  </si>
-  <si>
-    <t>Pranai Basani</t>
-  </si>
-  <si>
-    <t>bpranai@bu.edu</t>
-  </si>
-  <si>
-    <t>Sarah Luettgen</t>
-  </si>
-  <si>
-    <t>luettgen@bu.edu</t>
-  </si>
-  <si>
-    <t>Tanish Shelar</t>
-  </si>
-  <si>
-    <t>tvshelar@bu.edu</t>
-  </si>
-  <si>
-    <t>Jackson Wallace</t>
-  </si>
-  <si>
-    <t>ejwallac@bu.edu</t>
-  </si>
-  <si>
     <t>2008; 2019</t>
   </si>
   <si>
@@ -1499,30 +1152,6 @@
     <t>Bridgewater State College</t>
   </si>
   <si>
-    <t>Rydia Hayes-Huer</t>
-  </si>
-  <si>
-    <t>rhayeshuer@student.bridgew.edu</t>
-  </si>
-  <si>
-    <t>Sarah Auriemma</t>
-  </si>
-  <si>
-    <t>sauriemma@student.bridgew.edu</t>
-  </si>
-  <si>
-    <t>Emily Reardon</t>
-  </si>
-  <si>
-    <t>e1reardon@student.bridgew.edu</t>
-  </si>
-  <si>
-    <t>Megan Lalumiere</t>
-  </si>
-  <si>
-    <t>mlalumiere@student.bridgew.edu</t>
-  </si>
-  <si>
     <t>2015; 2016; 2017; 2018; 2021</t>
   </si>
   <si>
@@ -1559,30 +1188,6 @@
     <t>413-662-5266</t>
   </si>
   <si>
-    <t>Robert Leonard</t>
-  </si>
-  <si>
-    <t>rl8354@mcla.edu</t>
-  </si>
-  <si>
-    <t>Amalia Badohu</t>
-  </si>
-  <si>
-    <t>ab9869@mcla.edu</t>
-  </si>
-  <si>
-    <t>Corey Jakacky</t>
-  </si>
-  <si>
-    <t>cj4437@mcla.edu</t>
-  </si>
-  <si>
-    <t>Jacob Sawyer</t>
-  </si>
-  <si>
-    <t>js6035@mcla.edu</t>
-  </si>
-  <si>
     <t>2019; 2021</t>
   </si>
   <si>
@@ -1613,15 +1218,6 @@
     <t>sashman@providence.edu</t>
   </si>
   <si>
-    <t>Nicholas Rebelo</t>
-  </si>
-  <si>
-    <t>Christopher Marte Marte</t>
-  </si>
-  <si>
-    <t>cmartema@friars.providence.edu</t>
-  </si>
-  <si>
     <t>University of Connecticut</t>
   </si>
   <si>
@@ -1718,36 +1314,6 @@
     <t>2020-21</t>
   </si>
   <si>
-    <t>Dan Brass</t>
-  </si>
-  <si>
-    <t>dan.brass@my.wheaton.edu</t>
-  </si>
-  <si>
-    <t>Caleb Lee</t>
-  </si>
-  <si>
-    <t>caleb.lee@my.wheaton.edu</t>
-  </si>
-  <si>
-    <t>Tamara Watson</t>
-  </si>
-  <si>
-    <t>tamara.watson@my.wheaton.edu</t>
-  </si>
-  <si>
-    <t>Daniel Humphrey</t>
-  </si>
-  <si>
-    <t>daniel.humphrey@my.wheaton.edu</t>
-  </si>
-  <si>
-    <t>Trevor Gilkerson, Ingenium Coordinator</t>
-  </si>
-  <si>
-    <t>trevor.gilkerson@my.wheaton.edu</t>
-  </si>
-  <si>
     <t>American International College</t>
   </si>
   <si>
@@ -1958,9 +1524,6 @@
     <t>Tom Narita</t>
   </si>
   <si>
-    <t>John White</t>
-  </si>
-  <si>
     <t>Connecticut College</t>
   </si>
   <si>
@@ -2051,9 +1614,6 @@
     <t xml:space="preserve">  2013  Outstanding Chapter ; 2015  Outstanding Chapter</t>
   </si>
   <si>
-    <t>Justin Masterson</t>
-  </si>
-  <si>
     <t>December 14, 1973</t>
   </si>
   <si>
@@ -2213,9 +1773,6 @@
     <t>rknapik@norwich.edu</t>
   </si>
   <si>
-    <t>Jake Riti</t>
-  </si>
-  <si>
     <t>Rensselaer Polytechnic Institute of Connecticut</t>
   </si>
   <si>
@@ -2297,12 +1854,6 @@
     <t>To be entered</t>
   </si>
   <si>
-    <t>Matt Payne</t>
-  </si>
-  <si>
-    <t>mpayne@aip.org</t>
-  </si>
-  <si>
     <t>United States Coast Guard Academy</t>
   </si>
   <si>
@@ -2390,12 +1941,6 @@
     <t>University of Massachusetts Dartmouth</t>
   </si>
   <si>
-    <t>Trevor Robertson</t>
-  </si>
-  <si>
-    <t>trobertson@umassd.edu</t>
-  </si>
-  <si>
     <t>University of New Haven</t>
   </si>
   <si>
@@ -2519,36 +2064,6 @@
     <t>2022-2023 Travel Award</t>
   </si>
   <si>
-    <t>Kimberly Hernandez</t>
-  </si>
-  <si>
-    <t>khernan5@wellesley.edu</t>
-  </si>
-  <si>
-    <t>Minerva Johar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mjohar@wellesley.edu </t>
-  </si>
-  <si>
-    <t>Talia O'Shea</t>
-  </si>
-  <si>
-    <t>talia.oshea@wellesley.edu</t>
-  </si>
-  <si>
-    <t>Jiatong Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jy1@wellesley.edu </t>
-  </si>
-  <si>
-    <t>(Kirstin Hon, Social Media Coordinator) (Sarah Wells-Moran, Meme Coordinator) (Paula DeAnda &amp; Amy Quintanilla, Equity and Inclusivity Chairs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kh4@wellesley.edu, swellsmo@wellesley.edu, aquintan@wellesley.edupdeanda@wellesley.edu, </t>
-  </si>
-  <si>
     <t>2004; 2022</t>
   </si>
   <si>
@@ -2583,9 +2098,6 @@
   </si>
   <si>
     <t xml:space="preserve">  2013  Outstanding Chapter ; 2014  Outstanding Chapter</t>
-  </si>
-  <si>
-    <t>Nicolas Hartman</t>
   </si>
   <si>
     <t>December 17, 1986</t>
@@ -4708,10 +4220,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
+      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4987,7 +4499,7 @@
         <v>85</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>864</v>
+        <v>705</v>
       </c>
       <c r="W2" s="63" t="s">
         <v>77</v>
@@ -5020,34 +4532,18 @@
       <c r="AG2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="24" t="s">
-        <v>93</v>
-      </c>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
       <c r="AM2" s="24"/>
-      <c r="AN2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO2" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
-        <v>97</v>
-      </c>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
       <c r="AR2" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AS2" s="23">
         <v>2019</v>
@@ -5059,27 +4555,27 @@
       </c>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="23">
         <v>8632641</v>
@@ -5088,7 +4584,7 @@
         <v>401</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>83</v>
@@ -5109,14 +4605,14 @@
         <v>725</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="24"/>
       <c r="R3" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>85</v>
@@ -5125,10 +4621,10 @@
         <v>85</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="W3" s="63" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="X3" s="23" t="s">
         <v>85</v>
@@ -5143,25 +4639,23 @@
         <v>19</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="AC3" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AD3" s="23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AE3" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="24"/>
-      <c r="AI3" s="24" t="s">
-        <v>101</v>
-      </c>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="24"/>
       <c r="AK3" s="24"/>
       <c r="AL3" s="24"/>
@@ -5171,50 +4665,50 @@
       <c r="AP3" s="24"/>
       <c r="AQ3" s="24"/>
       <c r="AR3" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AS3" s="23"/>
       <c r="AT3" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AU3" s="23"/>
       <c r="AV3" s="23">
         <v>2021</v>
       </c>
       <c r="AW3" s="23" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AX3" s="24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AY3" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AZ3" s="26"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <v>603</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>83</v>
@@ -5237,10 +4731,10 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="23" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>85</v>
@@ -5249,10 +4743,10 @@
         <v>85</v>
       </c>
       <c r="V4" s="64" t="s">
-        <v>865</v>
+        <v>706</v>
       </c>
       <c r="W4" s="64" t="s">
-        <v>900</v>
+        <v>741</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>85</v>
@@ -5262,32 +4756,24 @@
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH4" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI4" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ4" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK4" s="27" t="s">
-        <v>131</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
       <c r="AL4" s="23"/>
       <c r="AM4" s="23"/>
       <c r="AN4" s="23"/>
@@ -5301,7 +4787,7 @@
       <c r="AV4" s="23"/>
       <c r="AW4" s="23"/>
       <c r="AX4" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY4" s="23">
         <v>2023</v>
@@ -5310,29 +4796,29 @@
     </row>
     <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H5" s="23">
         <v>203</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>83</v>
@@ -5359,18 +4845,18 @@
         <v>33209</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="63" t="s">
-        <v>866</v>
+        <v>707</v>
       </c>
       <c r="W5" s="63" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -5381,20 +4867,20 @@
         <v>19</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AD5" s="23" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AE5" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AH5" s="24"/>
       <c r="AI5" s="24"/>
@@ -5417,7 +4903,7 @@
       </c>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY5" s="23">
         <v>2023</v>
@@ -5426,29 +4912,29 @@
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H6" s="23">
         <v>617</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>83</v>
@@ -5479,10 +4965,10 @@
         <v>85</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>867</v>
+        <v>708</v>
       </c>
       <c r="W6" s="63" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
@@ -5493,41 +4979,31 @@
         <v>19</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AF6" s="23"/>
       <c r="AG6" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH6" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI6" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ6" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK6" s="23" t="s">
-        <v>157</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23"/>
       <c r="AP6" s="23"/>
-      <c r="AQ6" s="23" t="s">
-        <v>158</v>
-      </c>
+      <c r="AQ6" s="23"/>
       <c r="AR6" s="23">
         <v>2012</v>
       </c>
@@ -5537,7 +5013,7 @@
       <c r="AV6" s="23"/>
       <c r="AW6" s="23"/>
       <c r="AX6" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY6" s="23">
         <v>2023</v>
@@ -5546,29 +5022,29 @@
     </row>
     <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H7" s="23">
         <v>617</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>83</v>
@@ -5595,28 +5071,28 @@
         <v>30073</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="V7" s="63" t="s">
-        <v>868</v>
+        <v>709</v>
       </c>
       <c r="W7" s="63" t="s">
-        <v>901</v>
+        <v>742</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="Z7" s="23" t="s">
         <v>19</v>
@@ -5625,49 +5101,33 @@
         <v>19</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AF7" s="23"/>
       <c r="AG7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH7" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI7" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ7" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK7" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL7" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM7" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN7" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO7" s="23" t="s">
-        <v>179</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="23" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AS7" s="23">
         <v>2021</v>
@@ -5679,7 +5139,7 @@
       </c>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="AY7" s="23">
         <v>2023</v>
@@ -5688,29 +5148,29 @@
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H8" s="26">
         <v>413</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>83</v>
@@ -5737,10 +5197,10 @@
         <v>33733</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="T8" s="26" t="s">
         <v>85</v>
@@ -5749,10 +5209,10 @@
         <v>85</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>869</v>
+        <v>710</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>902</v>
+        <v>743</v>
       </c>
       <c r="X8" s="26" t="s">
         <v>85</v>
@@ -5767,50 +5227,34 @@
         <v>19</v>
       </c>
       <c r="AB8" s="26" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AC8" s="26" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH8" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI8" s="32" t="s">
-        <v>193</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
-      <c r="AL8" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM8" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN8" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO8" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP8" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ8" s="32" t="s">
-        <v>199</v>
-      </c>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
       <c r="AR8" s="26"/>
       <c r="AS8" s="26" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
@@ -5826,23 +5270,23 @@
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="H9" s="23">
         <v>603</v>
@@ -5875,18 +5319,18 @@
         <v>43206</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="26" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>903</v>
+        <v>744</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -5897,20 +5341,20 @@
         <v>19</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="32"/>
@@ -5923,54 +5367,54 @@
       <c r="AP9" s="24"/>
       <c r="AQ9" s="24"/>
       <c r="AR9" s="24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AS9" s="23">
         <v>2022</v>
       </c>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AV9" s="23">
         <v>2023</v>
       </c>
       <c r="AW9" s="23" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="AX9" s="23" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="AY9" s="24" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="H10" s="23">
         <v>802</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>83</v>
@@ -5997,18 +5441,18 @@
         <v>41922</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>870</v>
+        <v>711</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
@@ -6019,45 +5463,29 @@
         <v>19</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH10" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ10" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL10" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM10" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN10" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO10" s="24" t="s">
-        <v>235</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
       <c r="AP10" s="24"/>
       <c r="AQ10" s="24"/>
       <c r="AR10" s="23">
@@ -6066,7 +5494,7 @@
       <c r="AS10" s="23"/>
       <c r="AT10" s="23"/>
       <c r="AU10" s="23" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="AV10" s="23">
         <v>2021</v>
@@ -6080,17 +5508,17 @@
     </row>
     <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>80</v>
@@ -6100,7 +5528,7 @@
         <v>413</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>83</v>
@@ -6127,10 +5555,10 @@
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="63" t="s">
-        <v>871</v>
+        <v>712</v>
       </c>
       <c r="W11" s="63" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
@@ -6141,45 +5569,29 @@
         <v>19</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="AC11" s="23" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="AD11" s="23">
         <v>4135853797</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH11" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI11" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ11" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL11" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM11" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN11" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO11" s="24" t="s">
-        <v>251</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
       <c r="AP11" s="24"/>
       <c r="AQ11" s="24"/>
       <c r="AR11" s="23">
@@ -6191,38 +5603,38 @@
       <c r="AV11" s="23"/>
       <c r="AW11" s="23"/>
       <c r="AX11" s="24" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="AY11" s="23" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="H12" s="23">
         <v>617</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>83</v>
@@ -6249,10 +5661,10 @@
         <v>40319</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="T12" s="23" t="s">
         <v>85</v>
@@ -6261,10 +5673,10 @@
         <v>85</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="W12" s="63" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>85</v>
@@ -6279,22 +5691,22 @@
         <v>19</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="AC12" s="23" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="AD12" s="23">
         <v>6175738013</v>
       </c>
       <c r="AE12" s="23" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="AF12" s="23" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="AG12" s="23" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="AH12" s="24"/>
       <c r="AI12" s="24"/>
@@ -6307,52 +5719,52 @@
       <c r="AP12" s="24"/>
       <c r="AQ12" s="24"/>
       <c r="AR12" s="23" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="AS12" s="23"/>
       <c r="AT12" s="23" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="AU12" s="23" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="AV12" s="23">
         <v>2010</v>
       </c>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="AY12" s="23" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AZ12" s="23"/>
     </row>
     <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="H13" s="23">
         <v>860</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>83</v>
@@ -6379,10 +5791,10 @@
         <v>18044</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="T13" s="23" t="s">
         <v>85</v>
@@ -6391,10 +5803,10 @@
         <v>85</v>
       </c>
       <c r="V13" s="63" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="W13" s="63" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="X13" s="23" t="s">
         <v>85</v>
@@ -6409,20 +5821,20 @@
         <v>19</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="AC13" s="23" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AE13" s="23" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="AH13" s="24"/>
       <c r="AI13" s="24"/>
@@ -6445,40 +5857,40 @@
       </c>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY13" s="23" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AZ13" s="26"/>
     </row>
     <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="H14" s="23">
         <v>617</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>83</v>
@@ -6505,10 +5917,10 @@
         <v>17307</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="T14" s="23" t="s">
         <v>85</v>
@@ -6517,10 +5929,10 @@
         <v>85</v>
       </c>
       <c r="V14" s="63" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="W14" s="63" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -6531,50 +5943,30 @@
         <v>19</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH14" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI14" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ14" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK14" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL14" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM14" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN14" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO14" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP14" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ14" s="27" t="s">
-        <v>301</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
       <c r="AR14" s="23"/>
       <c r="AS14" s="23" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
@@ -6583,10 +5975,10 @@
       </c>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="AZ14" s="26"/>
     </row>
@@ -6595,26 +5987,26 @@
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="H15" s="23">
         <v>207</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>83</v>
@@ -6641,28 +6033,28 @@
         <v>18043</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>872</v>
+        <v>713</v>
       </c>
       <c r="W15" s="64" t="s">
-        <v>904</v>
+        <v>745</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>909</v>
+        <v>750</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>19</v>
@@ -6671,51 +6063,35 @@
         <v>19</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="AC15" s="23" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="AE15" s="23" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="AF15" s="23" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI15" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="AJ15" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="AK15" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL15" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM15" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="AN15" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO15" s="24" t="s">
-        <v>328</v>
-      </c>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
       <c r="AP15" s="24"/>
       <c r="AQ15" s="24"/>
       <c r="AR15" s="23" t="s">
-        <v>329</v>
+        <v>264</v>
       </c>
       <c r="AS15" s="23">
         <v>2018</v>
@@ -6728,29 +6104,29 @@
         <v>2023</v>
       </c>
       <c r="AW15" s="23" t="s">
-        <v>330</v>
+        <v>265</v>
       </c>
       <c r="AX15" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>331</v>
+        <v>266</v>
       </c>
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>80</v>
@@ -6760,7 +6136,7 @@
         <v>617</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>83</v>
@@ -6787,10 +6163,10 @@
         <v>27895</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>337</v>
+        <v>272</v>
       </c>
       <c r="T16" s="23" t="s">
         <v>85</v>
@@ -6799,10 +6175,10 @@
         <v>85</v>
       </c>
       <c r="V16" s="64" t="s">
-        <v>873</v>
+        <v>714</v>
       </c>
       <c r="W16" s="64" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>85</v>
@@ -6817,25 +6193,21 @@
         <v>19</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="AC16" s="23" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="AD16" s="40" t="s">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH16" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI16" s="30" t="s">
-        <v>342</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
@@ -6845,11 +6217,11 @@
       <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="AU16" s="23"/>
       <c r="AV16" s="23">
@@ -6858,35 +6230,35 @@
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="H17" s="23">
         <v>978</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>83</v>
@@ -6913,10 +6285,10 @@
         <v>25165</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="T17" s="23" t="s">
         <v>85</v>
@@ -6925,10 +6297,10 @@
         <v>85</v>
       </c>
       <c r="V17" s="63" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="W17" s="63" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>85</v>
@@ -6943,49 +6315,29 @@
         <v>19</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH17" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI17" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="AJ17" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK17" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="AL17" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM17" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="AN17" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="AO17" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP17" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="AQ17" s="27" t="s">
-        <v>365</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
       <c r="AT17" s="23"/>
@@ -7002,29 +6354,29 @@
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="H18" s="23">
         <v>603</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>83</v>
@@ -7051,10 +6403,10 @@
         <v>18409</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="T18" s="23" t="s">
         <v>85</v>
@@ -7063,10 +6415,10 @@
         <v>85</v>
       </c>
       <c r="V18" s="63" t="s">
-        <v>874</v>
+        <v>715</v>
       </c>
       <c r="W18" s="63" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
       <c r="X18" s="23" t="s">
         <v>85</v>
@@ -7081,18 +6433,18 @@
         <v>19</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="AC18" s="23" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
-        <v>366</v>
+        <v>289</v>
       </c>
       <c r="AH18" s="23"/>
       <c r="AI18" s="23"/>
@@ -7115,7 +6467,7 @@
       </c>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="AY18" s="23">
         <v>2023</v>
@@ -7124,29 +6476,29 @@
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="H19" s="23">
         <v>802</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>83</v>
@@ -7173,10 +6525,10 @@
         <v>38107</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="S19" s="23" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="T19" s="23" t="s">
         <v>85</v>
@@ -7185,10 +6537,10 @@
         <v>85</v>
       </c>
       <c r="V19" s="63" t="s">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="W19" s="63" t="s">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="X19" s="23" t="s">
         <v>85</v>
@@ -7203,49 +6555,29 @@
         <v>19</v>
       </c>
       <c r="AB19" s="23" t="s">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH19" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI19" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ19" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK19" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL19" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM19" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN19" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO19" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP19" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="AQ19" s="30" t="s">
-        <v>399</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
@@ -7255,38 +6587,38 @@
       </c>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="AY19" s="23" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="H20" s="23">
         <v>508</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>83</v>
@@ -7313,18 +6645,18 @@
         <v>25619</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>875</v>
+        <v>716</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>905</v>
+        <v>746</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7335,49 +6667,29 @@
         <v>19</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="AC20" s="23" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH20" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="AI20" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="AJ20" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK20" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="AL20" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM20" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="AN20" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="AO20" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="AP20" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="AQ20" s="27" t="s">
-        <v>421</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
       <c r="AR20" s="23">
         <v>2019</v>
       </c>
@@ -7391,36 +6703,36 @@
       </c>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>422</v>
+        <v>326</v>
       </c>
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>423</v>
+        <v>327</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>424</v>
+        <v>328</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24">
         <v>203</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>83</v>
@@ -7447,18 +6759,18 @@
         <v>44112</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>428</v>
+        <v>332</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="64" t="s">
-        <v>876</v>
+        <v>717</v>
       </c>
       <c r="W21" s="64" t="s">
-        <v>906</v>
+        <v>747</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -7469,47 +6781,31 @@
         <v>19</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>430</v>
+        <v>334</v>
       </c>
       <c r="AC21" s="24" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="AH21" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="AI21" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ21" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK21" s="30" t="s">
-        <v>434</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="AO21" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="AP21" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="AQ21" s="30" t="s">
-        <v>438</v>
-      </c>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
       <c r="AR21" s="24" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
@@ -7518,29 +6814,29 @@
         <v>2023</v>
       </c>
       <c r="AW21" s="24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AX21" s="24" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="AY21" s="24" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>80</v>
@@ -7550,7 +6846,7 @@
         <v>413</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>446</v>
+        <v>344</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>83</v>
@@ -7575,30 +6871,30 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="65" t="s">
-        <v>877</v>
+        <v>718</v>
       </c>
       <c r="W22" s="65" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
-        <v>447</v>
+        <v>345</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="AD22" s="45" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
       <c r="AE22" s="45" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="AH22" s="45"/>
       <c r="AI22" s="45"/>
@@ -7624,29 +6920,29 @@
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="H23" s="50">
         <v>617</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>83</v>
@@ -7673,10 +6969,10 @@
         <v>29692</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="S23" s="50" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="T23" s="50" t="s">
         <v>85</v>
@@ -7685,10 +6981,10 @@
         <v>85</v>
       </c>
       <c r="V23" s="66" t="s">
-        <v>878</v>
+        <v>719</v>
       </c>
       <c r="W23" s="66" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
@@ -7699,53 +6995,33 @@
         <v>19</v>
       </c>
       <c r="AB23" s="50" t="s">
-        <v>457</v>
+        <v>355</v>
       </c>
       <c r="AC23" s="50" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
       <c r="AD23" s="50" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="AE23" s="50" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="AF23" s="50"/>
       <c r="AG23" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH23" s="50" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI23" s="50" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ23" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="AK23" s="50" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL23" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM23" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN23" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="AO23" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="AP23" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="AQ23" s="50" t="s">
-        <v>470</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="50"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
       <c r="AR23" s="50" t="s">
-        <v>471</v>
+        <v>359</v>
       </c>
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
@@ -7755,24 +7031,24 @@
       </c>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="AY23" s="50"/>
       <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>473</v>
+        <v>361</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>474</v>
+        <v>362</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>475</v>
+        <v>363</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50" t="s">
-        <v>476</v>
+        <v>364</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>80</v>
@@ -7782,7 +7058,7 @@
         <v>508</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="J24" s="50" t="s">
         <v>83</v>
@@ -7813,10 +7089,10 @@
         <v>85</v>
       </c>
       <c r="V24" s="66" t="s">
-        <v>879</v>
+        <v>720</v>
       </c>
       <c r="W24" s="66" t="s">
-        <v>907</v>
+        <v>748</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7827,43 +7103,27 @@
         <v>19</v>
       </c>
       <c r="AB24" s="50" t="s">
-        <v>478</v>
+        <v>366</v>
       </c>
       <c r="AC24" s="50" t="s">
-        <v>479</v>
+        <v>367</v>
       </c>
       <c r="AD24" s="50" t="s">
-        <v>480</v>
+        <v>368</v>
       </c>
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH24" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI24" s="50" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ24" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="AK24" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="AL24" s="50" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM24" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="AN24" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO24" s="50" t="s">
-        <v>489</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="50"/>
+      <c r="AL24" s="50"/>
+      <c r="AM24" s="50"/>
+      <c r="AN24" s="50"/>
+      <c r="AO24" s="50"/>
       <c r="AP24" s="50"/>
       <c r="AQ24" s="50"/>
       <c r="AR24" s="50">
@@ -7876,35 +7136,35 @@
       <c r="AW24" s="50"/>
       <c r="AX24" s="45"/>
       <c r="AY24" s="50" t="s">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50" t="s">
-        <v>494</v>
+        <v>374</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="H25" s="50">
         <v>413</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="J25" s="50" t="s">
         <v>83</v>
@@ -7931,10 +7191,10 @@
         <v>41012</v>
       </c>
       <c r="R25" s="50" t="s">
-        <v>497</v>
+        <v>377</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>85</v>
@@ -7943,10 +7203,10 @@
         <v>85</v>
       </c>
       <c r="V25" s="66" t="s">
-        <v>880</v>
+        <v>721</v>
       </c>
       <c r="W25" s="66" t="s">
-        <v>498</v>
+        <v>378</v>
       </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
@@ -7957,43 +7217,27 @@
         <v>19</v>
       </c>
       <c r="AB25" s="50" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="AC25" s="50" t="s">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="AD25" s="50" t="s">
-        <v>501</v>
+        <v>381</v>
       </c>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH25" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="AI25" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="AJ25" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="AK25" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL25" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="AM25" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="AN25" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="AO25" s="50" t="s">
-        <v>509</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="50"/>
+      <c r="AL25" s="50"/>
+      <c r="AM25" s="50"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
       <c r="AP25" s="50"/>
       <c r="AQ25" s="50"/>
       <c r="AR25" s="50">
@@ -8010,35 +7254,35 @@
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>511</v>
+        <v>383</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>513</v>
+        <v>385</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>514</v>
+        <v>386</v>
       </c>
       <c r="H26" s="50">
         <v>401</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>515</v>
+        <v>387</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>83</v>
@@ -8065,10 +7309,10 @@
         <v>22787</v>
       </c>
       <c r="R26" s="50" t="s">
-        <v>516</v>
+        <v>388</v>
       </c>
       <c r="S26" s="50" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="T26" s="50" t="s">
         <v>85</v>
@@ -8077,10 +7321,10 @@
         <v>85</v>
       </c>
       <c r="V26" s="66" t="s">
-        <v>881</v>
+        <v>722</v>
       </c>
       <c r="W26" s="66" t="s">
-        <v>517</v>
+        <v>389</v>
       </c>
       <c r="X26" s="50" t="s">
         <v>85</v>
@@ -8095,29 +7339,21 @@
         <v>19</v>
       </c>
       <c r="AB26" s="50" t="s">
-        <v>518</v>
+        <v>390</v>
       </c>
       <c r="AC26" s="50" t="s">
-        <v>519</v>
+        <v>391</v>
       </c>
       <c r="AD26" s="50"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH26" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="AI26" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ26" s="50" t="s">
-        <v>521</v>
-      </c>
-      <c r="AK26" s="50" t="s">
-        <v>522</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="50"/>
       <c r="AL26" s="50"/>
       <c r="AM26" s="50"/>
       <c r="AN26" s="50"/>
@@ -8133,36 +7369,36 @@
       </c>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY26" s="50"/>
       <c r="AZ26" s="51"/>
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>523</v>
+        <v>392</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>524</v>
+        <v>393</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>525</v>
+        <v>394</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>526</v>
+        <v>395</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>527</v>
+        <v>396</v>
       </c>
       <c r="H27" s="45">
         <v>860</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>83</v>
@@ -8189,10 +7425,10 @@
         <v>18408</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>530</v>
+        <v>399</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>85</v>
@@ -8201,10 +7437,10 @@
         <v>85</v>
       </c>
       <c r="V27" s="65" t="s">
-        <v>882</v>
+        <v>723</v>
       </c>
       <c r="W27" s="65" t="s">
-        <v>524</v>
+        <v>393</v>
       </c>
       <c r="X27" s="45" t="s">
         <v>85</v>
@@ -8219,20 +7455,20 @@
         <v>19</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="AC27" s="45" t="s">
-        <v>532</v>
+        <v>401</v>
       </c>
       <c r="AD27" s="45" t="s">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="AE27" s="45" t="s">
-        <v>534</v>
+        <v>403</v>
       </c>
       <c r="AF27" s="45"/>
       <c r="AG27" s="45" t="s">
-        <v>523</v>
+        <v>392</v>
       </c>
       <c r="AH27" s="45"/>
       <c r="AI27" s="45"/>
@@ -8245,7 +7481,7 @@
       <c r="AP27" s="45"/>
       <c r="AQ27" s="45"/>
       <c r="AR27" s="45" t="s">
-        <v>471</v>
+        <v>359</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
@@ -8255,26 +7491,26 @@
       </c>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY27" s="45" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="AZ27" s="48"/>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>538</v>
+        <v>407</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>80</v>
@@ -8284,7 +7520,7 @@
         <v>413</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>539</v>
+        <v>408</v>
       </c>
       <c r="J28" s="51" t="s">
         <v>83</v>
@@ -8315,10 +7551,10 @@
         <v>85</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>883</v>
+        <v>724</v>
       </c>
       <c r="W28" s="51" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="X28" s="51" t="s">
         <v>85</v>
@@ -8333,18 +7569,18 @@
         <v>19</v>
       </c>
       <c r="AB28" s="51" t="s">
-        <v>540</v>
+        <v>409</v>
       </c>
       <c r="AC28" s="51" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="AD28" s="51" t="s">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="AH28" s="51"/>
       <c r="AI28" s="51"/>
@@ -8364,35 +7600,35 @@
       <c r="AW28" s="51"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="51" t="s">
-        <v>543</v>
+        <v>412</v>
       </c>
       <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
-        <v>544</v>
+        <v>413</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>545</v>
+        <v>414</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>546</v>
+        <v>415</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>547</v>
+        <v>416</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>548</v>
+        <v>417</v>
       </c>
       <c r="H29" s="51">
         <v>508</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>549</v>
+        <v>418</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>83</v>
@@ -8429,53 +7665,33 @@
         <v>19</v>
       </c>
       <c r="AB29" s="51" t="s">
-        <v>550</v>
+        <v>419</v>
       </c>
       <c r="AC29" s="51" t="s">
-        <v>551</v>
+        <v>420</v>
       </c>
       <c r="AD29" s="51" t="s">
-        <v>552</v>
+        <v>421</v>
       </c>
       <c r="AE29" s="51" t="s">
-        <v>553</v>
+        <v>422</v>
       </c>
       <c r="AF29" s="51" t="s">
-        <v>554</v>
+        <v>423</v>
       </c>
       <c r="AG29" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="AH29" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI29" s="51" t="s">
-        <v>556</v>
-      </c>
-      <c r="AJ29" s="51" t="s">
-        <v>557</v>
-      </c>
-      <c r="AK29" s="51" t="s">
-        <v>558</v>
-      </c>
-      <c r="AL29" s="51" t="s">
-        <v>559</v>
-      </c>
-      <c r="AM29" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="AN29" s="51" t="s">
-        <v>561</v>
-      </c>
-      <c r="AO29" s="51" t="s">
-        <v>562</v>
-      </c>
-      <c r="AP29" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="AQ29" s="51" t="s">
-        <v>564</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
       <c r="AT29" s="51"/>
@@ -8485,14 +7701,14 @@
       </c>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY29" s="51"/>
       <c r="AZ29" s="51"/>
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -8531,7 +7747,7 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
@@ -8540,7 +7756,7 @@
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55" t="s">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="AH30" s="55"/>
       <c r="AI30" s="55"/>
@@ -8559,14 +7775,14 @@
       <c r="AV30" s="55"/>
       <c r="AW30" s="55"/>
       <c r="AX30" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY30" s="55"/>
       <c r="AZ30" s="57"/>
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>566</v>
+        <v>425</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -8605,7 +7821,7 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA31" s="55"/>
       <c r="AB31" s="55"/>
@@ -8614,7 +7830,7 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="55" t="s">
-        <v>566</v>
+        <v>425</v>
       </c>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -8633,36 +7849,36 @@
       <c r="AV31" s="55"/>
       <c r="AW31" s="55"/>
       <c r="AX31" s="56" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="57"/>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>568</v>
+        <v>427</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>569</v>
+        <v>428</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
-        <v>570</v>
+        <v>429</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>571</v>
+        <v>430</v>
       </c>
       <c r="H32" s="55">
         <v>207</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>572</v>
+        <v>431</v>
       </c>
       <c r="J32" s="55" t="s">
         <v>83</v>
@@ -8689,30 +7905,30 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="67" t="s">
-        <v>884</v>
+        <v>725</v>
       </c>
       <c r="W32" s="67" t="s">
-        <v>568</v>
+        <v>427</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55" t="s">
-        <v>573</v>
+        <v>432</v>
       </c>
       <c r="AC32" s="55" t="s">
-        <v>574</v>
+        <v>433</v>
       </c>
       <c r="AD32" s="55" t="s">
-        <v>575</v>
+        <v>434</v>
       </c>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
       <c r="AG32" s="55" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="AH32" s="55"/>
       <c r="AI32" s="55"/>
@@ -8731,14 +7947,14 @@
       <c r="AV32" s="55"/>
       <c r="AW32" s="55"/>
       <c r="AX32" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY32" s="55"/>
       <c r="AZ32" s="57"/>
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -8784,7 +8000,7 @@
       <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="AH33" s="55"/>
       <c r="AI33" s="55"/>
@@ -8808,7 +8024,7 @@
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -8849,7 +8065,7 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA34" s="55"/>
       <c r="AB34" s="55"/>
@@ -8858,7 +8074,7 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="AH34" s="55"/>
       <c r="AI34" s="55"/>
@@ -8877,38 +8093,38 @@
       <c r="AV34" s="55"/>
       <c r="AW34" s="55"/>
       <c r="AX34" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY34" s="55" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>580</v>
+        <v>439</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>581</v>
+        <v>440</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="s">
-        <v>582</v>
+        <v>441</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>583</v>
+        <v>442</v>
       </c>
       <c r="H35" s="55">
         <v>207</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>584</v>
+        <v>443</v>
       </c>
       <c r="J35" s="55" t="s">
         <v>83</v>
@@ -8935,10 +8151,10 @@
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
       <c r="V35" s="67" t="s">
-        <v>885</v>
+        <v>726</v>
       </c>
       <c r="W35" s="67" t="s">
-        <v>580</v>
+        <v>439</v>
       </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
@@ -8947,18 +8163,18 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
-        <v>585</v>
+        <v>444</v>
       </c>
       <c r="AC35" s="55" t="s">
-        <v>586</v>
+        <v>445</v>
       </c>
       <c r="AD35" s="55" t="s">
-        <v>587</v>
+        <v>446</v>
       </c>
       <c r="AE35" s="55"/>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55" t="s">
-        <v>579</v>
+        <v>438</v>
       </c>
       <c r="AH35" s="55"/>
       <c r="AI35" s="55"/>
@@ -8971,38 +8187,38 @@
       <c r="AP35" s="55"/>
       <c r="AQ35" s="55"/>
       <c r="AR35" s="55" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="AS35" s="55" t="s">
-        <v>588</v>
+        <v>447</v>
       </c>
       <c r="AT35" s="55"/>
       <c r="AU35" s="55"/>
       <c r="AV35" s="55"/>
       <c r="AW35" s="55" t="s">
-        <v>589</v>
+        <v>448</v>
       </c>
       <c r="AX35" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY35" s="55" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="AZ35" s="57"/>
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>590</v>
+        <v>449</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>591</v>
+        <v>450</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>592</v>
+        <v>451</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55" t="s">
-        <v>593</v>
+        <v>452</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>80</v>
@@ -9012,7 +8228,7 @@
         <v>781</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>594</v>
+        <v>453</v>
       </c>
       <c r="J36" s="55" t="s">
         <v>83</v>
@@ -9043,10 +8259,10 @@
         <v>85</v>
       </c>
       <c r="V36" s="67" t="s">
-        <v>886</v>
+        <v>727</v>
       </c>
       <c r="W36" s="67" t="s">
-        <v>908</v>
+        <v>749</v>
       </c>
       <c r="X36" s="55" t="s">
         <v>85</v>
@@ -9055,22 +8271,22 @@
         <v>85</v>
       </c>
       <c r="Z36" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA36" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB36" s="55" t="s">
-        <v>595</v>
+        <v>454</v>
       </c>
       <c r="AC36" s="55" t="s">
-        <v>596</v>
+        <v>455</v>
       </c>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55" t="s">
-        <v>590</v>
+        <v>449</v>
       </c>
       <c r="AH36" s="55"/>
       <c r="AI36" s="55"/>
@@ -9089,14 +8305,14 @@
       <c r="AV36" s="55"/>
       <c r="AW36" s="55"/>
       <c r="AX36" s="56" t="s">
-        <v>597</v>
+        <v>456</v>
       </c>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>598</v>
+        <v>457</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -9142,7 +8358,7 @@
       <c r="AE37" s="55"/>
       <c r="AF37" s="55"/>
       <c r="AG37" s="55" t="s">
-        <v>598</v>
+        <v>457</v>
       </c>
       <c r="AH37" s="55"/>
       <c r="AI37" s="55"/>
@@ -9168,29 +8384,29 @@
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>599</v>
+        <v>458</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>600</v>
+        <v>459</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>601</v>
+        <v>460</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>602</v>
+        <v>461</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>603</v>
+        <v>462</v>
       </c>
       <c r="H38" s="55">
         <v>860</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>604</v>
+        <v>463</v>
       </c>
       <c r="J38" s="55" t="s">
         <v>83</v>
@@ -9217,10 +8433,10 @@
         <v>33738</v>
       </c>
       <c r="R38" s="55" t="s">
-        <v>605</v>
+        <v>464</v>
       </c>
       <c r="S38" s="55" t="s">
-        <v>600</v>
+        <v>459</v>
       </c>
       <c r="T38" s="55" t="s">
         <v>85</v>
@@ -9229,10 +8445,10 @@
         <v>85</v>
       </c>
       <c r="V38" s="67" t="s">
-        <v>605</v>
+        <v>464</v>
       </c>
       <c r="W38" s="67" t="s">
-        <v>600</v>
+        <v>459</v>
       </c>
       <c r="X38" s="55" t="s">
         <v>85</v>
@@ -9247,18 +8463,18 @@
         <v>19</v>
       </c>
       <c r="AB38" s="55" t="s">
-        <v>606</v>
+        <v>465</v>
       </c>
       <c r="AC38" s="55" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
       <c r="AD38" s="55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AE38" s="55"/>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55" t="s">
-        <v>599</v>
+        <v>458</v>
       </c>
       <c r="AH38" s="55"/>
       <c r="AI38" s="55"/>
@@ -9271,7 +8487,7 @@
       <c r="AP38" s="55"/>
       <c r="AQ38" s="55"/>
       <c r="AR38" s="55" t="s">
-        <v>608</v>
+        <v>467</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
@@ -9281,36 +8497,36 @@
       </c>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
-        <v>609</v>
+        <v>468</v>
       </c>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
-        <v>610</v>
+        <v>469</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>611</v>
+        <v>470</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>612</v>
+        <v>471</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>613</v>
+        <v>472</v>
       </c>
       <c r="H39" s="55">
         <v>508</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>614</v>
+        <v>473</v>
       </c>
       <c r="J39" s="55" t="s">
         <v>83</v>
@@ -9337,10 +8553,10 @@
         <v>22763</v>
       </c>
       <c r="R39" s="55" t="s">
-        <v>615</v>
+        <v>474</v>
       </c>
       <c r="S39" s="55" t="s">
-        <v>616</v>
+        <v>475</v>
       </c>
       <c r="T39" s="55" t="s">
         <v>85</v>
@@ -9349,10 +8565,10 @@
         <v>85</v>
       </c>
       <c r="V39" s="67" t="s">
-        <v>887</v>
+        <v>728</v>
       </c>
       <c r="W39" s="67" t="s">
-        <v>611</v>
+        <v>470</v>
       </c>
       <c r="X39" s="55" t="s">
         <v>85</v>
@@ -9361,24 +8577,24 @@
         <v>85</v>
       </c>
       <c r="Z39" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA39" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB39" s="55" t="s">
-        <v>617</v>
+        <v>476</v>
       </c>
       <c r="AC39" s="55" t="s">
-        <v>618</v>
+        <v>477</v>
       </c>
       <c r="AD39" s="55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AE39" s="55"/>
       <c r="AF39" s="55"/>
       <c r="AG39" s="55" t="s">
-        <v>610</v>
+        <v>469</v>
       </c>
       <c r="AH39" s="55"/>
       <c r="AI39" s="55"/>
@@ -9391,7 +8607,7 @@
       <c r="AP39" s="55"/>
       <c r="AQ39" s="55"/>
       <c r="AR39" s="55" t="s">
-        <v>619</v>
+        <v>478</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
@@ -9406,29 +8622,29 @@
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
-        <v>620</v>
+        <v>479</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>621</v>
+        <v>480</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>622</v>
+        <v>481</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55" t="s">
-        <v>623</v>
+        <v>482</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>624</v>
+        <v>483</v>
       </c>
       <c r="H40" s="55">
         <v>207</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>625</v>
+        <v>484</v>
       </c>
       <c r="J40" s="55" t="s">
         <v>83</v>
@@ -9455,18 +8671,18 @@
         <v>17658</v>
       </c>
       <c r="R40" s="55" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="S40" s="55" t="s">
-        <v>627</v>
+        <v>486</v>
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
       <c r="V40" s="67" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="W40" s="67" t="s">
-        <v>627</v>
+        <v>486</v>
       </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
@@ -9477,16 +8693,16 @@
         <v>19</v>
       </c>
       <c r="AB40" s="55" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="AC40" s="55" t="s">
-        <v>627</v>
+        <v>486</v>
       </c>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55" t="s">
-        <v>620</v>
+        <v>479</v>
       </c>
       <c r="AH40" s="55"/>
       <c r="AI40" s="55"/>
@@ -9507,38 +8723,38 @@
       </c>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY40" s="55" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="AZ40" s="57"/>
     </row>
     <row r="41" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
-        <v>628</v>
+        <v>487</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>629</v>
+        <v>488</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>630</v>
+        <v>489</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>631</v>
+        <v>490</v>
       </c>
       <c r="H41" s="55">
         <v>508</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>632</v>
+        <v>491</v>
       </c>
       <c r="J41" s="55" t="s">
         <v>83</v>
@@ -9565,10 +8781,10 @@
         <v>25618</v>
       </c>
       <c r="R41" s="55" t="s">
-        <v>633</v>
+        <v>492</v>
       </c>
       <c r="S41" s="55" t="s">
-        <v>629</v>
+        <v>488</v>
       </c>
       <c r="T41" s="55" t="s">
         <v>85</v>
@@ -9577,10 +8793,10 @@
         <v>85</v>
       </c>
       <c r="V41" s="67" t="s">
-        <v>633</v>
+        <v>492</v>
       </c>
       <c r="W41" s="67" t="s">
-        <v>629</v>
+        <v>488</v>
       </c>
       <c r="X41" s="55" t="s">
         <v>85</v>
@@ -9595,24 +8811,22 @@
         <v>19</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>634</v>
+        <v>493</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>629</v>
+        <v>488</v>
       </c>
       <c r="AD41" s="55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55" t="s">
-        <v>628</v>
+        <v>487</v>
       </c>
       <c r="AH41" s="55"/>
       <c r="AI41" s="55"/>
-      <c r="AJ41" s="55" t="s">
-        <v>635</v>
-      </c>
+      <c r="AJ41" s="55"/>
       <c r="AK41" s="55"/>
       <c r="AL41" s="55"/>
       <c r="AM41" s="55"/>
@@ -9634,29 +8848,29 @@
     </row>
     <row r="42" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
       <c r="H42" s="55">
         <v>860</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>641</v>
+        <v>499</v>
       </c>
       <c r="J42" s="55" t="s">
         <v>83</v>
@@ -9683,10 +8897,10 @@
         <v>35543</v>
       </c>
       <c r="R42" s="55" t="s">
-        <v>642</v>
+        <v>500</v>
       </c>
       <c r="S42" s="55" t="s">
-        <v>643</v>
+        <v>501</v>
       </c>
       <c r="T42" s="55" t="s">
         <v>85</v>
@@ -9695,10 +8909,10 @@
         <v>85</v>
       </c>
       <c r="V42" s="67" t="s">
-        <v>888</v>
+        <v>729</v>
       </c>
       <c r="W42" s="67" t="s">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="X42" s="55" t="s">
         <v>85</v>
@@ -9713,18 +8927,18 @@
         <v>19</v>
       </c>
       <c r="AB42" s="55" t="s">
-        <v>642</v>
+        <v>500</v>
       </c>
       <c r="AC42" s="55" t="s">
-        <v>643</v>
+        <v>501</v>
       </c>
       <c r="AD42" s="55" t="s">
-        <v>644</v>
+        <v>502</v>
       </c>
       <c r="AE42" s="55"/>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55" t="s">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -9745,36 +8959,36 @@
       </c>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
-        <v>472</v>
+        <v>360</v>
       </c>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="57"/>
     </row>
     <row r="43" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>647</v>
+        <v>505</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="s">
-        <v>648</v>
+        <v>506</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>649</v>
+        <v>507</v>
       </c>
       <c r="H43" s="55">
         <v>617</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="J43" s="55" t="s">
         <v>83</v>
@@ -9805,10 +9019,10 @@
         <v>85</v>
       </c>
       <c r="V43" s="67" t="s">
-        <v>889</v>
+        <v>730</v>
       </c>
       <c r="W43" s="67" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="X43" s="55" t="s">
         <v>85</v>
@@ -9817,22 +9031,22 @@
         <v>85</v>
       </c>
       <c r="Z43" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA43" s="55"/>
       <c r="AB43" s="55" t="s">
-        <v>651</v>
+        <v>509</v>
       </c>
       <c r="AC43" s="55" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="AD43" s="55" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
       <c r="AG43" s="55" t="s">
-        <v>652</v>
+        <v>510</v>
       </c>
       <c r="AH43" s="55"/>
       <c r="AI43" s="55"/>
@@ -9856,7 +9070,7 @@
     </row>
     <row r="44" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>653</v>
+        <v>511</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -9895,7 +9109,7 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
@@ -9904,7 +9118,7 @@
       <c r="AE44" s="55"/>
       <c r="AF44" s="55"/>
       <c r="AG44" s="55" t="s">
-        <v>653</v>
+        <v>511</v>
       </c>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
@@ -9928,7 +9142,7 @@
     </row>
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -9976,7 +9190,7 @@
       <c r="AE45" s="55"/>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55" t="s">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="AH45" s="55"/>
       <c r="AI45" s="55"/>
@@ -10002,7 +9216,7 @@
     </row>
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>655</v>
+        <v>513</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -10050,7 +9264,7 @@
       <c r="AE46" s="55"/>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55" t="s">
-        <v>655</v>
+        <v>513</v>
       </c>
       <c r="AH46" s="55"/>
       <c r="AI46" s="55"/>
@@ -10070,23 +9284,23 @@
       <c r="AW46" s="55"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="55" t="s">
-        <v>656</v>
+        <v>514</v>
       </c>
       <c r="AZ46" s="57"/>
     </row>
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
-        <v>657</v>
+        <v>515</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>80</v>
@@ -10096,7 +9310,7 @@
         <v>978</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>661</v>
+        <v>519</v>
       </c>
       <c r="J47" s="55" t="s">
         <v>83</v>
@@ -10123,10 +9337,10 @@
         <v>41015</v>
       </c>
       <c r="R47" s="55" t="s">
-        <v>662</v>
+        <v>520</v>
       </c>
       <c r="S47" s="55" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="T47" s="55" t="s">
         <v>85</v>
@@ -10135,10 +9349,10 @@
         <v>85</v>
       </c>
       <c r="V47" s="67" t="s">
-        <v>663</v>
+        <v>521</v>
       </c>
       <c r="W47" s="67" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="X47" s="55" t="s">
         <v>85</v>
@@ -10153,26 +9367,24 @@
         <v>19</v>
       </c>
       <c r="AB47" s="55" t="s">
-        <v>663</v>
+        <v>521</v>
       </c>
       <c r="AC47" s="55" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="AD47" s="55" t="s">
-        <v>664</v>
+        <v>522</v>
       </c>
       <c r="AE47" s="55" t="s">
-        <v>665</v>
+        <v>523</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="55" t="s">
-        <v>657</v>
+        <v>515</v>
       </c>
       <c r="AH47" s="55"/>
       <c r="AI47" s="55"/>
-      <c r="AJ47" s="55" t="s">
-        <v>666</v>
-      </c>
+      <c r="AJ47" s="55"/>
       <c r="AK47" s="55"/>
       <c r="AL47" s="55"/>
       <c r="AM47" s="55"/>
@@ -10189,24 +9401,24 @@
       </c>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
-        <v>667</v>
+        <v>524</v>
       </c>
       <c r="AY47" s="55" t="s">
-        <v>668</v>
+        <v>525</v>
       </c>
       <c r="AZ47" s="57"/>
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>669</v>
+        <v>526</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55" t="s">
-        <v>670</v>
+        <v>527</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>80</v>
@@ -10216,7 +9428,7 @@
         <v>617</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>671</v>
+        <v>528</v>
       </c>
       <c r="J48" s="55" t="s">
         <v>83</v>
@@ -10249,16 +9461,16 @@
       </c>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
-        <v>672</v>
+        <v>529</v>
       </c>
       <c r="AC48" s="55" t="s">
-        <v>673</v>
+        <v>530</v>
       </c>
       <c r="AD48" s="55"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>669</v>
+        <v>526</v>
       </c>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -10278,35 +9490,35 @@
       <c r="AW48" s="55"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="55" t="s">
-        <v>674</v>
+        <v>531</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>675</v>
+        <v>532</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>677</v>
+        <v>534</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>678</v>
+        <v>535</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>679</v>
+        <v>536</v>
       </c>
       <c r="H49" s="55">
         <v>603</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>680</v>
+        <v>537</v>
       </c>
       <c r="J49" s="55" t="s">
         <v>83</v>
@@ -10341,10 +9553,10 @@
         <v>85</v>
       </c>
       <c r="V49" s="67" t="s">
-        <v>890</v>
+        <v>731</v>
       </c>
       <c r="W49" s="67" t="s">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="X49" s="55" t="s">
         <v>85</v>
@@ -10357,18 +9569,18 @@
         <v>19</v>
       </c>
       <c r="AB49" s="55" t="s">
-        <v>681</v>
+        <v>538</v>
       </c>
       <c r="AC49" s="55" t="s">
-        <v>676</v>
+        <v>533</v>
       </c>
       <c r="AD49" s="55" t="s">
-        <v>682</v>
+        <v>539</v>
       </c>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>675</v>
+        <v>532</v>
       </c>
       <c r="AH49" s="55"/>
       <c r="AI49" s="55"/>
@@ -10389,32 +9601,32 @@
       </c>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
-        <v>683</v>
+        <v>540</v>
       </c>
       <c r="AY49" s="55" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>684</v>
+        <v>541</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>685</v>
+        <v>542</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55">
         <v>802</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>686</v>
+        <v>543</v>
       </c>
       <c r="J50" s="55" t="s">
         <v>83</v>
@@ -10443,20 +9655,20 @@
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
-        <v>687</v>
+        <v>544</v>
       </c>
       <c r="AC50" s="55" t="s">
-        <v>688</v>
+        <v>545</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="55"/>
       <c r="AG50" s="55" t="s">
-        <v>684</v>
+        <v>541</v>
       </c>
       <c r="AH50" s="55"/>
       <c r="AI50" s="55"/>
@@ -10480,15 +9692,15 @@
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>689</v>
+        <v>546</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55" t="s">
-        <v>690</v>
+        <v>547</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>691</v>
+        <v>548</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>80</v>
@@ -10498,7 +9710,7 @@
         <v>978</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>692</v>
+        <v>549</v>
       </c>
       <c r="J51" s="55" t="s">
         <v>83</v>
@@ -10531,16 +9743,16 @@
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
-        <v>693</v>
+        <v>550</v>
       </c>
       <c r="AC51" s="55" t="s">
-        <v>694</v>
+        <v>551</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>689</v>
+        <v>546</v>
       </c>
       <c r="AH51" s="55"/>
       <c r="AI51" s="55"/>
@@ -10559,29 +9771,29 @@
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
       <c r="AX51" s="56" t="s">
-        <v>695</v>
+        <v>552</v>
       </c>
       <c r="AY51" s="55" t="s">
-        <v>696</v>
+        <v>553</v>
       </c>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>697</v>
+        <v>554</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>698</v>
+        <v>555</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>699</v>
+        <v>556</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
-        <v>700</v>
+        <v>557</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55">
@@ -10617,20 +9829,20 @@
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55" t="s">
-        <v>701</v>
+        <v>558</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>698</v>
+        <v>555</v>
       </c>
       <c r="AD52" s="55"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
-        <v>697</v>
+        <v>554</v>
       </c>
       <c r="AH52" s="55"/>
       <c r="AI52" s="55"/>
@@ -10654,29 +9866,29 @@
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
-        <v>702</v>
+        <v>559</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>703</v>
+        <v>560</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>704</v>
+        <v>561</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>705</v>
+        <v>562</v>
       </c>
       <c r="H53" s="55">
         <v>617</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>706</v>
+        <v>563</v>
       </c>
       <c r="J53" s="55" t="s">
         <v>83</v>
@@ -10703,22 +9915,22 @@
         <v>31565</v>
       </c>
       <c r="R53" s="55" t="s">
-        <v>707</v>
+        <v>564</v>
       </c>
       <c r="S53" s="55" t="s">
-        <v>703</v>
+        <v>560</v>
       </c>
       <c r="T53" s="55" t="s">
-        <v>707</v>
+        <v>564</v>
       </c>
       <c r="U53" s="55" t="s">
-        <v>708</v>
+        <v>565</v>
       </c>
       <c r="V53" s="67" t="s">
-        <v>707</v>
+        <v>564</v>
       </c>
       <c r="W53" s="67" t="s">
-        <v>703</v>
+        <v>560</v>
       </c>
       <c r="X53" s="55" t="s">
         <v>85</v>
@@ -10733,18 +9945,18 @@
         <v>19</v>
       </c>
       <c r="AB53" s="55" t="s">
-        <v>709</v>
+        <v>566</v>
       </c>
       <c r="AC53" s="55" t="s">
-        <v>710</v>
+        <v>567</v>
       </c>
       <c r="AD53" s="55"/>
       <c r="AE53" s="55" t="s">
-        <v>711</v>
+        <v>568</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>702</v>
+        <v>559</v>
       </c>
       <c r="AH53" s="55"/>
       <c r="AI53" s="55"/>
@@ -10761,7 +9973,7 @@
       </c>
       <c r="AS53" s="55"/>
       <c r="AT53" s="55" t="s">
-        <v>578</v>
+        <v>437</v>
       </c>
       <c r="AU53" s="55"/>
       <c r="AV53" s="55">
@@ -10769,36 +9981,36 @@
       </c>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY53" s="55"/>
       <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>712</v>
+        <v>569</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>713</v>
+        <v>570</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>714</v>
+        <v>571</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55" t="s">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>716</v>
+        <v>573</v>
       </c>
       <c r="H54" s="55">
         <v>802</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>717</v>
+        <v>574</v>
       </c>
       <c r="J54" s="55" t="s">
         <v>83</v>
@@ -10823,34 +10035,32 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
       <c r="V54" s="67" t="s">
-        <v>891</v>
+        <v>732</v>
       </c>
       <c r="W54" s="67" t="s">
-        <v>713</v>
+        <v>570</v>
       </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55" t="s">
-        <v>718</v>
+        <v>575</v>
       </c>
       <c r="AC54" s="55" t="s">
-        <v>719</v>
+        <v>576</v>
       </c>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>712</v>
+        <v>569</v>
       </c>
       <c r="AH54" s="55"/>
       <c r="AI54" s="55"/>
-      <c r="AJ54" s="55" t="s">
-        <v>720</v>
-      </c>
+      <c r="AJ54" s="55"/>
       <c r="AK54" s="55"/>
       <c r="AL54" s="55"/>
       <c r="AM54" s="55"/>
@@ -10865,14 +10075,14 @@
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
       <c r="AX54" s="56" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -10911,7 +10121,7 @@
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA55" s="55"/>
       <c r="AB55" s="55"/>
@@ -10920,7 +10130,7 @@
       <c r="AE55" s="55"/>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="55"/>
@@ -10944,17 +10154,17 @@
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>722</v>
+        <v>578</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>723</v>
+        <v>579</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>724</v>
+        <v>580</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F56" s="55" t="s">
         <v>80</v>
@@ -10964,7 +10174,7 @@
         <v>617</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
       <c r="J56" s="55" t="s">
         <v>83</v>
@@ -10995,10 +10205,10 @@
         <v>85</v>
       </c>
       <c r="V56" s="67" t="s">
-        <v>892</v>
+        <v>733</v>
       </c>
       <c r="W56" s="67" t="s">
-        <v>723</v>
+        <v>579</v>
       </c>
       <c r="X56" s="55" t="s">
         <v>85</v>
@@ -11013,18 +10223,18 @@
         <v>19</v>
       </c>
       <c r="AB56" s="55" t="s">
-        <v>726</v>
+        <v>582</v>
       </c>
       <c r="AC56" s="55" t="s">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55" t="s">
-        <v>728</v>
+        <v>584</v>
       </c>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>722</v>
+        <v>578</v>
       </c>
       <c r="AH56" s="55"/>
       <c r="AI56" s="55"/>
@@ -11044,13 +10254,13 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>729</v>
+        <v>585</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -11089,7 +10299,7 @@
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA57" s="55"/>
       <c r="AB57" s="55"/>
@@ -11098,7 +10308,7 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="AH57" s="55"/>
       <c r="AI57" s="55"/>
@@ -11118,33 +10328,33 @@
       <c r="AW57" s="55"/>
       <c r="AX57" s="56"/>
       <c r="AY57" s="55" t="s">
-        <v>731</v>
+        <v>587</v>
       </c>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>732</v>
+        <v>588</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>734</v>
+        <v>590</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55">
         <v>203</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>735</v>
+        <v>591</v>
       </c>
       <c r="J58" s="55" t="s">
         <v>83</v>
@@ -11167,10 +10377,10 @@
       <c r="P58" s="56"/>
       <c r="Q58" s="56"/>
       <c r="R58" s="55" t="s">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="S58" s="55" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="T58" s="55" t="s">
         <v>85</v>
@@ -11179,10 +10389,10 @@
         <v>85</v>
       </c>
       <c r="V58" s="67" t="s">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="W58" s="67" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="X58" s="55" t="s">
         <v>85</v>
@@ -11191,22 +10401,22 @@
         <v>85</v>
       </c>
       <c r="Z58" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA58" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="AD58" s="55"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>732</v>
+        <v>588</v>
       </c>
       <c r="AH58" s="55"/>
       <c r="AI58" s="55"/>
@@ -11219,7 +10429,7 @@
       <c r="AP58" s="55"/>
       <c r="AQ58" s="55"/>
       <c r="AR58" s="55" t="s">
-        <v>737</v>
+        <v>593</v>
       </c>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
@@ -11227,36 +10437,36 @@
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
       <c r="AX58" s="56" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>738</v>
+        <v>594</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>740</v>
+        <v>596</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="H59" s="55">
         <v>301</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="J59" s="55" t="s">
         <v>83</v>
@@ -11283,45 +10493,41 @@
         <v>41760</v>
       </c>
       <c r="R59" s="55" t="s">
-        <v>745</v>
+        <v>601</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="67" t="s">
-        <v>893</v>
+        <v>734</v>
       </c>
       <c r="W59" s="67" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
       <c r="Z59" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA59" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB59" s="55" t="s">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
       <c r="AD59" s="55" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>738</v>
-      </c>
-      <c r="AH59" s="55" t="s">
-        <v>748</v>
-      </c>
-      <c r="AI59" s="55" t="s">
-        <v>749</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
       <c r="AJ59" s="55"/>
       <c r="AK59" s="55"/>
       <c r="AL59" s="55"/>
@@ -11342,27 +10548,27 @@
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>750</v>
+        <v>604</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>752</v>
+        <v>606</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="55" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="F60" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55">
         <v>860</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>753</v>
+        <v>607</v>
       </c>
       <c r="J60" s="55" t="s">
         <v>83</v>
@@ -11393,10 +10599,10 @@
         <v>85</v>
       </c>
       <c r="V60" s="67" t="s">
-        <v>894</v>
+        <v>735</v>
       </c>
       <c r="W60" s="67" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="X60" s="55" t="s">
         <v>85</v>
@@ -11411,18 +10617,18 @@
         <v>19</v>
       </c>
       <c r="AB60" s="55" t="s">
-        <v>754</v>
+        <v>608</v>
       </c>
       <c r="AC60" s="55" t="s">
-        <v>755</v>
+        <v>609</v>
       </c>
       <c r="AD60" s="55" t="s">
-        <v>756</v>
+        <v>610</v>
       </c>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>750</v>
+        <v>604</v>
       </c>
       <c r="AH60" s="55"/>
       <c r="AI60" s="55"/>
@@ -11441,16 +10647,16 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>757</v>
+        <v>611</v>
       </c>
       <c r="AY60" s="55" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>758</v>
+        <v>612</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11503,10 +10709,10 @@
         <v>85</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA61" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB61" s="55"/>
       <c r="AC61" s="55"/>
@@ -11514,7 +10720,7 @@
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>758</v>
+        <v>612</v>
       </c>
       <c r="AH61" s="55"/>
       <c r="AI61" s="55"/>
@@ -11535,34 +10741,34 @@
       </c>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY61" s="55"/>
       <c r="AZ61" s="57"/>
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>759</v>
+        <v>613</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>760</v>
+        <v>614</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>761</v>
+        <v>615</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55" t="s">
-        <v>762</v>
+        <v>616</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="55">
         <v>860</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>763</v>
+        <v>617</v>
       </c>
       <c r="J62" s="55" t="s">
         <v>83</v>
@@ -11593,10 +10799,10 @@
         <v>85</v>
       </c>
       <c r="V62" s="67" t="s">
-        <v>895</v>
+        <v>736</v>
       </c>
       <c r="W62" s="67" t="s">
-        <v>760</v>
+        <v>614</v>
       </c>
       <c r="X62" s="55" t="s">
         <v>85</v>
@@ -11611,16 +10817,16 @@
         <v>19</v>
       </c>
       <c r="AB62" s="55" t="s">
-        <v>764</v>
+        <v>618</v>
       </c>
       <c r="AC62" s="55" t="s">
-        <v>765</v>
+        <v>619</v>
       </c>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>759</v>
+        <v>613</v>
       </c>
       <c r="AH62" s="55"/>
       <c r="AI62" s="55"/>
@@ -11639,16 +10845,16 @@
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
       <c r="AX62" s="56" t="s">
-        <v>766</v>
+        <v>620</v>
       </c>
       <c r="AY62" s="55" t="s">
-        <v>767</v>
+        <v>621</v>
       </c>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>768</v>
+        <v>622</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11687,7 +10893,7 @@
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA63" s="55"/>
       <c r="AB63" s="55"/>
@@ -11696,7 +10902,7 @@
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>768</v>
+        <v>622</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="55"/>
@@ -11720,29 +10926,29 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>769</v>
+        <v>623</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>770</v>
+        <v>624</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>771</v>
+        <v>625</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>772</v>
+        <v>626</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>773</v>
+        <v>627</v>
       </c>
       <c r="H64" s="55">
         <v>508</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>774</v>
+        <v>628</v>
       </c>
       <c r="J64" s="55" t="s">
         <v>83</v>
@@ -11769,10 +10975,10 @@
         <v>30438</v>
       </c>
       <c r="R64" s="55" t="s">
-        <v>775</v>
+        <v>629</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>770</v>
+        <v>624</v>
       </c>
       <c r="T64" s="55" t="s">
         <v>85</v>
@@ -11781,10 +10987,10 @@
         <v>85</v>
       </c>
       <c r="V64" s="67" t="s">
-        <v>775</v>
+        <v>629</v>
       </c>
       <c r="W64" s="67" t="s">
-        <v>770</v>
+        <v>624</v>
       </c>
       <c r="X64" s="55" t="s">
         <v>85</v>
@@ -11793,29 +10999,25 @@
         <v>85</v>
       </c>
       <c r="Z64" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA64" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB64" s="55" t="s">
-        <v>776</v>
+        <v>630</v>
       </c>
       <c r="AC64" s="55" t="s">
-        <v>777</v>
+        <v>631</v>
       </c>
       <c r="AD64" s="55"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="AH64" s="55" t="s">
-        <v>779</v>
-      </c>
-      <c r="AI64" s="55" t="s">
-        <v>780</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="55"/>
       <c r="AJ64" s="55"/>
       <c r="AK64" s="55"/>
       <c r="AL64" s="55"/>
@@ -11840,27 +11042,27 @@
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>781</v>
+        <v>633</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>782</v>
+        <v>634</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>783</v>
+        <v>635</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>784</v>
+        <v>636</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55">
         <v>203</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>785</v>
+        <v>637</v>
       </c>
       <c r="J65" s="55" t="s">
         <v>83</v>
@@ -11891,10 +11093,10 @@
         <v>85</v>
       </c>
       <c r="V65" s="67" t="s">
-        <v>786</v>
+        <v>638</v>
       </c>
       <c r="W65" s="67" t="s">
-        <v>782</v>
+        <v>634</v>
       </c>
       <c r="X65" s="55" t="s">
         <v>85</v>
@@ -11909,18 +11111,18 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
-        <v>786</v>
+        <v>638</v>
       </c>
       <c r="AC65" s="55" t="s">
-        <v>782</v>
+        <v>634</v>
       </c>
       <c r="AD65" s="55" t="s">
-        <v>787</v>
+        <v>639</v>
       </c>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>781</v>
+        <v>633</v>
       </c>
       <c r="AH65" s="55"/>
       <c r="AI65" s="55"/>
@@ -11939,38 +11141,38 @@
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>788</v>
+        <v>640</v>
       </c>
       <c r="AY65" s="55" t="s">
-        <v>674</v>
+        <v>531</v>
       </c>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>789</v>
+        <v>641</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>790</v>
+        <v>642</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>791</v>
+        <v>643</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>792</v>
+        <v>644</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>793</v>
+        <v>645</v>
       </c>
       <c r="H66" s="55">
         <v>401</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>794</v>
+        <v>646</v>
       </c>
       <c r="J66" s="55" t="s">
         <v>83</v>
@@ -11997,10 +11199,10 @@
         <v>25332</v>
       </c>
       <c r="R66" s="55" t="s">
-        <v>795</v>
+        <v>647</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>790</v>
+        <v>642</v>
       </c>
       <c r="T66" s="55" t="s">
         <v>85</v>
@@ -12009,10 +11211,10 @@
         <v>85</v>
       </c>
       <c r="V66" s="67" t="s">
-        <v>795</v>
+        <v>647</v>
       </c>
       <c r="W66" s="67" t="s">
-        <v>790</v>
+        <v>642</v>
       </c>
       <c r="X66" s="55" t="s">
         <v>85</v>
@@ -12027,16 +11229,16 @@
         <v>19</v>
       </c>
       <c r="AB66" s="55" t="s">
-        <v>796</v>
+        <v>648</v>
       </c>
       <c r="AC66" s="55" t="s">
-        <v>797</v>
+        <v>649</v>
       </c>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>789</v>
+        <v>641</v>
       </c>
       <c r="AH66" s="55"/>
       <c r="AI66" s="55"/>
@@ -12059,30 +11261,30 @@
       </c>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY66" s="55"/>
       <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>798</v>
+        <v>650</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>799</v>
+        <v>651</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>800</v>
+        <v>652</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>762</v>
+        <v>616</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>801</v>
+        <v>653</v>
       </c>
       <c r="H67" s="55">
         <v>860</v>
@@ -12111,26 +11313,26 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
       <c r="R67" s="55" t="s">
-        <v>802</v>
+        <v>654</v>
       </c>
       <c r="S67" s="55" t="s">
-        <v>803</v>
+        <v>655</v>
       </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
       <c r="V67" s="67" t="s">
-        <v>896</v>
+        <v>737</v>
       </c>
       <c r="W67" s="67" t="s">
-        <v>799</v>
+        <v>651</v>
       </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
       <c r="Z67" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA67" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB67" s="55"/>
       <c r="AC67" s="55"/>
@@ -12138,7 +11340,7 @@
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>798</v>
+        <v>650</v>
       </c>
       <c r="AH67" s="55"/>
       <c r="AI67" s="55"/>
@@ -12162,27 +11364,27 @@
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>804</v>
+        <v>656</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>805</v>
+        <v>657</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>806</v>
+        <v>658</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>807</v>
+        <v>659</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="G68" s="55"/>
       <c r="H68" s="55">
         <v>800</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>808</v>
+        <v>660</v>
       </c>
       <c r="J68" s="55" t="s">
         <v>83</v>
@@ -12213,10 +11415,10 @@
         <v>85</v>
       </c>
       <c r="V68" s="67" t="s">
-        <v>897</v>
+        <v>738</v>
       </c>
       <c r="W68" s="67" t="s">
-        <v>805</v>
+        <v>657</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>85</v>
@@ -12225,22 +11427,22 @@
         <v>85</v>
       </c>
       <c r="Z68" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA68" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB68" s="55" t="s">
-        <v>809</v>
+        <v>661</v>
       </c>
       <c r="AC68" s="55" t="s">
-        <v>810</v>
+        <v>662</v>
       </c>
       <c r="AD68" s="55"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>804</v>
+        <v>656</v>
       </c>
       <c r="AH68" s="55"/>
       <c r="AI68" s="55"/>
@@ -12259,36 +11461,36 @@
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>811</v>
+        <v>663</v>
       </c>
       <c r="AY68" s="55"/>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>812</v>
+        <v>664</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>814</v>
+        <v>666</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>815</v>
+        <v>667</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>816</v>
+        <v>668</v>
       </c>
       <c r="H69" s="55">
         <v>781</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>817</v>
+        <v>669</v>
       </c>
       <c r="J69" s="55" t="s">
         <v>83</v>
@@ -12315,10 +11517,10 @@
         <v>32258</v>
       </c>
       <c r="R69" s="55" t="s">
-        <v>818</v>
+        <v>670</v>
       </c>
       <c r="S69" s="55" t="s">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="T69" s="55" t="s">
         <v>85</v>
@@ -12327,10 +11529,10 @@
         <v>85</v>
       </c>
       <c r="V69" s="67" t="s">
-        <v>818</v>
+        <v>670</v>
       </c>
       <c r="W69" s="67" t="s">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="X69" s="55" t="s">
         <v>85</v>
@@ -12339,57 +11541,37 @@
         <v>85</v>
       </c>
       <c r="Z69" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA69" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB69" s="55" t="s">
-        <v>819</v>
+        <v>671</v>
       </c>
       <c r="AC69" s="55" t="s">
-        <v>820</v>
+        <v>672</v>
       </c>
       <c r="AD69" s="55"/>
       <c r="AE69" s="55" t="s">
-        <v>821</v>
+        <v>673</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>812</v>
-      </c>
-      <c r="AH69" s="55" t="s">
-        <v>822</v>
-      </c>
-      <c r="AI69" s="55" t="s">
-        <v>823</v>
-      </c>
-      <c r="AJ69" s="55" t="s">
-        <v>824</v>
-      </c>
-      <c r="AK69" s="55" t="s">
-        <v>825</v>
-      </c>
-      <c r="AL69" s="55" t="s">
-        <v>826</v>
-      </c>
-      <c r="AM69" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="AN69" s="55" t="s">
-        <v>828</v>
-      </c>
-      <c r="AO69" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="AP69" s="55" t="s">
-        <v>830</v>
-      </c>
-      <c r="AQ69" s="55" t="s">
-        <v>831</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="AH69" s="55"/>
+      <c r="AI69" s="55"/>
+      <c r="AJ69" s="55"/>
+      <c r="AK69" s="55"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="55"/>
+      <c r="AP69" s="55"/>
+      <c r="AQ69" s="55"/>
       <c r="AR69" s="55" t="s">
-        <v>832</v>
+        <v>674</v>
       </c>
       <c r="AS69" s="55">
         <v>2013</v>
@@ -12401,7 +11583,7 @@
       </c>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>833</v>
+        <v>675</v>
       </c>
       <c r="AY69" s="55">
         <v>2016</v>
@@ -12410,27 +11592,27 @@
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>834</v>
+        <v>676</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>835</v>
+        <v>677</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>836</v>
+        <v>678</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>837</v>
+        <v>679</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55">
         <v>860</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>838</v>
+        <v>680</v>
       </c>
       <c r="J70" s="55" t="s">
         <v>83</v>
@@ -12461,44 +11643,42 @@
         <v>85</v>
       </c>
       <c r="V70" s="67" t="s">
-        <v>898</v>
+        <v>739</v>
       </c>
       <c r="W70" s="67" t="s">
-        <v>835</v>
+        <v>677</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>839</v>
+        <v>681</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>840</v>
+        <v>682</v>
       </c>
       <c r="Z70" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA70" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB70" s="55" t="s">
-        <v>841</v>
+        <v>683</v>
       </c>
       <c r="AC70" s="55" t="s">
-        <v>842</v>
+        <v>684</v>
       </c>
       <c r="AD70" s="55">
         <v>8606852046</v>
       </c>
       <c r="AE70" s="55" t="s">
-        <v>843</v>
+        <v>685</v>
       </c>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>834</v>
+        <v>676</v>
       </c>
       <c r="AH70" s="55"/>
       <c r="AI70" s="55"/>
-      <c r="AJ70" s="55" t="s">
-        <v>844</v>
-      </c>
+      <c r="AJ70" s="55"/>
       <c r="AK70" s="55"/>
       <c r="AL70" s="55"/>
       <c r="AM70" s="55"/>
@@ -12515,34 +11695,34 @@
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>845</v>
+        <v>686</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>846</v>
+        <v>687</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>847</v>
+        <v>688</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>848</v>
+        <v>689</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="55" t="s">
-        <v>849</v>
+        <v>690</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55">
         <v>877</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>850</v>
+        <v>691</v>
       </c>
       <c r="J71" s="55" t="s">
         <v>83</v>
@@ -12573,10 +11753,10 @@
         <v>85</v>
       </c>
       <c r="V71" s="67" t="s">
-        <v>899</v>
+        <v>740</v>
       </c>
       <c r="W71" s="67" t="s">
-        <v>847</v>
+        <v>688</v>
       </c>
       <c r="X71" s="55" t="s">
         <v>85</v>
@@ -12585,22 +11765,22 @@
         <v>85</v>
       </c>
       <c r="Z71" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA71" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB71" s="55" t="s">
-        <v>851</v>
+        <v>692</v>
       </c>
       <c r="AC71" s="55" t="s">
-        <v>852</v>
+        <v>693</v>
       </c>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>846</v>
+        <v>687</v>
       </c>
       <c r="AH71" s="55"/>
       <c r="AI71" s="55"/>
@@ -12619,14 +11799,14 @@
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
       <c r="AX71" s="56" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>853</v>
+        <v>694</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -12665,7 +11845,7 @@
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA72" s="55"/>
       <c r="AB72" s="55"/>
@@ -12674,7 +11854,7 @@
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>853</v>
+        <v>694</v>
       </c>
       <c r="AH72" s="55"/>
       <c r="AI72" s="55"/>
@@ -12698,29 +11878,29 @@
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>854</v>
+        <v>695</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>855</v>
+        <v>696</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>856</v>
+        <v>697</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="55" t="s">
-        <v>857</v>
+        <v>698</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>858</v>
+        <v>699</v>
       </c>
       <c r="H73" s="55">
         <v>413</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>859</v>
+        <v>700</v>
       </c>
       <c r="J73" s="55" t="s">
         <v>83</v>
@@ -12747,28 +11927,28 @@
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
       <c r="V73" s="67" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
       <c r="W73" s="67" t="s">
-        <v>855</v>
+        <v>696</v>
       </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
       <c r="AA73" s="55"/>
       <c r="AB73" s="55" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
       <c r="AC73" s="55" t="s">
-        <v>855</v>
+        <v>696</v>
       </c>
       <c r="AD73" s="55" t="s">
-        <v>861</v>
+        <v>702</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>854</v>
+        <v>695</v>
       </c>
       <c r="AH73" s="55"/>
       <c r="AI73" s="55"/>
@@ -12787,14 +11967,14 @@
       <c r="AV73" s="55"/>
       <c r="AW73" s="55"/>
       <c r="AX73" s="56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AY73" s="55"/>
       <c r="AZ73" s="57"/>
     </row>
     <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12842,7 +12022,7 @@
       <c r="AE74" s="55"/>
       <c r="AF74" s="55"/>
       <c r="AG74" s="55" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="AH74" s="55"/>
       <c r="AI74" s="55"/>
@@ -12862,7 +12042,7 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="55" t="s">
-        <v>863</v>
+        <v>704</v>
       </c>
       <c r="AZ74" s="57"/>
     </row>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFBB82-5870-584C-B6C0-64538AFE8CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0739ABCF-57B2-7346-B438-DA710F26F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4220,10 +4220,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP13" sqref="AP13"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0739ABCF-57B2-7346-B438-DA710F26F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6961C8-06E9-0942-BB4F-2C12C9A46CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4223,7 +4223,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomRight" activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6961C8-06E9-0942-BB4F-2C12C9A46CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A46F4-7E98-A740-9A27-D44EA77EA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="910">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -309,6 +309,30 @@
     <t>2010 Undergraduate Research</t>
   </si>
   <si>
+    <t>Elizabeth McAnally</t>
+  </si>
+  <si>
+    <t>mcanalle@bc.edu</t>
+  </si>
+  <si>
+    <t>Katerina Donahue</t>
+  </si>
+  <si>
+    <t>donahutu@bc.edu</t>
+  </si>
+  <si>
+    <t>Sarah Collins</t>
+  </si>
+  <si>
+    <t>collinwv@bc.edu</t>
+  </si>
+  <si>
+    <t>Mira Belle Mahendru; Public Relations Manager; Kendra Fitzpatrick; Operations Manager</t>
+  </si>
+  <si>
+    <t>mahendru@bc.edu; fitzpakx@bc.edu</t>
+  </si>
+  <si>
     <t>2012; 2019</t>
   </si>
   <si>
@@ -402,6 +426,15 @@
     <t>James.W.LaBelle@dartmouth.edu</t>
   </si>
   <si>
+    <t>Rahul Gupta</t>
+  </si>
+  <si>
+    <t>Annabelle Niblet</t>
+  </si>
+  <si>
+    <t>annabelle.e.niblett.26@dartmouth.edu</t>
+  </si>
+  <si>
     <t>Fairfield University</t>
   </si>
   <si>
@@ -468,6 +501,22 @@
     <t>2018 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
+    <t>Elizabeth Kozlov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elizabethkozlov@college.harvard.edu
+</t>
+  </si>
+  <si>
+    <t>Jorge Garcia Ponce</t>
+  </si>
+  <si>
+    <t>jorgegarciaponce@college.harvard.edu</t>
+  </si>
+  <si>
+    <t>benji_kan@college.harvard.edu</t>
+  </si>
+  <si>
     <t>Massachusetts Institute of Technology</t>
   </si>
   <si>
@@ -507,6 +556,34 @@
     <t>2022-2023 Outstanding Undergrad Research</t>
   </si>
   <si>
+    <t>Chirag Falor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfalor@mit.edu
+</t>
+  </si>
+  <si>
+    <t>Hope Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hopefu@mit.edu
+</t>
+  </si>
+  <si>
+    <t>Katherine Panebianco</t>
+  </si>
+  <si>
+    <t>kpanebia@mit.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine Panebianco
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpanebia@mit.edu
+</t>
+  </si>
+  <si>
     <t>2004; 2012; 2019</t>
   </si>
   <si>
@@ -543,6 +620,36 @@
     <t>2012 Outstanding Chapter; 2015  Outstanding Chapter ; 2016  Outstanding Chapter; 2015  Future Faces of Physics; 2018 Outstanding Chapter; 2019 Outstanding Chapter; 2018-2019 Blake Lilly; Blake Lilly 2019; 2022-2023 Marsh White</t>
   </si>
   <si>
+    <t>Co Presidents: Mysha Jahin Khan, Sasha Toole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khan59m@mtholyoke.edu ; toole22s@mtholyoke.edu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latika Joshi
+</t>
+  </si>
+  <si>
+    <t>joshi23l@mtholyoke.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midge Hartshorn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harts22m@mtholyoke.edu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Dunn; Senator/Social Chair
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dunn22t@mtholyoke.edu
+</t>
+  </si>
+  <si>
     <t>2011, 2021</t>
   </si>
   <si>
@@ -627,6 +734,30 @@
     <t>; 2015  Outstanding Chapter</t>
   </si>
   <si>
+    <t>Brook Hodgeman</t>
+  </si>
+  <si>
+    <t>bhodgeman@mail.smcvt.edu</t>
+  </si>
+  <si>
+    <t>Christian Vogt</t>
+  </si>
+  <si>
+    <t>cvogt2@mail.smcvt.edu</t>
+  </si>
+  <si>
+    <t>Chris Kombo</t>
+  </si>
+  <si>
+    <t>ckombo@mail.smcvt.edu</t>
+  </si>
+  <si>
+    <t>Samuel Vandewalle</t>
+  </si>
+  <si>
+    <t>svandewalle@mail.smcvt.edu</t>
+  </si>
+  <si>
     <t>2017-2020</t>
   </si>
   <si>
@@ -649,6 +780,30 @@
   </si>
   <si>
     <t>nfortune@smith.edu</t>
+  </si>
+  <si>
+    <t>Ian Wolter</t>
+  </si>
+  <si>
+    <t>iwolter@smith.edu</t>
+  </si>
+  <si>
+    <t>Ash Messier</t>
+  </si>
+  <si>
+    <t>amessier@smith.edu</t>
+  </si>
+  <si>
+    <t>Rebecca Webster</t>
+  </si>
+  <si>
+    <t>rwebster@smith.edu</t>
+  </si>
+  <si>
+    <t>Emma Davis</t>
+  </si>
+  <si>
+    <t>edavis@smith.edu</t>
   </si>
   <si>
     <t>November 21, 1975</t>
@@ -776,6 +931,33 @@
     <t>larry.ford@tufts.edu</t>
   </si>
   <si>
+    <t>Mallika Sinha</t>
+  </si>
+  <si>
+    <t>mallika.sinha@tufts.edu</t>
+  </si>
+  <si>
+    <t>Noah Stiegler</t>
+  </si>
+  <si>
+    <t>Elizabeth Panner</t>
+  </si>
+  <si>
+    <t>Elizabeth.Panner@tufts.edu</t>
+  </si>
+  <si>
+    <t>Ryan Luo</t>
+  </si>
+  <si>
+    <t>ryan.luo@tufts.edu</t>
+  </si>
+  <si>
+    <t>Leo_Sajkov; Event_Coordinator;</t>
+  </si>
+  <si>
+    <t>Leo.Sajkov@tufts.edu;</t>
+  </si>
+  <si>
     <t>2014; 2018</t>
   </si>
   <si>
@@ -833,6 +1015,30 @@
     <t>2017-2018</t>
   </si>
   <si>
+    <t>Aleigha Morgan</t>
+  </si>
+  <si>
+    <t>aleigha.morgan@maine.edu</t>
+  </si>
+  <si>
+    <t>Ryan Corzo</t>
+  </si>
+  <si>
+    <t>ryan.corzo@maine.edu</t>
+  </si>
+  <si>
+    <t>Theo Brucker</t>
+  </si>
+  <si>
+    <t>theodore.brucker@maine.edu</t>
+  </si>
+  <si>
+    <t>Nhan Ngo</t>
+  </si>
+  <si>
+    <t>vinhnhan.ngo@maine.edu</t>
+  </si>
+  <si>
     <t>2004; 2016; 2019; 2022</t>
   </si>
   <si>
@@ -867,6 +1073,12 @@
   </si>
   <si>
     <t>617-287-5408</t>
+  </si>
+  <si>
+    <t>Miranda Harkess</t>
+  </si>
+  <si>
+    <t>Miranda.Harkess001@umb.edu</t>
   </si>
   <si>
     <t>2023-2024</t>
@@ -909,6 +1121,36 @@
     <t>978-934-3775</t>
   </si>
   <si>
+    <t>Margaret Tseng</t>
+  </si>
+  <si>
+    <t>Margaret_Tseng@student.uml.edu</t>
+  </si>
+  <si>
+    <t>Patrick O'Keefe</t>
+  </si>
+  <si>
+    <t>Patrick_OKeefe2@student.uml.edu</t>
+  </si>
+  <si>
+    <t>Kevin Murphy</t>
+  </si>
+  <si>
+    <t>Kevin_Murphy4@student.uml.edu</t>
+  </si>
+  <si>
+    <t>Akshay Soni</t>
+  </si>
+  <si>
+    <t>Akshay_Soni@student.uml.edu</t>
+  </si>
+  <si>
+    <t>William Reggio, Webmaster; Griffin May, Head of Communication</t>
+  </si>
+  <si>
+    <t>William_Reggio@student.uml.edu, Griffin_May@student.uml.edu</t>
+  </si>
+  <si>
     <t>University of New Hampshire</t>
   </si>
   <si>
@@ -981,6 +1223,36 @@
     <t>University of Vermont</t>
   </si>
   <si>
+    <t>Anders Holm-Brown</t>
+  </si>
+  <si>
+    <t>Anders.Holm-Brown@uvm.edu</t>
+  </si>
+  <si>
+    <t>Nam Dinh</t>
+  </si>
+  <si>
+    <t>Nam.Dinh@uvm.edu</t>
+  </si>
+  <si>
+    <t>Isabelle Lapierre</t>
+  </si>
+  <si>
+    <t>Isabelle.Lapierre@uvm.edu</t>
+  </si>
+  <si>
+    <t>Liam Bennett</t>
+  </si>
+  <si>
+    <t>Liam.Bennett.1@uvm.edu</t>
+  </si>
+  <si>
+    <t>Jeremy Elliot, Outreach Chair</t>
+  </si>
+  <si>
+    <t>Jeremy.Elliott@uvm.edu</t>
+  </si>
+  <si>
     <t>June 15, 1971</t>
   </si>
   <si>
@@ -1020,6 +1292,33 @@
     <t>2011 Undergraduate Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
+    <t>Michelle Sangillo</t>
+  </si>
+  <si>
+    <t>Charlie Tribble</t>
+  </si>
+  <si>
+    <t>cmtribble@wpi.edu</t>
+  </si>
+  <si>
+    <t>Emrys Adams</t>
+  </si>
+  <si>
+    <t>ladams1@wpi.edu</t>
+  </si>
+  <si>
+    <t>Luciano Malavasi</t>
+  </si>
+  <si>
+    <t>lkmalavasi@wpi.edu</t>
+  </si>
+  <si>
+    <t>Syrena Prytko; Activities Director</t>
+  </si>
+  <si>
+    <t>smprytko@wpi.edu</t>
+  </si>
+  <si>
     <t>2021; 2022; 2023</t>
   </si>
   <si>
@@ -1053,6 +1352,24 @@
     <t>2016  Chapter Reporter - PhysCon; Travel Award 2020; 2022-2023 Outstanding Undergrad Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
+    <t>Barkotel Zemenu</t>
+  </si>
+  <si>
+    <t>Wyatt Kremer</t>
+  </si>
+  <si>
+    <t>Argyris Giannisis Manes</t>
+  </si>
+  <si>
+    <t>argyris.giannisismanes@yale.edu</t>
+  </si>
+  <si>
+    <t>Rose Branson ‘24 (Outreach Co-Chair), Ethan Martinez ‘26 (Outreach Co- Chair), ’26 (Media Co-Chair), Ryan Bose-Roy ’24 (Media Co-Chair), David Saunders ’23 (Co-Liaison to National SPS), Ruthie Gu ‘25 (Co-Liaison to National SPS), Maddi Brown ‘26 (DEI Co-Liaison), Lumisa Bista ’24 (DEI Co-Liaison), Misheal Saah ‘24 (Physics Community Coordinator), Maddie Butchko ’24 (Prize Lecture Chair)</t>
+  </si>
+  <si>
+    <t>Rose.Branson@yale.edu, Ethan.Martinez@yale.edu, Robin.Tsai@yale.edu, Ryan.Bose-Roy@yale.edu, David.Saunders@yale.edu, Ruthie.Gu@yale.edu, Maddi Brown@yale.edu, Lumisa.Bista@yale.edu, Misheal.Saah@yale.edu, Maddie.Butchko@yale.edu</t>
+  </si>
+  <si>
     <t>2016; 2022</t>
   </si>
   <si>
@@ -1119,6 +1436,36 @@
     <t>2008 Outstanding Chapter; 2009 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
+    <t>Suparna Samavedham</t>
+  </si>
+  <si>
+    <t>suparnas@bu.edu</t>
+  </si>
+  <si>
+    <t>Pranai Basani</t>
+  </si>
+  <si>
+    <t>bpranai@bu.edu</t>
+  </si>
+  <si>
+    <t>Sarah Luettgen</t>
+  </si>
+  <si>
+    <t>luettgen@bu.edu</t>
+  </si>
+  <si>
+    <t>Tanish Shelar</t>
+  </si>
+  <si>
+    <t>tvshelar@bu.edu</t>
+  </si>
+  <si>
+    <t>Jackson Wallace</t>
+  </si>
+  <si>
+    <t>ejwallac@bu.edu</t>
+  </si>
+  <si>
     <t>2008; 2019</t>
   </si>
   <si>
@@ -1152,6 +1499,30 @@
     <t>Bridgewater State College</t>
   </si>
   <si>
+    <t>Rydia Hayes-Huer</t>
+  </si>
+  <si>
+    <t>rhayeshuer@student.bridgew.edu</t>
+  </si>
+  <si>
+    <t>Sarah Auriemma</t>
+  </si>
+  <si>
+    <t>sauriemma@student.bridgew.edu</t>
+  </si>
+  <si>
+    <t>Emily Reardon</t>
+  </si>
+  <si>
+    <t>e1reardon@student.bridgew.edu</t>
+  </si>
+  <si>
+    <t>Megan Lalumiere</t>
+  </si>
+  <si>
+    <t>mlalumiere@student.bridgew.edu</t>
+  </si>
+  <si>
     <t>2015; 2016; 2017; 2018; 2021</t>
   </si>
   <si>
@@ -1188,6 +1559,30 @@
     <t>413-662-5266</t>
   </si>
   <si>
+    <t>Robert Leonard</t>
+  </si>
+  <si>
+    <t>rl8354@mcla.edu</t>
+  </si>
+  <si>
+    <t>Amalia Badohu</t>
+  </si>
+  <si>
+    <t>ab9869@mcla.edu</t>
+  </si>
+  <si>
+    <t>Corey Jakacky</t>
+  </si>
+  <si>
+    <t>cj4437@mcla.edu</t>
+  </si>
+  <si>
+    <t>Jacob Sawyer</t>
+  </si>
+  <si>
+    <t>js6035@mcla.edu</t>
+  </si>
+  <si>
     <t>2019; 2021</t>
   </si>
   <si>
@@ -1218,6 +1613,15 @@
     <t>sashman@providence.edu</t>
   </si>
   <si>
+    <t>Nicholas Rebelo</t>
+  </si>
+  <si>
+    <t>Christopher Marte Marte</t>
+  </si>
+  <si>
+    <t>cmartema@friars.providence.edu</t>
+  </si>
+  <si>
     <t>University of Connecticut</t>
   </si>
   <si>
@@ -1314,6 +1718,36 @@
     <t>2020-21</t>
   </si>
   <si>
+    <t>Dan Brass</t>
+  </si>
+  <si>
+    <t>dan.brass@my.wheaton.edu</t>
+  </si>
+  <si>
+    <t>Caleb Lee</t>
+  </si>
+  <si>
+    <t>caleb.lee@my.wheaton.edu</t>
+  </si>
+  <si>
+    <t>Tamara Watson</t>
+  </si>
+  <si>
+    <t>tamara.watson@my.wheaton.edu</t>
+  </si>
+  <si>
+    <t>Daniel Humphrey</t>
+  </si>
+  <si>
+    <t>daniel.humphrey@my.wheaton.edu</t>
+  </si>
+  <si>
+    <t>Trevor Gilkerson, Ingenium Coordinator</t>
+  </si>
+  <si>
+    <t>trevor.gilkerson@my.wheaton.edu</t>
+  </si>
+  <si>
     <t>American International College</t>
   </si>
   <si>
@@ -1524,6 +1958,9 @@
     <t>Tom Narita</t>
   </si>
   <si>
+    <t>John White</t>
+  </si>
+  <si>
     <t>Connecticut College</t>
   </si>
   <si>
@@ -1614,6 +2051,9 @@
     <t xml:space="preserve">  2013  Outstanding Chapter ; 2015  Outstanding Chapter</t>
   </si>
   <si>
+    <t>Justin Masterson</t>
+  </si>
+  <si>
     <t>December 14, 1973</t>
   </si>
   <si>
@@ -1773,6 +2213,9 @@
     <t>rknapik@norwich.edu</t>
   </si>
   <si>
+    <t>Jake Riti</t>
+  </si>
+  <si>
     <t>Rensselaer Polytechnic Institute of Connecticut</t>
   </si>
   <si>
@@ -1854,6 +2297,12 @@
     <t>To be entered</t>
   </si>
   <si>
+    <t>Matt Payne</t>
+  </si>
+  <si>
+    <t>mpayne@aip.org</t>
+  </si>
+  <si>
     <t>United States Coast Guard Academy</t>
   </si>
   <si>
@@ -1941,6 +2390,12 @@
     <t>University of Massachusetts Dartmouth</t>
   </si>
   <si>
+    <t>Trevor Robertson</t>
+  </si>
+  <si>
+    <t>trobertson@umassd.edu</t>
+  </si>
+  <si>
     <t>University of New Haven</t>
   </si>
   <si>
@@ -2064,6 +2519,36 @@
     <t>2022-2023 Travel Award</t>
   </si>
   <si>
+    <t>Kimberly Hernandez</t>
+  </si>
+  <si>
+    <t>khernan5@wellesley.edu</t>
+  </si>
+  <si>
+    <t>Minerva Johar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mjohar@wellesley.edu </t>
+  </si>
+  <si>
+    <t>Talia O'Shea</t>
+  </si>
+  <si>
+    <t>talia.oshea@wellesley.edu</t>
+  </si>
+  <si>
+    <t>Jiatong Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jy1@wellesley.edu </t>
+  </si>
+  <si>
+    <t>(Kirstin Hon, Social Media Coordinator) (Sarah Wells-Moran, Meme Coordinator) (Paula DeAnda &amp; Amy Quintanilla, Equity and Inclusivity Chairs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kh4@wellesley.edu, swellsmo@wellesley.edu, aquintan@wellesley.edupdeanda@wellesley.edu, </t>
+  </si>
+  <si>
     <t>2004; 2022</t>
   </si>
   <si>
@@ -2098,6 +2583,9 @@
   </si>
   <si>
     <t xml:space="preserve">  2013  Outstanding Chapter ; 2014  Outstanding Chapter</t>
+  </si>
+  <si>
+    <t>Nicolas Hartman</t>
   </si>
   <si>
     <t>December 17, 1986</t>
@@ -4220,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH25" sqref="AH25"/>
+      <selection pane="bottomRight" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4499,7 +4987,7 @@
         <v>85</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>705</v>
+        <v>864</v>
       </c>
       <c r="W2" s="63" t="s">
         <v>77</v>
@@ -4532,18 +5020,34 @@
       <c r="AG2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
+      <c r="AH2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="AR2" s="23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AS2" s="23">
         <v>2019</v>
@@ -4555,27 +5059,27 @@
       </c>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G3" s="23">
         <v>8632641</v>
@@ -4584,7 +5088,7 @@
         <v>401</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>83</v>
@@ -4605,14 +5109,14 @@
         <v>725</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="24"/>
       <c r="R3" s="23" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>85</v>
@@ -4621,10 +5125,10 @@
         <v>85</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="W3" s="63" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X3" s="23" t="s">
         <v>85</v>
@@ -4639,76 +5143,78 @@
         <v>19</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AC3" s="23" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AD3" s="23" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AE3" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
       <c r="AR3" s="23" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS3" s="23"/>
       <c r="AT3" s="23" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AU3" s="23"/>
       <c r="AV3" s="23">
         <v>2021</v>
       </c>
       <c r="AW3" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AX3" s="24" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AY3" s="23" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AZ3" s="26"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <v>603</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>83</v>
@@ -4731,10 +5237,10 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>85</v>
@@ -4743,10 +5249,10 @@
         <v>85</v>
       </c>
       <c r="V4" s="64" t="s">
-        <v>706</v>
+        <v>865</v>
       </c>
       <c r="W4" s="64" t="s">
-        <v>741</v>
+        <v>900</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>85</v>
@@ -4756,30 +5262,38 @@
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="AH4" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ4" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK4" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
       <c r="AT4" s="23"/>
@@ -4787,7 +5301,7 @@
       <c r="AV4" s="23"/>
       <c r="AW4" s="23"/>
       <c r="AX4" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY4" s="23">
         <v>2023</v>
@@ -4796,29 +5310,29 @@
     </row>
     <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="H5" s="23">
         <v>203</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>83</v>
@@ -4845,18 +5359,18 @@
         <v>33209</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="63" t="s">
-        <v>707</v>
+        <v>866</v>
       </c>
       <c r="W5" s="63" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -4867,31 +5381,31 @@
         <v>19</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AD5" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE5" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
       <c r="AR5" s="23">
         <v>2019</v>
       </c>
@@ -4903,7 +5417,7 @@
       </c>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY5" s="23">
         <v>2023</v>
@@ -4912,29 +5426,29 @@
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H6" s="23">
         <v>617</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>83</v>
@@ -4965,10 +5479,10 @@
         <v>85</v>
       </c>
       <c r="V6" s="63" t="s">
-        <v>708</v>
+        <v>867</v>
       </c>
       <c r="W6" s="63" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
@@ -4979,31 +5493,41 @@
         <v>19</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AF6" s="23"/>
       <c r="AG6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
+        <v>144</v>
+      </c>
+      <c r="AH6" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI6" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ6" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK6" s="63" t="s">
+        <v>157</v>
+      </c>
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63" t="s">
+        <v>158</v>
+      </c>
       <c r="AR6" s="23">
         <v>2012</v>
       </c>
@@ -5013,7 +5537,7 @@
       <c r="AV6" s="23"/>
       <c r="AW6" s="23"/>
       <c r="AX6" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY6" s="23">
         <v>2023</v>
@@ -5022,29 +5546,29 @@
     </row>
     <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="H7" s="23">
         <v>617</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>83</v>
@@ -5071,28 +5595,28 @@
         <v>30073</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="V7" s="63" t="s">
-        <v>709</v>
+        <v>868</v>
       </c>
       <c r="W7" s="63" t="s">
-        <v>742</v>
+        <v>901</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Z7" s="23" t="s">
         <v>19</v>
@@ -5101,33 +5625,49 @@
         <v>19</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AF7" s="23"/>
       <c r="AG7" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="AH7" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI7" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ7" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK7" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM7" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN7" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" s="63" t="s">
+        <v>179</v>
+      </c>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="23" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AS7" s="23">
         <v>2021</v>
@@ -5139,7 +5679,7 @@
       </c>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="AY7" s="23">
         <v>2023</v>
@@ -5148,29 +5688,29 @@
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H8" s="26">
         <v>413</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>83</v>
@@ -5197,10 +5737,10 @@
         <v>33733</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="T8" s="26" t="s">
         <v>85</v>
@@ -5209,10 +5749,10 @@
         <v>85</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>710</v>
+        <v>869</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>743</v>
+        <v>902</v>
       </c>
       <c r="X8" s="26" t="s">
         <v>85</v>
@@ -5227,34 +5767,50 @@
         <v>19</v>
       </c>
       <c r="AB8" s="26" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="AC8" s="26" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
+        <v>182</v>
+      </c>
+      <c r="AH8" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI8" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
+      <c r="AL8" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM8" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN8" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO8" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP8" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ8" s="32" t="s">
+        <v>199</v>
+      </c>
       <c r="AR8" s="26"/>
       <c r="AS8" s="26" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
@@ -5270,23 +5826,23 @@
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="H9" s="23">
         <v>603</v>
@@ -5319,18 +5875,18 @@
         <v>43206</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="26" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>744</v>
+        <v>903</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -5341,80 +5897,80 @@
         <v>19</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="32"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
       <c r="AR9" s="24" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS9" s="23">
         <v>2022</v>
       </c>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AV9" s="23">
         <v>2023</v>
       </c>
       <c r="AW9" s="23" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AX9" s="23" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AY9" s="24" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="H10" s="23">
         <v>802</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>83</v>
@@ -5441,18 +5997,18 @@
         <v>41922</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>711</v>
+        <v>870</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
@@ -5463,38 +6019,54 @@
         <v>19</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
+        <v>215</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI10" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ10" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK10" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM10" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN10" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO10" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
       <c r="AR10" s="23">
         <v>2019</v>
       </c>
       <c r="AS10" s="23"/>
       <c r="AT10" s="23"/>
       <c r="AU10" s="23" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="AV10" s="23">
         <v>2021</v>
@@ -5508,17 +6080,17 @@
     </row>
     <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>80</v>
@@ -5528,7 +6100,7 @@
         <v>413</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>83</v>
@@ -5555,10 +6127,10 @@
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="63" t="s">
-        <v>712</v>
+        <v>871</v>
       </c>
       <c r="W11" s="63" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
@@ -5569,31 +6141,47 @@
         <v>19</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="AC11" s="23" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="AD11" s="23">
         <v>4135853797</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
+        <v>237</v>
+      </c>
+      <c r="AH11" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI11" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ11" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK11" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL11" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM11" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN11" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO11" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
       <c r="AR11" s="23">
         <v>2022</v>
       </c>
@@ -5603,38 +6191,38 @@
       <c r="AV11" s="23"/>
       <c r="AW11" s="23"/>
       <c r="AX11" s="24" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="AY11" s="23" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="H12" s="23">
         <v>617</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>83</v>
@@ -5661,10 +6249,10 @@
         <v>40319</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="T12" s="23" t="s">
         <v>85</v>
@@ -5673,10 +6261,10 @@
         <v>85</v>
       </c>
       <c r="V12" s="63" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="W12" s="63" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="X12" s="23" t="s">
         <v>85</v>
@@ -5691,80 +6279,80 @@
         <v>19</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="AC12" s="23" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="AD12" s="23">
         <v>6175738013</v>
       </c>
       <c r="AE12" s="23" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="AF12" s="23" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="AG12" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
+        <v>254</v>
+      </c>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
       <c r="AR12" s="23" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="AS12" s="23"/>
       <c r="AT12" s="23" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="AU12" s="23" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="AV12" s="23">
         <v>2010</v>
       </c>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="AY12" s="23" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AZ12" s="23"/>
     </row>
     <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="H13" s="23">
         <v>860</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>83</v>
@@ -5791,10 +6379,10 @@
         <v>18044</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="T13" s="23" t="s">
         <v>85</v>
@@ -5803,10 +6391,10 @@
         <v>85</v>
       </c>
       <c r="V13" s="63" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="W13" s="63" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="X13" s="23" t="s">
         <v>85</v>
@@ -5821,31 +6409,31 @@
         <v>19</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="AC13" s="23" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="AE13" s="23" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
+        <v>270</v>
+      </c>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
       <c r="AR13" s="23">
         <v>2012</v>
       </c>
@@ -5857,40 +6445,40 @@
       </c>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY13" s="23" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AZ13" s="26"/>
     </row>
     <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="H14" s="23">
         <v>617</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>83</v>
@@ -5917,10 +6505,10 @@
         <v>17307</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="T14" s="23" t="s">
         <v>85</v>
@@ -5929,10 +6517,10 @@
         <v>85</v>
       </c>
       <c r="V14" s="63" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="W14" s="63" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -5943,30 +6531,50 @@
         <v>19</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
+        <v>282</v>
+      </c>
+      <c r="AH14" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI14" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ14" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK14" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL14" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM14" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN14" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO14" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP14" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ14" s="64" t="s">
+        <v>301</v>
+      </c>
       <c r="AR14" s="23"/>
       <c r="AS14" s="23" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
@@ -5975,10 +6583,10 @@
       </c>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="AZ14" s="26"/>
     </row>
@@ -5987,26 +6595,26 @@
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="H15" s="23">
         <v>207</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>83</v>
@@ -6033,28 +6641,28 @@
         <v>18043</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="V15" s="64" t="s">
-        <v>713</v>
+        <v>872</v>
       </c>
       <c r="W15" s="64" t="s">
-        <v>745</v>
+        <v>904</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>750</v>
+        <v>909</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>19</v>
@@ -6063,35 +6671,51 @@
         <v>19</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="AC15" s="23" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="AE15" s="23" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="AF15" s="23" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
+      <c r="AH15" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI15" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ15" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK15" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL15" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM15" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN15" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO15" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
       <c r="AR15" s="23" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="AS15" s="23">
         <v>2018</v>
@@ -6104,29 +6728,29 @@
         <v>2023</v>
       </c>
       <c r="AW15" s="23" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="AX15" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>80</v>
@@ -6136,7 +6760,7 @@
         <v>617</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>83</v>
@@ -6163,10 +6787,10 @@
         <v>27895</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="T16" s="23" t="s">
         <v>85</v>
@@ -6175,10 +6799,10 @@
         <v>85</v>
       </c>
       <c r="V16" s="64" t="s">
-        <v>714</v>
+        <v>873</v>
       </c>
       <c r="W16" s="64" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="X16" s="23" t="s">
         <v>85</v>
@@ -6193,22 +6817,26 @@
         <v>19</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="AC16" s="23" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="AD16" s="40" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="23"/>
+        <v>332</v>
+      </c>
+      <c r="AH16" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ16" s="63"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="26"/>
@@ -6217,11 +6845,11 @@
       <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="23" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="AU16" s="23"/>
       <c r="AV16" s="23">
@@ -6230,35 +6858,35 @@
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="H17" s="23">
         <v>978</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>83</v>
@@ -6285,10 +6913,10 @@
         <v>25165</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="T17" s="23" t="s">
         <v>85</v>
@@ -6297,10 +6925,10 @@
         <v>85</v>
       </c>
       <c r="V17" s="63" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="W17" s="63" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>85</v>
@@ -6315,29 +6943,49 @@
         <v>19</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
+        <v>345</v>
+      </c>
+      <c r="AH17" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI17" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ17" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK17" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL17" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM17" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN17" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO17" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP17" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ17" s="64" t="s">
+        <v>365</v>
+      </c>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
       <c r="AT17" s="23"/>
@@ -6354,29 +7002,29 @@
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="H18" s="23">
         <v>603</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>294</v>
+        <v>371</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>83</v>
@@ -6403,10 +7051,10 @@
         <v>18409</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>295</v>
+        <v>372</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>296</v>
+        <v>373</v>
       </c>
       <c r="T18" s="23" t="s">
         <v>85</v>
@@ -6415,10 +7063,10 @@
         <v>85</v>
       </c>
       <c r="V18" s="63" t="s">
-        <v>715</v>
+        <v>874</v>
       </c>
       <c r="W18" s="63" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
       <c r="X18" s="23" t="s">
         <v>85</v>
@@ -6433,29 +7081,29 @@
         <v>19</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="AC18" s="23" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
+        <v>366</v>
+      </c>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
       <c r="AR18" s="23">
         <v>2012</v>
       </c>
@@ -6467,7 +7115,7 @@
       </c>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
-        <v>300</v>
+        <v>377</v>
       </c>
       <c r="AY18" s="23">
         <v>2023</v>
@@ -6476,29 +7124,29 @@
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>305</v>
+        <v>382</v>
       </c>
       <c r="H19" s="23">
         <v>802</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>83</v>
@@ -6525,10 +7173,10 @@
         <v>38107</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="S19" s="23" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="T19" s="23" t="s">
         <v>85</v>
@@ -6537,10 +7185,10 @@
         <v>85</v>
       </c>
       <c r="V19" s="63" t="s">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="W19" s="63" t="s">
-        <v>308</v>
+        <v>385</v>
       </c>
       <c r="X19" s="23" t="s">
         <v>85</v>
@@ -6555,29 +7203,49 @@
         <v>19</v>
       </c>
       <c r="AB19" s="23" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
+        <v>389</v>
+      </c>
+      <c r="AH19" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI19" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ19" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK19" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL19" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM19" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN19" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO19" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="AP19" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ19" s="30" t="s">
+        <v>399</v>
+      </c>
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
@@ -6587,38 +7255,38 @@
       </c>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="AY19" s="23" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="H20" s="23">
         <v>508</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>83</v>
@@ -6645,18 +7313,18 @@
         <v>25619</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>716</v>
+        <v>875</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>746</v>
+        <v>905</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -6667,29 +7335,49 @@
         <v>19</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="AC20" s="23" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
+        <v>402</v>
+      </c>
+      <c r="AH20" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI20" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ20" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK20" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL20" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM20" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN20" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="AO20" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="AP20" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="AQ20" s="64" t="s">
+        <v>421</v>
+      </c>
       <c r="AR20" s="23">
         <v>2019</v>
       </c>
@@ -6703,36 +7391,36 @@
       </c>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24">
         <v>203</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>83</v>
@@ -6759,18 +7447,18 @@
         <v>44112</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="64" t="s">
-        <v>717</v>
+        <v>876</v>
       </c>
       <c r="W21" s="64" t="s">
-        <v>747</v>
+        <v>906</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -6781,31 +7469,47 @@
         <v>19</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="AC21" s="24" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
+        <v>423</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="AI21" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ21" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK21" s="30" t="s">
+        <v>434</v>
+      </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
+      <c r="AN21" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO21" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP21" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ21" s="30" t="s">
+        <v>438</v>
+      </c>
       <c r="AR21" s="24" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
@@ -6814,29 +7518,29 @@
         <v>2023</v>
       </c>
       <c r="AW21" s="24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AX21" s="24" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="AY21" s="24" t="s">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>80</v>
@@ -6846,7 +7550,7 @@
         <v>413</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="J22" s="45" t="s">
         <v>83</v>
@@ -6871,41 +7575,41 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="65" t="s">
-        <v>718</v>
+        <v>877</v>
       </c>
       <c r="W22" s="65" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="AD22" s="45" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="AE22" s="45" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
+        <v>442</v>
+      </c>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
       <c r="AR22" s="45"/>
       <c r="AS22" s="45">
         <v>2014</v>
@@ -6920,29 +7624,29 @@
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="H23" s="50">
         <v>617</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="J23" s="50" t="s">
         <v>83</v>
@@ -6969,10 +7673,10 @@
         <v>29692</v>
       </c>
       <c r="R23" s="50" t="s">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="S23" s="50" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="T23" s="50" t="s">
         <v>85</v>
@@ -6981,10 +7685,10 @@
         <v>85</v>
       </c>
       <c r="V23" s="66" t="s">
-        <v>719</v>
+        <v>878</v>
       </c>
       <c r="W23" s="66" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
@@ -6995,33 +7699,53 @@
         <v>19</v>
       </c>
       <c r="AB23" s="50" t="s">
-        <v>355</v>
+        <v>457</v>
       </c>
       <c r="AC23" s="50" t="s">
-        <v>356</v>
+        <v>458</v>
       </c>
       <c r="AD23" s="50" t="s">
-        <v>357</v>
+        <v>459</v>
       </c>
       <c r="AE23" s="50" t="s">
-        <v>358</v>
+        <v>460</v>
       </c>
       <c r="AF23" s="50"/>
       <c r="AG23" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="50"/>
-      <c r="AN23" s="50"/>
-      <c r="AO23" s="50"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
+        <v>451</v>
+      </c>
+      <c r="AH23" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI23" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ23" s="66" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK23" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL23" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM23" s="66" t="s">
+        <v>466</v>
+      </c>
+      <c r="AN23" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="AO23" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="AP23" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="AQ23" s="66" t="s">
+        <v>470</v>
+      </c>
       <c r="AR23" s="50" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
@@ -7031,24 +7755,24 @@
       </c>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="AY23" s="50"/>
       <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>361</v>
+        <v>473</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>363</v>
+        <v>475</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50" t="s">
-        <v>364</v>
+        <v>476</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>80</v>
@@ -7058,7 +7782,7 @@
         <v>508</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>365</v>
+        <v>477</v>
       </c>
       <c r="J24" s="50" t="s">
         <v>83</v>
@@ -7089,10 +7813,10 @@
         <v>85</v>
       </c>
       <c r="V24" s="66" t="s">
-        <v>720</v>
+        <v>879</v>
       </c>
       <c r="W24" s="66" t="s">
-        <v>748</v>
+        <v>907</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7103,29 +7827,45 @@
         <v>19</v>
       </c>
       <c r="AB24" s="50" t="s">
-        <v>366</v>
+        <v>478</v>
       </c>
       <c r="AC24" s="50" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="AD24" s="50" t="s">
-        <v>368</v>
+        <v>480</v>
       </c>
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="50"/>
-      <c r="AN24" s="50"/>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
+        <v>481</v>
+      </c>
+      <c r="AH24" s="66" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI24" s="66" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ24" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK24" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL24" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM24" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN24" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO24" s="66" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
       <c r="AR24" s="50">
         <v>2019</v>
       </c>
@@ -7136,35 +7876,35 @@
       <c r="AW24" s="50"/>
       <c r="AX24" s="45"/>
       <c r="AY24" s="50" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="H25" s="50">
         <v>413</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="J25" s="50" t="s">
         <v>83</v>
@@ -7191,10 +7931,10 @@
         <v>41012</v>
       </c>
       <c r="R25" s="50" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="S25" s="50" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="T25" s="50" t="s">
         <v>85</v>
@@ -7203,10 +7943,10 @@
         <v>85</v>
       </c>
       <c r="V25" s="66" t="s">
-        <v>721</v>
+        <v>880</v>
       </c>
       <c r="W25" s="66" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
@@ -7217,29 +7957,45 @@
         <v>19</v>
       </c>
       <c r="AB25" s="50" t="s">
-        <v>379</v>
+        <v>499</v>
       </c>
       <c r="AC25" s="50" t="s">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AD25" s="50" t="s">
-        <v>381</v>
+        <v>501</v>
       </c>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="50"/>
-      <c r="AJ25" s="50"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="50"/>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
+        <v>491</v>
+      </c>
+      <c r="AH25" s="66" t="s">
+        <v>502</v>
+      </c>
+      <c r="AI25" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ25" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="AK25" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL25" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM25" s="66" t="s">
+        <v>507</v>
+      </c>
+      <c r="AN25" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO25" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
       <c r="AR25" s="50">
         <v>2019</v>
       </c>
@@ -7254,35 +8010,35 @@
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>383</v>
+        <v>511</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>386</v>
+        <v>514</v>
       </c>
       <c r="H26" s="50">
         <v>401</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>387</v>
+        <v>515</v>
       </c>
       <c r="J26" s="50" t="s">
         <v>83</v>
@@ -7309,10 +8065,10 @@
         <v>22787</v>
       </c>
       <c r="R26" s="50" t="s">
-        <v>388</v>
+        <v>516</v>
       </c>
       <c r="S26" s="50" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="T26" s="50" t="s">
         <v>85</v>
@@ -7321,10 +8077,10 @@
         <v>85</v>
       </c>
       <c r="V26" s="66" t="s">
-        <v>722</v>
+        <v>881</v>
       </c>
       <c r="W26" s="66" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="X26" s="50" t="s">
         <v>85</v>
@@ -7339,27 +8095,35 @@
         <v>19</v>
       </c>
       <c r="AB26" s="50" t="s">
-        <v>390</v>
+        <v>518</v>
       </c>
       <c r="AC26" s="50" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="AD26" s="50"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="50"/>
-      <c r="AJ26" s="50"/>
-      <c r="AK26" s="50"/>
-      <c r="AL26" s="50"/>
-      <c r="AM26" s="50"/>
-      <c r="AN26" s="50"/>
-      <c r="AO26" s="50"/>
-      <c r="AP26" s="50"/>
-      <c r="AQ26" s="50"/>
+        <v>511</v>
+      </c>
+      <c r="AH26" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="AI26" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ26" s="66" t="s">
+        <v>521</v>
+      </c>
+      <c r="AK26" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
       <c r="AR26" s="50"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
@@ -7369,36 +8133,36 @@
       </c>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY26" s="50"/>
       <c r="AZ26" s="51"/>
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>392</v>
+        <v>523</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>395</v>
+        <v>526</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>396</v>
+        <v>527</v>
       </c>
       <c r="H27" s="45">
         <v>860</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="J27" s="45" t="s">
         <v>83</v>
@@ -7425,10 +8189,10 @@
         <v>18408</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>398</v>
+        <v>529</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>399</v>
+        <v>530</v>
       </c>
       <c r="T27" s="45" t="s">
         <v>85</v>
@@ -7437,10 +8201,10 @@
         <v>85</v>
       </c>
       <c r="V27" s="65" t="s">
-        <v>723</v>
+        <v>882</v>
       </c>
       <c r="W27" s="65" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="X27" s="45" t="s">
         <v>85</v>
@@ -7455,33 +8219,33 @@
         <v>19</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>400</v>
+        <v>531</v>
       </c>
       <c r="AC27" s="45" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
       <c r="AD27" s="45" t="s">
-        <v>402</v>
+        <v>533</v>
       </c>
       <c r="AE27" s="45" t="s">
-        <v>403</v>
+        <v>534</v>
       </c>
       <c r="AF27" s="45"/>
       <c r="AG27" s="45" t="s">
-        <v>392</v>
-      </c>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
+        <v>523</v>
+      </c>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
       <c r="AR27" s="45" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
@@ -7491,26 +8255,26 @@
       </c>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY27" s="45" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="AZ27" s="48"/>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>407</v>
+        <v>538</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>80</v>
@@ -7520,7 +8284,7 @@
         <v>413</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>408</v>
+        <v>539</v>
       </c>
       <c r="J28" s="51" t="s">
         <v>83</v>
@@ -7551,10 +8315,10 @@
         <v>85</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>724</v>
+        <v>883</v>
       </c>
       <c r="W28" s="51" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="X28" s="51" t="s">
         <v>85</v>
@@ -7569,18 +8333,18 @@
         <v>19</v>
       </c>
       <c r="AB28" s="51" t="s">
-        <v>409</v>
+        <v>540</v>
       </c>
       <c r="AC28" s="51" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
       <c r="AD28" s="51" t="s">
-        <v>411</v>
+        <v>542</v>
       </c>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="AH28" s="51"/>
       <c r="AI28" s="51"/>
@@ -7600,35 +8364,35 @@
       <c r="AW28" s="51"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="51" t="s">
-        <v>412</v>
+        <v>543</v>
       </c>
       <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
-        <v>413</v>
+        <v>544</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>415</v>
+        <v>546</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>416</v>
+        <v>547</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>80</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>417</v>
+        <v>548</v>
       </c>
       <c r="H29" s="51">
         <v>508</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>83</v>
@@ -7665,33 +8429,53 @@
         <v>19</v>
       </c>
       <c r="AB29" s="51" t="s">
-        <v>419</v>
+        <v>550</v>
       </c>
       <c r="AC29" s="51" t="s">
-        <v>420</v>
+        <v>551</v>
       </c>
       <c r="AD29" s="51" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="AE29" s="51" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="AF29" s="51" t="s">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="AG29" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
+        <v>544</v>
+      </c>
+      <c r="AH29" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI29" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ29" s="51" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK29" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="AL29" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM29" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="AN29" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="AO29" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="AP29" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="AQ29" s="51" t="s">
+        <v>564</v>
+      </c>
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
       <c r="AT29" s="51"/>
@@ -7701,14 +8485,14 @@
       </c>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY29" s="51"/>
       <c r="AZ29" s="51"/>
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>424</v>
+        <v>565</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -7747,7 +8531,7 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
@@ -7756,18 +8540,18 @@
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
+        <v>565</v>
+      </c>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="67"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="67"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="67"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="67"/>
+      <c r="AP30" s="67"/>
+      <c r="AQ30" s="67"/>
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="55"/>
@@ -7775,14 +8559,14 @@
       <c r="AV30" s="55"/>
       <c r="AW30" s="55"/>
       <c r="AX30" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY30" s="55"/>
       <c r="AZ30" s="57"/>
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -7821,7 +8605,7 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA31" s="55"/>
       <c r="AB31" s="55"/>
@@ -7830,18 +8614,18 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
+        <v>566</v>
+      </c>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
+      <c r="AJ31" s="67"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="67"/>
+      <c r="AP31" s="67"/>
+      <c r="AQ31" s="67"/>
       <c r="AR31" s="55"/>
       <c r="AS31" s="55"/>
       <c r="AT31" s="55"/>
@@ -7849,36 +8633,36 @@
       <c r="AV31" s="55"/>
       <c r="AW31" s="55"/>
       <c r="AX31" s="56" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="57"/>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>426</v>
+        <v>567</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>427</v>
+        <v>568</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>428</v>
+        <v>569</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
-        <v>429</v>
+        <v>570</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>430</v>
+        <v>571</v>
       </c>
       <c r="H32" s="55">
         <v>207</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>431</v>
+        <v>572</v>
       </c>
       <c r="J32" s="55" t="s">
         <v>83</v>
@@ -7905,41 +8689,41 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="67" t="s">
-        <v>725</v>
+        <v>884</v>
       </c>
       <c r="W32" s="67" t="s">
-        <v>427</v>
+        <v>568</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55" t="s">
-        <v>432</v>
+        <v>573</v>
       </c>
       <c r="AC32" s="55" t="s">
-        <v>433</v>
+        <v>574</v>
       </c>
       <c r="AD32" s="55" t="s">
-        <v>434</v>
+        <v>575</v>
       </c>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
       <c r="AG32" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
-      <c r="AO32" s="55"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="55"/>
+        <v>567</v>
+      </c>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="67"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
       <c r="AR32" s="55"/>
       <c r="AS32" s="55"/>
       <c r="AT32" s="55"/>
@@ -7947,14 +8731,14 @@
       <c r="AV32" s="55"/>
       <c r="AW32" s="55"/>
       <c r="AX32" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY32" s="55"/>
       <c r="AZ32" s="57"/>
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>435</v>
+        <v>576</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -8000,18 +8784,18 @@
       <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55" t="s">
-        <v>435</v>
-      </c>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
-      <c r="AO33" s="55"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="55"/>
+        <v>576</v>
+      </c>
+      <c r="AH33" s="67"/>
+      <c r="AI33" s="67"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="67"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="55"/>
@@ -8024,7 +8808,7 @@
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>436</v>
+        <v>577</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -8065,7 +8849,7 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA34" s="55"/>
       <c r="AB34" s="55"/>
@@ -8074,18 +8858,18 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="55"/>
-      <c r="AO34" s="55"/>
-      <c r="AP34" s="55"/>
-      <c r="AQ34" s="55"/>
+        <v>577</v>
+      </c>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="67"/>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="67"/>
       <c r="AR34" s="55"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="55"/>
@@ -8093,38 +8877,38 @@
       <c r="AV34" s="55"/>
       <c r="AW34" s="55"/>
       <c r="AX34" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY34" s="55" t="s">
-        <v>437</v>
+        <v>578</v>
       </c>
       <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>439</v>
+        <v>580</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>440</v>
+        <v>581</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="s">
-        <v>441</v>
+        <v>582</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="H35" s="55">
         <v>207</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>443</v>
+        <v>584</v>
       </c>
       <c r="J35" s="55" t="s">
         <v>83</v>
@@ -8151,10 +8935,10 @@
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
       <c r="V35" s="67" t="s">
-        <v>726</v>
+        <v>885</v>
       </c>
       <c r="W35" s="67" t="s">
-        <v>439</v>
+        <v>580</v>
       </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
@@ -8163,62 +8947,62 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
-        <v>444</v>
+        <v>585</v>
       </c>
       <c r="AC35" s="55" t="s">
-        <v>445</v>
+        <v>586</v>
       </c>
       <c r="AD35" s="55" t="s">
-        <v>446</v>
+        <v>587</v>
       </c>
       <c r="AE35" s="55"/>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55" t="s">
-        <v>438</v>
-      </c>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="55"/>
-      <c r="AO35" s="55"/>
-      <c r="AP35" s="55"/>
-      <c r="AQ35" s="55"/>
+        <v>579</v>
+      </c>
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
       <c r="AR35" s="55" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="AS35" s="55" t="s">
-        <v>447</v>
+        <v>588</v>
       </c>
       <c r="AT35" s="55"/>
       <c r="AU35" s="55"/>
       <c r="AV35" s="55"/>
       <c r="AW35" s="55" t="s">
-        <v>448</v>
+        <v>589</v>
       </c>
       <c r="AX35" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY35" s="55" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="AZ35" s="57"/>
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>449</v>
+        <v>590</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>450</v>
+        <v>591</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>451</v>
+        <v>592</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55" t="s">
-        <v>452</v>
+        <v>593</v>
       </c>
       <c r="F36" s="55" t="s">
         <v>80</v>
@@ -8228,7 +9012,7 @@
         <v>781</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>453</v>
+        <v>594</v>
       </c>
       <c r="J36" s="55" t="s">
         <v>83</v>
@@ -8259,10 +9043,10 @@
         <v>85</v>
       </c>
       <c r="V36" s="67" t="s">
-        <v>727</v>
+        <v>886</v>
       </c>
       <c r="W36" s="67" t="s">
-        <v>749</v>
+        <v>908</v>
       </c>
       <c r="X36" s="55" t="s">
         <v>85</v>
@@ -8271,33 +9055,33 @@
         <v>85</v>
       </c>
       <c r="Z36" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA36" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB36" s="55" t="s">
-        <v>454</v>
+        <v>595</v>
       </c>
       <c r="AC36" s="55" t="s">
-        <v>455</v>
+        <v>596</v>
       </c>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="55"/>
-      <c r="AP36" s="55"/>
-      <c r="AQ36" s="55"/>
+        <v>590</v>
+      </c>
+      <c r="AH36" s="67"/>
+      <c r="AI36" s="67"/>
+      <c r="AJ36" s="67"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
       <c r="AR36" s="55"/>
       <c r="AS36" s="55"/>
       <c r="AT36" s="55"/>
@@ -8305,14 +9089,14 @@
       <c r="AV36" s="55"/>
       <c r="AW36" s="55"/>
       <c r="AX36" s="56" t="s">
-        <v>456</v>
+        <v>597</v>
       </c>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>457</v>
+        <v>598</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -8358,18 +9142,18 @@
       <c r="AE37" s="55"/>
       <c r="AF37" s="55"/>
       <c r="AG37" s="55" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="55"/>
-      <c r="AQ37" s="55"/>
+        <v>598</v>
+      </c>
+      <c r="AH37" s="67"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="67"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="55"/>
       <c r="AT37" s="55"/>
@@ -8384,29 +9168,29 @@
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>458</v>
+        <v>599</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>459</v>
+        <v>600</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>460</v>
+        <v>601</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>461</v>
+        <v>602</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>462</v>
+        <v>603</v>
       </c>
       <c r="H38" s="55">
         <v>860</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
       <c r="J38" s="55" t="s">
         <v>83</v>
@@ -8433,10 +9217,10 @@
         <v>33738</v>
       </c>
       <c r="R38" s="55" t="s">
-        <v>464</v>
+        <v>605</v>
       </c>
       <c r="S38" s="55" t="s">
-        <v>459</v>
+        <v>600</v>
       </c>
       <c r="T38" s="55" t="s">
         <v>85</v>
@@ -8445,10 +9229,10 @@
         <v>85</v>
       </c>
       <c r="V38" s="67" t="s">
-        <v>464</v>
+        <v>605</v>
       </c>
       <c r="W38" s="67" t="s">
-        <v>459</v>
+        <v>600</v>
       </c>
       <c r="X38" s="55" t="s">
         <v>85</v>
@@ -8463,31 +9247,31 @@
         <v>19</v>
       </c>
       <c r="AB38" s="55" t="s">
-        <v>465</v>
+        <v>606</v>
       </c>
       <c r="AC38" s="55" t="s">
-        <v>466</v>
+        <v>607</v>
       </c>
       <c r="AD38" s="55" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE38" s="55"/>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
+        <v>599</v>
+      </c>
+      <c r="AH38" s="67"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="67"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="67"/>
+      <c r="AQ38" s="67"/>
       <c r="AR38" s="55" t="s">
-        <v>467</v>
+        <v>608</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
@@ -8497,36 +9281,36 @@
       </c>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
-        <v>468</v>
+        <v>609</v>
       </c>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
-        <v>469</v>
+        <v>610</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>470</v>
+        <v>611</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>471</v>
+        <v>612</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>472</v>
+        <v>613</v>
       </c>
       <c r="H39" s="55">
         <v>508</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>473</v>
+        <v>614</v>
       </c>
       <c r="J39" s="55" t="s">
         <v>83</v>
@@ -8553,10 +9337,10 @@
         <v>22763</v>
       </c>
       <c r="R39" s="55" t="s">
-        <v>474</v>
+        <v>615</v>
       </c>
       <c r="S39" s="55" t="s">
-        <v>475</v>
+        <v>616</v>
       </c>
       <c r="T39" s="55" t="s">
         <v>85</v>
@@ -8565,10 +9349,10 @@
         <v>85</v>
       </c>
       <c r="V39" s="67" t="s">
-        <v>728</v>
+        <v>887</v>
       </c>
       <c r="W39" s="67" t="s">
-        <v>470</v>
+        <v>611</v>
       </c>
       <c r="X39" s="55" t="s">
         <v>85</v>
@@ -8577,37 +9361,37 @@
         <v>85</v>
       </c>
       <c r="Z39" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA39" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB39" s="55" t="s">
-        <v>476</v>
+        <v>617</v>
       </c>
       <c r="AC39" s="55" t="s">
-        <v>477</v>
+        <v>618</v>
       </c>
       <c r="AD39" s="55" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE39" s="55"/>
       <c r="AF39" s="55"/>
       <c r="AG39" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
-      <c r="AN39" s="55"/>
-      <c r="AO39" s="55"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="55"/>
+        <v>610</v>
+      </c>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
       <c r="AR39" s="55" t="s">
-        <v>478</v>
+        <v>619</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
@@ -8622,29 +9406,29 @@
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
-        <v>479</v>
+        <v>620</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>480</v>
+        <v>621</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>481</v>
+        <v>622</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55" t="s">
-        <v>482</v>
+        <v>623</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>483</v>
+        <v>624</v>
       </c>
       <c r="H40" s="55">
         <v>207</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>484</v>
+        <v>625</v>
       </c>
       <c r="J40" s="55" t="s">
         <v>83</v>
@@ -8671,18 +9455,18 @@
         <v>17658</v>
       </c>
       <c r="R40" s="55" t="s">
-        <v>485</v>
+        <v>626</v>
       </c>
       <c r="S40" s="55" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
       <c r="V40" s="67" t="s">
-        <v>485</v>
+        <v>626</v>
       </c>
       <c r="W40" s="67" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
@@ -8693,27 +9477,27 @@
         <v>19</v>
       </c>
       <c r="AB40" s="55" t="s">
-        <v>485</v>
+        <v>626</v>
       </c>
       <c r="AC40" s="55" t="s">
-        <v>486</v>
+        <v>627</v>
       </c>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
+        <v>620</v>
+      </c>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="67"/>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="67"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
@@ -8723,38 +9507,38 @@
       </c>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY40" s="55" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="AZ40" s="57"/>
     </row>
     <row r="41" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
-        <v>487</v>
+        <v>628</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>489</v>
+        <v>630</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="F41" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>490</v>
+        <v>631</v>
       </c>
       <c r="H41" s="55">
         <v>508</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>491</v>
+        <v>632</v>
       </c>
       <c r="J41" s="55" t="s">
         <v>83</v>
@@ -8781,10 +9565,10 @@
         <v>25618</v>
       </c>
       <c r="R41" s="55" t="s">
-        <v>492</v>
+        <v>633</v>
       </c>
       <c r="S41" s="55" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
       <c r="T41" s="55" t="s">
         <v>85</v>
@@ -8793,10 +9577,10 @@
         <v>85</v>
       </c>
       <c r="V41" s="67" t="s">
-        <v>492</v>
+        <v>633</v>
       </c>
       <c r="W41" s="67" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
       <c r="X41" s="55" t="s">
         <v>85</v>
@@ -8811,29 +9595,31 @@
         <v>19</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>493</v>
+        <v>634</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>488</v>
+        <v>629</v>
       </c>
       <c r="AD41" s="55" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
-      <c r="AJ41" s="55"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
-      <c r="AP41" s="55"/>
-      <c r="AQ41" s="55"/>
+        <v>628</v>
+      </c>
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
       <c r="AR41" s="55"/>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
@@ -8848,29 +9634,29 @@
     </row>
     <row r="42" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
-        <v>494</v>
+        <v>636</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>496</v>
+        <v>638</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55" t="s">
-        <v>497</v>
+        <v>639</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>498</v>
+        <v>640</v>
       </c>
       <c r="H42" s="55">
         <v>860</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>499</v>
+        <v>641</v>
       </c>
       <c r="J42" s="55" t="s">
         <v>83</v>
@@ -8897,10 +9683,10 @@
         <v>35543</v>
       </c>
       <c r="R42" s="55" t="s">
-        <v>500</v>
+        <v>642</v>
       </c>
       <c r="S42" s="55" t="s">
-        <v>501</v>
+        <v>643</v>
       </c>
       <c r="T42" s="55" t="s">
         <v>85</v>
@@ -8909,10 +9695,10 @@
         <v>85</v>
       </c>
       <c r="V42" s="67" t="s">
-        <v>729</v>
+        <v>888</v>
       </c>
       <c r="W42" s="67" t="s">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="X42" s="55" t="s">
         <v>85</v>
@@ -8927,29 +9713,29 @@
         <v>19</v>
       </c>
       <c r="AB42" s="55" t="s">
-        <v>500</v>
+        <v>642</v>
       </c>
       <c r="AC42" s="55" t="s">
-        <v>501</v>
+        <v>643</v>
       </c>
       <c r="AD42" s="55" t="s">
-        <v>502</v>
+        <v>644</v>
       </c>
       <c r="AE42" s="55"/>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
+        <v>636</v>
+      </c>
+      <c r="AH42" s="67"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="67"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="67"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="67"/>
+      <c r="AP42" s="67"/>
+      <c r="AQ42" s="67"/>
       <c r="AR42" s="55"/>
       <c r="AS42" s="55"/>
       <c r="AT42" s="55"/>
@@ -8959,36 +9745,36 @@
       </c>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="57"/>
     </row>
     <row r="43" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>503</v>
+        <v>645</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>504</v>
+        <v>646</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>505</v>
+        <v>647</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="s">
-        <v>506</v>
+        <v>648</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="H43" s="55">
         <v>617</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>508</v>
+        <v>650</v>
       </c>
       <c r="J43" s="55" t="s">
         <v>83</v>
@@ -9019,10 +9805,10 @@
         <v>85</v>
       </c>
       <c r="V43" s="67" t="s">
-        <v>730</v>
+        <v>889</v>
       </c>
       <c r="W43" s="67" t="s">
-        <v>504</v>
+        <v>646</v>
       </c>
       <c r="X43" s="55" t="s">
         <v>85</v>
@@ -9031,33 +9817,33 @@
         <v>85</v>
       </c>
       <c r="Z43" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA43" s="55"/>
       <c r="AB43" s="55" t="s">
-        <v>509</v>
+        <v>651</v>
       </c>
       <c r="AC43" s="55" t="s">
-        <v>504</v>
+        <v>646</v>
       </c>
       <c r="AD43" s="55" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
       <c r="AG43" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
+        <v>652</v>
+      </c>
+      <c r="AH43" s="67"/>
+      <c r="AI43" s="67"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67"/>
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
       <c r="AR43" s="55"/>
       <c r="AS43" s="55"/>
       <c r="AT43" s="55"/>
@@ -9070,7 +9856,7 @@
     </row>
     <row r="44" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>511</v>
+        <v>653</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -9109,7 +9895,7 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
@@ -9118,18 +9904,18 @@
       <c r="AE44" s="55"/>
       <c r="AF44" s="55"/>
       <c r="AG44" s="55" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
+        <v>653</v>
+      </c>
+      <c r="AH44" s="67"/>
+      <c r="AI44" s="67"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="67"/>
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="67"/>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="67"/>
       <c r="AR44" s="55"/>
       <c r="AS44" s="55"/>
       <c r="AT44" s="55"/>
@@ -9142,7 +9928,7 @@
     </row>
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>512</v>
+        <v>654</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -9190,18 +9976,18 @@
       <c r="AE45" s="55"/>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="AH45" s="55"/>
-      <c r="AI45" s="55"/>
-      <c r="AJ45" s="55"/>
-      <c r="AK45" s="55"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="55"/>
-      <c r="AN45" s="55"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="55"/>
-      <c r="AQ45" s="55"/>
+        <v>654</v>
+      </c>
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="67"/>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="67"/>
+      <c r="AM45" s="67"/>
+      <c r="AN45" s="67"/>
+      <c r="AO45" s="67"/>
+      <c r="AP45" s="67"/>
+      <c r="AQ45" s="67"/>
       <c r="AR45" s="55"/>
       <c r="AS45" s="55"/>
       <c r="AT45" s="55"/>
@@ -9216,7 +10002,7 @@
     </row>
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>513</v>
+        <v>655</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -9264,18 +10050,18 @@
       <c r="AE46" s="55"/>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="55"/>
-      <c r="AQ46" s="55"/>
+        <v>655</v>
+      </c>
+      <c r="AH46" s="67"/>
+      <c r="AI46" s="67"/>
+      <c r="AJ46" s="67"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="67"/>
+      <c r="AN46" s="67"/>
+      <c r="AO46" s="67"/>
+      <c r="AP46" s="67"/>
+      <c r="AQ46" s="67"/>
       <c r="AR46" s="55"/>
       <c r="AS46" s="55"/>
       <c r="AT46" s="55"/>
@@ -9284,23 +10070,23 @@
       <c r="AW46" s="55"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="55" t="s">
-        <v>514</v>
+        <v>656</v>
       </c>
       <c r="AZ46" s="57"/>
     </row>
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
-        <v>515</v>
+        <v>657</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="F47" s="55" t="s">
         <v>80</v>
@@ -9310,7 +10096,7 @@
         <v>978</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>519</v>
+        <v>661</v>
       </c>
       <c r="J47" s="55" t="s">
         <v>83</v>
@@ -9337,10 +10123,10 @@
         <v>41015</v>
       </c>
       <c r="R47" s="55" t="s">
-        <v>520</v>
+        <v>662</v>
       </c>
       <c r="S47" s="55" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="T47" s="55" t="s">
         <v>85</v>
@@ -9349,10 +10135,10 @@
         <v>85</v>
       </c>
       <c r="V47" s="67" t="s">
-        <v>521</v>
+        <v>663</v>
       </c>
       <c r="W47" s="67" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="X47" s="55" t="s">
         <v>85</v>
@@ -9367,31 +10153,33 @@
         <v>19</v>
       </c>
       <c r="AB47" s="55" t="s">
-        <v>521</v>
+        <v>663</v>
       </c>
       <c r="AC47" s="55" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="AD47" s="55" t="s">
-        <v>522</v>
+        <v>664</v>
       </c>
       <c r="AE47" s="55" t="s">
-        <v>523</v>
+        <v>665</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="55" t="s">
-        <v>515</v>
-      </c>
-      <c r="AH47" s="55"/>
-      <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="55"/>
-      <c r="AO47" s="55"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
+        <v>657</v>
+      </c>
+      <c r="AH47" s="67"/>
+      <c r="AI47" s="67"/>
+      <c r="AJ47" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="67"/>
+      <c r="AM47" s="67"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="67"/>
+      <c r="AP47" s="67"/>
+      <c r="AQ47" s="67"/>
       <c r="AR47" s="55"/>
       <c r="AS47" s="55"/>
       <c r="AT47" s="55"/>
@@ -9401,24 +10189,24 @@
       </c>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="AY47" s="55" t="s">
-        <v>525</v>
+        <v>668</v>
       </c>
       <c r="AZ47" s="57"/>
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>526</v>
+        <v>669</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55" t="s">
-        <v>527</v>
+        <v>670</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>80</v>
@@ -9428,7 +10216,7 @@
         <v>617</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>528</v>
+        <v>671</v>
       </c>
       <c r="J48" s="55" t="s">
         <v>83</v>
@@ -9461,27 +10249,27 @@
       </c>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
-        <v>529</v>
+        <v>672</v>
       </c>
       <c r="AC48" s="55" t="s">
-        <v>530</v>
+        <v>673</v>
       </c>
       <c r="AD48" s="55"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="55"/>
-      <c r="AJ48" s="55"/>
-      <c r="AK48" s="55"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="55"/>
-      <c r="AP48" s="55"/>
-      <c r="AQ48" s="55"/>
+        <v>669</v>
+      </c>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="67"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="67"/>
       <c r="AR48" s="55"/>
       <c r="AS48" s="55"/>
       <c r="AT48" s="55"/>
@@ -9490,35 +10278,35 @@
       <c r="AW48" s="55"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="55" t="s">
-        <v>531</v>
+        <v>674</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>532</v>
+        <v>675</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>533</v>
+        <v>676</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>534</v>
+        <v>677</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>535</v>
+        <v>678</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>536</v>
+        <v>679</v>
       </c>
       <c r="H49" s="55">
         <v>603</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>537</v>
+        <v>680</v>
       </c>
       <c r="J49" s="55" t="s">
         <v>83</v>
@@ -9553,10 +10341,10 @@
         <v>85</v>
       </c>
       <c r="V49" s="67" t="s">
-        <v>731</v>
+        <v>890</v>
       </c>
       <c r="W49" s="67" t="s">
-        <v>533</v>
+        <v>676</v>
       </c>
       <c r="X49" s="55" t="s">
         <v>85</v>
@@ -9569,29 +10357,29 @@
         <v>19</v>
       </c>
       <c r="AB49" s="55" t="s">
-        <v>538</v>
+        <v>681</v>
       </c>
       <c r="AC49" s="55" t="s">
-        <v>533</v>
+        <v>676</v>
       </c>
       <c r="AD49" s="55" t="s">
-        <v>539</v>
+        <v>682</v>
       </c>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="AH49" s="55"/>
-      <c r="AI49" s="55"/>
-      <c r="AJ49" s="55"/>
-      <c r="AK49" s="55"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="55"/>
-      <c r="AO49" s="55"/>
-      <c r="AP49" s="55"/>
-      <c r="AQ49" s="55"/>
+        <v>675</v>
+      </c>
+      <c r="AH49" s="67"/>
+      <c r="AI49" s="67"/>
+      <c r="AJ49" s="67"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="67"/>
+      <c r="AP49" s="67"/>
+      <c r="AQ49" s="67"/>
       <c r="AR49" s="55"/>
       <c r="AS49" s="55"/>
       <c r="AT49" s="55"/>
@@ -9601,32 +10389,32 @@
       </c>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
-        <v>540</v>
+        <v>683</v>
       </c>
       <c r="AY49" s="55" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>541</v>
+        <v>684</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>542</v>
+        <v>685</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55">
         <v>802</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>543</v>
+        <v>686</v>
       </c>
       <c r="J50" s="55" t="s">
         <v>83</v>
@@ -9655,31 +10443,31 @@
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
-        <v>544</v>
+        <v>687</v>
       </c>
       <c r="AC50" s="55" t="s">
-        <v>545</v>
+        <v>688</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="55"/>
       <c r="AG50" s="55" t="s">
-        <v>541</v>
-      </c>
-      <c r="AH50" s="55"/>
-      <c r="AI50" s="55"/>
-      <c r="AJ50" s="55"/>
-      <c r="AK50" s="55"/>
-      <c r="AL50" s="55"/>
-      <c r="AM50" s="55"/>
-      <c r="AN50" s="55"/>
-      <c r="AO50" s="55"/>
-      <c r="AP50" s="55"/>
-      <c r="AQ50" s="55"/>
+        <v>684</v>
+      </c>
+      <c r="AH50" s="67"/>
+      <c r="AI50" s="67"/>
+      <c r="AJ50" s="67"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="67"/>
+      <c r="AN50" s="67"/>
+      <c r="AO50" s="67"/>
+      <c r="AP50" s="67"/>
+      <c r="AQ50" s="67"/>
       <c r="AR50" s="55"/>
       <c r="AS50" s="55"/>
       <c r="AT50" s="55"/>
@@ -9692,15 +10480,15 @@
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>546</v>
+        <v>689</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55" t="s">
-        <v>547</v>
+        <v>690</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>548</v>
+        <v>691</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>80</v>
@@ -9710,7 +10498,7 @@
         <v>978</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>549</v>
+        <v>692</v>
       </c>
       <c r="J51" s="55" t="s">
         <v>83</v>
@@ -9743,27 +10531,27 @@
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
-        <v>550</v>
+        <v>693</v>
       </c>
       <c r="AC51" s="55" t="s">
-        <v>551</v>
+        <v>694</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="55"/>
-      <c r="AJ51" s="55"/>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="55"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
+        <v>689</v>
+      </c>
+      <c r="AH51" s="67"/>
+      <c r="AI51" s="67"/>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="67"/>
+      <c r="AP51" s="67"/>
+      <c r="AQ51" s="67"/>
       <c r="AR51" s="55"/>
       <c r="AS51" s="55"/>
       <c r="AT51" s="55"/>
@@ -9771,29 +10559,29 @@
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
       <c r="AX51" s="56" t="s">
-        <v>552</v>
+        <v>695</v>
       </c>
       <c r="AY51" s="55" t="s">
-        <v>553</v>
+        <v>696</v>
       </c>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>554</v>
+        <v>697</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>555</v>
+        <v>698</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>556</v>
+        <v>699</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
-        <v>557</v>
+        <v>700</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55">
@@ -9829,31 +10617,31 @@
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55" t="s">
-        <v>558</v>
+        <v>701</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>555</v>
+        <v>698</v>
       </c>
       <c r="AD52" s="55"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
-        <v>554</v>
-      </c>
-      <c r="AH52" s="55"/>
-      <c r="AI52" s="55"/>
-      <c r="AJ52" s="55"/>
-      <c r="AK52" s="55"/>
-      <c r="AL52" s="55"/>
-      <c r="AM52" s="55"/>
-      <c r="AN52" s="55"/>
-      <c r="AO52" s="55"/>
-      <c r="AP52" s="55"/>
-      <c r="AQ52" s="55"/>
+        <v>697</v>
+      </c>
+      <c r="AH52" s="67"/>
+      <c r="AI52" s="67"/>
+      <c r="AJ52" s="67"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="67"/>
+      <c r="AM52" s="67"/>
+      <c r="AN52" s="67"/>
+      <c r="AO52" s="67"/>
+      <c r="AP52" s="67"/>
+      <c r="AQ52" s="67"/>
       <c r="AR52" s="55"/>
       <c r="AS52" s="55"/>
       <c r="AT52" s="55"/>
@@ -9866,29 +10654,29 @@
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
-        <v>559</v>
+        <v>702</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>560</v>
+        <v>703</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>561</v>
+        <v>704</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F53" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>562</v>
+        <v>705</v>
       </c>
       <c r="H53" s="55">
         <v>617</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>563</v>
+        <v>706</v>
       </c>
       <c r="J53" s="55" t="s">
         <v>83</v>
@@ -9915,22 +10703,22 @@
         <v>31565</v>
       </c>
       <c r="R53" s="55" t="s">
-        <v>564</v>
+        <v>707</v>
       </c>
       <c r="S53" s="55" t="s">
-        <v>560</v>
+        <v>703</v>
       </c>
       <c r="T53" s="55" t="s">
-        <v>564</v>
+        <v>707</v>
       </c>
       <c r="U53" s="55" t="s">
-        <v>565</v>
+        <v>708</v>
       </c>
       <c r="V53" s="67" t="s">
-        <v>564</v>
+        <v>707</v>
       </c>
       <c r="W53" s="67" t="s">
-        <v>560</v>
+        <v>703</v>
       </c>
       <c r="X53" s="55" t="s">
         <v>85</v>
@@ -9945,35 +10733,35 @@
         <v>19</v>
       </c>
       <c r="AB53" s="55" t="s">
-        <v>566</v>
+        <v>709</v>
       </c>
       <c r="AC53" s="55" t="s">
-        <v>567</v>
+        <v>710</v>
       </c>
       <c r="AD53" s="55"/>
       <c r="AE53" s="55" t="s">
-        <v>568</v>
+        <v>711</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>559</v>
-      </c>
-      <c r="AH53" s="55"/>
-      <c r="AI53" s="55"/>
-      <c r="AJ53" s="55"/>
-      <c r="AK53" s="55"/>
-      <c r="AL53" s="55"/>
-      <c r="AM53" s="55"/>
-      <c r="AN53" s="55"/>
-      <c r="AO53" s="55"/>
-      <c r="AP53" s="55"/>
-      <c r="AQ53" s="55"/>
+        <v>702</v>
+      </c>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="67"/>
+      <c r="AQ53" s="67"/>
       <c r="AR53" s="59">
         <v>85.404166666666669</v>
       </c>
       <c r="AS53" s="55"/>
       <c r="AT53" s="55" t="s">
-        <v>437</v>
+        <v>578</v>
       </c>
       <c r="AU53" s="55"/>
       <c r="AV53" s="55">
@@ -9981,36 +10769,36 @@
       </c>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY53" s="55"/>
       <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>569</v>
+        <v>712</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>570</v>
+        <v>713</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>571</v>
+        <v>714</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55" t="s">
-        <v>572</v>
+        <v>715</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>573</v>
+        <v>716</v>
       </c>
       <c r="H54" s="55">
         <v>802</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>574</v>
+        <v>717</v>
       </c>
       <c r="J54" s="55" t="s">
         <v>83</v>
@@ -10035,39 +10823,41 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
       <c r="V54" s="67" t="s">
-        <v>732</v>
+        <v>891</v>
       </c>
       <c r="W54" s="67" t="s">
-        <v>570</v>
+        <v>713</v>
       </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55" t="s">
-        <v>575</v>
+        <v>718</v>
       </c>
       <c r="AC54" s="55" t="s">
-        <v>576</v>
+        <v>719</v>
       </c>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>569</v>
-      </c>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="55"/>
-      <c r="AL54" s="55"/>
-      <c r="AM54" s="55"/>
-      <c r="AN54" s="55"/>
-      <c r="AO54" s="55"/>
-      <c r="AP54" s="55"/>
-      <c r="AQ54" s="55"/>
+        <v>712</v>
+      </c>
+      <c r="AH54" s="67"/>
+      <c r="AI54" s="67"/>
+      <c r="AJ54" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="67"/>
+      <c r="AM54" s="67"/>
+      <c r="AN54" s="67"/>
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="67"/>
+      <c r="AQ54" s="67"/>
       <c r="AR54" s="55"/>
       <c r="AS54" s="55"/>
       <c r="AT54" s="55"/>
@@ -10075,14 +10865,14 @@
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
       <c r="AX54" s="56" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>577</v>
+        <v>721</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -10121,7 +10911,7 @@
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA55" s="55"/>
       <c r="AB55" s="55"/>
@@ -10130,18 +10920,18 @@
       <c r="AE55" s="55"/>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="55"/>
-      <c r="AJ55" s="55"/>
-      <c r="AK55" s="55"/>
-      <c r="AL55" s="55"/>
-      <c r="AM55" s="55"/>
-      <c r="AN55" s="55"/>
-      <c r="AO55" s="55"/>
-      <c r="AP55" s="55"/>
-      <c r="AQ55" s="55"/>
+        <v>721</v>
+      </c>
+      <c r="AH55" s="67"/>
+      <c r="AI55" s="67"/>
+      <c r="AJ55" s="67"/>
+      <c r="AK55" s="67"/>
+      <c r="AL55" s="67"/>
+      <c r="AM55" s="67"/>
+      <c r="AN55" s="67"/>
+      <c r="AO55" s="67"/>
+      <c r="AP55" s="67"/>
+      <c r="AQ55" s="67"/>
       <c r="AR55" s="55"/>
       <c r="AS55" s="55"/>
       <c r="AT55" s="55"/>
@@ -10154,17 +10944,17 @@
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>578</v>
+        <v>722</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>579</v>
+        <v>723</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>580</v>
+        <v>724</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F56" s="55" t="s">
         <v>80</v>
@@ -10174,7 +10964,7 @@
         <v>617</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>581</v>
+        <v>725</v>
       </c>
       <c r="J56" s="55" t="s">
         <v>83</v>
@@ -10205,10 +10995,10 @@
         <v>85</v>
       </c>
       <c r="V56" s="67" t="s">
-        <v>733</v>
+        <v>892</v>
       </c>
       <c r="W56" s="67" t="s">
-        <v>579</v>
+        <v>723</v>
       </c>
       <c r="X56" s="55" t="s">
         <v>85</v>
@@ -10223,29 +11013,29 @@
         <v>19</v>
       </c>
       <c r="AB56" s="55" t="s">
-        <v>582</v>
+        <v>726</v>
       </c>
       <c r="AC56" s="55" t="s">
-        <v>583</v>
+        <v>727</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55" t="s">
-        <v>584</v>
+        <v>728</v>
       </c>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>578</v>
-      </c>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="55"/>
-      <c r="AJ56" s="55"/>
-      <c r="AK56" s="55"/>
-      <c r="AL56" s="55"/>
-      <c r="AM56" s="55"/>
-      <c r="AN56" s="55"/>
-      <c r="AO56" s="55"/>
-      <c r="AP56" s="55"/>
-      <c r="AQ56" s="55"/>
+        <v>722</v>
+      </c>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="67"/>
+      <c r="AM56" s="67"/>
+      <c r="AN56" s="67"/>
+      <c r="AO56" s="67"/>
+      <c r="AP56" s="67"/>
+      <c r="AQ56" s="67"/>
       <c r="AR56" s="55"/>
       <c r="AS56" s="55"/>
       <c r="AT56" s="55"/>
@@ -10254,13 +11044,13 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>585</v>
+        <v>729</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>586</v>
+        <v>730</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -10299,7 +11089,7 @@
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA57" s="55"/>
       <c r="AB57" s="55"/>
@@ -10308,18 +11098,18 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="55"/>
-      <c r="AJ57" s="55"/>
-      <c r="AK57" s="55"/>
-      <c r="AL57" s="55"/>
-      <c r="AM57" s="55"/>
-      <c r="AN57" s="55"/>
-      <c r="AO57" s="55"/>
-      <c r="AP57" s="55"/>
-      <c r="AQ57" s="55"/>
+        <v>730</v>
+      </c>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="67"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="67"/>
       <c r="AR57" s="55"/>
       <c r="AS57" s="55"/>
       <c r="AT57" s="55"/>
@@ -10328,33 +11118,33 @@
       <c r="AW57" s="55"/>
       <c r="AX57" s="56"/>
       <c r="AY57" s="55" t="s">
-        <v>587</v>
+        <v>731</v>
       </c>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>588</v>
+        <v>732</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>590</v>
+        <v>734</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55">
         <v>203</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>591</v>
+        <v>735</v>
       </c>
       <c r="J58" s="55" t="s">
         <v>83</v>
@@ -10377,10 +11167,10 @@
       <c r="P58" s="56"/>
       <c r="Q58" s="56"/>
       <c r="R58" s="55" t="s">
-        <v>592</v>
+        <v>736</v>
       </c>
       <c r="S58" s="55" t="s">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="T58" s="55" t="s">
         <v>85</v>
@@ -10389,10 +11179,10 @@
         <v>85</v>
       </c>
       <c r="V58" s="67" t="s">
-        <v>592</v>
+        <v>736</v>
       </c>
       <c r="W58" s="67" t="s">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="X58" s="55" t="s">
         <v>85</v>
@@ -10401,35 +11191,35 @@
         <v>85</v>
       </c>
       <c r="Z58" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA58" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>592</v>
+        <v>736</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>589</v>
+        <v>733</v>
       </c>
       <c r="AD58" s="55"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>588</v>
-      </c>
-      <c r="AH58" s="55"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="55"/>
-      <c r="AK58" s="55"/>
-      <c r="AL58" s="55"/>
-      <c r="AM58" s="55"/>
-      <c r="AN58" s="55"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="55"/>
-      <c r="AQ58" s="55"/>
+        <v>732</v>
+      </c>
+      <c r="AH58" s="67"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="67"/>
+      <c r="AM58" s="67"/>
+      <c r="AN58" s="67"/>
+      <c r="AO58" s="67"/>
+      <c r="AP58" s="67"/>
+      <c r="AQ58" s="67"/>
       <c r="AR58" s="55" t="s">
-        <v>593</v>
+        <v>737</v>
       </c>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
@@ -10437,36 +11227,36 @@
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
       <c r="AX58" s="56" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>594</v>
+        <v>738</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>595</v>
+        <v>739</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>596</v>
+        <v>740</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
-        <v>597</v>
+        <v>741</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>598</v>
+        <v>742</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>599</v>
+        <v>743</v>
       </c>
       <c r="H59" s="55">
         <v>301</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>600</v>
+        <v>744</v>
       </c>
       <c r="J59" s="55" t="s">
         <v>83</v>
@@ -10493,49 +11283,53 @@
         <v>41760</v>
       </c>
       <c r="R59" s="55" t="s">
-        <v>601</v>
+        <v>745</v>
       </c>
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="67" t="s">
-        <v>734</v>
+        <v>893</v>
       </c>
       <c r="W59" s="67" t="s">
-        <v>595</v>
+        <v>739</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
       <c r="Z59" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA59" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB59" s="55" t="s">
-        <v>602</v>
+        <v>746</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>603</v>
+        <v>747</v>
       </c>
       <c r="AD59" s="55" t="s">
-        <v>603</v>
+        <v>747</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="AH59" s="55"/>
-      <c r="AI59" s="55"/>
-      <c r="AJ59" s="55"/>
-      <c r="AK59" s="55"/>
-      <c r="AL59" s="55"/>
-      <c r="AM59" s="55"/>
-      <c r="AN59" s="55"/>
-      <c r="AO59" s="55"/>
-      <c r="AP59" s="55"/>
-      <c r="AQ59" s="55"/>
+        <v>738</v>
+      </c>
+      <c r="AH59" s="67" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI59" s="67" t="s">
+        <v>749</v>
+      </c>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="67"/>
+      <c r="AM59" s="67"/>
+      <c r="AN59" s="67"/>
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="67"/>
+      <c r="AQ59" s="67"/>
       <c r="AR59" s="55"/>
       <c r="AS59" s="55"/>
       <c r="AT59" s="55"/>
@@ -10548,27 +11342,27 @@
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>604</v>
+        <v>750</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>605</v>
+        <v>751</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>606</v>
+        <v>752</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="55" t="s">
-        <v>497</v>
+        <v>639</v>
       </c>
       <c r="F60" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55">
         <v>860</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>607</v>
+        <v>753</v>
       </c>
       <c r="J60" s="55" t="s">
         <v>83</v>
@@ -10599,10 +11393,10 @@
         <v>85</v>
       </c>
       <c r="V60" s="67" t="s">
-        <v>735</v>
+        <v>894</v>
       </c>
       <c r="W60" s="67" t="s">
-        <v>605</v>
+        <v>751</v>
       </c>
       <c r="X60" s="55" t="s">
         <v>85</v>
@@ -10617,29 +11411,29 @@
         <v>19</v>
       </c>
       <c r="AB60" s="55" t="s">
-        <v>608</v>
+        <v>754</v>
       </c>
       <c r="AC60" s="55" t="s">
-        <v>609</v>
+        <v>755</v>
       </c>
       <c r="AD60" s="55" t="s">
-        <v>610</v>
+        <v>756</v>
       </c>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH60" s="55"/>
-      <c r="AI60" s="55"/>
-      <c r="AJ60" s="55"/>
-      <c r="AK60" s="55"/>
-      <c r="AL60" s="55"/>
-      <c r="AM60" s="55"/>
-      <c r="AN60" s="55"/>
-      <c r="AO60" s="55"/>
-      <c r="AP60" s="55"/>
-      <c r="AQ60" s="55"/>
+        <v>750</v>
+      </c>
+      <c r="AH60" s="67"/>
+      <c r="AI60" s="67"/>
+      <c r="AJ60" s="67"/>
+      <c r="AK60" s="67"/>
+      <c r="AL60" s="67"/>
+      <c r="AM60" s="67"/>
+      <c r="AN60" s="67"/>
+      <c r="AO60" s="67"/>
+      <c r="AP60" s="67"/>
+      <c r="AQ60" s="67"/>
       <c r="AR60" s="55"/>
       <c r="AS60" s="55"/>
       <c r="AT60" s="55"/>
@@ -10647,16 +11441,16 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>611</v>
+        <v>757</v>
       </c>
       <c r="AY60" s="55" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>612</v>
+        <v>758</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -10709,10 +11503,10 @@
         <v>85</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA61" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB61" s="55"/>
       <c r="AC61" s="55"/>
@@ -10720,18 +11514,18 @@
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>612</v>
-      </c>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="55"/>
-      <c r="AJ61" s="55"/>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="55"/>
-      <c r="AQ61" s="55"/>
+        <v>758</v>
+      </c>
+      <c r="AH61" s="67"/>
+      <c r="AI61" s="67"/>
+      <c r="AJ61" s="67"/>
+      <c r="AK61" s="67"/>
+      <c r="AL61" s="67"/>
+      <c r="AM61" s="67"/>
+      <c r="AN61" s="67"/>
+      <c r="AO61" s="67"/>
+      <c r="AP61" s="67"/>
+      <c r="AQ61" s="67"/>
       <c r="AR61" s="55"/>
       <c r="AS61" s="55"/>
       <c r="AT61" s="55"/>
@@ -10741,34 +11535,34 @@
       </c>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY61" s="55"/>
       <c r="AZ61" s="57"/>
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>613</v>
+        <v>759</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>615</v>
+        <v>761</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55" t="s">
-        <v>616</v>
+        <v>762</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="55">
         <v>860</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>617</v>
+        <v>763</v>
       </c>
       <c r="J62" s="55" t="s">
         <v>83</v>
@@ -10799,10 +11593,10 @@
         <v>85</v>
       </c>
       <c r="V62" s="67" t="s">
-        <v>736</v>
+        <v>895</v>
       </c>
       <c r="W62" s="67" t="s">
-        <v>614</v>
+        <v>760</v>
       </c>
       <c r="X62" s="55" t="s">
         <v>85</v>
@@ -10817,27 +11611,27 @@
         <v>19</v>
       </c>
       <c r="AB62" s="55" t="s">
-        <v>618</v>
+        <v>764</v>
       </c>
       <c r="AC62" s="55" t="s">
-        <v>619</v>
+        <v>765</v>
       </c>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>613</v>
-      </c>
-      <c r="AH62" s="55"/>
-      <c r="AI62" s="55"/>
-      <c r="AJ62" s="55"/>
-      <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
-      <c r="AM62" s="55"/>
-      <c r="AN62" s="55"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="55"/>
-      <c r="AQ62" s="55"/>
+        <v>759</v>
+      </c>
+      <c r="AH62" s="67"/>
+      <c r="AI62" s="67"/>
+      <c r="AJ62" s="67"/>
+      <c r="AK62" s="67"/>
+      <c r="AL62" s="67"/>
+      <c r="AM62" s="67"/>
+      <c r="AN62" s="67"/>
+      <c r="AO62" s="67"/>
+      <c r="AP62" s="67"/>
+      <c r="AQ62" s="67"/>
       <c r="AR62" s="55"/>
       <c r="AS62" s="55"/>
       <c r="AT62" s="55"/>
@@ -10845,16 +11639,16 @@
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
       <c r="AX62" s="56" t="s">
-        <v>620</v>
+        <v>766</v>
       </c>
       <c r="AY62" s="55" t="s">
-        <v>621</v>
+        <v>767</v>
       </c>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>622</v>
+        <v>768</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -10893,7 +11687,7 @@
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA63" s="55"/>
       <c r="AB63" s="55"/>
@@ -10902,18 +11696,18 @@
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>622</v>
-      </c>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="55"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
+        <v>768</v>
+      </c>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67"/>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="67"/>
+      <c r="AM63" s="67"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="67"/>
+      <c r="AQ63" s="67"/>
       <c r="AR63" s="55"/>
       <c r="AS63" s="55"/>
       <c r="AT63" s="55"/>
@@ -10926,29 +11720,29 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>623</v>
+        <v>769</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>624</v>
+        <v>770</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>625</v>
+        <v>771</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>626</v>
+        <v>772</v>
       </c>
       <c r="F64" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>627</v>
+        <v>773</v>
       </c>
       <c r="H64" s="55">
         <v>508</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>628</v>
+        <v>774</v>
       </c>
       <c r="J64" s="55" t="s">
         <v>83</v>
@@ -10975,10 +11769,10 @@
         <v>30438</v>
       </c>
       <c r="R64" s="55" t="s">
-        <v>629</v>
+        <v>775</v>
       </c>
       <c r="S64" s="55" t="s">
-        <v>624</v>
+        <v>770</v>
       </c>
       <c r="T64" s="55" t="s">
         <v>85</v>
@@ -10987,10 +11781,10 @@
         <v>85</v>
       </c>
       <c r="V64" s="67" t="s">
-        <v>629</v>
+        <v>775</v>
       </c>
       <c r="W64" s="67" t="s">
-        <v>624</v>
+        <v>770</v>
       </c>
       <c r="X64" s="55" t="s">
         <v>85</v>
@@ -10999,33 +11793,37 @@
         <v>85</v>
       </c>
       <c r="Z64" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA64" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB64" s="55" t="s">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="AC64" s="55" t="s">
-        <v>631</v>
+        <v>777</v>
       </c>
       <c r="AD64" s="55"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="AH64" s="55"/>
-      <c r="AI64" s="55"/>
-      <c r="AJ64" s="55"/>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
-      <c r="AM64" s="55"/>
-      <c r="AN64" s="55"/>
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="55"/>
-      <c r="AQ64" s="55"/>
+        <v>778</v>
+      </c>
+      <c r="AH64" s="67" t="s">
+        <v>779</v>
+      </c>
+      <c r="AI64" s="67" t="s">
+        <v>780</v>
+      </c>
+      <c r="AJ64" s="67"/>
+      <c r="AK64" s="67"/>
+      <c r="AL64" s="67"/>
+      <c r="AM64" s="67"/>
+      <c r="AN64" s="67"/>
+      <c r="AO64" s="67"/>
+      <c r="AP64" s="67"/>
+      <c r="AQ64" s="67"/>
       <c r="AR64" s="55"/>
       <c r="AS64" s="55"/>
       <c r="AT64" s="55">
@@ -11042,27 +11840,27 @@
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>633</v>
+        <v>781</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>634</v>
+        <v>782</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>635</v>
+        <v>783</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>636</v>
+        <v>784</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55">
         <v>203</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>637</v>
+        <v>785</v>
       </c>
       <c r="J65" s="55" t="s">
         <v>83</v>
@@ -11093,10 +11891,10 @@
         <v>85</v>
       </c>
       <c r="V65" s="67" t="s">
-        <v>638</v>
+        <v>786</v>
       </c>
       <c r="W65" s="67" t="s">
-        <v>634</v>
+        <v>782</v>
       </c>
       <c r="X65" s="55" t="s">
         <v>85</v>
@@ -11111,29 +11909,29 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
-        <v>638</v>
+        <v>786</v>
       </c>
       <c r="AC65" s="55" t="s">
-        <v>634</v>
+        <v>782</v>
       </c>
       <c r="AD65" s="55" t="s">
-        <v>639</v>
+        <v>787</v>
       </c>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="55"/>
-      <c r="AQ65" s="55"/>
+        <v>781</v>
+      </c>
+      <c r="AH65" s="67"/>
+      <c r="AI65" s="67"/>
+      <c r="AJ65" s="67"/>
+      <c r="AK65" s="67"/>
+      <c r="AL65" s="67"/>
+      <c r="AM65" s="67"/>
+      <c r="AN65" s="67"/>
+      <c r="AO65" s="67"/>
+      <c r="AP65" s="67"/>
+      <c r="AQ65" s="67"/>
       <c r="AR65" s="55"/>
       <c r="AS65" s="55"/>
       <c r="AT65" s="55"/>
@@ -11141,38 +11939,38 @@
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>640</v>
+        <v>788</v>
       </c>
       <c r="AY65" s="55" t="s">
-        <v>531</v>
+        <v>674</v>
       </c>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>641</v>
+        <v>789</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>642</v>
+        <v>790</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>643</v>
+        <v>791</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>644</v>
+        <v>792</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>645</v>
+        <v>793</v>
       </c>
       <c r="H66" s="55">
         <v>401</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>646</v>
+        <v>794</v>
       </c>
       <c r="J66" s="55" t="s">
         <v>83</v>
@@ -11199,10 +11997,10 @@
         <v>25332</v>
       </c>
       <c r="R66" s="55" t="s">
-        <v>647</v>
+        <v>795</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>642</v>
+        <v>790</v>
       </c>
       <c r="T66" s="55" t="s">
         <v>85</v>
@@ -11211,10 +12009,10 @@
         <v>85</v>
       </c>
       <c r="V66" s="67" t="s">
-        <v>647</v>
+        <v>795</v>
       </c>
       <c r="W66" s="67" t="s">
-        <v>642</v>
+        <v>790</v>
       </c>
       <c r="X66" s="55" t="s">
         <v>85</v>
@@ -11229,27 +12027,27 @@
         <v>19</v>
       </c>
       <c r="AB66" s="55" t="s">
-        <v>648</v>
+        <v>796</v>
       </c>
       <c r="AC66" s="55" t="s">
-        <v>649</v>
+        <v>797</v>
       </c>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH66" s="55"/>
-      <c r="AI66" s="55"/>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="55"/>
-      <c r="AN66" s="55"/>
-      <c r="AO66" s="55"/>
-      <c r="AP66" s="55"/>
-      <c r="AQ66" s="55"/>
+        <v>789</v>
+      </c>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="67"/>
+      <c r="AJ66" s="67"/>
+      <c r="AK66" s="67"/>
+      <c r="AL66" s="67"/>
+      <c r="AM66" s="67"/>
+      <c r="AN66" s="67"/>
+      <c r="AO66" s="67"/>
+      <c r="AP66" s="67"/>
+      <c r="AQ66" s="67"/>
       <c r="AR66" s="55">
         <v>2019</v>
       </c>
@@ -11261,30 +12059,30 @@
       </c>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY66" s="55"/>
       <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>650</v>
+        <v>798</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>651</v>
+        <v>799</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>652</v>
+        <v>800</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>616</v>
+        <v>762</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>653</v>
+        <v>801</v>
       </c>
       <c r="H67" s="55">
         <v>860</v>
@@ -11313,26 +12111,26 @@
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
       <c r="R67" s="55" t="s">
-        <v>654</v>
+        <v>802</v>
       </c>
       <c r="S67" s="55" t="s">
-        <v>655</v>
+        <v>803</v>
       </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
       <c r="V67" s="67" t="s">
-        <v>737</v>
+        <v>896</v>
       </c>
       <c r="W67" s="67" t="s">
-        <v>651</v>
+        <v>799</v>
       </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
       <c r="Z67" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA67" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB67" s="55"/>
       <c r="AC67" s="55"/>
@@ -11340,18 +12138,18 @@
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>650</v>
-      </c>
-      <c r="AH67" s="55"/>
-      <c r="AI67" s="55"/>
-      <c r="AJ67" s="55"/>
-      <c r="AK67" s="55"/>
-      <c r="AL67" s="55"/>
-      <c r="AM67" s="55"/>
-      <c r="AN67" s="55"/>
-      <c r="AO67" s="55"/>
-      <c r="AP67" s="55"/>
-      <c r="AQ67" s="55"/>
+        <v>798</v>
+      </c>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AJ67" s="67"/>
+      <c r="AK67" s="67"/>
+      <c r="AL67" s="67"/>
+      <c r="AM67" s="67"/>
+      <c r="AN67" s="67"/>
+      <c r="AO67" s="67"/>
+      <c r="AP67" s="67"/>
+      <c r="AQ67" s="67"/>
       <c r="AR67" s="55"/>
       <c r="AS67" s="55"/>
       <c r="AT67" s="55"/>
@@ -11364,27 +12162,27 @@
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>656</v>
+        <v>804</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>657</v>
+        <v>805</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>659</v>
+        <v>807</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G68" s="55"/>
       <c r="H68" s="55">
         <v>800</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>660</v>
+        <v>808</v>
       </c>
       <c r="J68" s="55" t="s">
         <v>83</v>
@@ -11415,10 +12213,10 @@
         <v>85</v>
       </c>
       <c r="V68" s="67" t="s">
-        <v>738</v>
+        <v>897</v>
       </c>
       <c r="W68" s="67" t="s">
-        <v>657</v>
+        <v>805</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>85</v>
@@ -11427,33 +12225,33 @@
         <v>85</v>
       </c>
       <c r="Z68" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA68" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB68" s="55" t="s">
-        <v>661</v>
+        <v>809</v>
       </c>
       <c r="AC68" s="55" t="s">
-        <v>662</v>
+        <v>810</v>
       </c>
       <c r="AD68" s="55"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>656</v>
-      </c>
-      <c r="AH68" s="55"/>
-      <c r="AI68" s="55"/>
-      <c r="AJ68" s="55"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="55"/>
-      <c r="AQ68" s="55"/>
+        <v>804</v>
+      </c>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="67"/>
+      <c r="AM68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AO68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="67"/>
       <c r="AR68" s="55"/>
       <c r="AS68" s="55"/>
       <c r="AT68" s="55"/>
@@ -11461,36 +12259,36 @@
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>663</v>
+        <v>811</v>
       </c>
       <c r="AY68" s="55"/>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>664</v>
+        <v>812</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>665</v>
+        <v>813</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>666</v>
+        <v>814</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>667</v>
+        <v>815</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>668</v>
+        <v>816</v>
       </c>
       <c r="H69" s="55">
         <v>781</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>669</v>
+        <v>817</v>
       </c>
       <c r="J69" s="55" t="s">
         <v>83</v>
@@ -11517,10 +12315,10 @@
         <v>32258</v>
       </c>
       <c r="R69" s="55" t="s">
-        <v>670</v>
+        <v>818</v>
       </c>
       <c r="S69" s="55" t="s">
-        <v>665</v>
+        <v>813</v>
       </c>
       <c r="T69" s="55" t="s">
         <v>85</v>
@@ -11529,10 +12327,10 @@
         <v>85</v>
       </c>
       <c r="V69" s="67" t="s">
-        <v>670</v>
+        <v>818</v>
       </c>
       <c r="W69" s="67" t="s">
-        <v>665</v>
+        <v>813</v>
       </c>
       <c r="X69" s="55" t="s">
         <v>85</v>
@@ -11541,37 +12339,57 @@
         <v>85</v>
       </c>
       <c r="Z69" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA69" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB69" s="55" t="s">
-        <v>671</v>
+        <v>819</v>
       </c>
       <c r="AC69" s="55" t="s">
-        <v>672</v>
+        <v>820</v>
       </c>
       <c r="AD69" s="55"/>
       <c r="AE69" s="55" t="s">
-        <v>673</v>
+        <v>821</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>664</v>
-      </c>
-      <c r="AH69" s="55"/>
-      <c r="AI69" s="55"/>
-      <c r="AJ69" s="55"/>
-      <c r="AK69" s="55"/>
-      <c r="AL69" s="55"/>
-      <c r="AM69" s="55"/>
-      <c r="AN69" s="55"/>
-      <c r="AO69" s="55"/>
-      <c r="AP69" s="55"/>
-      <c r="AQ69" s="55"/>
+        <v>812</v>
+      </c>
+      <c r="AH69" s="67" t="s">
+        <v>822</v>
+      </c>
+      <c r="AI69" s="67" t="s">
+        <v>823</v>
+      </c>
+      <c r="AJ69" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="AK69" s="67" t="s">
+        <v>825</v>
+      </c>
+      <c r="AL69" s="67" t="s">
+        <v>826</v>
+      </c>
+      <c r="AM69" s="67" t="s">
+        <v>827</v>
+      </c>
+      <c r="AN69" s="67" t="s">
+        <v>828</v>
+      </c>
+      <c r="AO69" s="67" t="s">
+        <v>829</v>
+      </c>
+      <c r="AP69" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="AQ69" s="67" t="s">
+        <v>831</v>
+      </c>
       <c r="AR69" s="55" t="s">
-        <v>674</v>
+        <v>832</v>
       </c>
       <c r="AS69" s="55">
         <v>2013</v>
@@ -11583,7 +12401,7 @@
       </c>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>675</v>
+        <v>833</v>
       </c>
       <c r="AY69" s="55">
         <v>2016</v>
@@ -11592,27 +12410,27 @@
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>676</v>
+        <v>834</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>677</v>
+        <v>835</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>678</v>
+        <v>836</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>679</v>
+        <v>837</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55">
         <v>860</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>680</v>
+        <v>838</v>
       </c>
       <c r="J70" s="55" t="s">
         <v>83</v>
@@ -11643,49 +12461,51 @@
         <v>85</v>
       </c>
       <c r="V70" s="67" t="s">
-        <v>739</v>
+        <v>898</v>
       </c>
       <c r="W70" s="67" t="s">
-        <v>677</v>
+        <v>835</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>681</v>
+        <v>839</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>682</v>
+        <v>840</v>
       </c>
       <c r="Z70" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA70" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB70" s="55" t="s">
-        <v>683</v>
+        <v>841</v>
       </c>
       <c r="AC70" s="55" t="s">
-        <v>684</v>
+        <v>842</v>
       </c>
       <c r="AD70" s="55">
         <v>8606852046</v>
       </c>
       <c r="AE70" s="55" t="s">
-        <v>685</v>
+        <v>843</v>
       </c>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>676</v>
-      </c>
-      <c r="AH70" s="55"/>
-      <c r="AI70" s="55"/>
-      <c r="AJ70" s="55"/>
-      <c r="AK70" s="55"/>
-      <c r="AL70" s="55"/>
-      <c r="AM70" s="55"/>
-      <c r="AN70" s="55"/>
-      <c r="AO70" s="55"/>
-      <c r="AP70" s="55"/>
-      <c r="AQ70" s="55"/>
+        <v>834</v>
+      </c>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AJ70" s="67" t="s">
+        <v>844</v>
+      </c>
+      <c r="AK70" s="67"/>
+      <c r="AL70" s="67"/>
+      <c r="AM70" s="67"/>
+      <c r="AN70" s="67"/>
+      <c r="AO70" s="67"/>
+      <c r="AP70" s="67"/>
+      <c r="AQ70" s="67"/>
       <c r="AR70" s="55"/>
       <c r="AS70" s="55">
         <v>2016</v>
@@ -11695,34 +12515,34 @@
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>686</v>
+        <v>845</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>687</v>
+        <v>846</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>688</v>
+        <v>847</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>689</v>
+        <v>848</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="55" t="s">
-        <v>690</v>
+        <v>849</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55">
         <v>877</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>691</v>
+        <v>850</v>
       </c>
       <c r="J71" s="55" t="s">
         <v>83</v>
@@ -11753,10 +12573,10 @@
         <v>85</v>
       </c>
       <c r="V71" s="67" t="s">
-        <v>740</v>
+        <v>899</v>
       </c>
       <c r="W71" s="67" t="s">
-        <v>688</v>
+        <v>847</v>
       </c>
       <c r="X71" s="55" t="s">
         <v>85</v>
@@ -11765,33 +12585,33 @@
         <v>85</v>
       </c>
       <c r="Z71" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA71" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB71" s="55" t="s">
-        <v>692</v>
+        <v>851</v>
       </c>
       <c r="AC71" s="55" t="s">
-        <v>693</v>
+        <v>852</v>
       </c>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>687</v>
-      </c>
-      <c r="AH71" s="55"/>
-      <c r="AI71" s="55"/>
-      <c r="AJ71" s="55"/>
-      <c r="AK71" s="55"/>
-      <c r="AL71" s="55"/>
-      <c r="AM71" s="55"/>
-      <c r="AN71" s="55"/>
-      <c r="AO71" s="55"/>
-      <c r="AP71" s="55"/>
-      <c r="AQ71" s="55"/>
+        <v>846</v>
+      </c>
+      <c r="AH71" s="67"/>
+      <c r="AI71" s="67"/>
+      <c r="AJ71" s="67"/>
+      <c r="AK71" s="67"/>
+      <c r="AL71" s="67"/>
+      <c r="AM71" s="67"/>
+      <c r="AN71" s="67"/>
+      <c r="AO71" s="67"/>
+      <c r="AP71" s="67"/>
+      <c r="AQ71" s="67"/>
       <c r="AR71" s="55"/>
       <c r="AS71" s="55"/>
       <c r="AT71" s="55"/>
@@ -11799,14 +12619,14 @@
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
       <c r="AX71" s="56" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>694</v>
+        <v>853</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -11845,7 +12665,7 @@
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA72" s="55"/>
       <c r="AB72" s="55"/>
@@ -11854,18 +12674,18 @@
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH72" s="55"/>
-      <c r="AI72" s="55"/>
-      <c r="AJ72" s="55"/>
-      <c r="AK72" s="55"/>
-      <c r="AL72" s="55"/>
-      <c r="AM72" s="55"/>
-      <c r="AN72" s="55"/>
-      <c r="AO72" s="55"/>
-      <c r="AP72" s="55"/>
-      <c r="AQ72" s="55"/>
+        <v>853</v>
+      </c>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="67"/>
+      <c r="AM72" s="67"/>
+      <c r="AN72" s="67"/>
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="67"/>
+      <c r="AQ72" s="67"/>
       <c r="AR72" s="55"/>
       <c r="AS72" s="55"/>
       <c r="AT72" s="55"/>
@@ -11878,29 +12698,29 @@
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>695</v>
+        <v>854</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>696</v>
+        <v>855</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>697</v>
+        <v>856</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="55" t="s">
-        <v>698</v>
+        <v>857</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>80</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>699</v>
+        <v>858</v>
       </c>
       <c r="H73" s="55">
         <v>413</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>700</v>
+        <v>859</v>
       </c>
       <c r="J73" s="55" t="s">
         <v>83</v>
@@ -11927,39 +12747,39 @@
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
       <c r="V73" s="67" t="s">
-        <v>701</v>
+        <v>860</v>
       </c>
       <c r="W73" s="67" t="s">
-        <v>696</v>
+        <v>855</v>
       </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
       <c r="AA73" s="55"/>
       <c r="AB73" s="55" t="s">
-        <v>701</v>
+        <v>860</v>
       </c>
       <c r="AC73" s="55" t="s">
-        <v>696</v>
+        <v>855</v>
       </c>
       <c r="AD73" s="55" t="s">
-        <v>702</v>
+        <v>861</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>695</v>
-      </c>
-      <c r="AH73" s="55"/>
-      <c r="AI73" s="55"/>
-      <c r="AJ73" s="55"/>
-      <c r="AK73" s="55"/>
-      <c r="AL73" s="55"/>
-      <c r="AM73" s="55"/>
-      <c r="AN73" s="55"/>
-      <c r="AO73" s="55"/>
-      <c r="AP73" s="55"/>
-      <c r="AQ73" s="55"/>
+        <v>854</v>
+      </c>
+      <c r="AH73" s="67"/>
+      <c r="AI73" s="67"/>
+      <c r="AJ73" s="67"/>
+      <c r="AK73" s="67"/>
+      <c r="AL73" s="67"/>
+      <c r="AM73" s="67"/>
+      <c r="AN73" s="67"/>
+      <c r="AO73" s="67"/>
+      <c r="AP73" s="67"/>
+      <c r="AQ73" s="67"/>
       <c r="AR73" s="55"/>
       <c r="AS73" s="55"/>
       <c r="AT73" s="55"/>
@@ -11967,14 +12787,14 @@
       <c r="AV73" s="55"/>
       <c r="AW73" s="55"/>
       <c r="AX73" s="56" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AY73" s="55"/>
       <c r="AZ73" s="57"/>
     </row>
     <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>703</v>
+        <v>862</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12022,18 +12842,18 @@
       <c r="AE74" s="55"/>
       <c r="AF74" s="55"/>
       <c r="AG74" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="AH74" s="55"/>
-      <c r="AI74" s="55"/>
-      <c r="AJ74" s="55"/>
-      <c r="AK74" s="55"/>
-      <c r="AL74" s="55"/>
-      <c r="AM74" s="55"/>
-      <c r="AN74" s="55"/>
-      <c r="AO74" s="55"/>
-      <c r="AP74" s="55"/>
-      <c r="AQ74" s="55"/>
+        <v>862</v>
+      </c>
+      <c r="AH74" s="67"/>
+      <c r="AI74" s="67"/>
+      <c r="AJ74" s="67"/>
+      <c r="AK74" s="67"/>
+      <c r="AL74" s="67"/>
+      <c r="AM74" s="67"/>
+      <c r="AN74" s="67"/>
+      <c r="AO74" s="67"/>
+      <c r="AP74" s="67"/>
+      <c r="AQ74" s="67"/>
       <c r="AR74" s="55"/>
       <c r="AS74" s="55"/>
       <c r="AT74" s="55"/>
@@ -12042,7 +12862,7 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="55" t="s">
-        <v>704</v>
+        <v>863</v>
       </c>
       <c r="AZ74" s="57"/>
     </row>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751A46F4-7E98-A740-9A27-D44EA77EA3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96859764-448E-C641-9870-036797EEC7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4711,7 +4711,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL28" sqref="AL28"/>
+      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96859764-448E-C641-9870-036797EEC7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663ACADE-BA21-5742-95A3-687CC530524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3153,10 +3153,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3168,6 +3164,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3607,21 +3607,21 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4708,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL17" sqref="AL17"/>
+      <selection pane="bottomRight" activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4989,7 +4989,7 @@
       <c r="V2" s="39" t="s">
         <v>864</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="61" t="s">
         <v>77</v>
       </c>
       <c r="X2" s="23" t="s">
@@ -5054,9 +5054,7 @@
       </c>
       <c r="AT2" s="23"/>
       <c r="AU2" s="23"/>
-      <c r="AV2" s="23">
-        <v>2022</v>
-      </c>
+      <c r="AV2" s="23"/>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
         <v>99</v>
@@ -5124,10 +5122,10 @@
       <c r="U3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="61" t="s">
         <v>108</v>
       </c>
       <c r="X3" s="23" t="s">
@@ -5178,9 +5176,7 @@
         <v>114</v>
       </c>
       <c r="AU3" s="23"/>
-      <c r="AV3" s="23">
-        <v>2021</v>
-      </c>
+      <c r="AV3" s="23"/>
       <c r="AW3" s="23" t="s">
         <v>115</v>
       </c>
@@ -5248,10 +5244,10 @@
       <c r="U4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="62" t="s">
         <v>865</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="62" t="s">
         <v>900</v>
       </c>
       <c r="X4" s="23" t="s">
@@ -5276,24 +5272,24 @@
       <c r="AG4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AH4" s="64" t="s">
+      <c r="AH4" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="AI4" s="64" t="s">
+      <c r="AI4" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="AJ4" s="64" t="s">
+      <c r="AJ4" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="AK4" s="64" t="s">
+      <c r="AK4" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
       <c r="AT4" s="23"/>
@@ -5366,10 +5362,10 @@
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="61" t="s">
         <v>866</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="W5" s="61" t="s">
         <v>133</v>
       </c>
       <c r="X5" s="23"/>
@@ -5412,9 +5408,7 @@
       <c r="AS5" s="23"/>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
-      <c r="AV5" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV5" s="23"/>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
         <v>99</v>
@@ -5478,10 +5472,10 @@
       <c r="U6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="61" t="s">
         <v>867</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="61" t="s">
         <v>145</v>
       </c>
       <c r="X6" s="23"/>
@@ -5508,24 +5502,24 @@
       <c r="AG6" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AH6" s="63" t="s">
+      <c r="AH6" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="AI6" s="63" t="s">
+      <c r="AI6" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="AJ6" s="63" t="s">
+      <c r="AJ6" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="AK6" s="63" t="s">
+      <c r="AK6" s="61" t="s">
         <v>157</v>
       </c>
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63" t="s">
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61" t="s">
         <v>158</v>
       </c>
       <c r="AR6" s="23">
@@ -5606,10 +5600,10 @@
       <c r="U7" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="V7" s="63" t="s">
+      <c r="V7" s="61" t="s">
         <v>868</v>
       </c>
-      <c r="W7" s="63" t="s">
+      <c r="W7" s="61" t="s">
         <v>901</v>
       </c>
       <c r="X7" s="23" t="s">
@@ -5640,16 +5634,16 @@
       <c r="AG7" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="AH7" s="63" t="s">
+      <c r="AH7" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AI7" s="63" t="s">
+      <c r="AI7" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="AJ7" s="63" t="s">
+      <c r="AJ7" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="AK7" s="63" t="s">
+      <c r="AK7" s="61" t="s">
         <v>175</v>
       </c>
       <c r="AL7" s="30" t="s">
@@ -5658,10 +5652,10 @@
       <c r="AM7" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AN7" s="63" t="s">
+      <c r="AN7" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="61" t="s">
         <v>179</v>
       </c>
       <c r="AP7" s="26"/>
@@ -5674,9 +5668,7 @@
       </c>
       <c r="AT7" s="23"/>
       <c r="AU7" s="23"/>
-      <c r="AV7" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV7" s="23"/>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
         <v>181</v>
@@ -5814,9 +5806,7 @@
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
-      <c r="AV8" s="26">
-        <v>2023</v>
-      </c>
+      <c r="AV8" s="26"/>
       <c r="AW8" s="26"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="26">
@@ -5932,9 +5922,7 @@
       <c r="AU9" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="AV9" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV9" s="23"/>
       <c r="AW9" s="23" t="s">
         <v>212</v>
       </c>
@@ -6068,9 +6056,7 @@
       <c r="AU10" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="AV10" s="23">
-        <v>2021</v>
-      </c>
+      <c r="AV10" s="23"/>
       <c r="AW10" s="23"/>
       <c r="AX10" s="24"/>
       <c r="AY10" s="23">
@@ -6126,10 +6112,10 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="63" t="s">
+      <c r="V11" s="61" t="s">
         <v>871</v>
       </c>
-      <c r="W11" s="63" t="s">
+      <c r="W11" s="61" t="s">
         <v>238</v>
       </c>
       <c r="X11" s="23"/>
@@ -6260,10 +6246,10 @@
       <c r="U12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="63" t="s">
+      <c r="V12" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="W12" s="63" t="s">
+      <c r="W12" s="61" t="s">
         <v>263</v>
       </c>
       <c r="X12" s="23" t="s">
@@ -6316,9 +6302,7 @@
       <c r="AU12" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="AV12" s="23">
-        <v>2010</v>
-      </c>
+      <c r="AV12" s="23"/>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
         <v>269</v>
@@ -6390,10 +6374,10 @@
       <c r="U13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="63" t="s">
+      <c r="V13" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="W13" s="63" t="s">
+      <c r="W13" s="61" t="s">
         <v>277</v>
       </c>
       <c r="X13" s="23" t="s">
@@ -6440,9 +6424,7 @@
       <c r="AS13" s="23"/>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
-      <c r="AV13" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV13" s="23"/>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
         <v>99</v>
@@ -6516,10 +6498,10 @@
       <c r="U14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="63" t="s">
+      <c r="V14" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="W14" s="63" t="s">
+      <c r="W14" s="61" t="s">
         <v>290</v>
       </c>
       <c r="X14" s="23"/>
@@ -6542,34 +6524,34 @@
       <c r="AG14" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="AH14" s="63" t="s">
+      <c r="AH14" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="AI14" s="63" t="s">
+      <c r="AI14" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="AJ14" s="64" t="s">
+      <c r="AJ14" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="AK14" s="63" t="s">
+      <c r="AK14" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="AL14" s="64" t="s">
+      <c r="AL14" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="AM14" s="64" t="s">
+      <c r="AM14" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="AN14" s="64" t="s">
+      <c r="AN14" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="AO14" s="64" t="s">
+      <c r="AO14" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="AP14" s="64" t="s">
+      <c r="AP14" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="AQ14" s="64" t="s">
+      <c r="AQ14" s="62" t="s">
         <v>301</v>
       </c>
       <c r="AR14" s="23"/>
@@ -6578,9 +6560,7 @@
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
-      <c r="AV14" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV14" s="23"/>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
         <v>303</v>
@@ -6652,10 +6632,10 @@
       <c r="U15" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="V15" s="64" t="s">
+      <c r="V15" s="62" t="s">
         <v>872</v>
       </c>
-      <c r="W15" s="64" t="s">
+      <c r="W15" s="62" t="s">
         <v>904</v>
       </c>
       <c r="X15" s="23" t="s">
@@ -6688,16 +6668,16 @@
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="64" t="s">
+      <c r="AH15" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="AI15" s="64" t="s">
+      <c r="AI15" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="AJ15" s="64" t="s">
+      <c r="AJ15" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="AK15" s="64" t="s">
+      <c r="AK15" s="62" t="s">
         <v>324</v>
       </c>
       <c r="AL15" s="39" t="s">
@@ -6724,9 +6704,7 @@
         <v>2017</v>
       </c>
       <c r="AU15" s="23"/>
-      <c r="AV15" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV15" s="23"/>
       <c r="AW15" s="23" t="s">
         <v>330</v>
       </c>
@@ -6798,10 +6776,10 @@
       <c r="U16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="64" t="s">
+      <c r="V16" s="62" t="s">
         <v>873</v>
       </c>
-      <c r="W16" s="64" t="s">
+      <c r="W16" s="62" t="s">
         <v>333</v>
       </c>
       <c r="X16" s="23" t="s">
@@ -6836,7 +6814,7 @@
       <c r="AI16" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="AJ16" s="63"/>
+      <c r="AJ16" s="61"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="26"/>
@@ -6852,9 +6830,7 @@
         <v>343</v>
       </c>
       <c r="AU16" s="23"/>
-      <c r="AV16" s="23">
-        <v>1977</v>
-      </c>
+      <c r="AV16" s="23"/>
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
@@ -6924,10 +6900,10 @@
       <c r="U17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="63" t="s">
+      <c r="V17" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="W17" s="63" t="s">
+      <c r="W17" s="61" t="s">
         <v>352</v>
       </c>
       <c r="X17" s="23" t="s">
@@ -6956,43 +6932,41 @@
       <c r="AG17" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="AH17" s="64" t="s">
+      <c r="AH17" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="AI17" s="64" t="s">
+      <c r="AI17" s="62" t="s">
         <v>357</v>
       </c>
-      <c r="AJ17" s="63" t="s">
+      <c r="AJ17" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="AK17" s="64" t="s">
+      <c r="AK17" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="AL17" s="64" t="s">
+      <c r="AL17" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="AM17" s="64" t="s">
+      <c r="AM17" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="AN17" s="64" t="s">
+      <c r="AN17" s="62" t="s">
         <v>362</v>
       </c>
-      <c r="AO17" s="64" t="s">
+      <c r="AO17" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="AP17" s="64" t="s">
+      <c r="AP17" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="AQ17" s="64" t="s">
+      <c r="AQ17" s="62" t="s">
         <v>365</v>
       </c>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
       <c r="AT17" s="23"/>
       <c r="AU17" s="23"/>
-      <c r="AV17" s="23">
-        <v>2018</v>
-      </c>
+      <c r="AV17" s="23"/>
       <c r="AW17" s="23"/>
       <c r="AX17" s="24"/>
       <c r="AY17" s="23">
@@ -7062,10 +7036,10 @@
       <c r="U18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="63" t="s">
+      <c r="V18" s="61" t="s">
         <v>874</v>
       </c>
-      <c r="W18" s="63" t="s">
+      <c r="W18" s="61" t="s">
         <v>367</v>
       </c>
       <c r="X18" s="23" t="s">
@@ -7094,25 +7068,23 @@
       <c r="AG18" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="63"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="63"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
       <c r="AR18" s="23">
         <v>2012</v>
       </c>
       <c r="AS18" s="23"/>
       <c r="AT18" s="23"/>
       <c r="AU18" s="23"/>
-      <c r="AV18" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV18" s="23"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
         <v>377</v>
@@ -7184,10 +7156,10 @@
       <c r="U19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="63" t="s">
+      <c r="V19" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="W19" s="63" t="s">
+      <c r="W19" s="61" t="s">
         <v>385</v>
       </c>
       <c r="X19" s="23" t="s">
@@ -7216,16 +7188,16 @@
       <c r="AG19" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="AH19" s="64" t="s">
+      <c r="AH19" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="AI19" s="64" t="s">
+      <c r="AI19" s="62" t="s">
         <v>391</v>
       </c>
       <c r="AJ19" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="AK19" s="64" t="s">
+      <c r="AK19" s="62" t="s">
         <v>393</v>
       </c>
       <c r="AL19" s="30" t="s">
@@ -7250,9 +7222,7 @@
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
       <c r="AU19" s="23"/>
-      <c r="AV19" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
         <v>400</v>
@@ -7360,10 +7330,10 @@
       <c r="AK20" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="AL20" s="64" t="s">
+      <c r="AL20" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="AM20" s="64" t="s">
+      <c r="AM20" s="62" t="s">
         <v>417</v>
       </c>
       <c r="AN20" s="39" t="s">
@@ -7372,10 +7342,10 @@
       <c r="AO20" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="AP20" s="64" t="s">
+      <c r="AP20" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="AQ20" s="64" t="s">
+      <c r="AQ20" s="62" t="s">
         <v>421</v>
       </c>
       <c r="AR20" s="23">
@@ -7386,9 +7356,7 @@
         <v>2014</v>
       </c>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
         <v>99</v>
@@ -7454,10 +7422,10 @@
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="64" t="s">
+      <c r="V21" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="W21" s="64" t="s">
+      <c r="W21" s="62" t="s">
         <v>906</v>
       </c>
       <c r="X21" s="24"/>
@@ -7514,9 +7482,7 @@
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
       <c r="AU21" s="24"/>
-      <c r="AV21" s="24">
-        <v>2023</v>
-      </c>
+      <c r="AV21" s="24"/>
       <c r="AW21" s="24" t="s">
         <v>115</v>
       </c>
@@ -7574,10 +7540,10 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
-      <c r="V22" s="65" t="s">
+      <c r="V22" s="63" t="s">
         <v>877</v>
       </c>
-      <c r="W22" s="65" t="s">
+      <c r="W22" s="63" t="s">
         <v>443</v>
       </c>
       <c r="X22" s="45"/>
@@ -7600,16 +7566,16 @@
       <c r="AG22" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="65"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
       <c r="AR22" s="45"/>
       <c r="AS22" s="45">
         <v>2014</v>
@@ -7684,10 +7650,10 @@
       <c r="U23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="66" t="s">
+      <c r="V23" s="64" t="s">
         <v>878</v>
       </c>
-      <c r="W23" s="66" t="s">
+      <c r="W23" s="64" t="s">
         <v>452</v>
       </c>
       <c r="X23" s="50"/>
@@ -7714,34 +7680,34 @@
       <c r="AG23" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="AH23" s="66" t="s">
+      <c r="AH23" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="AI23" s="66" t="s">
+      <c r="AI23" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="AJ23" s="66" t="s">
+      <c r="AJ23" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="AK23" s="66" t="s">
+      <c r="AK23" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="AL23" s="66" t="s">
+      <c r="AL23" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="AM23" s="66" t="s">
+      <c r="AM23" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="AN23" s="66" t="s">
+      <c r="AN23" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="AO23" s="66" t="s">
+      <c r="AO23" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="AP23" s="66" t="s">
+      <c r="AP23" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="AQ23" s="66" t="s">
+      <c r="AQ23" s="64" t="s">
         <v>470</v>
       </c>
       <c r="AR23" s="50" t="s">
@@ -7750,9 +7716,7 @@
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
       <c r="AU23" s="50"/>
-      <c r="AV23" s="50">
-        <v>1987</v>
-      </c>
+      <c r="AV23" s="50"/>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
         <v>472</v>
@@ -7812,10 +7776,10 @@
       <c r="U24" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V24" s="66" t="s">
+      <c r="V24" s="64" t="s">
         <v>879</v>
       </c>
-      <c r="W24" s="66" t="s">
+      <c r="W24" s="64" t="s">
         <v>907</v>
       </c>
       <c r="X24" s="50"/>
@@ -7840,32 +7804,32 @@
       <c r="AG24" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="AH24" s="66" t="s">
+      <c r="AH24" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="AI24" s="66" t="s">
+      <c r="AI24" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="AJ24" s="66" t="s">
+      <c r="AJ24" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="AK24" s="66" t="s">
+      <c r="AK24" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="AL24" s="66" t="s">
+      <c r="AL24" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="AM24" s="66" t="s">
+      <c r="AM24" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="AN24" s="66" t="s">
+      <c r="AN24" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="AO24" s="66" t="s">
+      <c r="AO24" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
       <c r="AR24" s="50">
         <v>2019</v>
       </c>
@@ -7942,10 +7906,10 @@
       <c r="U25" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="66" t="s">
+      <c r="V25" s="64" t="s">
         <v>880</v>
       </c>
-      <c r="W25" s="66" t="s">
+      <c r="W25" s="64" t="s">
         <v>498</v>
       </c>
       <c r="X25" s="50"/>
@@ -7970,32 +7934,32 @@
       <c r="AG25" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="AH25" s="66" t="s">
+      <c r="AH25" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="AI25" s="66" t="s">
+      <c r="AI25" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="AJ25" s="66" t="s">
+      <c r="AJ25" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="AK25" s="66" t="s">
+      <c r="AK25" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="AL25" s="66" t="s">
+      <c r="AL25" s="64" t="s">
         <v>506</v>
       </c>
-      <c r="AM25" s="66" t="s">
+      <c r="AM25" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="AN25" s="66" t="s">
+      <c r="AN25" s="64" t="s">
         <v>508</v>
       </c>
-      <c r="AO25" s="66" t="s">
+      <c r="AO25" s="64" t="s">
         <v>509</v>
       </c>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
       <c r="AR25" s="50">
         <v>2019</v>
       </c>
@@ -8004,9 +7968,7 @@
       </c>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
-      <c r="AV25" s="50">
-        <v>2018</v>
-      </c>
+      <c r="AV25" s="50"/>
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
@@ -8076,10 +8038,10 @@
       <c r="U26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V26" s="66" t="s">
+      <c r="V26" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="W26" s="66" t="s">
+      <c r="W26" s="64" t="s">
         <v>517</v>
       </c>
       <c r="X26" s="50" t="s">
@@ -8106,31 +8068,29 @@
       <c r="AG26" s="50" t="s">
         <v>511</v>
       </c>
-      <c r="AH26" s="66" t="s">
+      <c r="AH26" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="AI26" s="66" t="s">
+      <c r="AI26" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="AJ26" s="66" t="s">
+      <c r="AJ26" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="AK26" s="66" t="s">
+      <c r="AK26" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
       <c r="AR26" s="50"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
-      <c r="AV26" s="50">
-        <v>2023</v>
-      </c>
+      <c r="AV26" s="50"/>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
         <v>99</v>
@@ -8200,10 +8160,10 @@
       <c r="U27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="65" t="s">
+      <c r="V27" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="W27" s="65" t="s">
+      <c r="W27" s="63" t="s">
         <v>524</v>
       </c>
       <c r="X27" s="45" t="s">
@@ -8234,25 +8194,23 @@
       <c r="AG27" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="65"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
       <c r="AR27" s="45" t="s">
         <v>471</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
       <c r="AU27" s="45"/>
-      <c r="AV27" s="45">
-        <v>2023</v>
-      </c>
+      <c r="AV27" s="45"/>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
         <v>99</v>
@@ -8480,9 +8438,7 @@
       <c r="AS29" s="51"/>
       <c r="AT29" s="51"/>
       <c r="AU29" s="51"/>
-      <c r="AV29" s="51">
-        <v>2021</v>
-      </c>
+      <c r="AV29" s="51"/>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
         <v>99</v>
@@ -8526,8 +8482,8 @@
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
@@ -8542,16 +8498,16 @@
       <c r="AG30" s="55" t="s">
         <v>565</v>
       </c>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="55"/>
@@ -8600,8 +8556,8 @@
       <c r="S31" s="55"/>
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
@@ -8616,16 +8572,16 @@
       <c r="AG31" s="55" t="s">
         <v>566</v>
       </c>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="67"/>
-      <c r="AQ31" s="67"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
       <c r="AR31" s="55"/>
       <c r="AS31" s="55"/>
       <c r="AT31" s="55"/>
@@ -8688,10 +8644,10 @@
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="67" t="s">
+      <c r="V32" s="65" t="s">
         <v>884</v>
       </c>
-      <c r="W32" s="67" t="s">
+      <c r="W32" s="65" t="s">
         <v>568</v>
       </c>
       <c r="X32" s="55"/>
@@ -8714,16 +8670,16 @@
       <c r="AG32" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="AH32" s="67"/>
-      <c r="AI32" s="67"/>
-      <c r="AJ32" s="67"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="67"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="67"/>
-      <c r="AQ32" s="67"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
       <c r="AR32" s="55"/>
       <c r="AS32" s="55"/>
       <c r="AT32" s="55"/>
@@ -8770,8 +8726,8 @@
       <c r="S33" s="55"/>
       <c r="T33" s="55"/>
       <c r="U33" s="55"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
       <c r="Z33" s="55" t="s">
@@ -8786,16 +8742,16 @@
       <c r="AG33" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="55"/>
@@ -8844,8 +8800,8 @@
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
@@ -8860,16 +8816,16 @@
       <c r="AG34" s="55" t="s">
         <v>577</v>
       </c>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="67"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="67"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="67"/>
-      <c r="AQ34" s="67"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
       <c r="AR34" s="55"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="55"/>
@@ -8934,10 +8890,10 @@
       <c r="S35" s="55"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="67" t="s">
+      <c r="V35" s="65" t="s">
         <v>885</v>
       </c>
-      <c r="W35" s="67" t="s">
+      <c r="W35" s="65" t="s">
         <v>580</v>
       </c>
       <c r="X35" s="55"/>
@@ -8960,16 +8916,16 @@
       <c r="AG35" s="55" t="s">
         <v>579</v>
       </c>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="67"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="67"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="67"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="65"/>
+      <c r="AQ35" s="65"/>
       <c r="AR35" s="55" t="s">
         <v>439</v>
       </c>
@@ -9042,10 +8998,10 @@
       <c r="U36" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="67" t="s">
+      <c r="V36" s="65" t="s">
         <v>886</v>
       </c>
-      <c r="W36" s="67" t="s">
+      <c r="W36" s="65" t="s">
         <v>908</v>
       </c>
       <c r="X36" s="55" t="s">
@@ -9072,16 +9028,16 @@
       <c r="AG36" s="55" t="s">
         <v>590</v>
       </c>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
       <c r="AR36" s="55"/>
       <c r="AS36" s="55"/>
       <c r="AT36" s="55"/>
@@ -9128,8 +9084,8 @@
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
       <c r="U37" s="55"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
       <c r="X37" s="55"/>
       <c r="Y37" s="55"/>
       <c r="Z37" s="55" t="s">
@@ -9144,16 +9100,16 @@
       <c r="AG37" s="55" t="s">
         <v>598</v>
       </c>
-      <c r="AH37" s="67"/>
-      <c r="AI37" s="67"/>
-      <c r="AJ37" s="67"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="67"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="67"/>
-      <c r="AQ37" s="67"/>
+      <c r="AH37" s="65"/>
+      <c r="AI37" s="65"/>
+      <c r="AJ37" s="65"/>
+      <c r="AK37" s="65"/>
+      <c r="AL37" s="65"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="65"/>
+      <c r="AO37" s="65"/>
+      <c r="AP37" s="65"/>
+      <c r="AQ37" s="65"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="55"/>
       <c r="AT37" s="55"/>
@@ -9228,10 +9184,10 @@
       <c r="U38" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V38" s="67" t="s">
+      <c r="V38" s="65" t="s">
         <v>605</v>
       </c>
-      <c r="W38" s="67" t="s">
+      <c r="W38" s="65" t="s">
         <v>600</v>
       </c>
       <c r="X38" s="55" t="s">
@@ -9260,25 +9216,23 @@
       <c r="AG38" s="55" t="s">
         <v>599</v>
       </c>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="67"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="65"/>
+      <c r="AK38" s="65"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="65"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
       <c r="AR38" s="55" t="s">
         <v>608</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
       <c r="AU38" s="55"/>
-      <c r="AV38" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV38" s="55"/>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
         <v>609</v>
@@ -9348,10 +9302,10 @@
       <c r="U39" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V39" s="67" t="s">
+      <c r="V39" s="65" t="s">
         <v>887</v>
       </c>
-      <c r="W39" s="67" t="s">
+      <c r="W39" s="65" t="s">
         <v>611</v>
       </c>
       <c r="X39" s="55" t="s">
@@ -9380,25 +9334,23 @@
       <c r="AG39" s="55" t="s">
         <v>610</v>
       </c>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="67"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="65"/>
+      <c r="AP39" s="65"/>
+      <c r="AQ39" s="65"/>
       <c r="AR39" s="55" t="s">
         <v>619</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
       <c r="AU39" s="55"/>
-      <c r="AV39" s="55">
-        <v>1994</v>
-      </c>
+      <c r="AV39" s="55"/>
       <c r="AW39" s="55"/>
       <c r="AX39" s="56"/>
       <c r="AY39" s="55"/>
@@ -9462,10 +9414,10 @@
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
-      <c r="V40" s="67" t="s">
+      <c r="V40" s="65" t="s">
         <v>626</v>
       </c>
-      <c r="W40" s="67" t="s">
+      <c r="W40" s="65" t="s">
         <v>627</v>
       </c>
       <c r="X40" s="55"/>
@@ -9488,23 +9440,21 @@
       <c r="AG40" s="55" t="s">
         <v>620</v>
       </c>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="67"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="67"/>
+      <c r="AH40" s="65"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="65"/>
+      <c r="AK40" s="65"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="65"/>
+      <c r="AO40" s="65"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
       <c r="AU40" s="55"/>
-      <c r="AV40" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV40" s="55"/>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
         <v>99</v>
@@ -9576,10 +9526,10 @@
       <c r="U41" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V41" s="67" t="s">
+      <c r="V41" s="65" t="s">
         <v>633</v>
       </c>
-      <c r="W41" s="67" t="s">
+      <c r="W41" s="65" t="s">
         <v>629</v>
       </c>
       <c r="X41" s="55" t="s">
@@ -9608,25 +9558,23 @@
       <c r="AG41" s="55" t="s">
         <v>628</v>
       </c>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67" t="s">
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65" t="s">
         <v>635</v>
       </c>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="67"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="67"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="67"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
       <c r="AR41" s="55"/>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
       <c r="AU41" s="55"/>
-      <c r="AV41" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV41" s="55"/>
       <c r="AW41" s="55"/>
       <c r="AX41" s="56"/>
       <c r="AY41" s="55"/>
@@ -9694,10 +9642,10 @@
       <c r="U42" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V42" s="67" t="s">
+      <c r="V42" s="65" t="s">
         <v>888</v>
       </c>
-      <c r="W42" s="67" t="s">
+      <c r="W42" s="65" t="s">
         <v>637</v>
       </c>
       <c r="X42" s="55" t="s">
@@ -9726,23 +9674,21 @@
       <c r="AG42" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="67"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="65"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
       <c r="AR42" s="55"/>
       <c r="AS42" s="55"/>
       <c r="AT42" s="55"/>
       <c r="AU42" s="55"/>
-      <c r="AV42" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV42" s="55"/>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
         <v>472</v>
@@ -9804,10 +9750,10 @@
       <c r="U43" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V43" s="67" t="s">
+      <c r="V43" s="65" t="s">
         <v>889</v>
       </c>
-      <c r="W43" s="67" t="s">
+      <c r="W43" s="65" t="s">
         <v>646</v>
       </c>
       <c r="X43" s="55" t="s">
@@ -9834,16 +9780,16 @@
       <c r="AG43" s="55" t="s">
         <v>652</v>
       </c>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
+      <c r="AH43" s="65"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="65"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="65"/>
+      <c r="AM43" s="65"/>
+      <c r="AN43" s="65"/>
+      <c r="AO43" s="65"/>
+      <c r="AP43" s="65"/>
+      <c r="AQ43" s="65"/>
       <c r="AR43" s="55"/>
       <c r="AS43" s="55"/>
       <c r="AT43" s="55"/>
@@ -9890,8 +9836,8 @@
       <c r="S44" s="55"/>
       <c r="T44" s="55"/>
       <c r="U44" s="55"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
@@ -9906,16 +9852,16 @@
       <c r="AG44" s="55" t="s">
         <v>653</v>
       </c>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="67"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
+      <c r="AH44" s="65"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="65"/>
+      <c r="AK44" s="65"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="65"/>
+      <c r="AO44" s="65"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
       <c r="AR44" s="55"/>
       <c r="AS44" s="55"/>
       <c r="AT44" s="55"/>
@@ -9962,8 +9908,8 @@
       <c r="S45" s="55"/>
       <c r="T45" s="55"/>
       <c r="U45" s="55"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
       <c r="X45" s="55"/>
       <c r="Y45" s="55"/>
       <c r="Z45" s="55" t="s">
@@ -9978,16 +9924,16 @@
       <c r="AG45" s="55" t="s">
         <v>654</v>
       </c>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="67"/>
-      <c r="AP45" s="67"/>
-      <c r="AQ45" s="67"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
       <c r="AR45" s="55"/>
       <c r="AS45" s="55"/>
       <c r="AT45" s="55"/>
@@ -10036,8 +9982,8 @@
       <c r="S46" s="55"/>
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
       <c r="X46" s="55"/>
       <c r="Y46" s="55"/>
       <c r="Z46" s="55" t="s">
@@ -10052,16 +9998,16 @@
       <c r="AG46" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="67"/>
-      <c r="AO46" s="67"/>
-      <c r="AP46" s="67"/>
-      <c r="AQ46" s="67"/>
+      <c r="AH46" s="65"/>
+      <c r="AI46" s="65"/>
+      <c r="AJ46" s="65"/>
+      <c r="AK46" s="65"/>
+      <c r="AL46" s="65"/>
+      <c r="AM46" s="65"/>
+      <c r="AN46" s="65"/>
+      <c r="AO46" s="65"/>
+      <c r="AP46" s="65"/>
+      <c r="AQ46" s="65"/>
       <c r="AR46" s="55"/>
       <c r="AS46" s="55"/>
       <c r="AT46" s="55"/>
@@ -10134,10 +10080,10 @@
       <c r="U47" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="67" t="s">
+      <c r="V47" s="65" t="s">
         <v>663</v>
       </c>
-      <c r="W47" s="67" t="s">
+      <c r="W47" s="65" t="s">
         <v>658</v>
       </c>
       <c r="X47" s="55" t="s">
@@ -10168,25 +10114,23 @@
       <c r="AG47" s="55" t="s">
         <v>657</v>
       </c>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67" t="s">
+      <c r="AH47" s="65"/>
+      <c r="AI47" s="65"/>
+      <c r="AJ47" s="65" t="s">
         <v>666</v>
       </c>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="67"/>
-      <c r="AO47" s="67"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="67"/>
+      <c r="AK47" s="65"/>
+      <c r="AL47" s="65"/>
+      <c r="AM47" s="65"/>
+      <c r="AN47" s="65"/>
+      <c r="AO47" s="65"/>
+      <c r="AP47" s="65"/>
+      <c r="AQ47" s="65"/>
       <c r="AR47" s="55"/>
       <c r="AS47" s="55"/>
       <c r="AT47" s="55"/>
       <c r="AU47" s="55"/>
-      <c r="AV47" s="55">
-        <v>2017</v>
-      </c>
+      <c r="AV47" s="55"/>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
         <v>667</v>
@@ -10240,8 +10184,8 @@
       <c r="S48" s="55"/>
       <c r="T48" s="55"/>
       <c r="U48" s="55"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
       <c r="X48" s="55"/>
       <c r="Y48" s="55"/>
       <c r="Z48" s="55" t="s">
@@ -10260,16 +10204,16 @@
       <c r="AG48" s="55" t="s">
         <v>669</v>
       </c>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="67"/>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
+      <c r="AH48" s="65"/>
+      <c r="AI48" s="65"/>
+      <c r="AJ48" s="65"/>
+      <c r="AK48" s="65"/>
+      <c r="AL48" s="65"/>
+      <c r="AM48" s="65"/>
+      <c r="AN48" s="65"/>
+      <c r="AO48" s="65"/>
+      <c r="AP48" s="65"/>
+      <c r="AQ48" s="65"/>
       <c r="AR48" s="55"/>
       <c r="AS48" s="55"/>
       <c r="AT48" s="55"/>
@@ -10340,10 +10284,10 @@
       <c r="U49" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V49" s="67" t="s">
+      <c r="V49" s="65" t="s">
         <v>890</v>
       </c>
-      <c r="W49" s="67" t="s">
+      <c r="W49" s="65" t="s">
         <v>676</v>
       </c>
       <c r="X49" s="55" t="s">
@@ -10370,23 +10314,21 @@
       <c r="AG49" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="67"/>
+      <c r="AH49" s="65"/>
+      <c r="AI49" s="65"/>
+      <c r="AJ49" s="65"/>
+      <c r="AK49" s="65"/>
+      <c r="AL49" s="65"/>
+      <c r="AM49" s="65"/>
+      <c r="AN49" s="65"/>
+      <c r="AO49" s="65"/>
+      <c r="AP49" s="65"/>
+      <c r="AQ49" s="65"/>
       <c r="AR49" s="55"/>
       <c r="AS49" s="55"/>
       <c r="AT49" s="55"/>
       <c r="AU49" s="55"/>
-      <c r="AV49" s="55">
-        <v>1998</v>
-      </c>
+      <c r="AV49" s="55"/>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
         <v>683</v>
@@ -10438,8 +10380,8 @@
       <c r="S50" s="55"/>
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="65"/>
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
@@ -10458,16 +10400,16 @@
       <c r="AG50" s="55" t="s">
         <v>684</v>
       </c>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="67"/>
+      <c r="AH50" s="65"/>
+      <c r="AI50" s="65"/>
+      <c r="AJ50" s="65"/>
+      <c r="AK50" s="65"/>
+      <c r="AL50" s="65"/>
+      <c r="AM50" s="65"/>
+      <c r="AN50" s="65"/>
+      <c r="AO50" s="65"/>
+      <c r="AP50" s="65"/>
+      <c r="AQ50" s="65"/>
       <c r="AR50" s="55"/>
       <c r="AS50" s="55"/>
       <c r="AT50" s="55"/>
@@ -10522,8 +10464,8 @@
       <c r="S51" s="55"/>
       <c r="T51" s="55"/>
       <c r="U51" s="55"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="65"/>
       <c r="X51" s="55"/>
       <c r="Y51" s="55"/>
       <c r="Z51" s="55" t="s">
@@ -10542,16 +10484,16 @@
       <c r="AG51" s="55" t="s">
         <v>689</v>
       </c>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="67"/>
-      <c r="AQ51" s="67"/>
+      <c r="AH51" s="65"/>
+      <c r="AI51" s="65"/>
+      <c r="AJ51" s="65"/>
+      <c r="AK51" s="65"/>
+      <c r="AL51" s="65"/>
+      <c r="AM51" s="65"/>
+      <c r="AN51" s="65"/>
+      <c r="AO51" s="65"/>
+      <c r="AP51" s="65"/>
+      <c r="AQ51" s="65"/>
       <c r="AR51" s="55"/>
       <c r="AS51" s="55"/>
       <c r="AT51" s="55"/>
@@ -10612,8 +10554,8 @@
       <c r="S52" s="55"/>
       <c r="T52" s="55"/>
       <c r="U52" s="55"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
+      <c r="V52" s="65"/>
+      <c r="W52" s="65"/>
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
@@ -10632,16 +10574,16 @@
       <c r="AG52" s="55" t="s">
         <v>697</v>
       </c>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="67"/>
-      <c r="AQ52" s="67"/>
+      <c r="AH52" s="65"/>
+      <c r="AI52" s="65"/>
+      <c r="AJ52" s="65"/>
+      <c r="AK52" s="65"/>
+      <c r="AL52" s="65"/>
+      <c r="AM52" s="65"/>
+      <c r="AN52" s="65"/>
+      <c r="AO52" s="65"/>
+      <c r="AP52" s="65"/>
+      <c r="AQ52" s="65"/>
       <c r="AR52" s="55"/>
       <c r="AS52" s="55"/>
       <c r="AT52" s="55"/>
@@ -10714,10 +10656,10 @@
       <c r="U53" s="55" t="s">
         <v>708</v>
       </c>
-      <c r="V53" s="67" t="s">
+      <c r="V53" s="65" t="s">
         <v>707</v>
       </c>
-      <c r="W53" s="67" t="s">
+      <c r="W53" s="65" t="s">
         <v>703</v>
       </c>
       <c r="X53" s="55" t="s">
@@ -10746,16 +10688,16 @@
       <c r="AG53" s="55" t="s">
         <v>702</v>
       </c>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="67"/>
+      <c r="AH53" s="65"/>
+      <c r="AI53" s="65"/>
+      <c r="AJ53" s="65"/>
+      <c r="AK53" s="65"/>
+      <c r="AL53" s="65"/>
+      <c r="AM53" s="65"/>
+      <c r="AN53" s="65"/>
+      <c r="AO53" s="65"/>
+      <c r="AP53" s="65"/>
+      <c r="AQ53" s="65"/>
       <c r="AR53" s="59">
         <v>85.404166666666669</v>
       </c>
@@ -10764,9 +10706,7 @@
         <v>578</v>
       </c>
       <c r="AU53" s="55"/>
-      <c r="AV53" s="55">
-        <v>2007</v>
-      </c>
+      <c r="AV53" s="55"/>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
         <v>99</v>
@@ -10822,10 +10762,10 @@
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
-      <c r="V54" s="67" t="s">
+      <c r="V54" s="65" t="s">
         <v>891</v>
       </c>
-      <c r="W54" s="67" t="s">
+      <c r="W54" s="65" t="s">
         <v>713</v>
       </c>
       <c r="X54" s="55"/>
@@ -10846,18 +10786,18 @@
       <c r="AG54" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67" t="s">
+      <c r="AH54" s="65"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="65" t="s">
         <v>720</v>
       </c>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="67"/>
-      <c r="AQ54" s="67"/>
+      <c r="AK54" s="65"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="65"/>
+      <c r="AN54" s="65"/>
+      <c r="AO54" s="65"/>
+      <c r="AP54" s="65"/>
+      <c r="AQ54" s="65"/>
       <c r="AR54" s="55"/>
       <c r="AS54" s="55"/>
       <c r="AT54" s="55"/>
@@ -10906,8 +10846,8 @@
       <c r="S55" s="55"/>
       <c r="T55" s="55"/>
       <c r="U55" s="55"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
+      <c r="V55" s="65"/>
+      <c r="W55" s="65"/>
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
@@ -10922,16 +10862,16 @@
       <c r="AG55" s="55" t="s">
         <v>721</v>
       </c>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="67"/>
-      <c r="AM55" s="67"/>
-      <c r="AN55" s="67"/>
-      <c r="AO55" s="67"/>
-      <c r="AP55" s="67"/>
-      <c r="AQ55" s="67"/>
+      <c r="AH55" s="65"/>
+      <c r="AI55" s="65"/>
+      <c r="AJ55" s="65"/>
+      <c r="AK55" s="65"/>
+      <c r="AL55" s="65"/>
+      <c r="AM55" s="65"/>
+      <c r="AN55" s="65"/>
+      <c r="AO55" s="65"/>
+      <c r="AP55" s="65"/>
+      <c r="AQ55" s="65"/>
       <c r="AR55" s="55"/>
       <c r="AS55" s="55"/>
       <c r="AT55" s="55"/>
@@ -10994,10 +10934,10 @@
       <c r="U56" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V56" s="67" t="s">
+      <c r="V56" s="65" t="s">
         <v>892</v>
       </c>
-      <c r="W56" s="67" t="s">
+      <c r="W56" s="65" t="s">
         <v>723</v>
       </c>
       <c r="X56" s="55" t="s">
@@ -11026,16 +10966,16 @@
       <c r="AG56" s="55" t="s">
         <v>722</v>
       </c>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AJ56" s="67"/>
-      <c r="AK56" s="67"/>
-      <c r="AL56" s="67"/>
-      <c r="AM56" s="67"/>
-      <c r="AN56" s="67"/>
-      <c r="AO56" s="67"/>
-      <c r="AP56" s="67"/>
-      <c r="AQ56" s="67"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="65"/>
+      <c r="AK56" s="65"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="65"/>
+      <c r="AN56" s="65"/>
+      <c r="AO56" s="65"/>
+      <c r="AP56" s="65"/>
+      <c r="AQ56" s="65"/>
       <c r="AR56" s="55"/>
       <c r="AS56" s="55"/>
       <c r="AT56" s="55"/>
@@ -11084,8 +11024,8 @@
       <c r="S57" s="55"/>
       <c r="T57" s="55"/>
       <c r="U57" s="55"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
+      <c r="V57" s="65"/>
+      <c r="W57" s="65"/>
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
@@ -11100,16 +11040,16 @@
       <c r="AG57" s="55" t="s">
         <v>730</v>
       </c>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="67"/>
-      <c r="AM57" s="67"/>
-      <c r="AN57" s="67"/>
-      <c r="AO57" s="67"/>
-      <c r="AP57" s="67"/>
-      <c r="AQ57" s="67"/>
+      <c r="AH57" s="65"/>
+      <c r="AI57" s="65"/>
+      <c r="AJ57" s="65"/>
+      <c r="AK57" s="65"/>
+      <c r="AL57" s="65"/>
+      <c r="AM57" s="65"/>
+      <c r="AN57" s="65"/>
+      <c r="AO57" s="65"/>
+      <c r="AP57" s="65"/>
+      <c r="AQ57" s="65"/>
       <c r="AR57" s="55"/>
       <c r="AS57" s="55"/>
       <c r="AT57" s="55"/>
@@ -11178,10 +11118,10 @@
       <c r="U58" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V58" s="67" t="s">
+      <c r="V58" s="65" t="s">
         <v>736</v>
       </c>
-      <c r="W58" s="67" t="s">
+      <c r="W58" s="65" t="s">
         <v>733</v>
       </c>
       <c r="X58" s="55" t="s">
@@ -11208,16 +11148,16 @@
       <c r="AG58" s="55" t="s">
         <v>732</v>
       </c>
-      <c r="AH58" s="67"/>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="67"/>
-      <c r="AM58" s="67"/>
-      <c r="AN58" s="67"/>
-      <c r="AO58" s="67"/>
-      <c r="AP58" s="67"/>
-      <c r="AQ58" s="67"/>
+      <c r="AH58" s="65"/>
+      <c r="AI58" s="65"/>
+      <c r="AJ58" s="65"/>
+      <c r="AK58" s="65"/>
+      <c r="AL58" s="65"/>
+      <c r="AM58" s="65"/>
+      <c r="AN58" s="65"/>
+      <c r="AO58" s="65"/>
+      <c r="AP58" s="65"/>
+      <c r="AQ58" s="65"/>
       <c r="AR58" s="55" t="s">
         <v>737</v>
       </c>
@@ -11288,10 +11228,10 @@
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
-      <c r="V59" s="67" t="s">
+      <c r="V59" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="W59" s="67" t="s">
+      <c r="W59" s="65" t="s">
         <v>739</v>
       </c>
       <c r="X59" s="55"/>
@@ -11316,20 +11256,20 @@
       <c r="AG59" s="55" t="s">
         <v>738</v>
       </c>
-      <c r="AH59" s="67" t="s">
+      <c r="AH59" s="65" t="s">
         <v>748</v>
       </c>
-      <c r="AI59" s="67" t="s">
+      <c r="AI59" s="65" t="s">
         <v>749</v>
       </c>
-      <c r="AJ59" s="67"/>
-      <c r="AK59" s="67"/>
-      <c r="AL59" s="67"/>
-      <c r="AM59" s="67"/>
-      <c r="AN59" s="67"/>
-      <c r="AO59" s="67"/>
-      <c r="AP59" s="67"/>
-      <c r="AQ59" s="67"/>
+      <c r="AJ59" s="65"/>
+      <c r="AK59" s="65"/>
+      <c r="AL59" s="65"/>
+      <c r="AM59" s="65"/>
+      <c r="AN59" s="65"/>
+      <c r="AO59" s="65"/>
+      <c r="AP59" s="65"/>
+      <c r="AQ59" s="65"/>
       <c r="AR59" s="55"/>
       <c r="AS59" s="55"/>
       <c r="AT59" s="55"/>
@@ -11392,10 +11332,10 @@
       <c r="U60" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="67" t="s">
+      <c r="V60" s="65" t="s">
         <v>894</v>
       </c>
-      <c r="W60" s="67" t="s">
+      <c r="W60" s="65" t="s">
         <v>751</v>
       </c>
       <c r="X60" s="55" t="s">
@@ -11424,16 +11364,16 @@
       <c r="AG60" s="55" t="s">
         <v>750</v>
       </c>
-      <c r="AH60" s="67"/>
-      <c r="AI60" s="67"/>
-      <c r="AJ60" s="67"/>
-      <c r="AK60" s="67"/>
-      <c r="AL60" s="67"/>
-      <c r="AM60" s="67"/>
-      <c r="AN60" s="67"/>
-      <c r="AO60" s="67"/>
-      <c r="AP60" s="67"/>
-      <c r="AQ60" s="67"/>
+      <c r="AH60" s="65"/>
+      <c r="AI60" s="65"/>
+      <c r="AJ60" s="65"/>
+      <c r="AK60" s="65"/>
+      <c r="AL60" s="65"/>
+      <c r="AM60" s="65"/>
+      <c r="AN60" s="65"/>
+      <c r="AO60" s="65"/>
+      <c r="AP60" s="65"/>
+      <c r="AQ60" s="65"/>
       <c r="AR60" s="55"/>
       <c r="AS60" s="55"/>
       <c r="AT60" s="55"/>
@@ -11494,8 +11434,8 @@
       <c r="U61" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
+      <c r="V61" s="65"/>
+      <c r="W61" s="65"/>
       <c r="X61" s="55" t="s">
         <v>85</v>
       </c>
@@ -11516,23 +11456,21 @@
       <c r="AG61" s="55" t="s">
         <v>758</v>
       </c>
-      <c r="AH61" s="67"/>
-      <c r="AI61" s="67"/>
-      <c r="AJ61" s="67"/>
-      <c r="AK61" s="67"/>
-      <c r="AL61" s="67"/>
-      <c r="AM61" s="67"/>
-      <c r="AN61" s="67"/>
-      <c r="AO61" s="67"/>
-      <c r="AP61" s="67"/>
-      <c r="AQ61" s="67"/>
+      <c r="AH61" s="65"/>
+      <c r="AI61" s="65"/>
+      <c r="AJ61" s="65"/>
+      <c r="AK61" s="65"/>
+      <c r="AL61" s="65"/>
+      <c r="AM61" s="65"/>
+      <c r="AN61" s="65"/>
+      <c r="AO61" s="65"/>
+      <c r="AP61" s="65"/>
+      <c r="AQ61" s="65"/>
       <c r="AR61" s="55"/>
       <c r="AS61" s="55"/>
       <c r="AT61" s="55"/>
       <c r="AU61" s="55"/>
-      <c r="AV61" s="55">
-        <v>1986</v>
-      </c>
+      <c r="AV61" s="55"/>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
         <v>99</v>
@@ -11592,10 +11530,10 @@
       <c r="U62" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="67" t="s">
+      <c r="V62" s="65" t="s">
         <v>895</v>
       </c>
-      <c r="W62" s="67" t="s">
+      <c r="W62" s="65" t="s">
         <v>760</v>
       </c>
       <c r="X62" s="55" t="s">
@@ -11622,16 +11560,16 @@
       <c r="AG62" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="AH62" s="67"/>
-      <c r="AI62" s="67"/>
-      <c r="AJ62" s="67"/>
-      <c r="AK62" s="67"/>
-      <c r="AL62" s="67"/>
-      <c r="AM62" s="67"/>
-      <c r="AN62" s="67"/>
-      <c r="AO62" s="67"/>
-      <c r="AP62" s="67"/>
-      <c r="AQ62" s="67"/>
+      <c r="AH62" s="65"/>
+      <c r="AI62" s="65"/>
+      <c r="AJ62" s="65"/>
+      <c r="AK62" s="65"/>
+      <c r="AL62" s="65"/>
+      <c r="AM62" s="65"/>
+      <c r="AN62" s="65"/>
+      <c r="AO62" s="65"/>
+      <c r="AP62" s="65"/>
+      <c r="AQ62" s="65"/>
       <c r="AR62" s="55"/>
       <c r="AS62" s="55"/>
       <c r="AT62" s="55"/>
@@ -11682,8 +11620,8 @@
       <c r="S63" s="55"/>
       <c r="T63" s="55"/>
       <c r="U63" s="55"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
+      <c r="V63" s="65"/>
+      <c r="W63" s="65"/>
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
@@ -11698,16 +11636,16 @@
       <c r="AG63" s="55" t="s">
         <v>768</v>
       </c>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AJ63" s="67"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="67"/>
-      <c r="AP63" s="67"/>
-      <c r="AQ63" s="67"/>
+      <c r="AH63" s="65"/>
+      <c r="AI63" s="65"/>
+      <c r="AJ63" s="65"/>
+      <c r="AK63" s="65"/>
+      <c r="AL63" s="65"/>
+      <c r="AM63" s="65"/>
+      <c r="AN63" s="65"/>
+      <c r="AO63" s="65"/>
+      <c r="AP63" s="65"/>
+      <c r="AQ63" s="65"/>
       <c r="AR63" s="55"/>
       <c r="AS63" s="55"/>
       <c r="AT63" s="55"/>
@@ -11780,10 +11718,10 @@
       <c r="U64" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="67" t="s">
+      <c r="V64" s="65" t="s">
         <v>775</v>
       </c>
-      <c r="W64" s="67" t="s">
+      <c r="W64" s="65" t="s">
         <v>770</v>
       </c>
       <c r="X64" s="55" t="s">
@@ -11810,29 +11748,27 @@
       <c r="AG64" s="55" t="s">
         <v>778</v>
       </c>
-      <c r="AH64" s="67" t="s">
+      <c r="AH64" s="65" t="s">
         <v>779</v>
       </c>
-      <c r="AI64" s="67" t="s">
+      <c r="AI64" s="65" t="s">
         <v>780</v>
       </c>
-      <c r="AJ64" s="67"/>
-      <c r="AK64" s="67"/>
-      <c r="AL64" s="67"/>
-      <c r="AM64" s="67"/>
-      <c r="AN64" s="67"/>
-      <c r="AO64" s="67"/>
-      <c r="AP64" s="67"/>
-      <c r="AQ64" s="67"/>
+      <c r="AJ64" s="65"/>
+      <c r="AK64" s="65"/>
+      <c r="AL64" s="65"/>
+      <c r="AM64" s="65"/>
+      <c r="AN64" s="65"/>
+      <c r="AO64" s="65"/>
+      <c r="AP64" s="65"/>
+      <c r="AQ64" s="65"/>
       <c r="AR64" s="55"/>
       <c r="AS64" s="55"/>
       <c r="AT64" s="55">
         <v>2013</v>
       </c>
       <c r="AU64" s="55"/>
-      <c r="AV64" s="55">
-        <v>1998</v>
-      </c>
+      <c r="AV64" s="55"/>
       <c r="AW64" s="55"/>
       <c r="AX64" s="56"/>
       <c r="AY64" s="55"/>
@@ -11890,10 +11826,10 @@
       <c r="U65" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="67" t="s">
+      <c r="V65" s="65" t="s">
         <v>786</v>
       </c>
-      <c r="W65" s="67" t="s">
+      <c r="W65" s="65" t="s">
         <v>782</v>
       </c>
       <c r="X65" s="55" t="s">
@@ -11922,16 +11858,16 @@
       <c r="AG65" s="55" t="s">
         <v>781</v>
       </c>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="67"/>
-      <c r="AK65" s="67"/>
-      <c r="AL65" s="67"/>
-      <c r="AM65" s="67"/>
-      <c r="AN65" s="67"/>
-      <c r="AO65" s="67"/>
-      <c r="AP65" s="67"/>
-      <c r="AQ65" s="67"/>
+      <c r="AH65" s="65"/>
+      <c r="AI65" s="65"/>
+      <c r="AJ65" s="65"/>
+      <c r="AK65" s="65"/>
+      <c r="AL65" s="65"/>
+      <c r="AM65" s="65"/>
+      <c r="AN65" s="65"/>
+      <c r="AO65" s="65"/>
+      <c r="AP65" s="65"/>
+      <c r="AQ65" s="65"/>
       <c r="AR65" s="55"/>
       <c r="AS65" s="55"/>
       <c r="AT65" s="55"/>
@@ -12008,10 +11944,10 @@
       <c r="U66" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V66" s="67" t="s">
+      <c r="V66" s="65" t="s">
         <v>795</v>
       </c>
-      <c r="W66" s="67" t="s">
+      <c r="W66" s="65" t="s">
         <v>790</v>
       </c>
       <c r="X66" s="55" t="s">
@@ -12038,25 +11974,23 @@
       <c r="AG66" s="55" t="s">
         <v>789</v>
       </c>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="67"/>
-      <c r="AJ66" s="67"/>
-      <c r="AK66" s="67"/>
-      <c r="AL66" s="67"/>
-      <c r="AM66" s="67"/>
-      <c r="AN66" s="67"/>
-      <c r="AO66" s="67"/>
-      <c r="AP66" s="67"/>
-      <c r="AQ66" s="67"/>
+      <c r="AH66" s="65"/>
+      <c r="AI66" s="65"/>
+      <c r="AJ66" s="65"/>
+      <c r="AK66" s="65"/>
+      <c r="AL66" s="65"/>
+      <c r="AM66" s="65"/>
+      <c r="AN66" s="65"/>
+      <c r="AO66" s="65"/>
+      <c r="AP66" s="65"/>
+      <c r="AQ66" s="65"/>
       <c r="AR66" s="55">
         <v>2019</v>
       </c>
       <c r="AS66" s="55"/>
       <c r="AT66" s="55"/>
       <c r="AU66" s="55"/>
-      <c r="AV66" s="55">
-        <v>2012</v>
-      </c>
+      <c r="AV66" s="55"/>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
         <v>99</v>
@@ -12118,10 +12052,10 @@
       </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
-      <c r="V67" s="67" t="s">
+      <c r="V67" s="65" t="s">
         <v>896</v>
       </c>
-      <c r="W67" s="67" t="s">
+      <c r="W67" s="65" t="s">
         <v>799</v>
       </c>
       <c r="X67" s="55"/>
@@ -12140,16 +12074,16 @@
       <c r="AG67" s="55" t="s">
         <v>798</v>
       </c>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="67"/>
-      <c r="AJ67" s="67"/>
-      <c r="AK67" s="67"/>
-      <c r="AL67" s="67"/>
-      <c r="AM67" s="67"/>
-      <c r="AN67" s="67"/>
-      <c r="AO67" s="67"/>
-      <c r="AP67" s="67"/>
-      <c r="AQ67" s="67"/>
+      <c r="AH67" s="65"/>
+      <c r="AI67" s="65"/>
+      <c r="AJ67" s="65"/>
+      <c r="AK67" s="65"/>
+      <c r="AL67" s="65"/>
+      <c r="AM67" s="65"/>
+      <c r="AN67" s="65"/>
+      <c r="AO67" s="65"/>
+      <c r="AP67" s="65"/>
+      <c r="AQ67" s="65"/>
       <c r="AR67" s="55"/>
       <c r="AS67" s="55"/>
       <c r="AT67" s="55"/>
@@ -12212,10 +12146,10 @@
       <c r="U68" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V68" s="67" t="s">
+      <c r="V68" s="65" t="s">
         <v>897</v>
       </c>
-      <c r="W68" s="67" t="s">
+      <c r="W68" s="65" t="s">
         <v>805</v>
       </c>
       <c r="X68" s="55" t="s">
@@ -12242,16 +12176,16 @@
       <c r="AG68" s="55" t="s">
         <v>804</v>
       </c>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="67"/>
-      <c r="AJ68" s="67"/>
-      <c r="AK68" s="67"/>
-      <c r="AL68" s="67"/>
-      <c r="AM68" s="67"/>
-      <c r="AN68" s="67"/>
-      <c r="AO68" s="67"/>
-      <c r="AP68" s="67"/>
-      <c r="AQ68" s="67"/>
+      <c r="AH68" s="65"/>
+      <c r="AI68" s="65"/>
+      <c r="AJ68" s="65"/>
+      <c r="AK68" s="65"/>
+      <c r="AL68" s="65"/>
+      <c r="AM68" s="65"/>
+      <c r="AN68" s="65"/>
+      <c r="AO68" s="65"/>
+      <c r="AP68" s="65"/>
+      <c r="AQ68" s="65"/>
       <c r="AR68" s="55"/>
       <c r="AS68" s="55"/>
       <c r="AT68" s="55"/>
@@ -12326,10 +12260,10 @@
       <c r="U69" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V69" s="67" t="s">
+      <c r="V69" s="65" t="s">
         <v>818</v>
       </c>
-      <c r="W69" s="67" t="s">
+      <c r="W69" s="65" t="s">
         <v>813</v>
       </c>
       <c r="X69" s="55" t="s">
@@ -12358,34 +12292,34 @@
       <c r="AG69" s="55" t="s">
         <v>812</v>
       </c>
-      <c r="AH69" s="67" t="s">
+      <c r="AH69" s="65" t="s">
         <v>822</v>
       </c>
-      <c r="AI69" s="67" t="s">
+      <c r="AI69" s="65" t="s">
         <v>823</v>
       </c>
-      <c r="AJ69" s="67" t="s">
+      <c r="AJ69" s="65" t="s">
         <v>824</v>
       </c>
-      <c r="AK69" s="67" t="s">
+      <c r="AK69" s="65" t="s">
         <v>825</v>
       </c>
-      <c r="AL69" s="67" t="s">
+      <c r="AL69" s="65" t="s">
         <v>826</v>
       </c>
-      <c r="AM69" s="67" t="s">
+      <c r="AM69" s="65" t="s">
         <v>827</v>
       </c>
-      <c r="AN69" s="67" t="s">
+      <c r="AN69" s="65" t="s">
         <v>828</v>
       </c>
-      <c r="AO69" s="67" t="s">
+      <c r="AO69" s="65" t="s">
         <v>829</v>
       </c>
-      <c r="AP69" s="67" t="s">
+      <c r="AP69" s="65" t="s">
         <v>830</v>
       </c>
-      <c r="AQ69" s="67" t="s">
+      <c r="AQ69" s="65" t="s">
         <v>831</v>
       </c>
       <c r="AR69" s="55" t="s">
@@ -12396,9 +12330,7 @@
       </c>
       <c r="AT69" s="55"/>
       <c r="AU69" s="55"/>
-      <c r="AV69" s="55">
-        <v>1988</v>
-      </c>
+      <c r="AV69" s="55"/>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
         <v>833</v>
@@ -12460,10 +12392,10 @@
       <c r="U70" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V70" s="67" t="s">
+      <c r="V70" s="65" t="s">
         <v>898</v>
       </c>
-      <c r="W70" s="67" t="s">
+      <c r="W70" s="65" t="s">
         <v>835</v>
       </c>
       <c r="X70" s="55" t="s">
@@ -12494,18 +12426,18 @@
       <c r="AG70" s="55" t="s">
         <v>834</v>
       </c>
-      <c r="AH70" s="67"/>
-      <c r="AI70" s="67"/>
-      <c r="AJ70" s="67" t="s">
+      <c r="AH70" s="65"/>
+      <c r="AI70" s="65"/>
+      <c r="AJ70" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="AK70" s="67"/>
-      <c r="AL70" s="67"/>
-      <c r="AM70" s="67"/>
-      <c r="AN70" s="67"/>
-      <c r="AO70" s="67"/>
-      <c r="AP70" s="67"/>
-      <c r="AQ70" s="67"/>
+      <c r="AK70" s="65"/>
+      <c r="AL70" s="65"/>
+      <c r="AM70" s="65"/>
+      <c r="AN70" s="65"/>
+      <c r="AO70" s="65"/>
+      <c r="AP70" s="65"/>
+      <c r="AQ70" s="65"/>
       <c r="AR70" s="55"/>
       <c r="AS70" s="55">
         <v>2016</v>
@@ -12572,10 +12504,10 @@
       <c r="U71" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V71" s="67" t="s">
+      <c r="V71" s="65" t="s">
         <v>899</v>
       </c>
-      <c r="W71" s="67" t="s">
+      <c r="W71" s="65" t="s">
         <v>847</v>
       </c>
       <c r="X71" s="55" t="s">
@@ -12602,16 +12534,16 @@
       <c r="AG71" s="55" t="s">
         <v>846</v>
       </c>
-      <c r="AH71" s="67"/>
-      <c r="AI71" s="67"/>
-      <c r="AJ71" s="67"/>
-      <c r="AK71" s="67"/>
-      <c r="AL71" s="67"/>
-      <c r="AM71" s="67"/>
-      <c r="AN71" s="67"/>
-      <c r="AO71" s="67"/>
-      <c r="AP71" s="67"/>
-      <c r="AQ71" s="67"/>
+      <c r="AH71" s="65"/>
+      <c r="AI71" s="65"/>
+      <c r="AJ71" s="65"/>
+      <c r="AK71" s="65"/>
+      <c r="AL71" s="65"/>
+      <c r="AM71" s="65"/>
+      <c r="AN71" s="65"/>
+      <c r="AO71" s="65"/>
+      <c r="AP71" s="65"/>
+      <c r="AQ71" s="65"/>
       <c r="AR71" s="55"/>
       <c r="AS71" s="55"/>
       <c r="AT71" s="55"/>
@@ -12660,8 +12592,8 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
+      <c r="V72" s="65"/>
+      <c r="W72" s="65"/>
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
@@ -12676,16 +12608,16 @@
       <c r="AG72" s="55" t="s">
         <v>853</v>
       </c>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="67"/>
-      <c r="AJ72" s="67"/>
-      <c r="AK72" s="67"/>
-      <c r="AL72" s="67"/>
-      <c r="AM72" s="67"/>
-      <c r="AN72" s="67"/>
-      <c r="AO72" s="67"/>
-      <c r="AP72" s="67"/>
-      <c r="AQ72" s="67"/>
+      <c r="AH72" s="65"/>
+      <c r="AI72" s="65"/>
+      <c r="AJ72" s="65"/>
+      <c r="AK72" s="65"/>
+      <c r="AL72" s="65"/>
+      <c r="AM72" s="65"/>
+      <c r="AN72" s="65"/>
+      <c r="AO72" s="65"/>
+      <c r="AP72" s="65"/>
+      <c r="AQ72" s="65"/>
       <c r="AR72" s="55"/>
       <c r="AS72" s="55"/>
       <c r="AT72" s="55"/>
@@ -12746,10 +12678,10 @@
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
-      <c r="V73" s="67" t="s">
+      <c r="V73" s="65" t="s">
         <v>860</v>
       </c>
-      <c r="W73" s="67" t="s">
+      <c r="W73" s="65" t="s">
         <v>855</v>
       </c>
       <c r="X73" s="55"/>
@@ -12770,16 +12702,16 @@
       <c r="AG73" s="55" t="s">
         <v>854</v>
       </c>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-      <c r="AK73" s="67"/>
-      <c r="AL73" s="67"/>
-      <c r="AM73" s="67"/>
-      <c r="AN73" s="67"/>
-      <c r="AO73" s="67"/>
-      <c r="AP73" s="67"/>
-      <c r="AQ73" s="67"/>
+      <c r="AH73" s="65"/>
+      <c r="AI73" s="65"/>
+      <c r="AJ73" s="65"/>
+      <c r="AK73" s="65"/>
+      <c r="AL73" s="65"/>
+      <c r="AM73" s="65"/>
+      <c r="AN73" s="65"/>
+      <c r="AO73" s="65"/>
+      <c r="AP73" s="65"/>
+      <c r="AQ73" s="65"/>
       <c r="AR73" s="55"/>
       <c r="AS73" s="55"/>
       <c r="AT73" s="55"/>
@@ -12828,8 +12760,8 @@
       <c r="S74" s="55"/>
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
+      <c r="V74" s="65"/>
+      <c r="W74" s="65"/>
       <c r="X74" s="55"/>
       <c r="Y74" s="55"/>
       <c r="Z74" s="55" t="s">
@@ -12844,16 +12776,16 @@
       <c r="AG74" s="55" t="s">
         <v>862</v>
       </c>
-      <c r="AH74" s="67"/>
-      <c r="AI74" s="67"/>
-      <c r="AJ74" s="67"/>
-      <c r="AK74" s="67"/>
-      <c r="AL74" s="67"/>
-      <c r="AM74" s="67"/>
-      <c r="AN74" s="67"/>
-      <c r="AO74" s="67"/>
-      <c r="AP74" s="67"/>
-      <c r="AQ74" s="67"/>
+      <c r="AH74" s="65"/>
+      <c r="AI74" s="65"/>
+      <c r="AJ74" s="65"/>
+      <c r="AK74" s="65"/>
+      <c r="AL74" s="65"/>
+      <c r="AM74" s="65"/>
+      <c r="AN74" s="65"/>
+      <c r="AO74" s="65"/>
+      <c r="AP74" s="65"/>
+      <c r="AQ74" s="65"/>
       <c r="AR74" s="55"/>
       <c r="AS74" s="55"/>
       <c r="AT74" s="55"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663ACADE-BA21-5742-95A3-687CC530524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CA36B-0BDF-DA4E-8255-2A1123CD5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -4711,7 +4711,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU11" sqref="AU11"/>
+      <selection pane="bottomRight" activeCell="AV19" sqref="AV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CA36B-0BDF-DA4E-8255-2A1123CD5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6B8BB-73C9-C441-870F-52226363808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4708,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV19" sqref="AV19"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6B8BB-73C9-C441-870F-52226363808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B5CA7-6628-E14D-92BF-F99CA37CA19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -4708,10 +4708,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B5CA7-6628-E14D-92BF-F99CA37CA19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3BDFC-0899-4E48-99C1-93027B364C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="877">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Custom Field Data - Sigma Pi Sigma Chapter-Advisor Name</t>
   </si>
   <si>
-    <t>Custom Field Data - Sigma Pi Sigma Chapter-Advisor E-mail</t>
-  </si>
-  <si>
     <t>Custom Field Data - Sigma Pi Sigma Chapter-Co-Advisor Name</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>Chapter</t>
   </si>
   <si>
-    <t>Prof. Brian Zhou</t>
-  </si>
-  <si>
     <t>None Listed</t>
   </si>
   <si>
@@ -411,12 +405,6 @@
     <t>03755-1808</t>
   </si>
   <si>
-    <t>Robert Fisher</t>
-  </si>
-  <si>
-    <t>robert.fisher@umassd.edu</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
@@ -454,12 +442,6 @@
   </si>
   <si>
     <t>06824-5171</t>
-  </si>
-  <si>
-    <t>Dr. Angela Biselli</t>
-  </si>
-  <si>
-    <t>abiselli@fairfield.edu</t>
   </si>
   <si>
     <t>Professor Brother Jonathan Stott, S.J.</t>
@@ -532,12 +514,6 @@
     <t>02139-4301</t>
   </si>
   <si>
-    <t>Deepto Chakrabarty</t>
-  </si>
-  <si>
-    <t>deepto@mit.edu</t>
-  </si>
-  <si>
     <t>Emma Dunn</t>
   </si>
   <si>
@@ -671,9 +647,6 @@
     <t>Nicole Gugliucci</t>
   </si>
   <si>
-    <t>ngugliucci@anselm.edu</t>
-  </si>
-  <si>
     <t>Ian Durham</t>
   </si>
   <si>
@@ -714,9 +687,6 @@
   </si>
   <si>
     <t>05439-1000</t>
-  </si>
-  <si>
-    <t>Dr. William Karstens</t>
   </si>
   <si>
     <t>wkarstens@smcvt.edu</t>
@@ -831,12 +801,6 @@
     <t>02108-2701</t>
   </si>
   <si>
-    <t>Prashant Sharma</t>
-  </si>
-  <si>
-    <t>psharma@suffolk.edu</t>
-  </si>
-  <si>
     <t>Dr. Walter Johnson</t>
   </si>
   <si>
@@ -985,12 +949,6 @@
     <t>04469-0001</t>
   </si>
   <si>
-    <t>Dr. Charles Hess</t>
-  </si>
-  <si>
-    <t>hess@maine.edu</t>
-  </si>
-  <si>
     <t>Patricia Byard</t>
   </si>
   <si>
@@ -1058,12 +1016,6 @@
   </si>
   <si>
     <t>02125-3300</t>
-  </si>
-  <si>
-    <t>Stephen Arnason</t>
-  </si>
-  <si>
-    <t>stephen.arnason@umb.edu</t>
   </si>
   <si>
     <t>Rahul Kulkarni</t>
@@ -1169,12 +1121,6 @@
     <t>03824-3520</t>
   </si>
   <si>
-    <t>Dr. Karsten Pohl</t>
-  </si>
-  <si>
-    <t>karsten.pohl@unh.edu</t>
-  </si>
-  <si>
     <t>Per Berglund</t>
   </si>
   <si>
@@ -1277,12 +1223,6 @@
     <t>01609-2247</t>
   </si>
   <si>
-    <t>Ali Rangwala</t>
-  </si>
-  <si>
-    <t>Rangwala@wpi.edu</t>
-  </si>
-  <si>
     <t>Doug Petkie</t>
   </si>
   <si>
@@ -1337,12 +1277,6 @@
     <t>06520-8120</t>
   </si>
   <si>
-    <t>Nikhil Padmanabhan</t>
-  </si>
-  <si>
-    <t>nikhil.padmanabhan@yale.edu</t>
-  </si>
-  <si>
     <t>Karsten Heeger</t>
   </si>
   <si>
@@ -1421,9 +1355,6 @@
     <t>02215-2521</t>
   </si>
   <si>
-    <t>Dr. Robert Carey</t>
-  </si>
-  <si>
     <t>Andrei Ruckenstein</t>
   </si>
   <si>
@@ -1544,9 +1475,6 @@
     <t>01247-4124</t>
   </si>
   <si>
-    <t>Dr. Thomas Burton</t>
-  </si>
-  <si>
     <t>thomas.burton@mcla.edu</t>
   </si>
   <si>
@@ -1601,9 +1529,6 @@
     <t>02918-7000</t>
   </si>
   <si>
-    <t>Dr. Joseph Ribaudo</t>
-  </si>
-  <si>
     <t>jribaudo@providence.edu</t>
   </si>
   <si>
@@ -1640,12 +1565,6 @@
     <t>06269-9086</t>
   </si>
   <si>
-    <t>Dr. Cara Battersby</t>
-  </si>
-  <si>
-    <t>cara.battersby@uconn.edu</t>
-  </si>
-  <si>
     <t>George Gibson</t>
   </si>
   <si>
@@ -1898,12 +1817,6 @@
     <t>01610-1400</t>
   </si>
   <si>
-    <t>Christopher Landee</t>
-  </si>
-  <si>
-    <t>clandee@clarku.edu</t>
-  </si>
-  <si>
     <t>Arshad Kudrolli</t>
   </si>
   <si>
@@ -2039,9 +1952,6 @@
     <t>01984-1813</t>
   </si>
   <si>
-    <t>Dr. David Lee</t>
-  </si>
-  <si>
     <t>David Lee</t>
   </si>
   <si>
@@ -2288,9 +2198,6 @@
     <t>20740-3841</t>
   </si>
   <si>
-    <t>Advisor SigPiSig</t>
-  </si>
-  <si>
     <t>Honorable Chair</t>
   </si>
   <si>
@@ -2457,12 +2364,6 @@
   </si>
   <si>
     <t>231-5441</t>
-  </si>
-  <si>
-    <t>Piotr Habdas</t>
-  </si>
-  <si>
-    <t>phabdas@sju.edu</t>
   </si>
   <si>
     <t>University of Southern Maine</t>
@@ -4708,10 +4609,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4823,138 +4724,136 @@
       <c r="R1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AG1" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="60" t="s">
+      <c r="AH1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AW1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="18" t="s">
+      <c r="AX1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AY1" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="AY1" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="AZ1" s="21"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="H2" s="23">
         <v>617</v>
       </c>
       <c r="I2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="K2" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="24">
         <v>607</v>
@@ -4974,29 +4873,25 @@
       <c r="Q2" s="25">
         <v>19490</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="W2" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z2" s="23" t="s">
         <v>19</v>
@@ -5005,49 +4900,49 @@
         <v>19</v>
       </c>
       <c r="AB2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AE2" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AK2" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="AJ2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="39" t="s">
-        <v>93</v>
       </c>
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
       <c r="AN2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AQ2" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AR2" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="AQ2" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR2" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="AS2" s="23">
         <v>2019</v>
@@ -5057,27 +4952,27 @@
       <c r="AV2" s="23"/>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY2" s="23"/>
       <c r="AZ2" s="26"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="23">
         <v>8632641</v>
@@ -5086,13 +4981,13 @@
         <v>401</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="24">
         <v>725</v>
@@ -5107,32 +5002,28 @@
         <v>725</v>
       </c>
       <c r="P3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>108</v>
-      </c>
       <c r="X3" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z3" s="23" t="s">
         <v>19</v>
@@ -5141,24 +5032,24 @@
         <v>19</v>
       </c>
       <c r="AB3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AE3" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="AD3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE3" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="AF3" s="23"/>
       <c r="AG3" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AH3" s="39"/>
       <c r="AI3" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39"/>
@@ -5169,54 +5060,54 @@
       <c r="AP3" s="39"/>
       <c r="AQ3" s="39"/>
       <c r="AR3" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS3" s="23"/>
       <c r="AT3" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AU3" s="23"/>
       <c r="AV3" s="23"/>
       <c r="AW3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY3" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="AX3" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY3" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="AZ3" s="26"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <v>603</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="24">
         <v>1472</v>
@@ -5232,57 +5123,53 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
-      <c r="R4" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>125</v>
-      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V4" s="62" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="W4" s="62" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AH4" s="62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AI4" s="62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AJ4" s="62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK4" s="62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL4" s="61"/>
       <c r="AM4" s="61"/>
@@ -5297,7 +5184,7 @@
       <c r="AV4" s="23"/>
       <c r="AW4" s="23"/>
       <c r="AX4" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY4" s="23">
         <v>2023</v>
@@ -5306,35 +5193,35 @@
     </row>
     <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H5" s="23">
         <v>203</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5" s="24">
         <v>1867</v>
@@ -5354,19 +5241,15 @@
       <c r="Q5" s="25">
         <v>33209</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>140</v>
-      </c>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="61" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="W5" s="61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -5377,20 +5260,20 @@
         <v>19</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AD5" s="23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AE5" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
@@ -5411,7 +5294,7 @@
       <c r="AV5" s="23"/>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY5" s="23">
         <v>2023</v>
@@ -5420,35 +5303,35 @@
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" s="23">
         <v>617</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="24">
         <v>2729</v>
@@ -5467,16 +5350,16 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V6" s="61" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="W6" s="61" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
@@ -5487,32 +5370,32 @@
         <v>19</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF6" s="23"/>
       <c r="AG6" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AH6" s="61" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AI6" s="61" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ6" s="61" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AK6" s="61" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
@@ -5520,7 +5403,7 @@
       <c r="AO6" s="61"/>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="61" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AR6" s="23">
         <v>2012</v>
@@ -5531,7 +5414,7 @@
       <c r="AV6" s="23"/>
       <c r="AW6" s="23"/>
       <c r="AX6" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY6" s="23">
         <v>2023</v>
@@ -5540,35 +5423,35 @@
     </row>
     <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H7" s="23">
         <v>617</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="24">
         <v>4179</v>
@@ -5588,29 +5471,25 @@
       <c r="Q7" s="25">
         <v>30073</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>165</v>
-      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="V7" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="W7" s="61" t="s">
         <v>868</v>
       </c>
-      <c r="W7" s="61" t="s">
-        <v>901</v>
-      </c>
       <c r="X7" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Z7" s="23" t="s">
         <v>19</v>
@@ -5619,49 +5498,49 @@
         <v>19</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AF7" s="23"/>
       <c r="AG7" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AH7" s="61" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AI7" s="61" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AJ7" s="61" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AK7" s="61" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AL7" s="30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AM7" s="30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AN7" s="61" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AO7" s="61" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AS7" s="23">
         <v>2021</v>
@@ -5671,7 +5550,7 @@
       <c r="AV7" s="23"/>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AY7" s="23">
         <v>2023</v>
@@ -5680,35 +5559,35 @@
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H8" s="26">
         <v>413</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="32">
         <v>4555</v>
@@ -5728,29 +5607,25 @@
       <c r="Q8" s="33">
         <v>33733</v>
       </c>
-      <c r="R8" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="S8" s="26" t="s">
-        <v>189</v>
-      </c>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V8" s="26" t="s">
+        <v>836</v>
+      </c>
+      <c r="W8" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="W8" s="26" t="s">
-        <v>902</v>
-      </c>
       <c r="X8" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z8" s="26" t="s">
         <v>19</v>
@@ -5759,50 +5634,50 @@
         <v>19</v>
       </c>
       <c r="AB8" s="26" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AC8" s="26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AH8" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AI8" s="32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AM8" s="32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AN8" s="32" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AQ8" s="32" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AR8" s="26"/>
       <c r="AS8" s="26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
@@ -5816,23 +5691,23 @@
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H9" s="23">
         <v>603</v>
@@ -5841,10 +5716,10 @@
         <v>3102</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L9" s="35">
         <v>6101</v>
@@ -5864,19 +5739,15 @@
       <c r="Q9" s="24">
         <v>43206</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>207</v>
-      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="23"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -5887,20 +5758,20 @@
         <v>19</v>
       </c>
       <c r="AB9" s="26" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AC9" s="26" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="32"/>
@@ -5913,58 +5784,58 @@
       <c r="AP9" s="39"/>
       <c r="AQ9" s="39"/>
       <c r="AR9" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS9" s="23">
         <v>2022</v>
       </c>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AV9" s="23"/>
       <c r="AW9" s="23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AX9" s="23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AY9" s="24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AZ9" s="26"/>
     </row>
     <row r="10" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H10" s="23">
         <v>802</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="24">
         <v>6243</v>
@@ -5984,19 +5855,15 @@
       <c r="Q10" s="25">
         <v>41922</v>
       </c>
-      <c r="R10" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="S10" s="23" t="s">
-        <v>223</v>
-      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
@@ -6007,44 +5874,44 @@
         <v>19</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AI10" s="32" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AJ10" s="39" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK10" s="39" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AL10" s="39" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AM10" s="39" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AN10" s="39" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AO10" s="39" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AP10" s="39"/>
       <c r="AQ10" s="39"/>
@@ -6054,7 +5921,7 @@
       <c r="AS10" s="23"/>
       <c r="AT10" s="23"/>
       <c r="AU10" s="23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AV10" s="23"/>
       <c r="AW10" s="23"/>
@@ -6066,33 +5933,33 @@
     </row>
     <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <v>413</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L11" s="36">
         <v>6466</v>
@@ -6113,10 +5980,10 @@
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="61" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="W11" s="61" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
@@ -6127,44 +5994,44 @@
         <v>19</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AC11" s="23" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AD11" s="23">
         <v>4135853797</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH11" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI11" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ11" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK11" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="AH11" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI11" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ11" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK11" s="39" t="s">
-        <v>247</v>
-      </c>
       <c r="AL11" s="39" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AM11" s="39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AN11" s="39" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AO11" s="39" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AP11" s="39"/>
       <c r="AQ11" s="39"/>
@@ -6177,44 +6044,44 @@
       <c r="AV11" s="23"/>
       <c r="AW11" s="23"/>
       <c r="AX11" s="24" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AY11" s="23" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H12" s="23">
         <v>617</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" s="32">
         <v>6917</v>
@@ -6234,29 +6101,25 @@
       <c r="Q12" s="25">
         <v>40319</v>
       </c>
-      <c r="R12" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>261</v>
-      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
       <c r="T12" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="W12" s="61" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="X12" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z12" s="23" t="s">
         <v>19</v>
@@ -6265,22 +6128,22 @@
         <v>19</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AC12" s="23" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AD12" s="23">
         <v>6175738013</v>
       </c>
       <c r="AE12" s="23" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AF12" s="23" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AG12" s="23" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AH12" s="39"/>
       <c r="AI12" s="39"/>
@@ -6293,56 +6156,56 @@
       <c r="AP12" s="39"/>
       <c r="AQ12" s="39"/>
       <c r="AR12" s="23" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AS12" s="23"/>
       <c r="AT12" s="23" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AU12" s="23" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AV12" s="23"/>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AY12" s="23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AZ12" s="23"/>
     </row>
     <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H13" s="23">
         <v>860</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="39">
         <v>7368</v>
@@ -6362,29 +6225,25 @@
       <c r="Q13" s="25">
         <v>18044</v>
       </c>
-      <c r="R13" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>277</v>
-      </c>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
       <c r="T13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="W13" s="61" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z13" s="23" t="s">
         <v>19</v>
@@ -6393,20 +6252,20 @@
         <v>19</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AC13" s="23" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AE13" s="23" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AH13" s="39"/>
       <c r="AI13" s="39"/>
@@ -6427,46 +6286,46 @@
       <c r="AV13" s="23"/>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY13" s="23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AZ13" s="26"/>
     </row>
     <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H14" s="23">
         <v>617</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="24">
         <v>7398</v>
@@ -6486,23 +6345,19 @@
       <c r="Q14" s="25">
         <v>17307</v>
       </c>
-      <c r="R14" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>290</v>
-      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
       <c r="T14" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="W14" s="61" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -6513,60 +6368,60 @@
         <v>19</v>
       </c>
       <c r="AB14" s="23" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AC14" s="23" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH14" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI14" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="AH14" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI14" s="61" t="s">
-        <v>294</v>
-      </c>
       <c r="AJ14" s="62" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AK14" s="61" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AL14" s="62" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AM14" s="62" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AN14" s="62" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AO14" s="62" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AP14" s="62" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="AQ14" s="62" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AR14" s="23"/>
       <c r="AS14" s="23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
       <c r="AV14" s="23"/>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AZ14" s="26"/>
     </row>
@@ -6575,32 +6430,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H15" s="23">
         <v>207</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="24">
         <v>4043</v>
@@ -6620,29 +6475,25 @@
       <c r="Q15" s="25">
         <v>18043</v>
       </c>
-      <c r="R15" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>312</v>
-      </c>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
       <c r="T15" s="23" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="V15" s="62" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="W15" s="62" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>909</v>
+        <v>876</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Z15" s="23" t="s">
         <v>19</v>
@@ -6651,51 +6502,51 @@
         <v>19</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AC15" s="23" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AE15" s="23" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AF15" s="23" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="AH15" s="62" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AI15" s="62" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AJ15" s="62" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AK15" s="62" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="AL15" s="39" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AM15" s="39" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AN15" s="39" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AO15" s="39" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="39"/>
       <c r="AR15" s="23" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AS15" s="23">
         <v>2018</v>
@@ -6706,45 +6557,45 @@
       <c r="AU15" s="23"/>
       <c r="AV15" s="23"/>
       <c r="AW15" s="23" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AX15" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
         <v>617</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="24">
         <v>616</v>
@@ -6764,29 +6615,25 @@
       <c r="Q16" s="25">
         <v>27895</v>
       </c>
-      <c r="R16" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>337</v>
-      </c>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
       <c r="T16" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V16" s="62" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
       <c r="W16" s="62" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z16" s="23" t="s">
         <v>19</v>
@@ -6795,24 +6642,24 @@
         <v>19</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="AC16" s="23" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AD16" s="40" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="AH16" s="30" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AI16" s="30" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AJ16" s="61"/>
       <c r="AK16" s="26"/>
@@ -6823,52 +6670,52 @@
       <c r="AP16" s="26"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AU16" s="23"/>
       <c r="AV16" s="23"/>
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H17" s="23">
         <v>978</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" s="24">
         <v>3903</v>
@@ -6888,29 +6735,25 @@
       <c r="Q17" s="25">
         <v>25165</v>
       </c>
-      <c r="R17" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>352</v>
-      </c>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
       <c r="T17" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="W17" s="61" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z17" s="23" t="s">
         <v>19</v>
@@ -6919,48 +6762,48 @@
         <v>19</v>
       </c>
       <c r="AB17" s="23" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH17" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI17" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ17" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK17" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL17" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM17" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="AH17" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI17" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="AJ17" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK17" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="AL17" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM17" s="62" t="s">
-        <v>361</v>
-      </c>
       <c r="AN17" s="62" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="AO17" s="62" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AP17" s="62" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="AQ17" s="62" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
@@ -6976,35 +6819,35 @@
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="H18" s="23">
         <v>603</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18" s="24">
         <v>4721</v>
@@ -7024,29 +6867,25 @@
       <c r="Q18" s="25">
         <v>18409</v>
       </c>
-      <c r="R18" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>373</v>
-      </c>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
       <c r="T18" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
       <c r="W18" s="61" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z18" s="23" t="s">
         <v>19</v>
@@ -7055,18 +6894,18 @@
         <v>19</v>
       </c>
       <c r="AB18" s="23" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="AC18" s="23" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="AD18" s="23" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="AH18" s="61"/>
       <c r="AI18" s="61"/>
@@ -7087,7 +6926,7 @@
       <c r="AV18" s="23"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="AY18" s="23">
         <v>2023</v>
@@ -7096,35 +6935,35 @@
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="H19" s="23">
         <v>802</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19" s="24">
         <v>7673</v>
@@ -7144,29 +6983,25 @@
       <c r="Q19" s="25">
         <v>38107</v>
       </c>
-      <c r="R19" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>385</v>
-      </c>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
       <c r="T19" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U19" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="W19" s="61" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="X19" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y19" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z19" s="23" t="s">
         <v>19</v>
@@ -7175,48 +7010,48 @@
         <v>19</v>
       </c>
       <c r="AB19" s="23" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="AH19" s="62" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AI19" s="62" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="AJ19" s="30" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="AK19" s="62" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="AL19" s="30" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="AM19" s="30" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AN19" s="30" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="AO19" s="30" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AP19" s="30" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="AQ19" s="30" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
@@ -7225,44 +7060,44 @@
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="AY19" s="23" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="H20" s="23">
         <v>508</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" s="24">
         <v>8406</v>
@@ -7282,19 +7117,15 @@
       <c r="Q20" s="25">
         <v>25619</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>409</v>
-      </c>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>905</v>
+        <v>872</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7305,48 +7136,48 @@
         <v>19</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AC20" s="23" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="AH20" s="32" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="AJ20" s="32" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="AK20" s="32" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="AL20" s="62" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="AM20" s="62" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="AN20" s="39" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="AO20" s="39" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="AP20" s="62" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AQ20" s="62" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="AR20" s="23">
         <v>2019</v>
@@ -7359,42 +7190,42 @@
       <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24">
         <v>203</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="42">
         <v>8528</v>
@@ -7414,19 +7245,15 @@
       <c r="Q21" s="43">
         <v>44112</v>
       </c>
-      <c r="R21" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>429</v>
-      </c>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="62" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
       <c r="W21" s="62" t="s">
-        <v>906</v>
+        <v>873</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -7437,92 +7264,92 @@
         <v>19</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="AC21" s="24" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="AH21" s="30" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="AI21" s="30" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="AJ21" s="30" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="30" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="AO21" s="30" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="AP21" s="30" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AQ21" s="30" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="AR21" s="24" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
       <c r="AU21" s="24"/>
       <c r="AV21" s="24"/>
       <c r="AW21" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AX21" s="24" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AY21" s="24" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45">
         <v>413</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46">
@@ -7541,30 +7368,30 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="63" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="W22" s="63" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="AC22" s="45" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="AD22" s="45" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="AE22" s="45" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="AH22" s="63"/>
       <c r="AI22" s="63"/>
@@ -7590,35 +7417,35 @@
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="H23" s="50">
         <v>617</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="45">
         <v>625</v>
@@ -7638,23 +7465,19 @@
       <c r="Q23" s="47">
         <v>29692</v>
       </c>
-      <c r="R23" s="50" t="s">
-        <v>456</v>
-      </c>
-      <c r="S23" s="50" t="s">
-        <v>452</v>
-      </c>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
       <c r="T23" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V23" s="64" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="W23" s="64" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
@@ -7665,53 +7488,53 @@
         <v>19</v>
       </c>
       <c r="AB23" s="50" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AC23" s="50" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AD23" s="50" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AE23" s="50" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AF23" s="50"/>
       <c r="AG23" s="50" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="AH23" s="64" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AI23" s="64" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AJ23" s="64" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="AK23" s="64" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="AL23" s="64" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="AM23" s="64" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="AN23" s="64" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="AO23" s="64" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AP23" s="64" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="AQ23" s="64" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="AR23" s="50" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
@@ -7719,40 +7542,40 @@
       <c r="AV23" s="50"/>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="AY23" s="50"/>
       <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="50">
         <v>508</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L24" s="45">
         <v>697</v>
@@ -7771,16 +7594,16 @@
       <c r="R24" s="50"/>
       <c r="S24" s="50"/>
       <c r="T24" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U24" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V24" s="64" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
       <c r="W24" s="64" t="s">
-        <v>907</v>
+        <v>874</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7791,42 +7614,42 @@
         <v>19</v>
       </c>
       <c r="AB24" s="50" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="AC24" s="50" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="AD24" s="50" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="AH24" s="64" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AI24" s="64" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="AJ24" s="64" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="AK24" s="64" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="AL24" s="64" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="AM24" s="64" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="AN24" s="64" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="AO24" s="64" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="AP24" s="64"/>
       <c r="AQ24" s="64"/>
@@ -7840,41 +7663,41 @@
       <c r="AW24" s="50"/>
       <c r="AX24" s="45"/>
       <c r="AY24" s="50" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="H25" s="50">
         <v>413</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L25" s="45">
         <v>4812</v>
@@ -7894,23 +7717,19 @@
       <c r="Q25" s="47">
         <v>41012</v>
       </c>
-      <c r="R25" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="S25" s="50" t="s">
-        <v>498</v>
-      </c>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
       <c r="T25" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U25" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V25" s="64" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="W25" s="64" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
@@ -7921,42 +7740,42 @@
         <v>19</v>
       </c>
       <c r="AB25" s="50" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="AC25" s="50" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="AD25" s="50" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="AH25" s="64" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="AI25" s="64" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="AJ25" s="64" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="AK25" s="64" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="AL25" s="64" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="AM25" s="64" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="AN25" s="64" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="AO25" s="64" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="AP25" s="64"/>
       <c r="AQ25" s="64"/>
@@ -7972,41 +7791,41 @@
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="H26" s="50">
         <v>401</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="45">
         <v>5737</v>
@@ -8026,29 +7845,25 @@
       <c r="Q26" s="47">
         <v>22787</v>
       </c>
-      <c r="R26" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="S26" s="50" t="s">
-        <v>517</v>
-      </c>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
       <c r="T26" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U26" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V26" s="64" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="W26" s="64" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="X26" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y26" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z26" s="50" t="s">
         <v>19</v>
@@ -8057,28 +7872,28 @@
         <v>19</v>
       </c>
       <c r="AB26" s="50" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="AC26" s="50" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="AD26" s="50"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="AH26" s="64" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="AI26" s="64" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="AJ26" s="64" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="AK26" s="64" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="AL26" s="64"/>
       <c r="AM26" s="64"/>
@@ -8093,42 +7908,42 @@
       <c r="AV26" s="50"/>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY26" s="50"/>
       <c r="AZ26" s="51"/>
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="H27" s="45">
         <v>860</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="46">
         <v>1367</v>
@@ -8148,29 +7963,25 @@
       <c r="Q27" s="52">
         <v>18408</v>
       </c>
-      <c r="R27" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="S27" s="45" t="s">
-        <v>530</v>
-      </c>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
       <c r="T27" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V27" s="63" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="W27" s="63" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="X27" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y27" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z27" s="45" t="s">
         <v>19</v>
@@ -8179,20 +7990,20 @@
         <v>19</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="AC27" s="45" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="AD27" s="45" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="AE27" s="45" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="AF27" s="45"/>
       <c r="AG27" s="45" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="AH27" s="63"/>
       <c r="AI27" s="63"/>
@@ -8205,7 +8016,7 @@
       <c r="AP27" s="63"/>
       <c r="AQ27" s="63"/>
       <c r="AR27" s="45" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
@@ -8213,42 +8024,42 @@
       <c r="AV27" s="45"/>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY27" s="45" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="AZ27" s="48"/>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="51">
         <v>413</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="48">
         <v>4187</v>
@@ -8267,22 +8078,22 @@
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
       <c r="T28" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U28" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="W28" s="51" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y28" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z28" s="51" t="s">
         <v>19</v>
@@ -8291,18 +8102,18 @@
         <v>19</v>
       </c>
       <c r="AB28" s="51" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="AC28" s="51" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="AD28" s="51" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="AH28" s="51"/>
       <c r="AI28" s="51"/>
@@ -8322,41 +8133,41 @@
       <c r="AW28" s="51"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="51" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="H29" s="51">
         <v>508</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L29" s="48">
         <v>8145</v>
@@ -8387,52 +8198,52 @@
         <v>19</v>
       </c>
       <c r="AB29" s="51" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="AC29" s="51" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="AD29" s="51" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="AE29" s="51" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="AF29" s="51" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="AG29" s="51" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="AH29" s="51" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="AI29" s="51" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="AJ29" s="51" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="AK29" s="51" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="AL29" s="51" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AM29" s="51" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="AN29" s="51" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="AO29" s="51" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="AP29" s="51" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="AQ29" s="51" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
@@ -8441,14 +8252,14 @@
       <c r="AV29" s="51"/>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY29" s="51"/>
       <c r="AZ29" s="51"/>
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -8461,10 +8272,10 @@
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56">
@@ -8487,7 +8298,7 @@
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
@@ -8496,7 +8307,7 @@
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="AH30" s="65"/>
       <c r="AI30" s="65"/>
@@ -8515,14 +8326,14 @@
       <c r="AV30" s="55"/>
       <c r="AW30" s="55"/>
       <c r="AX30" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY30" s="55"/>
       <c r="AZ30" s="57"/>
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -8535,10 +8346,10 @@
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56">
@@ -8561,7 +8372,7 @@
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA31" s="55"/>
       <c r="AB31" s="55"/>
@@ -8570,7 +8381,7 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="55" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="AH31" s="65"/>
       <c r="AI31" s="65"/>
@@ -8589,42 +8400,42 @@
       <c r="AV31" s="55"/>
       <c r="AW31" s="55"/>
       <c r="AX31" s="56" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="57"/>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="H32" s="55">
         <v>207</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32" s="56">
         <v>445</v>
@@ -8645,30 +8456,30 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="65" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="W32" s="65" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="AC32" s="55" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="AD32" s="55" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
       <c r="AG32" s="55" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="AH32" s="65"/>
       <c r="AI32" s="65"/>
@@ -8687,14 +8498,14 @@
       <c r="AV32" s="55"/>
       <c r="AW32" s="55"/>
       <c r="AX32" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY32" s="55"/>
       <c r="AZ32" s="57"/>
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -8705,10 +8516,10 @@
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="56">
@@ -8740,7 +8551,7 @@
       <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="AH33" s="65"/>
       <c r="AI33" s="65"/>
@@ -8764,7 +8575,7 @@
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -8777,10 +8588,10 @@
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56">
@@ -8805,7 +8616,7 @@
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA34" s="55"/>
       <c r="AB34" s="55"/>
@@ -8814,7 +8625,7 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="AH34" s="65"/>
       <c r="AI34" s="65"/>
@@ -8833,44 +8644,44 @@
       <c r="AV34" s="55"/>
       <c r="AW34" s="55"/>
       <c r="AX34" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY34" s="55" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="H35" s="55">
         <v>207</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K35" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L35" s="56">
         <v>634</v>
@@ -8891,10 +8702,10 @@
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
       <c r="V35" s="65" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="W35" s="65" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
@@ -8903,18 +8714,18 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="AC35" s="55" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="AD35" s="55" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="AE35" s="55"/>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="AH35" s="65"/>
       <c r="AI35" s="65"/>
@@ -8927,54 +8738,54 @@
       <c r="AP35" s="65"/>
       <c r="AQ35" s="65"/>
       <c r="AR35" s="55" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="AS35" s="55" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="AT35" s="55"/>
       <c r="AU35" s="55"/>
       <c r="AV35" s="55"/>
       <c r="AW35" s="55" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="AX35" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY35" s="55" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AZ35" s="57"/>
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="55">
         <v>781</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L36" s="56">
         <v>661</v>
@@ -8993,40 +8804,40 @@
       <c r="R36" s="55"/>
       <c r="S36" s="55"/>
       <c r="T36" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U36" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V36" s="65" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="W36" s="65" t="s">
-        <v>908</v>
+        <v>875</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z36" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA36" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB36" s="55" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="AC36" s="55" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="AH36" s="65"/>
       <c r="AI36" s="65"/>
@@ -9045,14 +8856,14 @@
       <c r="AV36" s="55"/>
       <c r="AW36" s="55"/>
       <c r="AX36" s="56" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -9063,10 +8874,10 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
       <c r="J37" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L37" s="56"/>
       <c r="M37" s="56">
@@ -9098,7 +8909,7 @@
       <c r="AE37" s="55"/>
       <c r="AF37" s="55"/>
       <c r="AG37" s="55" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="AH37" s="65"/>
       <c r="AI37" s="65"/>
@@ -9124,35 +8935,35 @@
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="H38" s="55">
         <v>860</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" s="56">
         <v>1071</v>
@@ -9172,29 +8983,25 @@
       <c r="Q38" s="58">
         <v>33738</v>
       </c>
-      <c r="R38" s="55" t="s">
-        <v>605</v>
-      </c>
-      <c r="S38" s="55" t="s">
-        <v>600</v>
-      </c>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
       <c r="T38" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U38" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V38" s="65" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="W38" s="65" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z38" s="55" t="s">
         <v>19</v>
@@ -9203,18 +9010,18 @@
         <v>19</v>
       </c>
       <c r="AB38" s="55" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="AC38" s="55" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="AD38" s="55" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AE38" s="55"/>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="AH38" s="65"/>
       <c r="AI38" s="65"/>
@@ -9227,7 +9034,7 @@
       <c r="AP38" s="65"/>
       <c r="AQ38" s="65"/>
       <c r="AR38" s="55" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
@@ -9235,42 +9042,42 @@
       <c r="AV38" s="55"/>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="H39" s="55">
         <v>508</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="J39" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L39" s="56">
         <v>1223</v>
@@ -9290,49 +9097,45 @@
       <c r="Q39" s="58">
         <v>22763</v>
       </c>
-      <c r="R39" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="S39" s="55" t="s">
-        <v>616</v>
-      </c>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
       <c r="T39" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U39" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V39" s="65" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="W39" s="65" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="X39" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y39" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z39" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA39" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB39" s="55" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="AC39" s="55" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="AD39" s="55" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AE39" s="55"/>
       <c r="AF39" s="55"/>
       <c r="AG39" s="55" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="AH39" s="65"/>
       <c r="AI39" s="65"/>
@@ -9345,7 +9148,7 @@
       <c r="AP39" s="65"/>
       <c r="AQ39" s="65"/>
       <c r="AR39" s="55" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
@@ -9358,35 +9161,35 @@
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="H40" s="55">
         <v>207</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="J40" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L40" s="56">
         <v>1263</v>
@@ -9406,19 +9209,15 @@
       <c r="Q40" s="58">
         <v>17658</v>
       </c>
-      <c r="R40" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="S40" s="55" t="s">
-        <v>627</v>
-      </c>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
       <c r="V40" s="65" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="W40" s="65" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
@@ -9429,16 +9228,16 @@
         <v>19</v>
       </c>
       <c r="AB40" s="55" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="AC40" s="55" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55" t="s">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="AH40" s="65"/>
       <c r="AI40" s="65"/>
@@ -9457,44 +9256,44 @@
       <c r="AV40" s="55"/>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY40" s="55" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="AZ40" s="57"/>
     </row>
     <row r="41" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="H41" s="55">
         <v>508</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="J41" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L41" s="56">
         <v>2883</v>
@@ -9514,29 +9313,25 @@
       <c r="Q41" s="58">
         <v>25618</v>
       </c>
-      <c r="R41" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="S41" s="55" t="s">
-        <v>629</v>
-      </c>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
       <c r="T41" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U41" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V41" s="65" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="W41" s="65" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="X41" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z41" s="55" t="s">
         <v>19</v>
@@ -9545,23 +9340,23 @@
         <v>19</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="AD41" s="55" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="AH41" s="65"/>
       <c r="AI41" s="65"/>
       <c r="AJ41" s="65" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="AK41" s="65"/>
       <c r="AL41" s="65"/>
@@ -9582,35 +9377,35 @@
     </row>
     <row r="42" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="H42" s="55">
         <v>860</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="J42" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L42" s="56">
         <v>1359</v>
@@ -9630,29 +9425,25 @@
       <c r="Q42" s="58">
         <v>35543</v>
       </c>
-      <c r="R42" s="55" t="s">
-        <v>642</v>
-      </c>
-      <c r="S42" s="55" t="s">
-        <v>643</v>
-      </c>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
       <c r="T42" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U42" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V42" s="65" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="W42" s="65" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="X42" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z42" s="55" t="s">
         <v>19</v>
@@ -9661,18 +9452,18 @@
         <v>19</v>
       </c>
       <c r="AB42" s="55" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="AC42" s="55" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="AD42" s="55" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
       <c r="AE42" s="55"/>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="AH42" s="65"/>
       <c r="AI42" s="65"/>
@@ -9691,42 +9482,42 @@
       <c r="AV42" s="55"/>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="57"/>
     </row>
     <row r="43" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>647</v>
+        <v>618</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="s">
-        <v>648</v>
+        <v>619</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="H43" s="55">
         <v>617</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>650</v>
+        <v>621</v>
       </c>
       <c r="J43" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L43" s="56">
         <v>1747</v>
@@ -9745,40 +9536,40 @@
       <c r="R43" s="55"/>
       <c r="S43" s="55"/>
       <c r="T43" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U43" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V43" s="65" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="W43" s="65" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z43" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA43" s="55"/>
       <c r="AB43" s="55" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="AC43" s="55" t="s">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="AD43" s="55" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
       <c r="AG43" s="55" t="s">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="AH43" s="65"/>
       <c r="AI43" s="65"/>
@@ -9802,7 +9593,7 @@
     </row>
     <row r="44" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -9815,10 +9606,10 @@
       </c>
       <c r="I44" s="55"/>
       <c r="J44" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L44" s="56"/>
       <c r="M44" s="56">
@@ -9841,7 +9632,7 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
@@ -9850,7 +9641,7 @@
       <c r="AE44" s="55"/>
       <c r="AF44" s="55"/>
       <c r="AG44" s="55" t="s">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="AH44" s="65"/>
       <c r="AI44" s="65"/>
@@ -9874,7 +9665,7 @@
     </row>
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -9887,10 +9678,10 @@
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L45" s="56"/>
       <c r="M45" s="56">
@@ -9922,7 +9713,7 @@
       <c r="AE45" s="55"/>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="AH45" s="65"/>
       <c r="AI45" s="65"/>
@@ -9948,7 +9739,7 @@
     </row>
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -9961,10 +9752,10 @@
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L46" s="56"/>
       <c r="M46" s="56">
@@ -9996,7 +9787,7 @@
       <c r="AE46" s="55"/>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="AH46" s="65"/>
       <c r="AI46" s="65"/>
@@ -10016,39 +9807,39 @@
       <c r="AW46" s="55"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="55" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="AZ46" s="57"/>
     </row>
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55">
         <v>978</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="J47" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L47" s="56">
         <v>2473</v>
@@ -10068,29 +9859,25 @@
       <c r="Q47" s="58">
         <v>41015</v>
       </c>
-      <c r="R47" s="55" t="s">
-        <v>662</v>
-      </c>
-      <c r="S47" s="55" t="s">
-        <v>658</v>
-      </c>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
       <c r="T47" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U47" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V47" s="65" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="W47" s="65" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y47" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z47" s="55" t="s">
         <v>19</v>
@@ -10099,25 +9886,25 @@
         <v>19</v>
       </c>
       <c r="AB47" s="55" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="AC47" s="55" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="AD47" s="55" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="AE47" s="55" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="55" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="AH47" s="65"/>
       <c r="AI47" s="65"/>
       <c r="AJ47" s="65" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="AK47" s="65"/>
       <c r="AL47" s="65"/>
@@ -10133,40 +9920,40 @@
       <c r="AV47" s="55"/>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="AY47" s="55" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="AZ47" s="57"/>
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="55">
         <v>617</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="J48" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L48" s="56"/>
       <c r="M48" s="56">
@@ -10193,16 +9980,16 @@
       </c>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="AC48" s="55" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="AD48" s="55"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="AH48" s="65"/>
       <c r="AI48" s="65"/>
@@ -10222,41 +10009,41 @@
       <c r="AW48" s="55"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="55" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="H49" s="55">
         <v>603</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="J49" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L49" s="56">
         <v>3490</v>
@@ -10279,40 +10066,40 @@
       <c r="R49" s="55"/>
       <c r="S49" s="55"/>
       <c r="T49" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U49" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V49" s="65" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="W49" s="65" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="55"/>
       <c r="AA49" s="55" t="s">
         <v>19</v>
       </c>
       <c r="AB49" s="55" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="AC49" s="55" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="AD49" s="55" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="AH49" s="65"/>
       <c r="AI49" s="65"/>
@@ -10331,38 +10118,38 @@
       <c r="AV49" s="55"/>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="AY49" s="55" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55">
         <v>802</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="J50" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K50" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L50" s="56"/>
       <c r="M50" s="56">
@@ -10385,20 +10172,20 @@
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="AC50" s="55" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="55"/>
       <c r="AG50" s="55" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="AH50" s="65"/>
       <c r="AI50" s="65"/>
@@ -10422,31 +10209,31 @@
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="F51" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55">
         <v>978</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="J51" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L51" s="56"/>
       <c r="M51" s="56">
@@ -10473,16 +10260,16 @@
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="AC51" s="55" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="AH51" s="65"/>
       <c r="AI51" s="65"/>
@@ -10501,29 +10288,29 @@
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
       <c r="AX51" s="56" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="AY51" s="55" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G52" s="55"/>
       <c r="H52" s="55">
@@ -10533,10 +10320,10 @@
         <v>5753</v>
       </c>
       <c r="J52" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L52" s="56"/>
       <c r="M52" s="56">
@@ -10559,20 +10346,20 @@
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="AD52" s="55"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="AH52" s="65"/>
       <c r="AI52" s="65"/>
@@ -10596,35 +10383,35 @@
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="H53" s="55">
         <v>617</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="J53" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K53" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L53" s="56">
         <v>4935</v>
@@ -10644,29 +10431,25 @@
       <c r="Q53" s="58">
         <v>31565</v>
       </c>
-      <c r="R53" s="55" t="s">
-        <v>707</v>
-      </c>
-      <c r="S53" s="55" t="s">
-        <v>703</v>
-      </c>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
       <c r="T53" s="55" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="U53" s="55" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="V53" s="65" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="W53" s="65" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z53" s="55" t="s">
         <v>19</v>
@@ -10675,18 +10458,18 @@
         <v>19</v>
       </c>
       <c r="AB53" s="55" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="AC53" s="55" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="AD53" s="55"/>
       <c r="AE53" s="55" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="AH53" s="65"/>
       <c r="AI53" s="65"/>
@@ -10703,48 +10486,48 @@
       </c>
       <c r="AS53" s="55"/>
       <c r="AT53" s="55" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="AU53" s="55"/>
       <c r="AV53" s="55"/>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY53" s="55"/>
       <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="H54" s="55">
         <v>802</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="J54" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K54" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L54" s="56"/>
       <c r="M54" s="56">
@@ -10763,33 +10546,33 @@
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
       <c r="V54" s="65" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="W54" s="65" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="AC54" s="55" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="AH54" s="65"/>
       <c r="AI54" s="65"/>
       <c r="AJ54" s="65" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="AK54" s="65"/>
       <c r="AL54" s="65"/>
@@ -10805,14 +10588,14 @@
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
       <c r="AX54" s="56" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -10825,10 +10608,10 @@
       </c>
       <c r="I55" s="55"/>
       <c r="J55" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K55" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L55" s="56"/>
       <c r="M55" s="56">
@@ -10851,7 +10634,7 @@
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA55" s="55"/>
       <c r="AB55" s="55"/>
@@ -10860,7 +10643,7 @@
       <c r="AE55" s="55"/>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="AH55" s="65"/>
       <c r="AI55" s="65"/>
@@ -10884,33 +10667,33 @@
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F56" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="55">
         <v>617</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="J56" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L56" s="56">
         <v>6442</v>
@@ -10929,22 +10712,22 @@
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U56" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V56" s="65" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="W56" s="65" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z56" s="55" t="s">
         <v>19</v>
@@ -10953,18 +10736,18 @@
         <v>19</v>
       </c>
       <c r="AB56" s="55" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="AC56" s="55" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="AH56" s="65"/>
       <c r="AI56" s="65"/>
@@ -10984,13 +10767,13 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -11003,10 +10786,10 @@
       </c>
       <c r="I57" s="55"/>
       <c r="J57" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K57" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L57" s="56"/>
       <c r="M57" s="56">
@@ -11029,7 +10812,7 @@
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA57" s="55"/>
       <c r="AB57" s="55"/>
@@ -11038,7 +10821,7 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="AH57" s="65"/>
       <c r="AI57" s="65"/>
@@ -11058,39 +10841,39 @@
       <c r="AW57" s="55"/>
       <c r="AX57" s="56"/>
       <c r="AY57" s="55" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55">
         <v>203</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="J58" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K58" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L58" s="56">
         <v>6586</v>
@@ -11106,47 +10889,43 @@
       </c>
       <c r="P58" s="56"/>
       <c r="Q58" s="56"/>
-      <c r="R58" s="55" t="s">
-        <v>736</v>
-      </c>
-      <c r="S58" s="55" t="s">
-        <v>733</v>
-      </c>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
       <c r="T58" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U58" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V58" s="65" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="W58" s="65" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="X58" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z58" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA58" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="AD58" s="55"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="AH58" s="65"/>
       <c r="AI58" s="65"/>
@@ -11159,7 +10938,7 @@
       <c r="AP58" s="65"/>
       <c r="AQ58" s="65"/>
       <c r="AR58" s="55" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
@@ -11167,42 +10946,42 @@
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
       <c r="AX58" s="56" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="H59" s="55">
         <v>301</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="J59" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K59" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L59" s="56">
         <v>0</v>
@@ -11222,45 +11001,43 @@
       <c r="Q59" s="58">
         <v>41760</v>
       </c>
-      <c r="R59" s="55" t="s">
-        <v>745</v>
-      </c>
+      <c r="R59" s="55"/>
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
       <c r="V59" s="65" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="W59" s="65" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
       <c r="Z59" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA59" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB59" s="55" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="AD59" s="55" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="AH59" s="65" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="AI59" s="65" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="AJ59" s="65"/>
       <c r="AK59" s="65"/>
@@ -11282,33 +11059,33 @@
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="55" t="s">
-        <v>639</v>
+        <v>610</v>
       </c>
       <c r="F60" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55">
         <v>860</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="J60" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L60" s="56">
         <v>7508</v>
@@ -11327,22 +11104,22 @@
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
       <c r="T60" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U60" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V60" s="65" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="W60" s="65" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z60" s="55" t="s">
         <v>19</v>
@@ -11351,18 +11128,18 @@
         <v>19</v>
       </c>
       <c r="AB60" s="55" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="AC60" s="55" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="AD60" s="55" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="AH60" s="65"/>
       <c r="AI60" s="65"/>
@@ -11381,16 +11158,16 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="AY60" s="55" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11403,10 +11180,10 @@
       </c>
       <c r="I61" s="55"/>
       <c r="J61" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K61" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L61" s="56">
         <v>679</v>
@@ -11429,24 +11206,24 @@
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
       <c r="T61" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U61" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V61" s="65"/>
       <c r="W61" s="65"/>
       <c r="X61" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA61" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB61" s="55"/>
       <c r="AC61" s="55"/>
@@ -11454,7 +11231,7 @@
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="AH61" s="65"/>
       <c r="AI61" s="65"/>
@@ -11473,40 +11250,40 @@
       <c r="AV61" s="55"/>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY61" s="55"/>
       <c r="AZ61" s="57"/>
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="55">
         <v>860</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="J62" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K62" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L62" s="56">
         <v>2690</v>
@@ -11525,22 +11302,22 @@
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
       <c r="T62" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U62" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V62" s="65" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="W62" s="65" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z62" s="55" t="s">
         <v>19</v>
@@ -11549,16 +11326,16 @@
         <v>19</v>
       </c>
       <c r="AB62" s="55" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="AC62" s="55" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="AH62" s="65"/>
       <c r="AI62" s="65"/>
@@ -11577,16 +11354,16 @@
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
       <c r="AX62" s="56" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="AY62" s="55" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11599,10 +11376,10 @@
       </c>
       <c r="I63" s="55"/>
       <c r="J63" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K63" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L63" s="56"/>
       <c r="M63" s="56">
@@ -11625,7 +11402,7 @@
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA63" s="55"/>
       <c r="AB63" s="55"/>
@@ -11634,7 +11411,7 @@
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="AH63" s="65"/>
       <c r="AI63" s="65"/>
@@ -11658,35 +11435,35 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="H64" s="55">
         <v>508</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="J64" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K64" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L64" s="56">
         <v>6550</v>
@@ -11706,53 +11483,49 @@
       <c r="Q64" s="58">
         <v>30438</v>
       </c>
-      <c r="R64" s="55" t="s">
-        <v>775</v>
-      </c>
-      <c r="S64" s="55" t="s">
-        <v>770</v>
-      </c>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
       <c r="T64" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U64" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V64" s="65" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="W64" s="65" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z64" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA64" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB64" s="55" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="AC64" s="55" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="AD64" s="55"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="AH64" s="65" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="AI64" s="65" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="AJ64" s="65"/>
       <c r="AK64" s="65"/>
@@ -11776,33 +11549,33 @@
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55">
         <v>203</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="J65" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K65" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L65" s="56">
         <v>4728</v>
@@ -11821,22 +11594,22 @@
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
       <c r="T65" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U65" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V65" s="65" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="W65" s="65" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z65" s="55" t="s">
         <v>19</v>
@@ -11845,18 +11618,18 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="AC65" s="55" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="AD65" s="55" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="AH65" s="65"/>
       <c r="AI65" s="65"/>
@@ -11875,44 +11648,44 @@
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="AY65" s="55" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="H66" s="55">
         <v>401</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="J66" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K66" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L66" s="56">
         <v>5938</v>
@@ -11932,29 +11705,25 @@
       <c r="Q66" s="58">
         <v>25332</v>
       </c>
-      <c r="R66" s="55" t="s">
-        <v>795</v>
-      </c>
-      <c r="S66" s="55" t="s">
-        <v>790</v>
-      </c>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
       <c r="T66" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U66" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V66" s="65" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="W66" s="65" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z66" s="55" t="s">
         <v>19</v>
@@ -11963,16 +11732,16 @@
         <v>19</v>
       </c>
       <c r="AB66" s="55" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="AC66" s="55" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="AH66" s="65"/>
       <c r="AI66" s="65"/>
@@ -11993,30 +11762,30 @@
       <c r="AV66" s="55"/>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY66" s="55"/>
       <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="H67" s="55">
         <v>860</v>
@@ -12025,10 +11794,10 @@
         <v>6117</v>
       </c>
       <c r="J67" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L67" s="56">
         <v>6178</v>
@@ -12044,27 +11813,23 @@
       </c>
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
-      <c r="R67" s="55" t="s">
-        <v>802</v>
-      </c>
-      <c r="S67" s="55" t="s">
-        <v>803</v>
-      </c>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
       <c r="V67" s="65" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="W67" s="65" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
       <c r="Z67" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA67" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB67" s="55"/>
       <c r="AC67" s="55"/>
@@ -12072,7 +11837,7 @@
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="AH67" s="65"/>
       <c r="AI67" s="65"/>
@@ -12096,33 +11861,33 @@
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="G68" s="55"/>
       <c r="H68" s="55">
         <v>800</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>808</v>
+        <v>775</v>
       </c>
       <c r="J68" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K68" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L68" s="56">
         <v>6607</v>
@@ -12141,40 +11906,40 @@
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
       <c r="T68" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U68" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V68" s="65" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="W68" s="65" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="X68" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y68" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z68" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA68" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB68" s="55" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="AC68" s="55" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="AD68" s="55"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="AH68" s="65"/>
       <c r="AI68" s="65"/>
@@ -12193,42 +11958,42 @@
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
       <c r="AY68" s="55"/>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="H69" s="55">
         <v>781</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
       <c r="J69" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K69" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L69" s="56">
         <v>7911</v>
@@ -12248,82 +12013,78 @@
       <c r="Q69" s="58">
         <v>32258</v>
       </c>
-      <c r="R69" s="55" t="s">
-        <v>818</v>
-      </c>
-      <c r="S69" s="55" t="s">
-        <v>813</v>
-      </c>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
       <c r="T69" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U69" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V69" s="65" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="W69" s="65" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z69" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA69" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB69" s="55" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
       <c r="AC69" s="55" t="s">
-        <v>820</v>
+        <v>787</v>
       </c>
       <c r="AD69" s="55"/>
       <c r="AE69" s="55" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="AH69" s="65" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="AI69" s="65" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
       <c r="AJ69" s="65" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="AK69" s="65" t="s">
-        <v>825</v>
+        <v>792</v>
       </c>
       <c r="AL69" s="65" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
       <c r="AM69" s="65" t="s">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="AN69" s="65" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="AO69" s="65" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="AP69" s="65" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="AQ69" s="65" t="s">
-        <v>831</v>
+        <v>798</v>
       </c>
       <c r="AR69" s="55" t="s">
-        <v>832</v>
+        <v>799</v>
       </c>
       <c r="AS69" s="55">
         <v>2013</v>
@@ -12333,7 +12094,7 @@
       <c r="AV69" s="55"/>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="AY69" s="55">
         <v>2016</v>
@@ -12342,33 +12103,33 @@
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55">
         <v>860</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="J70" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K70" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L70" s="56">
         <v>7920</v>
@@ -12387,49 +12148,49 @@
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
       <c r="T70" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U70" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V70" s="65" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="W70" s="65" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="Z70" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA70" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB70" s="55" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="AC70" s="55" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="AD70" s="55">
         <v>8606852046</v>
       </c>
       <c r="AE70" s="55" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="AH70" s="65"/>
       <c r="AI70" s="65"/>
       <c r="AJ70" s="65" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="AK70" s="65"/>
       <c r="AL70" s="65"/>
@@ -12447,40 +12208,40 @@
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="55" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55">
         <v>877</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="J71" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K71" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L71" s="56">
         <v>8028</v>
@@ -12499,40 +12260,40 @@
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
       <c r="T71" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U71" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V71" s="65" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="W71" s="65" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="X71" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y71" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Z71" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA71" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB71" s="55" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="AC71" s="55" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="AH71" s="65"/>
       <c r="AI71" s="65"/>
@@ -12551,14 +12312,14 @@
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
       <c r="AX71" s="56" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -12571,10 +12332,10 @@
       </c>
       <c r="I72" s="55"/>
       <c r="J72" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K72" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="56"/>
       <c r="M72" s="56">
@@ -12597,7 +12358,7 @@
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA72" s="55"/>
       <c r="AB72" s="55"/>
@@ -12606,7 +12367,7 @@
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="AH72" s="65"/>
       <c r="AI72" s="65"/>
@@ -12630,35 +12391,35 @@
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="55" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="H73" s="55">
         <v>413</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="J73" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K73" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L73" s="56">
         <v>8253</v>
@@ -12679,28 +12440,28 @@
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
       <c r="V73" s="65" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="W73" s="65" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
       <c r="AA73" s="55"/>
       <c r="AB73" s="55" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="AC73" s="55" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="AD73" s="55" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="AH73" s="65"/>
       <c r="AI73" s="65"/>
@@ -12719,14 +12480,14 @@
       <c r="AV73" s="55"/>
       <c r="AW73" s="55"/>
       <c r="AX73" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY73" s="55"/>
       <c r="AZ73" s="57"/>
     </row>
     <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12739,10 +12500,10 @@
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K74" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L74" s="56"/>
       <c r="M74" s="56">
@@ -12774,7 +12535,7 @@
       <c r="AE74" s="55"/>
       <c r="AF74" s="55"/>
       <c r="AG74" s="55" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="AH74" s="65"/>
       <c r="AI74" s="65"/>
@@ -12794,7 +12555,7 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="55" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="AZ74" s="57"/>
     </row>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3BDFC-0899-4E48-99C1-93027B364C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93480279-F0E1-864C-A0D5-8DD1D35618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,8 @@
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Activity Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="eHG88Ee/JMH/jW9KTtG3b02qZehfeKYRphRQxHMo2fE="/>
     </ext>
@@ -37,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="870">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -168,6 +157,9 @@
     <t>Custom Field Data - Sigma Pi Sigma Chapter-Advisor Name</t>
   </si>
   <si>
+    <t>Custom Field Data - Sigma Pi Sigma Chapter-Advisor E-mail</t>
+  </si>
+  <si>
     <t>Custom Field Data - Sigma Pi Sigma Chapter-Co-Advisor Name</t>
   </si>
   <si>
@@ -288,6 +280,9 @@
     <t>Chapter</t>
   </si>
   <si>
+    <t>Prof. Brian Zhou</t>
+  </si>
+  <si>
     <t>None Listed</t>
   </si>
   <si>
@@ -303,12 +298,6 @@
     <t>2010 Undergraduate Research</t>
   </si>
   <si>
-    <t>Elizabeth McAnally</t>
-  </si>
-  <si>
-    <t>mcanalle@bc.edu</t>
-  </si>
-  <si>
     <t>Katerina Donahue</t>
   </si>
   <si>
@@ -405,6 +394,12 @@
     <t>03755-1808</t>
   </si>
   <si>
+    <t>Robert Fisher</t>
+  </si>
+  <si>
+    <t>robert.fisher@umassd.edu</t>
+  </si>
+  <si>
     <t>Inactive</t>
   </si>
   <si>
@@ -414,9 +409,6 @@
     <t>James.W.LaBelle@dartmouth.edu</t>
   </si>
   <si>
-    <t>Rahul Gupta</t>
-  </si>
-  <si>
     <t>Annabelle Niblet</t>
   </si>
   <si>
@@ -444,6 +436,12 @@
     <t>06824-5171</t>
   </si>
   <si>
+    <t>Dr. Angela Biselli</t>
+  </si>
+  <si>
+    <t>abiselli@fairfield.edu</t>
+  </si>
+  <si>
     <t>Professor Brother Jonathan Stott, S.J.</t>
   </si>
   <si>
@@ -483,13 +481,6 @@
     <t>2018 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Elizabeth Kozlov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elizabethkozlov@college.harvard.edu
-</t>
-  </si>
-  <si>
     <t>Jorge Garcia Ponce</t>
   </si>
   <si>
@@ -514,6 +505,12 @@
     <t>02139-4301</t>
   </si>
   <si>
+    <t>Deepto Chakrabarty</t>
+  </si>
+  <si>
+    <t>deepto@mit.edu</t>
+  </si>
+  <si>
     <t>Emma Dunn</t>
   </si>
   <si>
@@ -530,13 +527,6 @@
   </si>
   <si>
     <t>2022-2023 Outstanding Undergrad Research</t>
-  </si>
-  <si>
-    <t>Chirag Falor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfalor@mit.edu
-</t>
   </si>
   <si>
     <t>Hope Fu</t>
@@ -596,13 +586,6 @@
     <t>2012 Outstanding Chapter; 2015  Outstanding Chapter ; 2016  Outstanding Chapter; 2015  Future Faces of Physics; 2018 Outstanding Chapter; 2019 Outstanding Chapter; 2018-2019 Blake Lilly; Blake Lilly 2019; 2022-2023 Marsh White</t>
   </si>
   <si>
-    <t>Co Presidents: Mysha Jahin Khan, Sasha Toole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khan59m@mtholyoke.edu ; toole22s@mtholyoke.edu
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Latika Joshi
 </t>
   </si>
@@ -647,6 +630,9 @@
     <t>Nicole Gugliucci</t>
   </si>
   <si>
+    <t>ngugliucci@anselm.edu</t>
+  </si>
+  <si>
     <t>Ian Durham</t>
   </si>
   <si>
@@ -689,6 +675,9 @@
     <t>05439-1000</t>
   </si>
   <si>
+    <t>Dr. William Karstens</t>
+  </si>
+  <si>
     <t>wkarstens@smcvt.edu</t>
   </si>
   <si>
@@ -704,12 +693,6 @@
     <t>; 2015  Outstanding Chapter</t>
   </si>
   <si>
-    <t>Brook Hodgeman</t>
-  </si>
-  <si>
-    <t>bhodgeman@mail.smcvt.edu</t>
-  </si>
-  <si>
     <t>Christian Vogt</t>
   </si>
   <si>
@@ -750,12 +733,6 @@
   </si>
   <si>
     <t>nfortune@smith.edu</t>
-  </si>
-  <si>
-    <t>Ian Wolter</t>
-  </si>
-  <si>
-    <t>iwolter@smith.edu</t>
   </si>
   <si>
     <t>Ash Messier</t>
@@ -801,6 +778,12 @@
     <t>02108-2701</t>
   </si>
   <si>
+    <t>Prashant Sharma</t>
+  </si>
+  <si>
+    <t>psharma@suffolk.edu</t>
+  </si>
+  <si>
     <t>Dr. Walter Johnson</t>
   </si>
   <si>
@@ -895,12 +878,6 @@
     <t>larry.ford@tufts.edu</t>
   </si>
   <si>
-    <t>Mallika Sinha</t>
-  </si>
-  <si>
-    <t>mallika.sinha@tufts.edu</t>
-  </si>
-  <si>
     <t>Noah Stiegler</t>
   </si>
   <si>
@@ -949,12 +926,21 @@
     <t>04469-0001</t>
   </si>
   <si>
+    <t>Dr. Charles Hess</t>
+  </si>
+  <si>
+    <t>hess@maine.edu</t>
+  </si>
+  <si>
     <t>Patricia Byard</t>
   </si>
   <si>
     <t>aps055@maine.edu</t>
   </si>
   <si>
+    <t xml:space="preserve"> Charles Thomas Hess</t>
+  </si>
+  <si>
     <t xml:space="preserve"> hess@maine.edu</t>
   </si>
   <si>
@@ -973,12 +959,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>Aleigha Morgan</t>
-  </si>
-  <si>
-    <t>aleigha.morgan@maine.edu</t>
-  </si>
-  <si>
     <t>Ryan Corzo</t>
   </si>
   <si>
@@ -1018,6 +998,12 @@
     <t>02125-3300</t>
   </si>
   <si>
+    <t>Stephen Arnason</t>
+  </si>
+  <si>
+    <t>stephen.arnason@umb.edu</t>
+  </si>
+  <si>
     <t>Rahul Kulkarni</t>
   </si>
   <si>
@@ -1025,12 +1011,6 @@
   </si>
   <si>
     <t>617-287-5408</t>
-  </si>
-  <si>
-    <t>Miranda Harkess</t>
-  </si>
-  <si>
-    <t>Miranda.Harkess001@umb.edu</t>
   </si>
   <si>
     <t>2023-2024</t>
@@ -1073,12 +1053,6 @@
     <t>978-934-3775</t>
   </si>
   <si>
-    <t>Margaret Tseng</t>
-  </si>
-  <si>
-    <t>Margaret_Tseng@student.uml.edu</t>
-  </si>
-  <si>
     <t>Patrick O'Keefe</t>
   </si>
   <si>
@@ -1121,6 +1095,12 @@
     <t>03824-3520</t>
   </si>
   <si>
+    <t>Dr. Karsten Pohl</t>
+  </si>
+  <si>
+    <t>karsten.pohl@unh.edu</t>
+  </si>
+  <si>
     <t>Per Berglund</t>
   </si>
   <si>
@@ -1169,12 +1149,6 @@
     <t>University of Vermont</t>
   </si>
   <si>
-    <t>Anders Holm-Brown</t>
-  </si>
-  <si>
-    <t>Anders.Holm-Brown@uvm.edu</t>
-  </si>
-  <si>
     <t>Nam Dinh</t>
   </si>
   <si>
@@ -1223,6 +1197,12 @@
     <t>01609-2247</t>
   </si>
   <si>
+    <t>Ali Rangwala</t>
+  </si>
+  <si>
+    <t>Rangwala@wpi.edu</t>
+  </si>
+  <si>
     <t>Doug Petkie</t>
   </si>
   <si>
@@ -1232,9 +1212,6 @@
     <t>2011 Undergraduate Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Michelle Sangillo</t>
-  </si>
-  <si>
     <t>Charlie Tribble</t>
   </si>
   <si>
@@ -1277,6 +1254,12 @@
     <t>06520-8120</t>
   </si>
   <si>
+    <t>Nikhil Padmanabhan</t>
+  </si>
+  <si>
+    <t>nikhil.padmanabhan@yale.edu</t>
+  </si>
+  <si>
     <t>Karsten Heeger</t>
   </si>
   <si>
@@ -1286,9 +1269,6 @@
     <t>2016  Chapter Reporter - PhysCon; Travel Award 2020; 2022-2023 Outstanding Undergrad Research; 2022 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Barkotel Zemenu</t>
-  </si>
-  <si>
     <t>Wyatt Kremer</t>
   </si>
   <si>
@@ -1355,6 +1335,9 @@
     <t>02215-2521</t>
   </si>
   <si>
+    <t>Dr. Robert Carey</t>
+  </si>
+  <si>
     <t>Andrei Ruckenstein</t>
   </si>
   <si>
@@ -1367,12 +1350,6 @@
     <t>2008 Outstanding Chapter; 2009 Outstanding Chapter; 2019 Outstanding Chapter</t>
   </si>
   <si>
-    <t>Suparna Samavedham</t>
-  </si>
-  <si>
-    <t>suparnas@bu.edu</t>
-  </si>
-  <si>
     <t>Pranai Basani</t>
   </si>
   <si>
@@ -1430,12 +1407,6 @@
     <t>Bridgewater State College</t>
   </si>
   <si>
-    <t>Rydia Hayes-Huer</t>
-  </si>
-  <si>
-    <t>rhayeshuer@student.bridgew.edu</t>
-  </si>
-  <si>
     <t>Sarah Auriemma</t>
   </si>
   <si>
@@ -1475,6 +1446,9 @@
     <t>01247-4124</t>
   </si>
   <si>
+    <t>Dr. Thomas Burton</t>
+  </si>
+  <si>
     <t>thomas.burton@mcla.edu</t>
   </si>
   <si>
@@ -1487,12 +1461,6 @@
     <t>413-662-5266</t>
   </si>
   <si>
-    <t>Robert Leonard</t>
-  </si>
-  <si>
-    <t>rl8354@mcla.edu</t>
-  </si>
-  <si>
     <t>Amalia Badohu</t>
   </si>
   <si>
@@ -1529,6 +1497,9 @@
     <t>02918-7000</t>
   </si>
   <si>
+    <t>Dr. Joseph Ribaudo</t>
+  </si>
+  <si>
     <t>jribaudo@providence.edu</t>
   </si>
   <si>
@@ -1538,9 +1509,6 @@
     <t>sashman@providence.edu</t>
   </si>
   <si>
-    <t>Nicholas Rebelo</t>
-  </si>
-  <si>
     <t>Christopher Marte Marte</t>
   </si>
   <si>
@@ -1565,6 +1533,12 @@
     <t>06269-9086</t>
   </si>
   <si>
+    <t>Dr. Cara Battersby</t>
+  </si>
+  <si>
+    <t>cara.battersby@uconn.edu</t>
+  </si>
+  <si>
     <t>George Gibson</t>
   </si>
   <si>
@@ -1637,12 +1611,6 @@
     <t>2020-21</t>
   </si>
   <si>
-    <t>Dan Brass</t>
-  </si>
-  <si>
-    <t>dan.brass@my.wheaton.edu</t>
-  </si>
-  <si>
     <t>Caleb Lee</t>
   </si>
   <si>
@@ -1817,6 +1785,12 @@
     <t>01610-1400</t>
   </si>
   <si>
+    <t>Christopher Landee</t>
+  </si>
+  <si>
+    <t>clandee@clarku.edu</t>
+  </si>
+  <si>
     <t>Arshad Kudrolli</t>
   </si>
   <si>
@@ -1952,6 +1926,9 @@
     <t>01984-1813</t>
   </si>
   <si>
+    <t>Dr. David Lee</t>
+  </si>
+  <si>
     <t>David Lee</t>
   </si>
   <si>
@@ -2198,18 +2175,15 @@
     <t>20740-3841</t>
   </si>
   <si>
+    <t>Advisor SigPiSig</t>
+  </si>
+  <si>
     <t>Honorable Chair</t>
   </si>
   <si>
     <t>To be entered</t>
   </si>
   <si>
-    <t>Matt Payne</t>
-  </si>
-  <si>
-    <t>mpayne@aip.org</t>
-  </si>
-  <si>
     <t>United States Coast Guard Academy</t>
   </si>
   <si>
@@ -2297,12 +2271,6 @@
     <t>University of Massachusetts Dartmouth</t>
   </si>
   <si>
-    <t>Trevor Robertson</t>
-  </si>
-  <si>
-    <t>trobertson@umassd.edu</t>
-  </si>
-  <si>
     <t>University of New Haven</t>
   </si>
   <si>
@@ -2366,6 +2334,12 @@
     <t>231-5441</t>
   </si>
   <si>
+    <t>Piotr Habdas</t>
+  </si>
+  <si>
+    <t>phabdas@sju.edu</t>
+  </si>
+  <si>
     <t>University of Southern Maine</t>
   </si>
   <si>
@@ -2418,12 +2392,6 @@
   </si>
   <si>
     <t>2022-2023 Travel Award</t>
-  </si>
-  <si>
-    <t>Kimberly Hernandez</t>
-  </si>
-  <si>
-    <t>khernan5@wellesley.edu</t>
   </si>
   <si>
     <t>Minerva Johar</t>
@@ -2682,16 +2650,13 @@
   </si>
   <si>
     <t>fell@brandeis.edu</t>
-  </si>
-  <si>
-    <t>Charles Thomas Hess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2753,13 +2718,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2916,7 +2874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3051,9 +3009,10 @@
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3065,10 +3024,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3407,9 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3508,21 +3461,21 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4609,10 +4562,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4724,136 +4677,138 @@
       <c r="R1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="T1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="60" t="s">
         <v>56</v>
       </c>
+      <c r="AG1" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AH1" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ1" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK1" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL1" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM1" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AN1" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AO1" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AP1" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AQ1" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR1" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AS1" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AT1" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AU1" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AW1" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AX1" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AY1" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AZ1" s="21"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="23">
         <v>617</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="24">
         <v>607</v>
@@ -4873,25 +4828,29 @@
       <c r="Q2" s="25">
         <v>19490</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
+      <c r="R2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="T2" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>831</v>
-      </c>
-      <c r="W2" s="61" t="s">
-        <v>76</v>
+        <v>825</v>
+      </c>
+      <c r="W2" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="23" t="s">
         <v>19</v>
@@ -4900,45 +4859,41 @@
         <v>19</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC2" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AE2" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF2" s="23"/>
       <c r="AG2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39" t="s">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AO2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AP2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="39" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>95</v>
       </c>
       <c r="AR2" s="23" t="s">
@@ -4949,7 +4904,9 @@
       </c>
       <c r="AT2" s="23"/>
       <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
+      <c r="AV2" s="23">
+        <v>2022</v>
+      </c>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
         <v>97</v>
@@ -4984,10 +4941,10 @@
         <v>103</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" s="24">
         <v>725</v>
@@ -5005,25 +4962,29 @@
         <v>104</v>
       </c>
       <c r="Q3" s="24"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="R3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="T3" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="61" t="s">
+      <c r="W3" s="62" t="s">
         <v>106</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="23" t="s">
         <v>19</v>
@@ -5047,18 +5008,16 @@
       <c r="AG3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
       <c r="AR3" s="23" t="s">
         <v>111</v>
       </c>
@@ -5067,7 +5026,9 @@
         <v>112</v>
       </c>
       <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
+      <c r="AV3" s="23">
+        <v>2021</v>
+      </c>
       <c r="AW3" s="23" t="s">
         <v>113</v>
       </c>
@@ -5104,10 +5065,10 @@
         <v>121</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" s="24">
         <v>1472</v>
@@ -5123,35 +5084,39 @@
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
+      <c r="R4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="T4" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="62" t="s">
-        <v>832</v>
-      </c>
-      <c r="W4" s="62" t="s">
-        <v>867</v>
+        <v>85</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>826</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>861</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC4" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD4" s="23"/>
       <c r="AE4" s="23"/>
@@ -5159,24 +5124,20 @@
       <c r="AG4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AH4" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI4" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK4" s="62" t="s">
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
+      <c r="AK4" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
       <c r="AS4" s="23"/>
       <c r="AT4" s="23"/>
@@ -5193,35 +5154,35 @@
     </row>
     <row r="5" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="23">
         <v>203</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="24">
         <v>1867</v>
@@ -5241,15 +5202,19 @@
       <c r="Q5" s="25">
         <v>33209</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
+      <c r="R5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-      <c r="V5" s="61" t="s">
-        <v>833</v>
-      </c>
-      <c r="W5" s="61" t="s">
-        <v>129</v>
+      <c r="V5" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="W5" s="62" t="s">
+        <v>130</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
@@ -5260,38 +5225,40 @@
         <v>19</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AD5" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AE5" s="23" t="s">
         <v>110</v>
       </c>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
+        <v>129</v>
+      </c>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
       <c r="AR5" s="23">
         <v>2019</v>
       </c>
       <c r="AS5" s="23"/>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
+      <c r="AV5" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
         <v>97</v>
@@ -5303,35 +5270,35 @@
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6" s="23">
         <v>617</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="24">
         <v>2729</v>
@@ -5350,16 +5317,16 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="61" t="s">
-        <v>834</v>
-      </c>
-      <c r="W6" s="61" t="s">
-        <v>139</v>
+        <v>85</v>
+      </c>
+      <c r="V6" s="62" t="s">
+        <v>828</v>
+      </c>
+      <c r="W6" s="62" t="s">
+        <v>142</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
@@ -5370,40 +5337,36 @@
         <v>19</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AF6" s="23"/>
       <c r="AG6" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH6" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI6" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ6" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK6" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23" t="s">
         <v>151</v>
+      </c>
+      <c r="AK6" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="AL6" s="26"/>
       <c r="AM6" s="26"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61" t="s">
-        <v>152</v>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="AR6" s="23">
         <v>2012</v>
@@ -5423,35 +5386,35 @@
     </row>
     <row r="7" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H7" s="23">
         <v>617</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" s="24">
         <v>4179</v>
@@ -5471,25 +5434,29 @@
       <c r="Q7" s="25">
         <v>30073</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
+      <c r="R7" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="T7" s="23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="V7" s="61" t="s">
-        <v>835</v>
-      </c>
-      <c r="W7" s="61" t="s">
-        <v>868</v>
+        <v>162</v>
+      </c>
+      <c r="V7" s="62" t="s">
+        <v>829</v>
+      </c>
+      <c r="W7" s="62" t="s">
+        <v>862</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Z7" s="23" t="s">
         <v>19</v>
@@ -5498,59 +5465,57 @@
         <v>19</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AF7" s="23"/>
       <c r="AG7" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH7" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI7" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ7" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK7" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23" t="s">
         <v>167</v>
       </c>
+      <c r="AK7" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="AL7" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM7" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN7" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="AO7" s="61" t="s">
+      <c r="AN7" s="23" t="s">
         <v>171</v>
+      </c>
+      <c r="AO7" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AR7" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS7" s="23">
         <v>2021</v>
       </c>
       <c r="AT7" s="23"/>
       <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
+      <c r="AV7" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AY7" s="23">
         <v>2023</v>
@@ -5559,35 +5524,35 @@
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H8" s="26">
         <v>413</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" s="32">
         <v>4555</v>
@@ -5607,25 +5572,29 @@
       <c r="Q8" s="33">
         <v>33733</v>
       </c>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="R8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>182</v>
+      </c>
       <c r="T8" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="X8" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="26" t="s">
         <v>19</v>
@@ -5634,54 +5603,52 @@
         <v>19</v>
       </c>
       <c r="AB8" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC8" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE8" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH8" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI8" s="32" t="s">
-        <v>185</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM8" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="AM8" s="32" t="s">
+      <c r="AN8" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="AN8" s="32" t="s">
+      <c r="AO8" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="AO8" s="32" t="s">
+      <c r="AP8" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="AP8" s="32" t="s">
+      <c r="AQ8" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="AQ8" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="AR8" s="26"/>
       <c r="AS8" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
+      <c r="AV8" s="26">
+        <v>2023</v>
+      </c>
       <c r="AW8" s="26"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="26">
@@ -5691,23 +5658,23 @@
     </row>
     <row r="9" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="23" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>195</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="23">
         <v>603</v>
@@ -5716,10 +5683,10 @@
         <v>3102</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="35">
         <v>6101</v>
@@ -5739,15 +5706,19 @@
       <c r="Q9" s="24">
         <v>43206</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="23"/>
+      <c r="R9" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
       <c r="V9" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -5771,18 +5742,18 @@
       </c>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="32"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
       <c r="AR9" s="24" t="s">
         <v>111</v>
       </c>
@@ -5793,7 +5764,9 @@
       <c r="AU9" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="AV9" s="23"/>
+      <c r="AV9" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW9" s="23" t="s">
         <v>203</v>
       </c>
@@ -5832,10 +5805,10 @@
         <v>212</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="24">
         <v>6243</v>
@@ -5855,15 +5828,19 @@
       <c r="Q10" s="25">
         <v>41922</v>
       </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="R10" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>214</v>
+      </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
@@ -5874,56 +5851,54 @@
         <v>19</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AC10" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE10" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="AH10" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI10" s="32" t="s">
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="AJ10" s="39" t="s">
+      <c r="AK10" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="AK10" s="39" t="s">
+      <c r="AL10" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="AL10" s="39" t="s">
+      <c r="AM10" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="AM10" s="39" t="s">
+      <c r="AN10" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="AN10" s="39" t="s">
+      <c r="AO10" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="AO10" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
       <c r="AR10" s="23">
         <v>2019</v>
       </c>
       <c r="AS10" s="23"/>
       <c r="AT10" s="23"/>
       <c r="AU10" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV10" s="23"/>
+        <v>225</v>
+      </c>
+      <c r="AV10" s="23">
+        <v>2021</v>
+      </c>
       <c r="AW10" s="23"/>
       <c r="AX10" s="24"/>
       <c r="AY10" s="23">
@@ -5933,33 +5908,33 @@
     </row>
     <row r="11" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <v>413</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" s="36">
         <v>6466</v>
@@ -5979,11 +5954,11 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="61" t="s">
-        <v>838</v>
-      </c>
-      <c r="W11" s="61" t="s">
-        <v>228</v>
+      <c r="V11" s="62" t="s">
+        <v>832</v>
+      </c>
+      <c r="W11" s="62" t="s">
+        <v>227</v>
       </c>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
@@ -5994,47 +5969,43 @@
         <v>19</v>
       </c>
       <c r="AB11" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC11" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="AC11" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="AD11" s="23">
         <v>4135853797</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH11" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK11" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="AI11" s="39" t="s">
+      <c r="AL11" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="AJ11" s="39" t="s">
+      <c r="AM11" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="AK11" s="39" t="s">
+      <c r="AN11" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="AL11" s="39" t="s">
+      <c r="AO11" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="AM11" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN11" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO11" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
       <c r="AR11" s="23">
         <v>2022</v>
       </c>
@@ -6044,44 +6015,44 @@
       <c r="AV11" s="23"/>
       <c r="AW11" s="23"/>
       <c r="AX11" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AY11" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AZ11" s="26"/>
     </row>
     <row r="12" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H12" s="23">
         <v>617</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="32">
         <v>6917</v>
@@ -6101,25 +6072,29 @@
       <c r="Q12" s="25">
         <v>40319</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="R12" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>248</v>
+      </c>
       <c r="T12" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="W12" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="W12" s="61" t="s">
-        <v>251</v>
-      </c>
       <c r="X12" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="23" t="s">
         <v>19</v>
@@ -6128,47 +6103,49 @@
         <v>19</v>
       </c>
       <c r="AB12" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC12" s="23" t="s">
         <v>250</v>
-      </c>
-      <c r="AC12" s="23" t="s">
-        <v>251</v>
       </c>
       <c r="AD12" s="23">
         <v>6175738013</v>
       </c>
       <c r="AE12" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF12" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="AF12" s="23" t="s">
+      <c r="AG12" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="23" t="s">
         <v>253</v>
-      </c>
-      <c r="AG12" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="23" t="s">
-        <v>254</v>
       </c>
       <c r="AS12" s="23"/>
       <c r="AT12" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU12" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="AU12" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV12" s="23"/>
+      <c r="AV12" s="23">
+        <v>2010</v>
+      </c>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AY12" s="23" t="s">
         <v>205</v>
@@ -6177,35 +6154,35 @@
     </row>
     <row r="13" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>259</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>260</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>262</v>
       </c>
       <c r="H13" s="23">
         <v>860</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="39">
         <v>7368</v>
@@ -6225,25 +6202,29 @@
       <c r="Q13" s="25">
         <v>18044</v>
       </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="R13" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>264</v>
+      </c>
       <c r="T13" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="W13" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="W13" s="61" t="s">
-        <v>265</v>
-      </c>
       <c r="X13" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z13" s="23" t="s">
         <v>19</v>
@@ -6252,38 +6233,40 @@
         <v>19</v>
       </c>
       <c r="AB13" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC13" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="AC13" s="23" t="s">
+      <c r="AD13" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="AD13" s="27" t="s">
+      <c r="AE13" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="AE13" s="23" t="s">
-        <v>269</v>
       </c>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
+        <v>257</v>
+      </c>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
       <c r="AR13" s="23">
         <v>2012</v>
       </c>
       <c r="AS13" s="23"/>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
+      <c r="AV13" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
         <v>97</v>
@@ -6295,37 +6278,37 @@
     </row>
     <row r="14" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="E14" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="23">
         <v>617</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="24">
         <v>7398</v>
@@ -6345,19 +6328,23 @@
       <c r="Q14" s="25">
         <v>17307</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="R14" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>277</v>
+      </c>
       <c r="T14" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="W14" s="62" t="s">
         <v>277</v>
-      </c>
-      <c r="W14" s="61" t="s">
-        <v>278</v>
       </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
@@ -6368,60 +6355,58 @@
         <v>19</v>
       </c>
       <c r="AB14" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC14" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="AC14" s="23" t="s">
-        <v>280</v>
       </c>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK14" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="AH14" s="61" t="s">
+      <c r="AL14" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="AI14" s="61" t="s">
+      <c r="AM14" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="AJ14" s="62" t="s">
+      <c r="AN14" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="AK14" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="AL14" s="62" t="s">
+      <c r="AO14" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="AM14" s="62" t="s">
+      <c r="AP14" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="AN14" s="62" t="s">
+      <c r="AQ14" s="27" t="s">
         <v>286</v>
-      </c>
-      <c r="AO14" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP14" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ14" s="62" t="s">
-        <v>289</v>
       </c>
       <c r="AR14" s="23"/>
       <c r="AS14" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
+      <c r="AV14" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AY14" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AZ14" s="26"/>
     </row>
@@ -6430,32 +6415,32 @@
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H15" s="23">
         <v>207</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" s="24">
         <v>4043</v>
@@ -6475,22 +6460,26 @@
       <c r="Q15" s="25">
         <v>18043</v>
       </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="R15" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>297</v>
+      </c>
       <c r="T15" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="U15" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="V15" s="63" t="s">
+        <v>833</v>
+      </c>
+      <c r="W15" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="X15" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="V15" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="W15" s="62" t="s">
-        <v>871</v>
-      </c>
-      <c r="X15" s="23" t="s">
-        <v>876</v>
       </c>
       <c r="Y15" s="23" t="s">
         <v>301</v>
@@ -6519,34 +6508,30 @@
       <c r="AG15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" s="62" t="s">
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="AI15" s="62" t="s">
+      <c r="AK15" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="AJ15" s="62" t="s">
+      <c r="AL15" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="AK15" s="62" t="s">
+      <c r="AM15" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="AL15" s="39" t="s">
+      <c r="AN15" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="AM15" s="39" t="s">
+      <c r="AO15" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="AN15" s="39" t="s">
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="AO15" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="23" t="s">
-        <v>315</v>
       </c>
       <c r="AS15" s="23">
         <v>2018</v>
@@ -6555,47 +6540,49 @@
         <v>2017</v>
       </c>
       <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
+      <c r="AV15" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW15" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AX15" s="24" t="s">
         <v>97</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AZ15" s="26"/>
     </row>
     <row r="16" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
         <v>617</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="24">
         <v>616</v>
@@ -6615,25 +6602,27 @@
       <c r="Q16" s="25">
         <v>27895</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="R16" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="T16" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="62" t="s">
-        <v>840</v>
-      </c>
-      <c r="W16" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="X16" s="23" t="s">
-        <v>83</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V16" s="63" t="s">
+        <v>834</v>
+      </c>
+      <c r="W16" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="X16" s="23"/>
       <c r="Y16" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z16" s="23" t="s">
         <v>19</v>
@@ -6653,15 +6642,11 @@
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH16" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI16" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ16" s="61"/>
+        <v>316</v>
+      </c>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="23"/>
       <c r="AK16" s="26"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="26"/>
@@ -6674,48 +6659,50 @@
       </c>
       <c r="AS16" s="23"/>
       <c r="AT16" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
+      <c r="AV16" s="23">
+        <v>1977</v>
+      </c>
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AZ16" s="26"/>
     </row>
     <row r="17" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>329</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>331</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H17" s="23">
         <v>978</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="24">
         <v>3903</v>
@@ -6735,25 +6722,29 @@
       <c r="Q17" s="25">
         <v>25165</v>
       </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="R17" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>334</v>
+      </c>
       <c r="T17" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="W17" s="61" t="s">
-        <v>336</v>
+        <v>85</v>
+      </c>
+      <c r="V17" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="W17" s="62" t="s">
+        <v>334</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z17" s="23" t="s">
         <v>19</v>
@@ -6762,54 +6753,52 @@
         <v>19</v>
       </c>
       <c r="AB17" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC17" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD17" s="23" t="s">
         <v>337</v>
-      </c>
-      <c r="AC17" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD17" s="23" t="s">
-        <v>339</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH17" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK17" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL17" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="AI17" s="62" t="s">
+      <c r="AM17" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="AJ17" s="61" t="s">
+      <c r="AN17" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="AK17" s="62" t="s">
+      <c r="AO17" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="AL17" s="62" t="s">
+      <c r="AP17" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="AM17" s="62" t="s">
+      <c r="AQ17" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="AN17" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="AO17" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP17" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="AQ17" s="62" t="s">
-        <v>349</v>
       </c>
       <c r="AR17" s="23"/>
       <c r="AS17" s="23"/>
       <c r="AT17" s="23"/>
       <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
+      <c r="AV17" s="23">
+        <v>2018</v>
+      </c>
       <c r="AW17" s="23"/>
       <c r="AX17" s="24"/>
       <c r="AY17" s="23">
@@ -6819,35 +6808,35 @@
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H18" s="23">
         <v>603</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="24">
         <v>4721</v>
@@ -6867,25 +6856,29 @@
       <c r="Q18" s="25">
         <v>18409</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="R18" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>353</v>
+      </c>
       <c r="T18" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V18" s="61" t="s">
-        <v>841</v>
-      </c>
-      <c r="W18" s="61" t="s">
-        <v>351</v>
+        <v>85</v>
+      </c>
+      <c r="V18" s="62" t="s">
+        <v>835</v>
+      </c>
+      <c r="W18" s="62" t="s">
+        <v>347</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z18" s="23" t="s">
         <v>19</v>
@@ -6894,39 +6887,41 @@
         <v>19</v>
       </c>
       <c r="AB18" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD18" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD18" s="23" t="s">
-        <v>358</v>
       </c>
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
+        <v>346</v>
+      </c>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
       <c r="AR18" s="23">
         <v>2012</v>
       </c>
       <c r="AS18" s="23"/>
       <c r="AT18" s="23"/>
       <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
+      <c r="AV18" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AY18" s="23">
         <v>2023</v>
@@ -6935,35 +6930,35 @@
     </row>
     <row r="19" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>360</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>362</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>210</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H19" s="23">
         <v>802</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="24">
         <v>7673</v>
@@ -6983,25 +6978,29 @@
       <c r="Q19" s="25">
         <v>38107</v>
       </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
+      <c r="R19" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>365</v>
+      </c>
       <c r="T19" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V19" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="W19" s="61" t="s">
-        <v>367</v>
+        <v>85</v>
+      </c>
+      <c r="V19" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="W19" s="62" t="s">
+        <v>365</v>
       </c>
       <c r="X19" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z19" s="23" t="s">
         <v>19</v>
@@ -7010,94 +7009,92 @@
         <v>19</v>
       </c>
       <c r="AB19" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC19" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD19" s="23" t="s">
         <v>368</v>
-      </c>
-      <c r="AC19" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="AD19" s="23" t="s">
-        <v>370</v>
       </c>
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK19" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="AH19" s="62" t="s">
+      <c r="AL19" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="AI19" s="62" t="s">
+      <c r="AM19" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="AJ19" s="30" t="s">
+      <c r="AN19" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="AK19" s="62" t="s">
+      <c r="AO19" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="AL19" s="30" t="s">
+      <c r="AP19" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="AM19" s="30" t="s">
+      <c r="AQ19" s="30" t="s">
         <v>377</v>
-      </c>
-      <c r="AN19" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO19" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP19" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ19" s="30" t="s">
-        <v>381</v>
       </c>
       <c r="AR19" s="23"/>
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
       <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
+      <c r="AV19" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AY19" s="23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AZ19" s="26"/>
     </row>
     <row r="20" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H20" s="23">
         <v>508</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="24">
         <v>8406</v>
@@ -7117,15 +7114,19 @@
       <c r="Q20" s="25">
         <v>25619</v>
       </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
+      <c r="R20" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7136,48 +7137,44 @@
         <v>19</v>
       </c>
       <c r="AB20" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AC20" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH20" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK20" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL20" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="AI20" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ20" s="32" t="s">
+      <c r="AM20" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="AK20" s="32" t="s">
+      <c r="AN20" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="AL20" s="62" t="s">
+      <c r="AO20" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="AM20" s="62" t="s">
+      <c r="AP20" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="AN20" s="39" t="s">
+      <c r="AQ20" s="27" t="s">
         <v>398</v>
-      </c>
-      <c r="AO20" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="AP20" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="AQ20" s="62" t="s">
-        <v>401</v>
       </c>
       <c r="AR20" s="23">
         <v>2019</v>
@@ -7187,45 +7184,47 @@
         <v>2014</v>
       </c>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="23"/>
+      <c r="AV20" s="23">
+        <v>2023</v>
+      </c>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
         <v>97</v>
       </c>
       <c r="AY20" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AZ20" s="26"/>
     </row>
     <row r="21" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24">
         <v>203</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L21" s="42">
         <v>8528</v>
@@ -7245,15 +7244,19 @@
       <c r="Q21" s="43">
         <v>44112</v>
       </c>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
+      <c r="R21" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="62" t="s">
-        <v>843</v>
-      </c>
-      <c r="W21" s="62" t="s">
-        <v>873</v>
+      <c r="V21" s="63" t="s">
+        <v>837</v>
+      </c>
+      <c r="W21" s="63" t="s">
+        <v>867</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -7264,92 +7267,90 @@
         <v>19</v>
       </c>
       <c r="AB21" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC21" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="AC21" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="AH21" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="AI21" s="30" t="s">
-        <v>404</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
       <c r="AJ21" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AK21" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="AO21" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP21" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="AO21" s="30" t="s">
+      <c r="AQ21" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="AP21" s="30" t="s">
+      <c r="AR21" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ21" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR21" s="24" t="s">
-        <v>417</v>
       </c>
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
       <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
+      <c r="AV21" s="24">
+        <v>2023</v>
+      </c>
       <c r="AW21" s="24" t="s">
         <v>113</v>
       </c>
       <c r="AX21" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AY21" s="24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AZ21" s="32"/>
     </row>
     <row r="22" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>420</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>422</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45">
         <v>413</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46">
@@ -7367,42 +7368,42 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
-      <c r="V22" s="63" t="s">
-        <v>844</v>
-      </c>
-      <c r="W22" s="63" t="s">
-        <v>421</v>
+      <c r="V22" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="W22" s="64" t="s">
+        <v>419</v>
       </c>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC22" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD22" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="AC22" s="45" t="s">
+      <c r="AE22" s="45" t="s">
         <v>426</v>
-      </c>
-      <c r="AD22" s="45" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE22" s="45" t="s">
-        <v>428</v>
       </c>
       <c r="AF22" s="45"/>
       <c r="AG22" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="63"/>
-      <c r="AN22" s="63"/>
-      <c r="AO22" s="63"/>
-      <c r="AP22" s="63"/>
-      <c r="AQ22" s="63"/>
+        <v>418</v>
+      </c>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
       <c r="AR22" s="45"/>
       <c r="AS22" s="45">
         <v>2014</v>
@@ -7417,35 +7418,35 @@
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>429</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>431</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H23" s="50">
         <v>617</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L23" s="45">
         <v>625</v>
@@ -7465,19 +7466,23 @@
       <c r="Q23" s="47">
         <v>29692</v>
       </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
+      <c r="R23" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="S23" s="50" t="s">
+        <v>428</v>
+      </c>
       <c r="T23" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="V23" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="W23" s="64" t="s">
-        <v>430</v>
+        <v>85</v>
+      </c>
+      <c r="V23" s="65" t="s">
+        <v>839</v>
+      </c>
+      <c r="W23" s="65" t="s">
+        <v>428</v>
       </c>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
@@ -7488,94 +7493,92 @@
         <v>19</v>
       </c>
       <c r="AB23" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC23" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="AC23" s="50" t="s">
+      <c r="AD23" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="AD23" s="50" t="s">
+      <c r="AE23" s="50" t="s">
         <v>436</v>
-      </c>
-      <c r="AE23" s="50" t="s">
-        <v>437</v>
       </c>
       <c r="AF23" s="50"/>
       <c r="AG23" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH23" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="AK23" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="AI23" s="64" t="s">
+      <c r="AL23" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="AJ23" s="64" t="s">
+      <c r="AM23" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AK23" s="64" t="s">
+      <c r="AN23" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AL23" s="64" t="s">
+      <c r="AO23" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="AM23" s="64" t="s">
+      <c r="AP23" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AN23" s="64" t="s">
+      <c r="AQ23" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="AO23" s="64" t="s">
+      <c r="AR23" s="50" t="s">
         <v>445</v>
-      </c>
-      <c r="AP23" s="64" t="s">
-        <v>446</v>
-      </c>
-      <c r="AQ23" s="64" t="s">
-        <v>447</v>
-      </c>
-      <c r="AR23" s="50" t="s">
-        <v>448</v>
       </c>
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
       <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
+      <c r="AV23" s="50">
+        <v>1987</v>
+      </c>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AY23" s="50"/>
       <c r="AZ23" s="51"/>
     </row>
     <row r="24" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="50">
         <v>508</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="45">
         <v>697</v>
@@ -7594,16 +7597,16 @@
       <c r="R24" s="50"/>
       <c r="S24" s="50"/>
       <c r="T24" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U24" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="V24" s="64" t="s">
-        <v>846</v>
-      </c>
-      <c r="W24" s="64" t="s">
-        <v>874</v>
+        <v>85</v>
+      </c>
+      <c r="V24" s="65" t="s">
+        <v>840</v>
+      </c>
+      <c r="W24" s="65" t="s">
+        <v>868</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7614,45 +7617,41 @@
         <v>19</v>
       </c>
       <c r="AB24" s="50" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AC24" s="50" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AD24" s="50" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AE24" s="50"/>
       <c r="AF24" s="50"/>
       <c r="AG24" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK24" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL24" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="AH24" s="64" t="s">
+      <c r="AM24" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="AI24" s="64" t="s">
+      <c r="AN24" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="AJ24" s="64" t="s">
+      <c r="AO24" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="AK24" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL24" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM24" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="AN24" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="AO24" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="AP24" s="64"/>
-      <c r="AQ24" s="64"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
       <c r="AR24" s="50">
         <v>2019</v>
       </c>
@@ -7663,41 +7662,41 @@
       <c r="AW24" s="50"/>
       <c r="AX24" s="45"/>
       <c r="AY24" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AZ24" s="51"/>
     </row>
     <row r="25" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H25" s="50">
         <v>413</v>
       </c>
       <c r="I25" s="50" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="J25" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L25" s="45">
         <v>4812</v>
@@ -7717,19 +7716,23 @@
       <c r="Q25" s="47">
         <v>41012</v>
       </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
+      <c r="R25" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="S25" s="50" t="s">
+        <v>470</v>
+      </c>
       <c r="T25" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U25" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="V25" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="W25" s="64" t="s">
-        <v>474</v>
+        <v>85</v>
+      </c>
+      <c r="V25" s="65" t="s">
+        <v>841</v>
+      </c>
+      <c r="W25" s="65" t="s">
+        <v>470</v>
       </c>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
@@ -7740,45 +7743,41 @@
         <v>19</v>
       </c>
       <c r="AB25" s="50" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AC25" s="50" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AD25" s="50" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="AH25" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="AK25" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="AL25" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM25" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN25" s="50" t="s">
         <v>478</v>
       </c>
-      <c r="AI25" s="64" t="s">
+      <c r="AO25" s="50" t="s">
         <v>479</v>
       </c>
-      <c r="AJ25" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="AK25" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="AL25" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="AM25" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="AN25" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="AO25" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="AP25" s="64"/>
-      <c r="AQ25" s="64"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
       <c r="AR25" s="50">
         <v>2019</v>
       </c>
@@ -7787,23 +7786,25 @@
       </c>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
+      <c r="AV25" s="50">
+        <v>2018</v>
+      </c>
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="AZ25" s="51"/>
     </row>
     <row r="26" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50" t="s">
@@ -7813,19 +7814,19 @@
         <v>102</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H26" s="50">
         <v>401</v>
       </c>
       <c r="I26" s="50" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J26" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L26" s="45">
         <v>5737</v>
@@ -7845,25 +7846,29 @@
       <c r="Q26" s="47">
         <v>22787</v>
       </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
+      <c r="R26" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="S26" s="50" t="s">
+        <v>487</v>
+      </c>
       <c r="T26" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U26" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="V26" s="64" t="s">
-        <v>848</v>
-      </c>
-      <c r="W26" s="64" t="s">
-        <v>492</v>
+        <v>85</v>
+      </c>
+      <c r="V26" s="65" t="s">
+        <v>842</v>
+      </c>
+      <c r="W26" s="65" t="s">
+        <v>487</v>
       </c>
       <c r="X26" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y26" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z26" s="50" t="s">
         <v>19</v>
@@ -7872,40 +7877,38 @@
         <v>19</v>
       </c>
       <c r="AB26" s="50" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AC26" s="50" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AD26" s="50"/>
       <c r="AE26" s="50"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH26" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI26" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="AJ26" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK26" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
+        <v>481</v>
+      </c>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="AK26" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL26" s="50"/>
+      <c r="AM26" s="50"/>
+      <c r="AN26" s="50"/>
+      <c r="AO26" s="50"/>
+      <c r="AP26" s="50"/>
+      <c r="AQ26" s="50"/>
       <c r="AR26" s="50"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
-      <c r="AV26" s="50"/>
+      <c r="AV26" s="50">
+        <v>2023</v>
+      </c>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
         <v>97</v>
@@ -7915,35 +7918,35 @@
     </row>
     <row r="27" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H27" s="45">
         <v>860</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L27" s="46">
         <v>1367</v>
@@ -7963,25 +7966,29 @@
       <c r="Q27" s="52">
         <v>18408</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="R27" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>499</v>
+      </c>
       <c r="T27" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="V27" s="63" t="s">
-        <v>849</v>
-      </c>
-      <c r="W27" s="63" t="s">
-        <v>499</v>
+        <v>85</v>
+      </c>
+      <c r="V27" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="W27" s="64" t="s">
+        <v>493</v>
       </c>
       <c r="X27" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y27" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z27" s="45" t="s">
         <v>19</v>
@@ -7990,76 +7997,78 @@
         <v>19</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AC27" s="45" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AD27" s="45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AE27" s="45" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF27" s="45"/>
       <c r="AG27" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
+        <v>492</v>
+      </c>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
       <c r="AR27" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
       <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
+      <c r="AV27" s="45">
+        <v>2023</v>
+      </c>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
         <v>97</v>
       </c>
       <c r="AY27" s="45" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AZ27" s="48"/>
     </row>
     <row r="28" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="51"/>
       <c r="H28" s="51">
         <v>413</v>
       </c>
       <c r="I28" s="51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" s="48">
         <v>4187</v>
@@ -8078,22 +8087,22 @@
       <c r="R28" s="51"/>
       <c r="S28" s="51"/>
       <c r="T28" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U28" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="W28" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="X28" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y28" s="51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z28" s="51" t="s">
         <v>19</v>
@@ -8102,18 +8111,18 @@
         <v>19</v>
       </c>
       <c r="AB28" s="51" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AC28" s="51" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AD28" s="51" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AH28" s="51"/>
       <c r="AI28" s="51"/>
@@ -8133,41 +8142,41 @@
       <c r="AW28" s="51"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="51" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AZ28" s="51"/>
     </row>
     <row r="29" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H29" s="51">
         <v>508</v>
       </c>
       <c r="I29" s="51" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L29" s="48">
         <v>8145</v>
@@ -8198,58 +8207,56 @@
         <v>19</v>
       </c>
       <c r="AB29" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC29" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD29" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE29" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF29" s="51" t="s">
         <v>523</v>
       </c>
-      <c r="AC29" s="51" t="s">
+      <c r="AG29" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="AD29" s="51" t="s">
+      <c r="AK29" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="AE29" s="51" t="s">
+      <c r="AL29" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="AF29" s="51" t="s">
+      <c r="AM29" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="AG29" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH29" s="51" t="s">
+      <c r="AN29" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="AI29" s="51" t="s">
+      <c r="AO29" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="AJ29" s="51" t="s">
+      <c r="AP29" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="AK29" s="51" t="s">
+      <c r="AQ29" s="51" t="s">
         <v>531</v>
-      </c>
-      <c r="AL29" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="AM29" s="51" t="s">
-        <v>533</v>
-      </c>
-      <c r="AN29" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="AO29" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="AP29" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="AQ29" s="51" t="s">
-        <v>537</v>
       </c>
       <c r="AR29" s="51"/>
       <c r="AS29" s="51"/>
       <c r="AT29" s="51"/>
       <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
+      <c r="AV29" s="51">
+        <v>2021</v>
+      </c>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
         <v>97</v>
@@ -8259,7 +8266,7 @@
     </row>
     <row r="30" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -8272,10 +8279,10 @@
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56">
@@ -8293,12 +8300,12 @@
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
@@ -8307,18 +8314,18 @@
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="65"/>
-      <c r="AP30" s="65"/>
-      <c r="AQ30" s="65"/>
+        <v>532</v>
+      </c>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="55"/>
@@ -8333,7 +8340,7 @@
     </row>
     <row r="31" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -8346,10 +8353,10 @@
       </c>
       <c r="I31" s="55"/>
       <c r="J31" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L31" s="56"/>
       <c r="M31" s="56">
@@ -8367,12 +8374,12 @@
       <c r="S31" s="55"/>
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA31" s="55"/>
       <c r="AB31" s="55"/>
@@ -8381,18 +8388,18 @@
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
       <c r="AG31" s="55" t="s">
-        <v>539</v>
-      </c>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="65"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="65"/>
-      <c r="AP31" s="65"/>
-      <c r="AQ31" s="65"/>
+        <v>533</v>
+      </c>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
       <c r="AR31" s="55"/>
       <c r="AS31" s="55"/>
       <c r="AT31" s="55"/>
@@ -8400,42 +8407,42 @@
       <c r="AV31" s="55"/>
       <c r="AW31" s="55"/>
       <c r="AX31" s="56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AY31" s="55"/>
       <c r="AZ31" s="57"/>
     </row>
     <row r="32" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H32" s="55">
         <v>207</v>
       </c>
       <c r="I32" s="55" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="J32" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L32" s="56">
         <v>445</v>
@@ -8455,42 +8462,42 @@
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="65" t="s">
-        <v>851</v>
-      </c>
-      <c r="W32" s="65" t="s">
-        <v>541</v>
+      <c r="V32" s="66" t="s">
+        <v>845</v>
+      </c>
+      <c r="W32" s="66" t="s">
+        <v>535</v>
       </c>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA32" s="55"/>
       <c r="AB32" s="55" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AC32" s="55" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AD32" s="55" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
       <c r="AG32" s="55" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="65"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="65"/>
-      <c r="AP32" s="65"/>
-      <c r="AQ32" s="65"/>
+        <v>534</v>
+      </c>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
       <c r="AR32" s="55"/>
       <c r="AS32" s="55"/>
       <c r="AT32" s="55"/>
@@ -8505,7 +8512,7 @@
     </row>
     <row r="33" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -8516,10 +8523,10 @@
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L33" s="56"/>
       <c r="M33" s="56">
@@ -8537,8 +8544,8 @@
       <c r="S33" s="55"/>
       <c r="T33" s="55"/>
       <c r="U33" s="55"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
       <c r="Z33" s="55" t="s">
@@ -8551,18 +8558,18 @@
       <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55" t="s">
-        <v>549</v>
-      </c>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="65"/>
-      <c r="AJ33" s="65"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="65"/>
-      <c r="AP33" s="65"/>
-      <c r="AQ33" s="65"/>
+        <v>543</v>
+      </c>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
       <c r="AR33" s="55"/>
       <c r="AS33" s="55"/>
       <c r="AT33" s="55"/>
@@ -8575,7 +8582,7 @@
     </row>
     <row r="34" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -8588,10 +8595,10 @@
       </c>
       <c r="I34" s="55"/>
       <c r="J34" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L34" s="56"/>
       <c r="M34" s="56">
@@ -8611,12 +8618,12 @@
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA34" s="55"/>
       <c r="AB34" s="55"/>
@@ -8625,18 +8632,18 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55" t="s">
-        <v>550</v>
-      </c>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="65"/>
-      <c r="AJ34" s="65"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="65"/>
-      <c r="AP34" s="65"/>
-      <c r="AQ34" s="65"/>
+        <v>544</v>
+      </c>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="55"/>
       <c r="AR34" s="55"/>
       <c r="AS34" s="55"/>
       <c r="AT34" s="55"/>
@@ -8647,41 +8654,41 @@
         <v>97</v>
       </c>
       <c r="AY34" s="55" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AZ34" s="57"/>
     </row>
     <row r="35" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H35" s="55">
         <v>207</v>
       </c>
       <c r="I35" s="55" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J35" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L35" s="56">
         <v>634</v>
@@ -8701,11 +8708,11 @@
       <c r="S35" s="55"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="65" t="s">
-        <v>852</v>
-      </c>
-      <c r="W35" s="65" t="s">
-        <v>553</v>
+      <c r="V35" s="66" t="s">
+        <v>846</v>
+      </c>
+      <c r="W35" s="66" t="s">
+        <v>547</v>
       </c>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
@@ -8714,78 +8721,78 @@
       </c>
       <c r="AA35" s="55"/>
       <c r="AB35" s="55" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AC35" s="55" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AD35" s="55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AE35" s="55"/>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55" t="s">
-        <v>552</v>
-      </c>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="65"/>
-      <c r="AP35" s="65"/>
-      <c r="AQ35" s="65"/>
+        <v>546</v>
+      </c>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
+      <c r="AP35" s="55"/>
+      <c r="AQ35" s="55"/>
       <c r="AR35" s="55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AS35" s="55" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AT35" s="55"/>
       <c r="AU35" s="55"/>
       <c r="AV35" s="55"/>
       <c r="AW35" s="55" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AX35" s="56" t="s">
         <v>97</v>
       </c>
       <c r="AY35" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AZ35" s="57"/>
     </row>
     <row r="36" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="55">
         <v>781</v>
       </c>
       <c r="I36" s="55" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L36" s="56">
         <v>661</v>
@@ -8804,51 +8811,51 @@
       <c r="R36" s="55"/>
       <c r="S36" s="55"/>
       <c r="T36" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U36" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V36" s="65" t="s">
-        <v>853</v>
-      </c>
-      <c r="W36" s="65" t="s">
-        <v>875</v>
+        <v>85</v>
+      </c>
+      <c r="V36" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="W36" s="66" t="s">
+        <v>869</v>
       </c>
       <c r="X36" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y36" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z36" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA36" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB36" s="55" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AC36" s="55" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55" t="s">
-        <v>563</v>
-      </c>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="65"/>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="65"/>
-      <c r="AQ36" s="65"/>
+        <v>557</v>
+      </c>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55"/>
+      <c r="AQ36" s="55"/>
       <c r="AR36" s="55"/>
       <c r="AS36" s="55"/>
       <c r="AT36" s="55"/>
@@ -8856,14 +8863,14 @@
       <c r="AV36" s="55"/>
       <c r="AW36" s="55"/>
       <c r="AX36" s="56" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AY36" s="55"/>
       <c r="AZ36" s="57"/>
     </row>
     <row r="37" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -8874,10 +8881,10 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
       <c r="J37" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" s="56"/>
       <c r="M37" s="56">
@@ -8895,8 +8902,8 @@
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
       <c r="U37" s="55"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
       <c r="X37" s="55"/>
       <c r="Y37" s="55"/>
       <c r="Z37" s="55" t="s">
@@ -8909,18 +8916,18 @@
       <c r="AE37" s="55"/>
       <c r="AF37" s="55"/>
       <c r="AG37" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="65"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="65"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="65"/>
-      <c r="AP37" s="65"/>
-      <c r="AQ37" s="65"/>
+        <v>565</v>
+      </c>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="55"/>
+      <c r="AO37" s="55"/>
+      <c r="AP37" s="55"/>
+      <c r="AQ37" s="55"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="55"/>
       <c r="AT37" s="55"/>
@@ -8935,35 +8942,35 @@
     </row>
     <row r="38" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H38" s="55">
         <v>860</v>
       </c>
       <c r="I38" s="55" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L38" s="56">
         <v>1071</v>
@@ -8983,25 +8990,29 @@
       <c r="Q38" s="58">
         <v>33738</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
+      <c r="R38" s="55" t="s">
+        <v>572</v>
+      </c>
+      <c r="S38" s="55" t="s">
+        <v>567</v>
+      </c>
       <c r="T38" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U38" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V38" s="65" t="s">
-        <v>578</v>
-      </c>
-      <c r="W38" s="65" t="s">
-        <v>573</v>
+        <v>85</v>
+      </c>
+      <c r="V38" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="W38" s="66" t="s">
+        <v>567</v>
       </c>
       <c r="X38" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y38" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z38" s="55" t="s">
         <v>19</v>
@@ -9010,74 +9021,76 @@
         <v>19</v>
       </c>
       <c r="AB38" s="55" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AC38" s="55" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AD38" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AE38" s="55"/>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH38" s="65"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="65"/>
-      <c r="AK38" s="65"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="65"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
+        <v>566</v>
+      </c>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="55"/>
+      <c r="AQ38" s="55"/>
       <c r="AR38" s="55" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
       <c r="AU38" s="55"/>
-      <c r="AV38" s="55"/>
+      <c r="AV38" s="55">
+        <v>2023</v>
+      </c>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AY38" s="55"/>
       <c r="AZ38" s="57"/>
     </row>
     <row r="39" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H39" s="55">
         <v>508</v>
       </c>
       <c r="I39" s="55" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J39" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L39" s="56">
         <v>1223</v>
@@ -9097,63 +9110,69 @@
       <c r="Q39" s="58">
         <v>22763</v>
       </c>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
+      <c r="R39" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="S39" s="55" t="s">
+        <v>583</v>
+      </c>
       <c r="T39" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U39" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V39" s="65" t="s">
-        <v>854</v>
-      </c>
-      <c r="W39" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="V39" s="66" t="s">
+        <v>848</v>
+      </c>
+      <c r="W39" s="66" t="s">
+        <v>578</v>
+      </c>
+      <c r="X39" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y39" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z39" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA39" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB39" s="55" t="s">
         <v>584</v>
       </c>
-      <c r="X39" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y39" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z39" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA39" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB39" s="55" t="s">
-        <v>588</v>
-      </c>
       <c r="AC39" s="55" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AD39" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AE39" s="55"/>
       <c r="AF39" s="55"/>
       <c r="AG39" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="AH39" s="65"/>
-      <c r="AI39" s="65"/>
-      <c r="AJ39" s="65"/>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="65"/>
-      <c r="AM39" s="65"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="65"/>
-      <c r="AP39" s="65"/>
-      <c r="AQ39" s="65"/>
+        <v>577</v>
+      </c>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="55"/>
+      <c r="AK39" s="55"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="55"/>
+      <c r="AN39" s="55"/>
+      <c r="AO39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="55"/>
       <c r="AR39" s="55" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
       <c r="AU39" s="55"/>
-      <c r="AV39" s="55"/>
+      <c r="AV39" s="55">
+        <v>1994</v>
+      </c>
       <c r="AW39" s="55"/>
       <c r="AX39" s="56"/>
       <c r="AY39" s="55"/>
@@ -9161,35 +9180,35 @@
     </row>
     <row r="40" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H40" s="55">
         <v>207</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J40" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L40" s="56">
         <v>1263</v>
@@ -9209,15 +9228,19 @@
       <c r="Q40" s="58">
         <v>17658</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
+      <c r="R40" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="S40" s="55" t="s">
+        <v>594</v>
+      </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
-      <c r="V40" s="65" t="s">
-        <v>597</v>
-      </c>
-      <c r="W40" s="65" t="s">
-        <v>598</v>
+      <c r="V40" s="66" t="s">
+        <v>593</v>
+      </c>
+      <c r="W40" s="66" t="s">
+        <v>594</v>
       </c>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
@@ -9228,72 +9251,74 @@
         <v>19</v>
       </c>
       <c r="AB40" s="55" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AC40" s="55" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AD40" s="55"/>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55" t="s">
-        <v>591</v>
-      </c>
-      <c r="AH40" s="65"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="65"/>
-      <c r="AK40" s="65"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="65"/>
-      <c r="AO40" s="65"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
+        <v>587</v>
+      </c>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
+      <c r="AM40" s="55"/>
+      <c r="AN40" s="55"/>
+      <c r="AO40" s="55"/>
+      <c r="AP40" s="55"/>
+      <c r="AQ40" s="55"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
       <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
+      <c r="AV40" s="55">
+        <v>2023</v>
+      </c>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
         <v>97</v>
       </c>
       <c r="AY40" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AZ40" s="57"/>
     </row>
     <row r="41" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H41" s="55">
         <v>508</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J41" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L41" s="56">
         <v>2883</v>
@@ -9313,25 +9338,29 @@
       <c r="Q41" s="58">
         <v>25618</v>
       </c>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
+      <c r="R41" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="S41" s="55" t="s">
+        <v>596</v>
+      </c>
       <c r="T41" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U41" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V41" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="W41" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="V41" s="66" t="s">
         <v>600</v>
       </c>
+      <c r="W41" s="66" t="s">
+        <v>596</v>
+      </c>
       <c r="X41" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y41" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z41" s="55" t="s">
         <v>19</v>
@@ -9340,36 +9369,38 @@
         <v>19</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AC41" s="55" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AD41" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="65" t="s">
-        <v>606</v>
-      </c>
-      <c r="AK41" s="65"/>
-      <c r="AL41" s="65"/>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="65"/>
-      <c r="AP41" s="65"/>
-      <c r="AQ41" s="65"/>
+        <v>595</v>
+      </c>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="55"/>
+      <c r="AJ41" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK41" s="55"/>
+      <c r="AL41" s="55"/>
+      <c r="AM41" s="55"/>
+      <c r="AN41" s="55"/>
+      <c r="AO41" s="55"/>
+      <c r="AP41" s="55"/>
+      <c r="AQ41" s="55"/>
       <c r="AR41" s="55"/>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
       <c r="AU41" s="55"/>
-      <c r="AV41" s="55"/>
+      <c r="AV41" s="55">
+        <v>2023</v>
+      </c>
       <c r="AW41" s="55"/>
       <c r="AX41" s="56"/>
       <c r="AY41" s="55"/>
@@ -9377,35 +9408,35 @@
     </row>
     <row r="42" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H42" s="55">
         <v>860</v>
       </c>
       <c r="I42" s="55" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J42" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L42" s="56">
         <v>1359</v>
@@ -9425,25 +9456,29 @@
       <c r="Q42" s="58">
         <v>35543</v>
       </c>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
+      <c r="R42" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="S42" s="55" t="s">
+        <v>610</v>
+      </c>
       <c r="T42" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U42" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V42" s="65" t="s">
-        <v>855</v>
-      </c>
-      <c r="W42" s="65" t="s">
-        <v>608</v>
+        <v>85</v>
+      </c>
+      <c r="V42" s="66" t="s">
+        <v>849</v>
+      </c>
+      <c r="W42" s="66" t="s">
+        <v>604</v>
       </c>
       <c r="X42" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y42" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z42" s="55" t="s">
         <v>19</v>
@@ -9452,72 +9487,74 @@
         <v>19</v>
       </c>
       <c r="AB42" s="55" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AC42" s="55" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AD42" s="55" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AE42" s="55"/>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="65"/>
-      <c r="AP42" s="65"/>
-      <c r="AQ42" s="65"/>
+        <v>603</v>
+      </c>
+      <c r="AH42" s="55"/>
+      <c r="AI42" s="55"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
+      <c r="AM42" s="55"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="55"/>
+      <c r="AP42" s="55"/>
+      <c r="AQ42" s="55"/>
       <c r="AR42" s="55"/>
       <c r="AS42" s="55"/>
       <c r="AT42" s="55"/>
       <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
+      <c r="AV42" s="55">
+        <v>2023</v>
+      </c>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AY42" s="55"/>
       <c r="AZ42" s="57"/>
     </row>
     <row r="43" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D43" s="55"/>
       <c r="E43" s="55" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H43" s="55">
         <v>617</v>
       </c>
       <c r="I43" s="55" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="J43" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L43" s="56">
         <v>1747</v>
@@ -9536,51 +9573,51 @@
       <c r="R43" s="55"/>
       <c r="S43" s="55"/>
       <c r="T43" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U43" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V43" s="65" t="s">
-        <v>856</v>
-      </c>
-      <c r="W43" s="65" t="s">
-        <v>617</v>
+        <v>85</v>
+      </c>
+      <c r="V43" s="66" t="s">
+        <v>850</v>
+      </c>
+      <c r="W43" s="66" t="s">
+        <v>613</v>
       </c>
       <c r="X43" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y43" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z43" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA43" s="55"/>
       <c r="AB43" s="55" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AC43" s="55" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AD43" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
       <c r="AG43" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="AH43" s="65"/>
-      <c r="AI43" s="65"/>
-      <c r="AJ43" s="65"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="65"/>
-      <c r="AM43" s="65"/>
-      <c r="AN43" s="65"/>
-      <c r="AO43" s="65"/>
-      <c r="AP43" s="65"/>
-      <c r="AQ43" s="65"/>
+        <v>619</v>
+      </c>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="55"/>
+      <c r="AL43" s="55"/>
+      <c r="AM43" s="55"/>
+      <c r="AN43" s="55"/>
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="55"/>
+      <c r="AQ43" s="55"/>
       <c r="AR43" s="55"/>
       <c r="AS43" s="55"/>
       <c r="AT43" s="55"/>
@@ -9593,7 +9630,7 @@
     </row>
     <row r="44" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -9606,10 +9643,10 @@
       </c>
       <c r="I44" s="55"/>
       <c r="J44" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44" s="56"/>
       <c r="M44" s="56">
@@ -9627,12 +9664,12 @@
       <c r="S44" s="55"/>
       <c r="T44" s="55"/>
       <c r="U44" s="55"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA44" s="55"/>
       <c r="AB44" s="55"/>
@@ -9641,18 +9678,18 @@
       <c r="AE44" s="55"/>
       <c r="AF44" s="55"/>
       <c r="AG44" s="55" t="s">
-        <v>624</v>
-      </c>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="65"/>
-      <c r="AK44" s="65"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="65"/>
-      <c r="AO44" s="65"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
+        <v>620</v>
+      </c>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="55"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="55"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="55"/>
+      <c r="AO44" s="55"/>
+      <c r="AP44" s="55"/>
+      <c r="AQ44" s="55"/>
       <c r="AR44" s="55"/>
       <c r="AS44" s="55"/>
       <c r="AT44" s="55"/>
@@ -9665,7 +9702,7 @@
     </row>
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -9678,10 +9715,10 @@
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L45" s="56"/>
       <c r="M45" s="56">
@@ -9699,8 +9736,8 @@
       <c r="S45" s="55"/>
       <c r="T45" s="55"/>
       <c r="U45" s="55"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
       <c r="X45" s="55"/>
       <c r="Y45" s="55"/>
       <c r="Z45" s="55" t="s">
@@ -9713,18 +9750,18 @@
       <c r="AE45" s="55"/>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55" t="s">
-        <v>625</v>
-      </c>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="65"/>
-      <c r="AJ45" s="65"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="65"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="65"/>
-      <c r="AP45" s="65"/>
-      <c r="AQ45" s="65"/>
+        <v>621</v>
+      </c>
+      <c r="AH45" s="55"/>
+      <c r="AI45" s="55"/>
+      <c r="AJ45" s="55"/>
+      <c r="AK45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="55"/>
+      <c r="AP45" s="55"/>
+      <c r="AQ45" s="55"/>
       <c r="AR45" s="55"/>
       <c r="AS45" s="55"/>
       <c r="AT45" s="55"/>
@@ -9739,7 +9776,7 @@
     </row>
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -9752,10 +9789,10 @@
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L46" s="56"/>
       <c r="M46" s="56">
@@ -9773,8 +9810,8 @@
       <c r="S46" s="55"/>
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
       <c r="X46" s="55"/>
       <c r="Y46" s="55"/>
       <c r="Z46" s="55" t="s">
@@ -9787,18 +9824,18 @@
       <c r="AE46" s="55"/>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="AH46" s="65"/>
-      <c r="AI46" s="65"/>
-      <c r="AJ46" s="65"/>
-      <c r="AK46" s="65"/>
-      <c r="AL46" s="65"/>
-      <c r="AM46" s="65"/>
-      <c r="AN46" s="65"/>
-      <c r="AO46" s="65"/>
-      <c r="AP46" s="65"/>
-      <c r="AQ46" s="65"/>
+        <v>622</v>
+      </c>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="55"/>
+      <c r="AP46" s="55"/>
+      <c r="AQ46" s="55"/>
       <c r="AR46" s="55"/>
       <c r="AS46" s="55"/>
       <c r="AT46" s="55"/>
@@ -9807,39 +9844,39 @@
       <c r="AW46" s="55"/>
       <c r="AX46" s="56"/>
       <c r="AY46" s="55" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AZ46" s="57"/>
     </row>
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55">
         <v>978</v>
       </c>
       <c r="I47" s="55" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J47" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L47" s="56">
         <v>2473</v>
@@ -9859,25 +9896,29 @@
       <c r="Q47" s="58">
         <v>41015</v>
       </c>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
+      <c r="R47" s="55" t="s">
+        <v>629</v>
+      </c>
+      <c r="S47" s="55" t="s">
+        <v>625</v>
+      </c>
       <c r="T47" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U47" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V47" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="W47" s="65" t="s">
-        <v>629</v>
+        <v>85</v>
+      </c>
+      <c r="V47" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="W47" s="66" t="s">
+        <v>625</v>
       </c>
       <c r="X47" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y47" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z47" s="55" t="s">
         <v>19</v>
@@ -9886,74 +9927,76 @@
         <v>19</v>
       </c>
       <c r="AB47" s="55" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AC47" s="55" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AD47" s="55" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AE47" s="55" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AF47" s="55"/>
       <c r="AG47" s="55" t="s">
-        <v>628</v>
-      </c>
-      <c r="AH47" s="65"/>
-      <c r="AI47" s="65"/>
-      <c r="AJ47" s="65" t="s">
-        <v>636</v>
-      </c>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="65"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="65"/>
-      <c r="AP47" s="65"/>
-      <c r="AQ47" s="65"/>
+        <v>624</v>
+      </c>
+      <c r="AH47" s="55"/>
+      <c r="AI47" s="55"/>
+      <c r="AJ47" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
+      <c r="AN47" s="55"/>
+      <c r="AO47" s="55"/>
+      <c r="AP47" s="55"/>
+      <c r="AQ47" s="55"/>
       <c r="AR47" s="55"/>
       <c r="AS47" s="55"/>
       <c r="AT47" s="55"/>
       <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
+      <c r="AV47" s="55">
+        <v>2017</v>
+      </c>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AY47" s="55" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AZ47" s="57"/>
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="55" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="55">
         <v>617</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J48" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L48" s="56"/>
       <c r="M48" s="56">
@@ -9971,8 +10014,8 @@
       <c r="S48" s="55"/>
       <c r="T48" s="55"/>
       <c r="U48" s="55"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
       <c r="X48" s="55"/>
       <c r="Y48" s="55"/>
       <c r="Z48" s="55" t="s">
@@ -9980,27 +10023,27 @@
       </c>
       <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AC48" s="55" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AD48" s="55"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH48" s="65"/>
-      <c r="AI48" s="65"/>
-      <c r="AJ48" s="65"/>
-      <c r="AK48" s="65"/>
-      <c r="AL48" s="65"/>
-      <c r="AM48" s="65"/>
-      <c r="AN48" s="65"/>
-      <c r="AO48" s="65"/>
-      <c r="AP48" s="65"/>
-      <c r="AQ48" s="65"/>
+        <v>636</v>
+      </c>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="55"/>
+      <c r="AP48" s="55"/>
+      <c r="AQ48" s="55"/>
       <c r="AR48" s="55"/>
       <c r="AS48" s="55"/>
       <c r="AT48" s="55"/>
@@ -10009,41 +10052,41 @@
       <c r="AW48" s="55"/>
       <c r="AX48" s="56"/>
       <c r="AY48" s="55" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F49" s="55" t="s">
         <v>120</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H49" s="55">
         <v>603</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="J49" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L49" s="56">
         <v>3490</v>
@@ -10066,74 +10109,76 @@
       <c r="R49" s="55"/>
       <c r="S49" s="55"/>
       <c r="T49" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U49" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V49" s="65" t="s">
-        <v>857</v>
-      </c>
-      <c r="W49" s="65" t="s">
-        <v>646</v>
+        <v>85</v>
+      </c>
+      <c r="V49" s="66" t="s">
+        <v>851</v>
+      </c>
+      <c r="W49" s="66" t="s">
+        <v>643</v>
       </c>
       <c r="X49" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y49" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z49" s="55"/>
       <c r="AA49" s="55" t="s">
         <v>19</v>
       </c>
       <c r="AB49" s="55" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AC49" s="55" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AD49" s="55" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>645</v>
-      </c>
-      <c r="AH49" s="65"/>
-      <c r="AI49" s="65"/>
-      <c r="AJ49" s="65"/>
-      <c r="AK49" s="65"/>
-      <c r="AL49" s="65"/>
-      <c r="AM49" s="65"/>
-      <c r="AN49" s="65"/>
-      <c r="AO49" s="65"/>
-      <c r="AP49" s="65"/>
-      <c r="AQ49" s="65"/>
+        <v>642</v>
+      </c>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
+      <c r="AQ49" s="55"/>
       <c r="AR49" s="55"/>
       <c r="AS49" s="55"/>
       <c r="AT49" s="55"/>
       <c r="AU49" s="55"/>
-      <c r="AV49" s="55"/>
+      <c r="AV49" s="55">
+        <v>1998</v>
+      </c>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AY49" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F50" s="55" t="s">
         <v>210</v>
@@ -10143,13 +10188,13 @@
         <v>802</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J50" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K50" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L50" s="56"/>
       <c r="M50" s="56">
@@ -10167,36 +10212,36 @@
       <c r="S50" s="55"/>
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="65"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AC50" s="55" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
       <c r="AF50" s="55"/>
       <c r="AG50" s="55" t="s">
-        <v>654</v>
-      </c>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="65"/>
-      <c r="AJ50" s="65"/>
-      <c r="AK50" s="65"/>
-      <c r="AL50" s="65"/>
-      <c r="AM50" s="65"/>
-      <c r="AN50" s="65"/>
-      <c r="AO50" s="65"/>
-      <c r="AP50" s="65"/>
-      <c r="AQ50" s="65"/>
+        <v>651</v>
+      </c>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
       <c r="AR50" s="55"/>
       <c r="AS50" s="55"/>
       <c r="AT50" s="55"/>
@@ -10209,31 +10254,31 @@
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="55" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F51" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55">
         <v>978</v>
       </c>
       <c r="I51" s="55" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J51" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L51" s="56"/>
       <c r="M51" s="56">
@@ -10251,8 +10296,8 @@
       <c r="S51" s="55"/>
       <c r="T51" s="55"/>
       <c r="U51" s="55"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
       <c r="X51" s="55"/>
       <c r="Y51" s="55"/>
       <c r="Z51" s="55" t="s">
@@ -10260,27 +10305,27 @@
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AC51" s="55" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65"/>
-      <c r="AJ51" s="65"/>
-      <c r="AK51" s="65"/>
-      <c r="AL51" s="65"/>
-      <c r="AM51" s="65"/>
-      <c r="AN51" s="65"/>
-      <c r="AO51" s="65"/>
-      <c r="AP51" s="65"/>
-      <c r="AQ51" s="65"/>
+        <v>656</v>
+      </c>
+      <c r="AH51" s="55"/>
+      <c r="AI51" s="55"/>
+      <c r="AJ51" s="55"/>
+      <c r="AK51" s="55"/>
+      <c r="AL51" s="55"/>
+      <c r="AM51" s="55"/>
+      <c r="AN51" s="55"/>
+      <c r="AO51" s="55"/>
+      <c r="AP51" s="55"/>
+      <c r="AQ51" s="55"/>
       <c r="AR51" s="55"/>
       <c r="AS51" s="55"/>
       <c r="AT51" s="55"/>
@@ -10288,26 +10333,26 @@
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
       <c r="AX51" s="56" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AY51" s="55" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F52" s="55" t="s">
         <v>210</v>
@@ -10320,10 +10365,10 @@
         <v>5753</v>
       </c>
       <c r="J52" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L52" s="56"/>
       <c r="M52" s="56">
@@ -10341,36 +10386,36 @@
       <c r="S52" s="55"/>
       <c r="T52" s="55"/>
       <c r="U52" s="55"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
       <c r="X52" s="55"/>
       <c r="Y52" s="55"/>
       <c r="Z52" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA52" s="55"/>
       <c r="AB52" s="55" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AD52" s="55"/>
       <c r="AE52" s="55"/>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="AH52" s="65"/>
-      <c r="AI52" s="65"/>
-      <c r="AJ52" s="65"/>
-      <c r="AK52" s="65"/>
-      <c r="AL52" s="65"/>
-      <c r="AM52" s="65"/>
-      <c r="AN52" s="65"/>
-      <c r="AO52" s="65"/>
-      <c r="AP52" s="65"/>
-      <c r="AQ52" s="65"/>
+        <v>664</v>
+      </c>
+      <c r="AH52" s="55"/>
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="55"/>
+      <c r="AK52" s="55"/>
+      <c r="AL52" s="55"/>
+      <c r="AM52" s="55"/>
+      <c r="AN52" s="55"/>
+      <c r="AO52" s="55"/>
+      <c r="AP52" s="55"/>
+      <c r="AQ52" s="55"/>
       <c r="AR52" s="55"/>
       <c r="AS52" s="55"/>
       <c r="AT52" s="55"/>
@@ -10383,35 +10428,35 @@
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H53" s="55">
         <v>617</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J53" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L53" s="56">
         <v>4935</v>
@@ -10431,25 +10476,29 @@
       <c r="Q53" s="58">
         <v>31565</v>
       </c>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
+      <c r="R53" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="S53" s="55" t="s">
+        <v>670</v>
+      </c>
       <c r="T53" s="55" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="U53" s="55" t="s">
-        <v>678</v>
-      </c>
-      <c r="V53" s="65" t="s">
-        <v>677</v>
-      </c>
-      <c r="W53" s="65" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="V53" s="66" t="s">
+        <v>674</v>
+      </c>
+      <c r="W53" s="66" t="s">
+        <v>670</v>
       </c>
       <c r="X53" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y53" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z53" s="55" t="s">
         <v>19</v>
@@ -10458,38 +10507,40 @@
         <v>19</v>
       </c>
       <c r="AB53" s="55" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AC53" s="55" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD53" s="55"/>
       <c r="AE53" s="55" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>672</v>
-      </c>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="65"/>
-      <c r="AJ53" s="65"/>
-      <c r="AK53" s="65"/>
-      <c r="AL53" s="65"/>
-      <c r="AM53" s="65"/>
-      <c r="AN53" s="65"/>
-      <c r="AO53" s="65"/>
-      <c r="AP53" s="65"/>
-      <c r="AQ53" s="65"/>
+        <v>669</v>
+      </c>
+      <c r="AH53" s="55"/>
+      <c r="AI53" s="55"/>
+      <c r="AJ53" s="55"/>
+      <c r="AK53" s="55"/>
+      <c r="AL53" s="55"/>
+      <c r="AM53" s="55"/>
+      <c r="AN53" s="55"/>
+      <c r="AO53" s="55"/>
+      <c r="AP53" s="55"/>
+      <c r="AQ53" s="55"/>
       <c r="AR53" s="59">
         <v>85.404166666666669</v>
       </c>
       <c r="AS53" s="55"/>
       <c r="AT53" s="55" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AU53" s="55"/>
-      <c r="AV53" s="55"/>
+      <c r="AV53" s="55">
+        <v>2007</v>
+      </c>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
         <v>97</v>
@@ -10499,35 +10550,35 @@
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D54" s="55"/>
       <c r="E54" s="55" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>210</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H54" s="55">
         <v>802</v>
       </c>
       <c r="I54" s="55" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J54" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L54" s="56"/>
       <c r="M54" s="56">
@@ -10545,42 +10596,42 @@
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
-      <c r="V54" s="65" t="s">
-        <v>858</v>
-      </c>
-      <c r="W54" s="65" t="s">
-        <v>683</v>
+      <c r="V54" s="66" t="s">
+        <v>852</v>
+      </c>
+      <c r="W54" s="66" t="s">
+        <v>680</v>
       </c>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA54" s="55"/>
       <c r="AB54" s="55" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="AC54" s="55" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="AH54" s="65"/>
-      <c r="AI54" s="65"/>
-      <c r="AJ54" s="65" t="s">
-        <v>690</v>
-      </c>
-      <c r="AK54" s="65"/>
-      <c r="AL54" s="65"/>
-      <c r="AM54" s="65"/>
-      <c r="AN54" s="65"/>
-      <c r="AO54" s="65"/>
-      <c r="AP54" s="65"/>
-      <c r="AQ54" s="65"/>
+        <v>679</v>
+      </c>
+      <c r="AH54" s="55"/>
+      <c r="AI54" s="55"/>
+      <c r="AJ54" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="AK54" s="55"/>
+      <c r="AL54" s="55"/>
+      <c r="AM54" s="55"/>
+      <c r="AN54" s="55"/>
+      <c r="AO54" s="55"/>
+      <c r="AP54" s="55"/>
+      <c r="AQ54" s="55"/>
       <c r="AR54" s="55"/>
       <c r="AS54" s="55"/>
       <c r="AT54" s="55"/>
@@ -10588,14 +10639,14 @@
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
       <c r="AX54" s="56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -10608,10 +10659,10 @@
       </c>
       <c r="I55" s="55"/>
       <c r="J55" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L55" s="56"/>
       <c r="M55" s="56">
@@ -10629,12 +10680,12 @@
       <c r="S55" s="55"/>
       <c r="T55" s="55"/>
       <c r="U55" s="55"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
       <c r="X55" s="55"/>
       <c r="Y55" s="55"/>
       <c r="Z55" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA55" s="55"/>
       <c r="AB55" s="55"/>
@@ -10643,18 +10694,18 @@
       <c r="AE55" s="55"/>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>691</v>
-      </c>
-      <c r="AH55" s="65"/>
-      <c r="AI55" s="65"/>
-      <c r="AJ55" s="65"/>
-      <c r="AK55" s="65"/>
-      <c r="AL55" s="65"/>
-      <c r="AM55" s="65"/>
-      <c r="AN55" s="65"/>
-      <c r="AO55" s="65"/>
-      <c r="AP55" s="65"/>
-      <c r="AQ55" s="65"/>
+        <v>688</v>
+      </c>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="55"/>
+      <c r="AJ55" s="55"/>
+      <c r="AK55" s="55"/>
+      <c r="AL55" s="55"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="55"/>
+      <c r="AO55" s="55"/>
+      <c r="AP55" s="55"/>
+      <c r="AQ55" s="55"/>
       <c r="AR55" s="55"/>
       <c r="AS55" s="55"/>
       <c r="AT55" s="55"/>
@@ -10667,33 +10718,33 @@
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F56" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="55">
         <v>617</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J56" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L56" s="56">
         <v>6442</v>
@@ -10712,22 +10763,22 @@
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
       <c r="T56" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U56" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V56" s="65" t="s">
-        <v>859</v>
-      </c>
-      <c r="W56" s="65" t="s">
-        <v>693</v>
+        <v>85</v>
+      </c>
+      <c r="V56" s="66" t="s">
+        <v>853</v>
+      </c>
+      <c r="W56" s="66" t="s">
+        <v>690</v>
       </c>
       <c r="X56" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y56" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z56" s="55" t="s">
         <v>19</v>
@@ -10736,29 +10787,29 @@
         <v>19</v>
       </c>
       <c r="AB56" s="55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AC56" s="55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AD56" s="55"/>
       <c r="AE56" s="55" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="AH56" s="65"/>
-      <c r="AI56" s="65"/>
-      <c r="AJ56" s="65"/>
-      <c r="AK56" s="65"/>
-      <c r="AL56" s="65"/>
-      <c r="AM56" s="65"/>
-      <c r="AN56" s="65"/>
-      <c r="AO56" s="65"/>
-      <c r="AP56" s="65"/>
-      <c r="AQ56" s="65"/>
+        <v>689</v>
+      </c>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="55"/>
+      <c r="AK56" s="55"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="55"/>
       <c r="AR56" s="55"/>
       <c r="AS56" s="55"/>
       <c r="AT56" s="55"/>
@@ -10767,13 +10818,13 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -10786,10 +10837,10 @@
       </c>
       <c r="I57" s="55"/>
       <c r="J57" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K57" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L57" s="56"/>
       <c r="M57" s="56">
@@ -10807,12 +10858,12 @@
       <c r="S57" s="55"/>
       <c r="T57" s="55"/>
       <c r="U57" s="55"/>
-      <c r="V57" s="65"/>
-      <c r="W57" s="65"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
       <c r="X57" s="55"/>
       <c r="Y57" s="55"/>
       <c r="Z57" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA57" s="55"/>
       <c r="AB57" s="55"/>
@@ -10821,18 +10872,18 @@
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="AH57" s="65"/>
-      <c r="AI57" s="65"/>
-      <c r="AJ57" s="65"/>
-      <c r="AK57" s="65"/>
-      <c r="AL57" s="65"/>
-      <c r="AM57" s="65"/>
-      <c r="AN57" s="65"/>
-      <c r="AO57" s="65"/>
-      <c r="AP57" s="65"/>
-      <c r="AQ57" s="65"/>
+        <v>697</v>
+      </c>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="55"/>
+      <c r="AK57" s="55"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="55"/>
+      <c r="AO57" s="55"/>
+      <c r="AP57" s="55"/>
+      <c r="AQ57" s="55"/>
       <c r="AR57" s="55"/>
       <c r="AS57" s="55"/>
       <c r="AT57" s="55"/>
@@ -10841,39 +10892,39 @@
       <c r="AW57" s="55"/>
       <c r="AX57" s="56"/>
       <c r="AY57" s="55" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G58" s="55"/>
       <c r="H58" s="55">
         <v>203</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J58" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K58" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L58" s="56">
         <v>6586</v>
@@ -10889,56 +10940,60 @@
       </c>
       <c r="P58" s="56"/>
       <c r="Q58" s="56"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
+      <c r="R58" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="S58" s="55" t="s">
+        <v>700</v>
+      </c>
       <c r="T58" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U58" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V58" s="65" t="s">
-        <v>706</v>
-      </c>
-      <c r="W58" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="V58" s="66" t="s">
         <v>703</v>
       </c>
+      <c r="W58" s="66" t="s">
+        <v>700</v>
+      </c>
       <c r="X58" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y58" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z58" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA58" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AD58" s="55"/>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>702</v>
-      </c>
-      <c r="AH58" s="65"/>
-      <c r="AI58" s="65"/>
-      <c r="AJ58" s="65"/>
-      <c r="AK58" s="65"/>
-      <c r="AL58" s="65"/>
-      <c r="AM58" s="65"/>
-      <c r="AN58" s="65"/>
-      <c r="AO58" s="65"/>
-      <c r="AP58" s="65"/>
-      <c r="AQ58" s="65"/>
+        <v>699</v>
+      </c>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="55"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="55"/>
+      <c r="AO58" s="55"/>
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="55"/>
       <c r="AR58" s="55" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
@@ -10946,42 +11001,42 @@
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
       <c r="AX58" s="56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H59" s="55">
         <v>301</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J59" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K59" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L59" s="56">
         <v>0</v>
@@ -11001,52 +11056,50 @@
       <c r="Q59" s="58">
         <v>41760</v>
       </c>
-      <c r="R59" s="55"/>
+      <c r="R59" s="55" t="s">
+        <v>712</v>
+      </c>
       <c r="S59" s="55"/>
       <c r="T59" s="55"/>
       <c r="U59" s="55"/>
-      <c r="V59" s="65" t="s">
-        <v>860</v>
-      </c>
-      <c r="W59" s="65" t="s">
-        <v>709</v>
+      <c r="V59" s="66" t="s">
+        <v>854</v>
+      </c>
+      <c r="W59" s="66" t="s">
+        <v>706</v>
       </c>
       <c r="X59" s="55"/>
       <c r="Y59" s="55"/>
       <c r="Z59" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA59" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB59" s="55" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AD59" s="55" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>708</v>
-      </c>
-      <c r="AH59" s="65" t="s">
-        <v>717</v>
-      </c>
-      <c r="AI59" s="65" t="s">
-        <v>718</v>
-      </c>
-      <c r="AJ59" s="65"/>
-      <c r="AK59" s="65"/>
-      <c r="AL59" s="65"/>
-      <c r="AM59" s="65"/>
-      <c r="AN59" s="65"/>
-      <c r="AO59" s="65"/>
-      <c r="AP59" s="65"/>
-      <c r="AQ59" s="65"/>
+        <v>705</v>
+      </c>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="55"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="55"/>
       <c r="AR59" s="55"/>
       <c r="AS59" s="55"/>
       <c r="AT59" s="55"/>
@@ -11059,33 +11112,33 @@
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D60" s="55"/>
       <c r="E60" s="55" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F60" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55">
         <v>860</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J60" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K60" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L60" s="56">
         <v>7508</v>
@@ -11104,22 +11157,22 @@
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
       <c r="T60" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U60" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V60" s="65" t="s">
-        <v>861</v>
-      </c>
-      <c r="W60" s="65" t="s">
-        <v>720</v>
+        <v>85</v>
+      </c>
+      <c r="V60" s="66" t="s">
+        <v>855</v>
+      </c>
+      <c r="W60" s="66" t="s">
+        <v>716</v>
       </c>
       <c r="X60" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y60" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z60" s="55" t="s">
         <v>19</v>
@@ -11128,29 +11181,29 @@
         <v>19</v>
       </c>
       <c r="AB60" s="55" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AC60" s="55" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="AD60" s="55" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="AH60" s="65"/>
-      <c r="AI60" s="65"/>
-      <c r="AJ60" s="65"/>
-      <c r="AK60" s="65"/>
-      <c r="AL60" s="65"/>
-      <c r="AM60" s="65"/>
-      <c r="AN60" s="65"/>
-      <c r="AO60" s="65"/>
-      <c r="AP60" s="65"/>
-      <c r="AQ60" s="65"/>
+        <v>715</v>
+      </c>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="55"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="55"/>
       <c r="AR60" s="55"/>
       <c r="AS60" s="55"/>
       <c r="AT60" s="55"/>
@@ -11158,16 +11211,16 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="AY60" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11180,10 +11233,10 @@
       </c>
       <c r="I61" s="55"/>
       <c r="J61" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K61" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L61" s="56">
         <v>679</v>
@@ -11206,24 +11259,24 @@
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
       <c r="T61" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U61" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V61" s="65"/>
-      <c r="W61" s="65"/>
+        <v>85</v>
+      </c>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
       <c r="X61" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y61" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA61" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB61" s="55"/>
       <c r="AC61" s="55"/>
@@ -11231,23 +11284,25 @@
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="AH61" s="65"/>
-      <c r="AI61" s="65"/>
-      <c r="AJ61" s="65"/>
-      <c r="AK61" s="65"/>
-      <c r="AL61" s="65"/>
-      <c r="AM61" s="65"/>
-      <c r="AN61" s="65"/>
-      <c r="AO61" s="65"/>
-      <c r="AP61" s="65"/>
-      <c r="AQ61" s="65"/>
+        <v>723</v>
+      </c>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="55"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="55"/>
       <c r="AR61" s="55"/>
       <c r="AS61" s="55"/>
       <c r="AT61" s="55"/>
       <c r="AU61" s="55"/>
-      <c r="AV61" s="55"/>
+      <c r="AV61" s="55">
+        <v>1986</v>
+      </c>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
         <v>97</v>
@@ -11257,33 +11312,33 @@
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D62" s="55"/>
       <c r="E62" s="55" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G62" s="55"/>
       <c r="H62" s="55">
         <v>860</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J62" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K62" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L62" s="56">
         <v>2690</v>
@@ -11302,22 +11357,22 @@
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
       <c r="T62" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U62" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V62" s="65" t="s">
-        <v>862</v>
-      </c>
-      <c r="W62" s="65" t="s">
-        <v>729</v>
+        <v>85</v>
+      </c>
+      <c r="V62" s="66" t="s">
+        <v>856</v>
+      </c>
+      <c r="W62" s="66" t="s">
+        <v>725</v>
       </c>
       <c r="X62" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y62" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z62" s="55" t="s">
         <v>19</v>
@@ -11326,27 +11381,27 @@
         <v>19</v>
       </c>
       <c r="AB62" s="55" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="AC62" s="55" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>728</v>
-      </c>
-      <c r="AH62" s="65"/>
-      <c r="AI62" s="65"/>
-      <c r="AJ62" s="65"/>
-      <c r="AK62" s="65"/>
-      <c r="AL62" s="65"/>
-      <c r="AM62" s="65"/>
-      <c r="AN62" s="65"/>
-      <c r="AO62" s="65"/>
-      <c r="AP62" s="65"/>
-      <c r="AQ62" s="65"/>
+        <v>724</v>
+      </c>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="55"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
       <c r="AR62" s="55"/>
       <c r="AS62" s="55"/>
       <c r="AT62" s="55"/>
@@ -11354,16 +11409,16 @@
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
       <c r="AX62" s="56" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="AY62" s="55" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11376,10 +11431,10 @@
       </c>
       <c r="I63" s="55"/>
       <c r="J63" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L63" s="56"/>
       <c r="M63" s="56">
@@ -11397,12 +11452,12 @@
       <c r="S63" s="55"/>
       <c r="T63" s="55"/>
       <c r="U63" s="55"/>
-      <c r="V63" s="65"/>
-      <c r="W63" s="65"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
       <c r="X63" s="55"/>
       <c r="Y63" s="55"/>
       <c r="Z63" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA63" s="55"/>
       <c r="AB63" s="55"/>
@@ -11411,18 +11466,18 @@
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>737</v>
-      </c>
-      <c r="AH63" s="65"/>
-      <c r="AI63" s="65"/>
-      <c r="AJ63" s="65"/>
-      <c r="AK63" s="65"/>
-      <c r="AL63" s="65"/>
-      <c r="AM63" s="65"/>
-      <c r="AN63" s="65"/>
-      <c r="AO63" s="65"/>
-      <c r="AP63" s="65"/>
-      <c r="AQ63" s="65"/>
+        <v>733</v>
+      </c>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
       <c r="AR63" s="55"/>
       <c r="AS63" s="55"/>
       <c r="AT63" s="55"/>
@@ -11435,35 +11490,35 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H64" s="55">
         <v>508</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J64" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K64" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L64" s="56">
         <v>6550</v>
@@ -11483,65 +11538,67 @@
       <c r="Q64" s="58">
         <v>30438</v>
       </c>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
+      <c r="R64" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="S64" s="55" t="s">
+        <v>735</v>
+      </c>
       <c r="T64" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U64" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V64" s="65" t="s">
-        <v>744</v>
-      </c>
-      <c r="W64" s="65" t="s">
-        <v>739</v>
+        <v>85</v>
+      </c>
+      <c r="V64" s="66" t="s">
+        <v>740</v>
+      </c>
+      <c r="W64" s="66" t="s">
+        <v>735</v>
       </c>
       <c r="X64" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y64" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z64" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA64" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB64" s="55" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="AC64" s="55" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AD64" s="55"/>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
-        <v>747</v>
-      </c>
-      <c r="AH64" s="65" t="s">
-        <v>748</v>
-      </c>
-      <c r="AI64" s="65" t="s">
-        <v>749</v>
-      </c>
-      <c r="AJ64" s="65"/>
-      <c r="AK64" s="65"/>
-      <c r="AL64" s="65"/>
-      <c r="AM64" s="65"/>
-      <c r="AN64" s="65"/>
-      <c r="AO64" s="65"/>
-      <c r="AP64" s="65"/>
-      <c r="AQ64" s="65"/>
+        <v>743</v>
+      </c>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="55"/>
+      <c r="AJ64" s="55"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
       <c r="AR64" s="55"/>
       <c r="AS64" s="55"/>
       <c r="AT64" s="55">
         <v>2013</v>
       </c>
       <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
+      <c r="AV64" s="55">
+        <v>1998</v>
+      </c>
       <c r="AW64" s="55"/>
       <c r="AX64" s="56"/>
       <c r="AY64" s="55"/>
@@ -11549,33 +11606,33 @@
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G65" s="55"/>
       <c r="H65" s="55">
         <v>203</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="J65" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K65" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L65" s="56">
         <v>4728</v>
@@ -11594,22 +11651,22 @@
       <c r="R65" s="55"/>
       <c r="S65" s="55"/>
       <c r="T65" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U65" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V65" s="65" t="s">
-        <v>755</v>
-      </c>
-      <c r="W65" s="65" t="s">
-        <v>751</v>
+        <v>85</v>
+      </c>
+      <c r="V65" s="66" t="s">
+        <v>749</v>
+      </c>
+      <c r="W65" s="66" t="s">
+        <v>745</v>
       </c>
       <c r="X65" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y65" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z65" s="55" t="s">
         <v>19</v>
@@ -11618,29 +11675,29 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="AC65" s="55" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AD65" s="55" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>750</v>
-      </c>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="65"/>
-      <c r="AJ65" s="65"/>
-      <c r="AK65" s="65"/>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="65"/>
-      <c r="AN65" s="65"/>
-      <c r="AO65" s="65"/>
-      <c r="AP65" s="65"/>
-      <c r="AQ65" s="65"/>
+        <v>744</v>
+      </c>
+      <c r="AH65" s="55"/>
+      <c r="AI65" s="55"/>
+      <c r="AJ65" s="55"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
       <c r="AR65" s="55"/>
       <c r="AS65" s="55"/>
       <c r="AT65" s="55"/>
@@ -11648,44 +11705,44 @@
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="AY65" s="55" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F66" s="55" t="s">
         <v>102</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H66" s="55">
         <v>401</v>
       </c>
       <c r="I66" s="55" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J66" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K66" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L66" s="56">
         <v>5938</v>
@@ -11705,25 +11762,29 @@
       <c r="Q66" s="58">
         <v>25332</v>
       </c>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
+      <c r="R66" s="55" t="s">
+        <v>758</v>
+      </c>
+      <c r="S66" s="55" t="s">
+        <v>753</v>
+      </c>
       <c r="T66" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U66" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V66" s="65" t="s">
-        <v>764</v>
-      </c>
-      <c r="W66" s="65" t="s">
-        <v>759</v>
+        <v>85</v>
+      </c>
+      <c r="V66" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="W66" s="66" t="s">
+        <v>753</v>
       </c>
       <c r="X66" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y66" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z66" s="55" t="s">
         <v>19</v>
@@ -11732,34 +11793,36 @@
         <v>19</v>
       </c>
       <c r="AB66" s="55" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="AC66" s="55" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>758</v>
-      </c>
-      <c r="AH66" s="65"/>
-      <c r="AI66" s="65"/>
-      <c r="AJ66" s="65"/>
-      <c r="AK66" s="65"/>
-      <c r="AL66" s="65"/>
-      <c r="AM66" s="65"/>
-      <c r="AN66" s="65"/>
-      <c r="AO66" s="65"/>
-      <c r="AP66" s="65"/>
-      <c r="AQ66" s="65"/>
+        <v>752</v>
+      </c>
+      <c r="AH66" s="55"/>
+      <c r="AI66" s="55"/>
+      <c r="AJ66" s="55"/>
+      <c r="AK66" s="55"/>
+      <c r="AL66" s="55"/>
+      <c r="AM66" s="55"/>
+      <c r="AN66" s="55"/>
+      <c r="AO66" s="55"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
       <c r="AR66" s="55">
         <v>2019</v>
       </c>
       <c r="AS66" s="55"/>
       <c r="AT66" s="55"/>
       <c r="AU66" s="55"/>
-      <c r="AV66" s="55"/>
+      <c r="AV66" s="55">
+        <v>2012</v>
+      </c>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
         <v>97</v>
@@ -11769,23 +11832,23 @@
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H67" s="55">
         <v>860</v>
@@ -11794,10 +11857,10 @@
         <v>6117</v>
       </c>
       <c r="J67" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L67" s="56">
         <v>6178</v>
@@ -11813,23 +11876,27 @@
       </c>
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
+      <c r="R67" s="55" t="s">
+        <v>765</v>
+      </c>
+      <c r="S67" s="55" t="s">
+        <v>766</v>
+      </c>
       <c r="T67" s="55"/>
       <c r="U67" s="55"/>
-      <c r="V67" s="65" t="s">
-        <v>863</v>
-      </c>
-      <c r="W67" s="65" t="s">
-        <v>768</v>
+      <c r="V67" s="66" t="s">
+        <v>857</v>
+      </c>
+      <c r="W67" s="66" t="s">
+        <v>762</v>
       </c>
       <c r="X67" s="55"/>
       <c r="Y67" s="55"/>
       <c r="Z67" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA67" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB67" s="55"/>
       <c r="AC67" s="55"/>
@@ -11837,18 +11904,18 @@
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>767</v>
-      </c>
-      <c r="AH67" s="65"/>
-      <c r="AI67" s="65"/>
-      <c r="AJ67" s="65"/>
-      <c r="AK67" s="65"/>
-      <c r="AL67" s="65"/>
-      <c r="AM67" s="65"/>
-      <c r="AN67" s="65"/>
-      <c r="AO67" s="65"/>
-      <c r="AP67" s="65"/>
-      <c r="AQ67" s="65"/>
+        <v>761</v>
+      </c>
+      <c r="AH67" s="55"/>
+      <c r="AI67" s="55"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
+      <c r="AP67" s="55"/>
+      <c r="AQ67" s="55"/>
       <c r="AR67" s="55"/>
       <c r="AS67" s="55"/>
       <c r="AT67" s="55"/>
@@ -11861,33 +11928,33 @@
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G68" s="55"/>
       <c r="H68" s="55">
         <v>800</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J68" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K68" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L68" s="56">
         <v>6607</v>
@@ -11906,51 +11973,51 @@
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
       <c r="T68" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U68" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V68" s="65" t="s">
-        <v>864</v>
-      </c>
-      <c r="W68" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="V68" s="66" t="s">
+        <v>858</v>
+      </c>
+      <c r="W68" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="X68" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y68" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z68" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA68" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB68" s="55" t="s">
         <v>772</v>
       </c>
-      <c r="X68" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y68" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z68" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA68" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB68" s="55" t="s">
-        <v>776</v>
-      </c>
       <c r="AC68" s="55" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="AD68" s="55"/>
       <c r="AE68" s="55"/>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>771</v>
-      </c>
-      <c r="AH68" s="65"/>
-      <c r="AI68" s="65"/>
-      <c r="AJ68" s="65"/>
-      <c r="AK68" s="65"/>
-      <c r="AL68" s="65"/>
-      <c r="AM68" s="65"/>
-      <c r="AN68" s="65"/>
-      <c r="AO68" s="65"/>
-      <c r="AP68" s="65"/>
-      <c r="AQ68" s="65"/>
+        <v>767</v>
+      </c>
+      <c r="AH68" s="55"/>
+      <c r="AI68" s="55"/>
+      <c r="AJ68" s="55"/>
+      <c r="AK68" s="55"/>
+      <c r="AL68" s="55"/>
+      <c r="AM68" s="55"/>
+      <c r="AN68" s="55"/>
+      <c r="AO68" s="55"/>
+      <c r="AP68" s="55"/>
+      <c r="AQ68" s="55"/>
       <c r="AR68" s="55"/>
       <c r="AS68" s="55"/>
       <c r="AT68" s="55"/>
@@ -11958,42 +12025,42 @@
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="AY68" s="55"/>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H69" s="55">
         <v>781</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="J69" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L69" s="56">
         <v>7911</v>
@@ -12013,88 +12080,90 @@
       <c r="Q69" s="58">
         <v>32258</v>
       </c>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
+      <c r="R69" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="S69" s="55" t="s">
+        <v>776</v>
+      </c>
       <c r="T69" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U69" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V69" s="65" t="s">
-        <v>785</v>
-      </c>
-      <c r="W69" s="65" t="s">
-        <v>780</v>
+        <v>85</v>
+      </c>
+      <c r="V69" s="66" t="s">
+        <v>781</v>
+      </c>
+      <c r="W69" s="66" t="s">
+        <v>776</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z69" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA69" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB69" s="55" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AC69" s="55" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AD69" s="55"/>
       <c r="AE69" s="55" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>779</v>
-      </c>
-      <c r="AH69" s="65" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH69" s="55"/>
+      <c r="AI69" s="55"/>
+      <c r="AJ69" s="55" t="s">
+        <v>785</v>
+      </c>
+      <c r="AK69" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="AL69" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="AM69" s="55" t="s">
+        <v>788</v>
+      </c>
+      <c r="AN69" s="55" t="s">
         <v>789</v>
       </c>
-      <c r="AI69" s="65" t="s">
+      <c r="AO69" s="55" t="s">
         <v>790</v>
       </c>
-      <c r="AJ69" s="65" t="s">
+      <c r="AP69" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="AK69" s="65" t="s">
+      <c r="AQ69" s="55" t="s">
         <v>792</v>
       </c>
-      <c r="AL69" s="65" t="s">
+      <c r="AR69" s="55" t="s">
         <v>793</v>
-      </c>
-      <c r="AM69" s="65" t="s">
-        <v>794</v>
-      </c>
-      <c r="AN69" s="65" t="s">
-        <v>795</v>
-      </c>
-      <c r="AO69" s="65" t="s">
-        <v>796</v>
-      </c>
-      <c r="AP69" s="65" t="s">
-        <v>797</v>
-      </c>
-      <c r="AQ69" s="65" t="s">
-        <v>798</v>
-      </c>
-      <c r="AR69" s="55" t="s">
-        <v>799</v>
       </c>
       <c r="AS69" s="55">
         <v>2013</v>
       </c>
       <c r="AT69" s="55"/>
       <c r="AU69" s="55"/>
-      <c r="AV69" s="55"/>
+      <c r="AV69" s="55">
+        <v>1988</v>
+      </c>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="AY69" s="55">
         <v>2016</v>
@@ -12103,33 +12172,33 @@
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55">
         <v>860</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="J70" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K70" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L70" s="56">
         <v>7920</v>
@@ -12148,57 +12217,57 @@
       <c r="R70" s="55"/>
       <c r="S70" s="55"/>
       <c r="T70" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U70" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V70" s="65" t="s">
-        <v>865</v>
-      </c>
-      <c r="W70" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="V70" s="66" t="s">
+        <v>859</v>
+      </c>
+      <c r="W70" s="66" t="s">
+        <v>796</v>
+      </c>
+      <c r="X70" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y70" s="55" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z70" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA70" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB70" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="X70" s="55" t="s">
-        <v>806</v>
-      </c>
-      <c r="Y70" s="55" t="s">
-        <v>807</v>
-      </c>
-      <c r="Z70" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA70" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB70" s="55" t="s">
-        <v>808</v>
-      </c>
       <c r="AC70" s="55" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AD70" s="55">
         <v>8606852046</v>
       </c>
       <c r="AE70" s="55" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>801</v>
-      </c>
-      <c r="AH70" s="65"/>
-      <c r="AI70" s="65"/>
-      <c r="AJ70" s="65" t="s">
-        <v>811</v>
-      </c>
-      <c r="AK70" s="65"/>
-      <c r="AL70" s="65"/>
-      <c r="AM70" s="65"/>
-      <c r="AN70" s="65"/>
-      <c r="AO70" s="65"/>
-      <c r="AP70" s="65"/>
-      <c r="AQ70" s="65"/>
+        <v>795</v>
+      </c>
+      <c r="AH70" s="55"/>
+      <c r="AI70" s="55"/>
+      <c r="AJ70" s="55" t="s">
+        <v>805</v>
+      </c>
+      <c r="AK70" s="55"/>
+      <c r="AL70" s="55"/>
+      <c r="AM70" s="55"/>
+      <c r="AN70" s="55"/>
+      <c r="AO70" s="55"/>
+      <c r="AP70" s="55"/>
+      <c r="AQ70" s="55"/>
       <c r="AR70" s="55"/>
       <c r="AS70" s="55">
         <v>2016</v>
@@ -12208,40 +12277,40 @@
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D71" s="55"/>
       <c r="E71" s="55" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55">
         <v>877</v>
       </c>
       <c r="I71" s="55" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="J71" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K71" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L71" s="56">
         <v>8028</v>
@@ -12260,51 +12329,51 @@
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
       <c r="T71" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U71" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="V71" s="65" t="s">
-        <v>866</v>
-      </c>
-      <c r="W71" s="65" t="s">
-        <v>814</v>
+        <v>85</v>
+      </c>
+      <c r="V71" s="66" t="s">
+        <v>860</v>
+      </c>
+      <c r="W71" s="66" t="s">
+        <v>808</v>
       </c>
       <c r="X71" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Y71" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z71" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA71" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB71" s="55" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="AC71" s="55" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>813</v>
-      </c>
-      <c r="AH71" s="65"/>
-      <c r="AI71" s="65"/>
-      <c r="AJ71" s="65"/>
-      <c r="AK71" s="65"/>
-      <c r="AL71" s="65"/>
-      <c r="AM71" s="65"/>
-      <c r="AN71" s="65"/>
-      <c r="AO71" s="65"/>
-      <c r="AP71" s="65"/>
-      <c r="AQ71" s="65"/>
+        <v>807</v>
+      </c>
+      <c r="AH71" s="55"/>
+      <c r="AI71" s="55"/>
+      <c r="AJ71" s="55"/>
+      <c r="AK71" s="55"/>
+      <c r="AL71" s="55"/>
+      <c r="AM71" s="55"/>
+      <c r="AN71" s="55"/>
+      <c r="AO71" s="55"/>
+      <c r="AP71" s="55"/>
+      <c r="AQ71" s="55"/>
       <c r="AR71" s="55"/>
       <c r="AS71" s="55"/>
       <c r="AT71" s="55"/>
@@ -12312,14 +12381,14 @@
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
       <c r="AX71" s="56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -12332,10 +12401,10 @@
       </c>
       <c r="I72" s="55"/>
       <c r="J72" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K72" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L72" s="56"/>
       <c r="M72" s="56">
@@ -12353,12 +12422,12 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="65"/>
-      <c r="W72" s="65"/>
+      <c r="V72" s="66"/>
+      <c r="W72" s="66"/>
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA72" s="55"/>
       <c r="AB72" s="55"/>
@@ -12367,18 +12436,18 @@
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>820</v>
-      </c>
-      <c r="AH72" s="65"/>
-      <c r="AI72" s="65"/>
-      <c r="AJ72" s="65"/>
-      <c r="AK72" s="65"/>
-      <c r="AL72" s="65"/>
-      <c r="AM72" s="65"/>
-      <c r="AN72" s="65"/>
-      <c r="AO72" s="65"/>
-      <c r="AP72" s="65"/>
-      <c r="AQ72" s="65"/>
+        <v>814</v>
+      </c>
+      <c r="AH72" s="55"/>
+      <c r="AI72" s="55"/>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="55"/>
+      <c r="AL72" s="55"/>
+      <c r="AM72" s="55"/>
+      <c r="AN72" s="55"/>
+      <c r="AO72" s="55"/>
+      <c r="AP72" s="55"/>
+      <c r="AQ72" s="55"/>
       <c r="AR72" s="55"/>
       <c r="AS72" s="55"/>
       <c r="AT72" s="55"/>
@@ -12391,35 +12460,35 @@
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D73" s="55"/>
       <c r="E73" s="55" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="H73" s="55">
         <v>413</v>
       </c>
       <c r="I73" s="55" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J73" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K73" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L73" s="56">
         <v>8253</v>
@@ -12439,40 +12508,40 @@
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
-      <c r="V73" s="65" t="s">
-        <v>827</v>
-      </c>
-      <c r="W73" s="65" t="s">
-        <v>822</v>
+      <c r="V73" s="66" t="s">
+        <v>821</v>
+      </c>
+      <c r="W73" s="66" t="s">
+        <v>816</v>
       </c>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55"/>
       <c r="AA73" s="55"/>
       <c r="AB73" s="55" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="AC73" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="AD73" s="55" t="s">
         <v>822</v>
-      </c>
-      <c r="AD73" s="55" t="s">
-        <v>828</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="AH73" s="65"/>
-      <c r="AI73" s="65"/>
-      <c r="AJ73" s="65"/>
-      <c r="AK73" s="65"/>
-      <c r="AL73" s="65"/>
-      <c r="AM73" s="65"/>
-      <c r="AN73" s="65"/>
-      <c r="AO73" s="65"/>
-      <c r="AP73" s="65"/>
-      <c r="AQ73" s="65"/>
+        <v>815</v>
+      </c>
+      <c r="AH73" s="55"/>
+      <c r="AI73" s="55"/>
+      <c r="AJ73" s="55"/>
+      <c r="AK73" s="55"/>
+      <c r="AL73" s="55"/>
+      <c r="AM73" s="55"/>
+      <c r="AN73" s="55"/>
+      <c r="AO73" s="55"/>
+      <c r="AP73" s="55"/>
+      <c r="AQ73" s="55"/>
       <c r="AR73" s="55"/>
       <c r="AS73" s="55"/>
       <c r="AT73" s="55"/>
@@ -12487,7 +12556,7 @@
     </row>
     <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="54" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12500,10 +12569,10 @@
       </c>
       <c r="I74" s="55"/>
       <c r="J74" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K74" s="55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L74" s="56"/>
       <c r="M74" s="56">
@@ -12521,8 +12590,8 @@
       <c r="S74" s="55"/>
       <c r="T74" s="55"/>
       <c r="U74" s="55"/>
-      <c r="V74" s="65"/>
-      <c r="W74" s="65"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
       <c r="X74" s="55"/>
       <c r="Y74" s="55"/>
       <c r="Z74" s="55" t="s">
@@ -12535,18 +12604,18 @@
       <c r="AE74" s="55"/>
       <c r="AF74" s="55"/>
       <c r="AG74" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="AH74" s="65"/>
-      <c r="AI74" s="65"/>
-      <c r="AJ74" s="65"/>
-      <c r="AK74" s="65"/>
-      <c r="AL74" s="65"/>
-      <c r="AM74" s="65"/>
-      <c r="AN74" s="65"/>
-      <c r="AO74" s="65"/>
-      <c r="AP74" s="65"/>
-      <c r="AQ74" s="65"/>
+        <v>823</v>
+      </c>
+      <c r="AH74" s="55"/>
+      <c r="AI74" s="55"/>
+      <c r="AJ74" s="55"/>
+      <c r="AK74" s="55"/>
+      <c r="AL74" s="55"/>
+      <c r="AM74" s="55"/>
+      <c r="AN74" s="55"/>
+      <c r="AO74" s="55"/>
+      <c r="AP74" s="55"/>
+      <c r="AQ74" s="55"/>
       <c r="AR74" s="55"/>
       <c r="AS74" s="55"/>
       <c r="AT74" s="55"/>
@@ -12555,7 +12624,7 @@
       <c r="AW74" s="55"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="55" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="AZ74" s="57"/>
     </row>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93480279-F0E1-864C-A0D5-8DD1D35618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BFB1DA-8CAE-0647-A0D6-20D8679DBC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4562,10 +4562,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
+      <selection pane="bottomRight" activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4904,9 +4904,7 @@
       </c>
       <c r="AT2" s="23"/>
       <c r="AU2" s="23"/>
-      <c r="AV2" s="23">
-        <v>2022</v>
-      </c>
+      <c r="AV2" s="23"/>
       <c r="AW2" s="23"/>
       <c r="AX2" s="24" t="s">
         <v>97</v>
@@ -5026,9 +5024,7 @@
         <v>112</v>
       </c>
       <c r="AU3" s="23"/>
-      <c r="AV3" s="23">
-        <v>2021</v>
-      </c>
+      <c r="AV3" s="23"/>
       <c r="AW3" s="23" t="s">
         <v>113</v>
       </c>
@@ -5256,9 +5252,7 @@
       <c r="AS5" s="23"/>
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
-      <c r="AV5" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV5" s="23"/>
       <c r="AW5" s="23"/>
       <c r="AX5" s="24" t="s">
         <v>97</v>
@@ -5510,9 +5504,7 @@
       </c>
       <c r="AT7" s="23"/>
       <c r="AU7" s="23"/>
-      <c r="AV7" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV7" s="23"/>
       <c r="AW7" s="23"/>
       <c r="AX7" s="24" t="s">
         <v>174</v>
@@ -5646,9 +5638,7 @@
       </c>
       <c r="AT8" s="26"/>
       <c r="AU8" s="26"/>
-      <c r="AV8" s="26">
-        <v>2023</v>
-      </c>
+      <c r="AV8" s="26"/>
       <c r="AW8" s="26"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="26">
@@ -5764,9 +5754,7 @@
       <c r="AU9" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="AV9" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV9" s="23"/>
       <c r="AW9" s="23" t="s">
         <v>203</v>
       </c>
@@ -5896,9 +5884,7 @@
       <c r="AU10" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="AV10" s="23">
-        <v>2021</v>
-      </c>
+      <c r="AV10" s="23"/>
       <c r="AW10" s="23"/>
       <c r="AX10" s="24"/>
       <c r="AY10" s="23">
@@ -6140,9 +6126,7 @@
       <c r="AU12" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="AV12" s="23">
-        <v>2010</v>
-      </c>
+      <c r="AV12" s="23"/>
       <c r="AW12" s="23"/>
       <c r="AX12" s="24" t="s">
         <v>256</v>
@@ -6264,9 +6248,7 @@
       <c r="AS13" s="23"/>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
-      <c r="AV13" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV13" s="23"/>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24" t="s">
         <v>97</v>
@@ -6398,9 +6380,7 @@
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
-      <c r="AV14" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV14" s="23"/>
       <c r="AW14" s="23"/>
       <c r="AX14" s="24" t="s">
         <v>288</v>
@@ -6540,9 +6520,7 @@
         <v>2017</v>
       </c>
       <c r="AU15" s="23"/>
-      <c r="AV15" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV15" s="23"/>
       <c r="AW15" s="23" t="s">
         <v>314</v>
       </c>
@@ -6662,9 +6640,7 @@
         <v>325</v>
       </c>
       <c r="AU16" s="23"/>
-      <c r="AV16" s="23">
-        <v>1977</v>
-      </c>
+      <c r="AV16" s="23"/>
       <c r="AW16" s="23"/>
       <c r="AX16" s="24"/>
       <c r="AY16" s="23" t="s">
@@ -6796,9 +6772,7 @@
       <c r="AS17" s="23"/>
       <c r="AT17" s="23"/>
       <c r="AU17" s="23"/>
-      <c r="AV17" s="23">
-        <v>2018</v>
-      </c>
+      <c r="AV17" s="23"/>
       <c r="AW17" s="23"/>
       <c r="AX17" s="24"/>
       <c r="AY17" s="23">
@@ -6916,9 +6890,7 @@
       <c r="AS18" s="23"/>
       <c r="AT18" s="23"/>
       <c r="AU18" s="23"/>
-      <c r="AV18" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV18" s="23"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="24" t="s">
         <v>357</v>
@@ -7052,9 +7024,7 @@
       <c r="AS19" s="23"/>
       <c r="AT19" s="23"/>
       <c r="AU19" s="23"/>
-      <c r="AV19" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
       <c r="AX19" s="24" t="s">
         <v>378</v>
@@ -7184,9 +7154,7 @@
         <v>2014</v>
       </c>
       <c r="AU20" s="23"/>
-      <c r="AV20" s="23">
-        <v>2023</v>
-      </c>
+      <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="24" t="s">
         <v>97</v>
@@ -7308,9 +7276,7 @@
       <c r="AS21" s="24"/>
       <c r="AT21" s="24"/>
       <c r="AU21" s="24"/>
-      <c r="AV21" s="24">
-        <v>2023</v>
-      </c>
+      <c r="AV21" s="24"/>
       <c r="AW21" s="24" t="s">
         <v>113</v>
       </c>
@@ -7540,9 +7506,7 @@
       <c r="AS23" s="50"/>
       <c r="AT23" s="50"/>
       <c r="AU23" s="50"/>
-      <c r="AV23" s="50">
-        <v>1987</v>
-      </c>
+      <c r="AV23" s="50"/>
       <c r="AW23" s="50"/>
       <c r="AX23" s="45" t="s">
         <v>446</v>
@@ -7786,9 +7750,7 @@
       </c>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
-      <c r="AV25" s="50">
-        <v>2018</v>
-      </c>
+      <c r="AV25" s="50"/>
       <c r="AW25" s="50"/>
       <c r="AX25" s="45"/>
       <c r="AY25" s="50" t="s">
@@ -7906,9 +7868,7 @@
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
-      <c r="AV26" s="50">
-        <v>2023</v>
-      </c>
+      <c r="AV26" s="50"/>
       <c r="AW26" s="50"/>
       <c r="AX26" s="45" t="s">
         <v>97</v>
@@ -8028,9 +7988,7 @@
       <c r="AS27" s="45"/>
       <c r="AT27" s="45"/>
       <c r="AU27" s="45"/>
-      <c r="AV27" s="45">
-        <v>2023</v>
-      </c>
+      <c r="AV27" s="45"/>
       <c r="AW27" s="45"/>
       <c r="AX27" s="45" t="s">
         <v>97</v>
@@ -8254,9 +8212,7 @@
       <c r="AS29" s="51"/>
       <c r="AT29" s="51"/>
       <c r="AU29" s="51"/>
-      <c r="AV29" s="51">
-        <v>2021</v>
-      </c>
+      <c r="AV29" s="51"/>
       <c r="AW29" s="51"/>
       <c r="AX29" s="48" t="s">
         <v>97</v>
@@ -9050,9 +9006,7 @@
       <c r="AS38" s="55"/>
       <c r="AT38" s="55"/>
       <c r="AU38" s="55"/>
-      <c r="AV38" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV38" s="55"/>
       <c r="AW38" s="55"/>
       <c r="AX38" s="56" t="s">
         <v>576</v>
@@ -9170,9 +9124,7 @@
       <c r="AS39" s="55"/>
       <c r="AT39" s="55"/>
       <c r="AU39" s="55"/>
-      <c r="AV39" s="55">
-        <v>1994</v>
-      </c>
+      <c r="AV39" s="55"/>
       <c r="AW39" s="55"/>
       <c r="AX39" s="56"/>
       <c r="AY39" s="55"/>
@@ -9276,9 +9228,7 @@
       <c r="AS40" s="55"/>
       <c r="AT40" s="55"/>
       <c r="AU40" s="55"/>
-      <c r="AV40" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV40" s="55"/>
       <c r="AW40" s="55"/>
       <c r="AX40" s="56" t="s">
         <v>97</v>
@@ -9398,9 +9348,7 @@
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
       <c r="AU41" s="55"/>
-      <c r="AV41" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV41" s="55"/>
       <c r="AW41" s="55"/>
       <c r="AX41" s="56"/>
       <c r="AY41" s="55"/>
@@ -9514,9 +9462,7 @@
       <c r="AS42" s="55"/>
       <c r="AT42" s="55"/>
       <c r="AU42" s="55"/>
-      <c r="AV42" s="55">
-        <v>2023</v>
-      </c>
+      <c r="AV42" s="55"/>
       <c r="AW42" s="55"/>
       <c r="AX42" s="56" t="s">
         <v>446</v>
@@ -9958,9 +9904,7 @@
       <c r="AS47" s="55"/>
       <c r="AT47" s="55"/>
       <c r="AU47" s="55"/>
-      <c r="AV47" s="55">
-        <v>2017</v>
-      </c>
+      <c r="AV47" s="55"/>
       <c r="AW47" s="55"/>
       <c r="AX47" s="56" t="s">
         <v>634</v>
@@ -10158,9 +10102,7 @@
       <c r="AS49" s="55"/>
       <c r="AT49" s="55"/>
       <c r="AU49" s="55"/>
-      <c r="AV49" s="55">
-        <v>1998</v>
-      </c>
+      <c r="AV49" s="55"/>
       <c r="AW49" s="55"/>
       <c r="AX49" s="56" t="s">
         <v>650</v>
@@ -10538,9 +10480,7 @@
         <v>545</v>
       </c>
       <c r="AU53" s="55"/>
-      <c r="AV53" s="55">
-        <v>2007</v>
-      </c>
+      <c r="AV53" s="55"/>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
         <v>97</v>
@@ -11300,9 +11240,7 @@
       <c r="AS61" s="55"/>
       <c r="AT61" s="55"/>
       <c r="AU61" s="55"/>
-      <c r="AV61" s="55">
-        <v>1986</v>
-      </c>
+      <c r="AV61" s="55"/>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
         <v>97</v>
@@ -11596,9 +11534,7 @@
         <v>2013</v>
       </c>
       <c r="AU64" s="55"/>
-      <c r="AV64" s="55">
-        <v>1998</v>
-      </c>
+      <c r="AV64" s="55"/>
       <c r="AW64" s="55"/>
       <c r="AX64" s="56"/>
       <c r="AY64" s="55"/>
@@ -11820,9 +11756,7 @@
       <c r="AS66" s="55"/>
       <c r="AT66" s="55"/>
       <c r="AU66" s="55"/>
-      <c r="AV66" s="55">
-        <v>2012</v>
-      </c>
+      <c r="AV66" s="55"/>
       <c r="AW66" s="55"/>
       <c r="AX66" s="56" t="s">
         <v>97</v>
@@ -12158,9 +12092,7 @@
       </c>
       <c r="AT69" s="55"/>
       <c r="AU69" s="55"/>
-      <c r="AV69" s="55">
-        <v>1988</v>
-      </c>
+      <c r="AV69" s="55"/>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
         <v>794</v>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BFB1DA-8CAE-0647-A0D6-20D8679DBC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13795DA8-0833-4543-8172-424BA1664941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="865">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -1945,21 +1945,6 @@
   </si>
   <si>
     <t>2015; 2016; 2018; 2019; 2021</t>
-  </si>
-  <si>
-    <t>Harvard University - Division of Engineering and Applied Physics</t>
-  </si>
-  <si>
-    <t>29 Oxford Street</t>
-  </si>
-  <si>
-    <t>02138-2902</t>
-  </si>
-  <si>
-    <t>Eric Mazur</t>
-  </si>
-  <si>
-    <t>mazur@seas.harvard.edu</t>
   </si>
   <si>
     <t>2016; 2017; 2018; 2019</t>
@@ -3098,7 +3083,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AZ1048576" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AZ1048575" headerRowCount="0">
   <tableColumns count="52">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4559,13 +4544,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AZ1000"/>
+  <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV10" sqref="AV10"/>
+      <selection pane="bottomRight" activeCell="AF52" sqref="AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4841,7 +4826,7 @@
         <v>85</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="W2" s="62" t="s">
         <v>77</v>
@@ -5093,10 +5078,10 @@
         <v>85</v>
       </c>
       <c r="V4" s="63" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="W4" s="63" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>85</v>
@@ -5207,7 +5192,7 @@
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
       <c r="V5" s="62" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="W5" s="62" t="s">
         <v>130</v>
@@ -5317,7 +5302,7 @@
         <v>85</v>
       </c>
       <c r="V6" s="62" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="W6" s="62" t="s">
         <v>142</v>
@@ -5441,10 +5426,10 @@
         <v>162</v>
       </c>
       <c r="V7" s="62" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="W7" s="62" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="X7" s="23" t="s">
         <v>161</v>
@@ -5577,10 +5562,10 @@
         <v>85</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="X8" s="26" t="s">
         <v>85</v>
@@ -5708,7 +5693,7 @@
         <v>197</v>
       </c>
       <c r="W9" s="26" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
@@ -5825,7 +5810,7 @@
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="26" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="W10" s="26" t="s">
         <v>214</v>
@@ -5941,7 +5926,7 @@
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
       <c r="V11" s="62" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="W11" s="62" t="s">
         <v>227</v>
@@ -6453,10 +6438,10 @@
         <v>299</v>
       </c>
       <c r="V15" s="63" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="W15" s="63" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="X15" s="23" t="s">
         <v>300</v>
@@ -6593,7 +6578,7 @@
         <v>85</v>
       </c>
       <c r="V16" s="63" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="W16" s="63" t="s">
         <v>317</v>
@@ -6843,7 +6828,7 @@
         <v>85</v>
       </c>
       <c r="V18" s="62" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="W18" s="62" t="s">
         <v>347</v>
@@ -7093,10 +7078,10 @@
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="26" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="W20" s="26" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7221,10 +7206,10 @@
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
       <c r="V21" s="63" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="W21" s="63" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
@@ -7335,7 +7320,7 @@
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
       <c r="V22" s="64" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="W22" s="64" t="s">
         <v>419</v>
@@ -7445,7 +7430,7 @@
         <v>85</v>
       </c>
       <c r="V23" s="65" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="W23" s="65" t="s">
         <v>428</v>
@@ -7567,10 +7552,10 @@
         <v>85</v>
       </c>
       <c r="V24" s="65" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="W24" s="65" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
@@ -7693,7 +7678,7 @@
         <v>85</v>
       </c>
       <c r="V25" s="65" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="W25" s="65" t="s">
         <v>470</v>
@@ -7821,7 +7806,7 @@
         <v>85</v>
       </c>
       <c r="V26" s="65" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="W26" s="65" t="s">
         <v>487</v>
@@ -7939,7 +7924,7 @@
         <v>85</v>
       </c>
       <c r="V27" s="64" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="W27" s="64" t="s">
         <v>493</v>
@@ -8051,7 +8036,7 @@
         <v>85</v>
       </c>
       <c r="V28" s="51" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="W28" s="51" t="s">
         <v>506</v>
@@ -8419,7 +8404,7 @@
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
       <c r="V32" s="66" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="W32" s="66" t="s">
         <v>535</v>
@@ -8665,7 +8650,7 @@
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
       <c r="V35" s="66" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="W35" s="66" t="s">
         <v>547</v>
@@ -8773,10 +8758,10 @@
         <v>85</v>
       </c>
       <c r="V36" s="66" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="W36" s="66" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="X36" s="55" t="s">
         <v>85</v>
@@ -9077,7 +9062,7 @@
         <v>85</v>
       </c>
       <c r="V39" s="66" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="W39" s="66" t="s">
         <v>578</v>
@@ -9417,7 +9402,7 @@
         <v>85</v>
       </c>
       <c r="V42" s="66" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="W42" s="66" t="s">
         <v>604</v>
@@ -9525,7 +9510,7 @@
         <v>85</v>
       </c>
       <c r="V43" s="66" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="W43" s="66" t="s">
         <v>613</v>
@@ -9916,25 +9901,29 @@
     </row>
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>636</v>
-      </c>
-      <c r="B48" s="55"/>
+        <v>637</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>638</v>
+      </c>
       <c r="C48" s="55" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="55" t="s">
-        <v>144</v>
+        <v>640</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="55"/>
+        <v>120</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>641</v>
+      </c>
       <c r="H48" s="55">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J48" s="55" t="s">
         <v>83</v>
@@ -9942,41 +9931,61 @@
       <c r="K48" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="56"/>
+      <c r="L48" s="56">
+        <v>3490</v>
+      </c>
       <c r="M48" s="56">
-        <v>36581668</v>
+        <v>25539814</v>
       </c>
       <c r="N48" s="56">
         <v>1</v>
       </c>
       <c r="O48" s="56">
-        <v>2740</v>
-      </c>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
+        <v>3490</v>
+      </c>
+      <c r="P48" s="56">
+        <v>430</v>
+      </c>
+      <c r="Q48" s="58">
+        <v>33700</v>
+      </c>
       <c r="R48" s="55"/>
       <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="66"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55" t="s">
+      <c r="T48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V48" s="66" t="s">
+        <v>846</v>
+      </c>
+      <c r="W48" s="66" t="s">
+        <v>638</v>
+      </c>
+      <c r="X48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AA48" s="55"/>
       <c r="AB48" s="55" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AC48" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="AD48" s="55"/>
+        <v>638</v>
+      </c>
+      <c r="AD48" s="55" t="s">
+        <v>644</v>
+      </c>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
       <c r="AG48" s="55" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -9994,37 +10003,33 @@
       <c r="AU48" s="55"/>
       <c r="AV48" s="55"/>
       <c r="AW48" s="55"/>
-      <c r="AX48" s="56"/>
+      <c r="AX48" s="56" t="s">
+        <v>645</v>
+      </c>
       <c r="AY48" s="55" t="s">
-        <v>641</v>
+        <v>504</v>
       </c>
       <c r="AZ48" s="57"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54" t="s">
-        <v>642</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>643</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>644</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>646</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G49" s="55"/>
       <c r="H49" s="55">
-        <v>603</v>
+        <v>802</v>
       </c>
       <c r="I49" s="55" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J49" s="55" t="s">
         <v>83</v>
@@ -10032,61 +10037,41 @@
       <c r="K49" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L49" s="56">
-        <v>3490</v>
-      </c>
+      <c r="L49" s="56"/>
       <c r="M49" s="56">
-        <v>25539814</v>
+        <v>36581707</v>
       </c>
       <c r="N49" s="56">
         <v>1</v>
       </c>
       <c r="O49" s="56">
-        <v>3490</v>
-      </c>
-      <c r="P49" s="56">
-        <v>430</v>
-      </c>
-      <c r="Q49" s="58">
-        <v>33700</v>
-      </c>
+        <v>4107</v>
+      </c>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
       <c r="R49" s="55"/>
       <c r="S49" s="55"/>
-      <c r="T49" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U49" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V49" s="66" t="s">
-        <v>851</v>
-      </c>
-      <c r="W49" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="X49" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y49" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z49" s="55"/>
-      <c r="AA49" s="55" t="s">
-        <v>19</v>
-      </c>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA49" s="55"/>
       <c r="AB49" s="55" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AC49" s="55" t="s">
-        <v>643</v>
-      </c>
-      <c r="AD49" s="55" t="s">
-        <v>649</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="AD49" s="55"/>
       <c r="AE49" s="55"/>
       <c r="AF49" s="55"/>
       <c r="AG49" s="55" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="AH49" s="55"/>
       <c r="AI49" s="55"/>
@@ -10104,12 +10089,8 @@
       <c r="AU49" s="55"/>
       <c r="AV49" s="55"/>
       <c r="AW49" s="55"/>
-      <c r="AX49" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="AY49" s="55" t="s">
-        <v>504</v>
-      </c>
+      <c r="AX49" s="56"/>
+      <c r="AY49" s="55"/>
       <c r="AZ49" s="57"/>
     </row>
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10117,20 +10098,22 @@
         <v>651</v>
       </c>
       <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+      <c r="C50" s="55" t="s">
+        <v>652</v>
+      </c>
       <c r="D50" s="55"/>
       <c r="E50" s="55" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F50" s="55" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55">
-        <v>802</v>
+        <v>978</v>
       </c>
       <c r="I50" s="55" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J50" s="55" t="s">
         <v>83</v>
@@ -10140,13 +10123,13 @@
       </c>
       <c r="L50" s="56"/>
       <c r="M50" s="56">
-        <v>36581707</v>
+        <v>36581712</v>
       </c>
       <c r="N50" s="56">
         <v>1</v>
       </c>
       <c r="O50" s="56">
-        <v>4107</v>
+        <v>4219</v>
       </c>
       <c r="P50" s="56"/>
       <c r="Q50" s="56"/>
@@ -10159,14 +10142,14 @@
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AA50" s="55"/>
       <c r="AB50" s="55" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AC50" s="55" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AD50" s="55"/>
       <c r="AE50" s="55"/>
@@ -10190,31 +10173,37 @@
       <c r="AU50" s="55"/>
       <c r="AV50" s="55"/>
       <c r="AW50" s="55"/>
-      <c r="AX50" s="56"/>
-      <c r="AY50" s="55"/>
+      <c r="AX50" s="56" t="s">
+        <v>657</v>
+      </c>
+      <c r="AY50" s="55" t="s">
+        <v>658</v>
+      </c>
       <c r="AZ50" s="57"/>
     </row>
     <row r="51" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>656</v>
-      </c>
-      <c r="B51" s="55"/>
+        <v>659</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>660</v>
+      </c>
       <c r="C51" s="55" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F51" s="55" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55">
-        <v>978</v>
-      </c>
-      <c r="I51" s="55" t="s">
-        <v>659</v>
+        <v>802</v>
+      </c>
+      <c r="I51" s="55">
+        <v>5753</v>
       </c>
       <c r="J51" s="55" t="s">
         <v>83</v>
@@ -10224,13 +10213,13 @@
       </c>
       <c r="L51" s="56"/>
       <c r="M51" s="56">
-        <v>36581712</v>
+        <v>36581713</v>
       </c>
       <c r="N51" s="56">
         <v>1</v>
       </c>
       <c r="O51" s="56">
-        <v>4219</v>
+        <v>4283</v>
       </c>
       <c r="P51" s="56"/>
       <c r="Q51" s="56"/>
@@ -10243,20 +10232,20 @@
       <c r="X51" s="55"/>
       <c r="Y51" s="55"/>
       <c r="Z51" s="55" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="AA51" s="55"/>
       <c r="AB51" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC51" s="55" t="s">
         <v>660</v>
-      </c>
-      <c r="AC51" s="55" t="s">
-        <v>661</v>
       </c>
       <c r="AD51" s="55"/>
       <c r="AE51" s="55"/>
       <c r="AF51" s="55"/>
       <c r="AG51" s="55" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AH51" s="55"/>
       <c r="AI51" s="55"/>
@@ -10274,12 +10263,8 @@
       <c r="AU51" s="55"/>
       <c r="AV51" s="55"/>
       <c r="AW51" s="55"/>
-      <c r="AX51" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="AY51" s="55" t="s">
-        <v>663</v>
-      </c>
+      <c r="AX51" s="56"/>
+      <c r="AY51" s="55"/>
       <c r="AZ51" s="57"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10294,17 +10279,19 @@
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="55" t="s">
         <v>667</v>
       </c>
-      <c r="F52" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="G52" s="55"/>
       <c r="H52" s="55">
-        <v>802</v>
-      </c>
-      <c r="I52" s="55">
-        <v>5753</v>
+        <v>617</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>668</v>
       </c>
       <c r="J52" s="55" t="s">
         <v>83</v>
@@ -10312,38 +10299,64 @@
       <c r="K52" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L52" s="56"/>
+      <c r="L52" s="56">
+        <v>4935</v>
+      </c>
       <c r="M52" s="56">
-        <v>36581713</v>
+        <v>25539869</v>
       </c>
       <c r="N52" s="56">
         <v>1</v>
       </c>
       <c r="O52" s="56">
-        <v>4283</v>
-      </c>
-      <c r="P52" s="56"/>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="55"/>
-      <c r="Y52" s="55"/>
+        <v>4935</v>
+      </c>
+      <c r="P52" s="56">
+        <v>412</v>
+      </c>
+      <c r="Q52" s="58">
+        <v>31565</v>
+      </c>
+      <c r="R52" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="S52" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="T52" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="U52" s="55" t="s">
+        <v>670</v>
+      </c>
+      <c r="V52" s="66" t="s">
+        <v>669</v>
+      </c>
+      <c r="W52" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="X52" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y52" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z52" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA52" s="55"/>
+        <v>19</v>
+      </c>
+      <c r="AA52" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="AB52" s="55" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AC52" s="55" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
+      <c r="AE52" s="55" t="s">
+        <v>673</v>
+      </c>
       <c r="AF52" s="55"/>
       <c r="AG52" s="55" t="s">
         <v>664</v>
@@ -10358,41 +10371,47 @@
       <c r="AO52" s="55"/>
       <c r="AP52" s="55"/>
       <c r="AQ52" s="55"/>
-      <c r="AR52" s="55"/>
+      <c r="AR52" s="59">
+        <v>85.404166666666669</v>
+      </c>
       <c r="AS52" s="55"/>
-      <c r="AT52" s="55"/>
+      <c r="AT52" s="55" t="s">
+        <v>545</v>
+      </c>
       <c r="AU52" s="55"/>
       <c r="AV52" s="55"/>
       <c r="AW52" s="55"/>
-      <c r="AX52" s="56"/>
+      <c r="AX52" s="56" t="s">
+        <v>97</v>
+      </c>
       <c r="AY52" s="55"/>
       <c r="AZ52" s="57"/>
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55" t="s">
-        <v>244</v>
+        <v>677</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="H53" s="55">
-        <v>617</v>
+        <v>802</v>
       </c>
       <c r="I53" s="55" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="J53" s="55" t="s">
         <v>83</v>
@@ -10400,71 +10419,51 @@
       <c r="K53" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L53" s="56">
-        <v>4935</v>
-      </c>
+      <c r="L53" s="56"/>
       <c r="M53" s="56">
-        <v>25539869</v>
+        <v>36581740</v>
       </c>
       <c r="N53" s="56">
         <v>1</v>
       </c>
       <c r="O53" s="56">
-        <v>4935</v>
-      </c>
-      <c r="P53" s="56">
-        <v>412</v>
-      </c>
-      <c r="Q53" s="58">
-        <v>31565</v>
-      </c>
-      <c r="R53" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="S53" s="55" t="s">
-        <v>670</v>
-      </c>
-      <c r="T53" s="55" t="s">
-        <v>674</v>
-      </c>
-      <c r="U53" s="55" t="s">
+        <v>5008</v>
+      </c>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="66" t="s">
+        <v>847</v>
+      </c>
+      <c r="W53" s="66" t="s">
         <v>675</v>
       </c>
-      <c r="V53" s="66" t="s">
-        <v>674</v>
-      </c>
-      <c r="W53" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="X53" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y53" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="X53" s="55"/>
+      <c r="Y53" s="55"/>
       <c r="Z53" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA53" s="55" t="s">
-        <v>19</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA53" s="55"/>
       <c r="AB53" s="55" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="AC53" s="55" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="AD53" s="55"/>
-      <c r="AE53" s="55" t="s">
-        <v>678</v>
-      </c>
+      <c r="AE53" s="55"/>
       <c r="AF53" s="55"/>
       <c r="AG53" s="55" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AH53" s="55"/>
       <c r="AI53" s="55"/>
-      <c r="AJ53" s="55"/>
+      <c r="AJ53" s="55" t="s">
+        <v>682</v>
+      </c>
       <c r="AK53" s="55"/>
       <c r="AL53" s="55"/>
       <c r="AM53" s="55"/>
@@ -10472,48 +10471,32 @@
       <c r="AO53" s="55"/>
       <c r="AP53" s="55"/>
       <c r="AQ53" s="55"/>
-      <c r="AR53" s="59">
-        <v>85.404166666666669</v>
-      </c>
+      <c r="AR53" s="55"/>
       <c r="AS53" s="55"/>
-      <c r="AT53" s="55" t="s">
-        <v>545</v>
-      </c>
+      <c r="AT53" s="55"/>
       <c r="AU53" s="55"/>
       <c r="AV53" s="55"/>
       <c r="AW53" s="55"/>
       <c r="AX53" s="56" t="s">
-        <v>97</v>
+        <v>416</v>
       </c>
       <c r="AY53" s="55"/>
       <c r="AZ53" s="57"/>
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
-        <v>679</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>680</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>681</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="55" t="s">
-        <v>682</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>683</v>
-      </c>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="55">
-        <v>802</v>
-      </c>
-      <c r="I54" s="55" t="s">
-        <v>684</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="I54" s="55"/>
       <c r="J54" s="55" t="s">
         <v>83</v>
       </c>
@@ -10522,13 +10505,13 @@
       </c>
       <c r="L54" s="56"/>
       <c r="M54" s="56">
-        <v>36581740</v>
+        <v>36581764</v>
       </c>
       <c r="N54" s="56">
         <v>1</v>
       </c>
       <c r="O54" s="56">
-        <v>5008</v>
+        <v>5930</v>
       </c>
       <c r="P54" s="56"/>
       <c r="Q54" s="56"/>
@@ -10536,35 +10519,25 @@
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
-      <c r="V54" s="66" t="s">
-        <v>852</v>
-      </c>
-      <c r="W54" s="66" t="s">
-        <v>680</v>
-      </c>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
         <v>124</v>
       </c>
       <c r="AA54" s="55"/>
-      <c r="AB54" s="55" t="s">
-        <v>685</v>
-      </c>
-      <c r="AC54" s="55" t="s">
-        <v>686</v>
-      </c>
+      <c r="AB54" s="55"/>
+      <c r="AC54" s="55"/>
       <c r="AD54" s="55"/>
       <c r="AE54" s="55"/>
       <c r="AF54" s="55"/>
       <c r="AG54" s="55" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="AH54" s="55"/>
       <c r="AI54" s="55"/>
-      <c r="AJ54" s="55" t="s">
-        <v>687</v>
-      </c>
+      <c r="AJ54" s="55"/>
       <c r="AK54" s="55"/>
       <c r="AL54" s="55"/>
       <c r="AM54" s="55"/>
@@ -10578,63 +10551,93 @@
       <c r="AU54" s="55"/>
       <c r="AV54" s="55"/>
       <c r="AW54" s="55"/>
-      <c r="AX54" s="56" t="s">
-        <v>416</v>
-      </c>
+      <c r="AX54" s="56"/>
       <c r="AY54" s="55"/>
       <c r="AZ54" s="57"/>
     </row>
     <row r="55" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
-        <v>688</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
+        <v>684</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>685</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>686</v>
+      </c>
       <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
+      <c r="E55" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="G55" s="55"/>
       <c r="H55" s="55">
-        <v>518</v>
-      </c>
-      <c r="I55" s="55"/>
+        <v>617</v>
+      </c>
+      <c r="I55" s="55" t="s">
+        <v>687</v>
+      </c>
       <c r="J55" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K55" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L55" s="56"/>
+      <c r="L55" s="56">
+        <v>6442</v>
+      </c>
       <c r="M55" s="56">
-        <v>36581764</v>
+        <v>26089251</v>
       </c>
       <c r="N55" s="56">
         <v>1</v>
       </c>
       <c r="O55" s="56">
-        <v>5930</v>
+        <v>6442</v>
       </c>
       <c r="P55" s="56"/>
       <c r="Q55" s="56"/>
       <c r="R55" s="55"/>
       <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="66"/>
-      <c r="W55" s="66"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
+      <c r="T55" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U55" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V55" s="66" t="s">
+        <v>848</v>
+      </c>
+      <c r="W55" s="66" t="s">
+        <v>685</v>
+      </c>
+      <c r="X55" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y55" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z55" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
+        <v>19</v>
+      </c>
+      <c r="AA55" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB55" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC55" s="55" t="s">
+        <v>689</v>
+      </c>
       <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
+      <c r="AE55" s="55" t="s">
+        <v>690</v>
+      </c>
       <c r="AF55" s="55"/>
       <c r="AG55" s="55" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AH55" s="55"/>
       <c r="AI55" s="55"/>
@@ -10653,92 +10656,62 @@
       <c r="AV55" s="55"/>
       <c r="AW55" s="55"/>
       <c r="AX55" s="56"/>
-      <c r="AY55" s="55"/>
+      <c r="AY55" s="55" t="s">
+        <v>691</v>
+      </c>
       <c r="AZ55" s="57"/>
     </row>
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>690</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>691</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>80</v>
-      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="55"/>
       <c r="H56" s="55">
-        <v>617</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>692</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="I56" s="55"/>
       <c r="J56" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K56" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L56" s="56">
-        <v>6442</v>
-      </c>
+      <c r="L56" s="56"/>
       <c r="M56" s="56">
-        <v>26089251</v>
+        <v>36581786</v>
       </c>
       <c r="N56" s="56">
         <v>1</v>
       </c>
       <c r="O56" s="56">
-        <v>6442</v>
+        <v>6562</v>
       </c>
       <c r="P56" s="56"/>
       <c r="Q56" s="56"/>
       <c r="R56" s="55"/>
       <c r="S56" s="55"/>
-      <c r="T56" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U56" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V56" s="66" t="s">
-        <v>853</v>
-      </c>
-      <c r="W56" s="66" t="s">
-        <v>690</v>
-      </c>
-      <c r="X56" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y56" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="66"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
       <c r="Z56" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA56" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB56" s="55" t="s">
-        <v>693</v>
-      </c>
-      <c r="AC56" s="55" t="s">
-        <v>694</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
       <c r="AD56" s="55"/>
-      <c r="AE56" s="55" t="s">
-        <v>695</v>
-      </c>
+      <c r="AE56" s="55"/>
       <c r="AF56" s="55"/>
       <c r="AG56" s="55" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AH56" s="55"/>
       <c r="AI56" s="55"/>
@@ -10758,61 +10731,95 @@
       <c r="AW56" s="55"/>
       <c r="AX56" s="56"/>
       <c r="AY56" s="55" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AZ56" s="57"/>
     </row>
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
+        <v>694</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>696</v>
+      </c>
       <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
+      <c r="E57" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>133</v>
+      </c>
       <c r="G57" s="55"/>
       <c r="H57" s="55">
-        <v>508</v>
-      </c>
-      <c r="I57" s="55"/>
+        <v>203</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>697</v>
+      </c>
       <c r="J57" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K57" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L57" s="56"/>
+      <c r="L57" s="56">
+        <v>6586</v>
+      </c>
       <c r="M57" s="56">
-        <v>36581786</v>
+        <v>26089256</v>
       </c>
       <c r="N57" s="56">
         <v>1</v>
       </c>
       <c r="O57" s="56">
-        <v>6562</v>
+        <v>6586</v>
       </c>
       <c r="P57" s="56"/>
       <c r="Q57" s="56"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="66"/>
-      <c r="W57" s="66"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
+      <c r="R57" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="S57" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="T57" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U57" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V57" s="66" t="s">
+        <v>698</v>
+      </c>
+      <c r="W57" s="66" t="s">
+        <v>695</v>
+      </c>
+      <c r="X57" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y57" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z57" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
+      <c r="AA57" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB57" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC57" s="55" t="s">
+        <v>695</v>
+      </c>
       <c r="AD57" s="55"/>
       <c r="AE57" s="55"/>
       <c r="AF57" s="55"/>
       <c r="AG57" s="55" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AH57" s="55"/>
       <c r="AI57" s="55"/>
@@ -10824,41 +10831,45 @@
       <c r="AO57" s="55"/>
       <c r="AP57" s="55"/>
       <c r="AQ57" s="55"/>
-      <c r="AR57" s="55"/>
+      <c r="AR57" s="55" t="s">
+        <v>699</v>
+      </c>
       <c r="AS57" s="55"/>
       <c r="AT57" s="55"/>
       <c r="AU57" s="55"/>
       <c r="AV57" s="55"/>
       <c r="AW57" s="55"/>
-      <c r="AX57" s="56"/>
-      <c r="AY57" s="55" t="s">
-        <v>698</v>
-      </c>
+      <c r="AX57" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY57" s="55"/>
       <c r="AZ57" s="57"/>
     </row>
     <row r="58" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D58" s="55"/>
       <c r="E58" s="55" t="s">
-        <v>403</v>
+        <v>703</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="55"/>
+        <v>704</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>705</v>
+      </c>
       <c r="H58" s="55">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="I58" s="55" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="J58" s="55" t="s">
         <v>83</v>
@@ -10867,43 +10878,37 @@
         <v>83</v>
       </c>
       <c r="L58" s="56">
-        <v>6586</v>
+        <v>0</v>
       </c>
       <c r="M58" s="56">
-        <v>26089256</v>
+        <v>26173198</v>
       </c>
       <c r="N58" s="56">
         <v>1</v>
       </c>
       <c r="O58" s="56">
-        <v>6586</v>
-      </c>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="58">
+        <v>41760</v>
+      </c>
       <c r="R58" s="55" t="s">
-        <v>703</v>
-      </c>
-      <c r="S58" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="T58" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U58" s="55" t="s">
-        <v>85</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="S58" s="55"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="55"/>
       <c r="V58" s="66" t="s">
-        <v>703</v>
+        <v>849</v>
       </c>
       <c r="W58" s="66" t="s">
-        <v>700</v>
-      </c>
-      <c r="X58" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y58" s="55" t="s">
-        <v>85</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
       <c r="Z58" s="55" t="s">
         <v>124</v>
       </c>
@@ -10911,16 +10916,18 @@
         <v>124</v>
       </c>
       <c r="AB58" s="55" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AC58" s="55" t="s">
-        <v>700</v>
-      </c>
-      <c r="AD58" s="55"/>
+        <v>709</v>
+      </c>
+      <c r="AD58" s="55" t="s">
+        <v>709</v>
+      </c>
       <c r="AE58" s="55"/>
       <c r="AF58" s="55"/>
       <c r="AG58" s="55" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH58" s="55"/>
       <c r="AI58" s="55"/>
@@ -10932,45 +10939,39 @@
       <c r="AO58" s="55"/>
       <c r="AP58" s="55"/>
       <c r="AQ58" s="55"/>
-      <c r="AR58" s="55" t="s">
-        <v>704</v>
-      </c>
+      <c r="AR58" s="55"/>
       <c r="AS58" s="55"/>
       <c r="AT58" s="55"/>
       <c r="AU58" s="55"/>
       <c r="AV58" s="55"/>
       <c r="AW58" s="55"/>
-      <c r="AX58" s="56" t="s">
-        <v>416</v>
-      </c>
+      <c r="AX58" s="56"/>
       <c r="AY58" s="55"/>
       <c r="AZ58" s="57"/>
     </row>
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="D59" s="55"/>
       <c r="E59" s="55" t="s">
-        <v>708</v>
+        <v>606</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>709</v>
-      </c>
-      <c r="G59" s="55" t="s">
-        <v>710</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G59" s="55"/>
       <c r="H59" s="55">
-        <v>301</v>
+        <v>860</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J59" s="55" t="s">
         <v>83</v>
@@ -10979,56 +10980,58 @@
         <v>83</v>
       </c>
       <c r="L59" s="56">
-        <v>0</v>
+        <v>7508</v>
       </c>
       <c r="M59" s="56">
-        <v>26173198</v>
+        <v>26089281</v>
       </c>
       <c r="N59" s="56">
         <v>1</v>
       </c>
       <c r="O59" s="56">
-        <v>0</v>
-      </c>
-      <c r="P59" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="58">
-        <v>41760</v>
-      </c>
-      <c r="R59" s="55" t="s">
-        <v>712</v>
-      </c>
+        <v>7508</v>
+      </c>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="55"/>
       <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
+      <c r="T59" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U59" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="V59" s="66" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="W59" s="66" t="s">
-        <v>706</v>
-      </c>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
+        <v>711</v>
+      </c>
+      <c r="X59" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y59" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z59" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AA59" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AB59" s="55" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AC59" s="55" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AD59" s="55" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AE59" s="55"/>
       <c r="AF59" s="55"/>
       <c r="AG59" s="55" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AH59" s="55"/>
       <c r="AI59" s="55"/>
@@ -11046,34 +11049,28 @@
       <c r="AU59" s="55"/>
       <c r="AV59" s="55"/>
       <c r="AW59" s="55"/>
-      <c r="AX59" s="56"/>
-      <c r="AY59" s="55"/>
+      <c r="AX59" s="56" t="s">
+        <v>717</v>
+      </c>
+      <c r="AY59" s="55" t="s">
+        <v>504</v>
+      </c>
       <c r="AZ59" s="57"/>
     </row>
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
-        <v>715</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>716</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>717</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="55"/>
-      <c r="E60" s="55" t="s">
-        <v>606</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>133</v>
-      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="55"/>
       <c r="H60" s="55">
-        <v>860</v>
-      </c>
-      <c r="I60" s="55" t="s">
-        <v>718</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="I60" s="55"/>
       <c r="J60" s="55" t="s">
         <v>83</v>
       </c>
@@ -11081,19 +11078,23 @@
         <v>83</v>
       </c>
       <c r="L60" s="56">
-        <v>7508</v>
+        <v>679</v>
       </c>
       <c r="M60" s="56">
-        <v>26089281</v>
+        <v>26089120</v>
       </c>
       <c r="N60" s="56">
         <v>1</v>
       </c>
       <c r="O60" s="56">
-        <v>7508</v>
-      </c>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
+        <v>679</v>
+      </c>
+      <c r="P60" s="56">
+        <v>269</v>
+      </c>
+      <c r="Q60" s="58">
+        <v>26087</v>
+      </c>
       <c r="R60" s="55"/>
       <c r="S60" s="55"/>
       <c r="T60" s="55" t="s">
@@ -11102,12 +11103,8 @@
       <c r="U60" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="66" t="s">
-        <v>855</v>
-      </c>
-      <c r="W60" s="66" t="s">
-        <v>716</v>
-      </c>
+      <c r="V60" s="66"/>
+      <c r="W60" s="66"/>
       <c r="X60" s="55" t="s">
         <v>85</v>
       </c>
@@ -11115,24 +11112,18 @@
         <v>85</v>
       </c>
       <c r="Z60" s="55" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="AA60" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB60" s="55" t="s">
-        <v>719</v>
-      </c>
-      <c r="AC60" s="55" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD60" s="55" t="s">
-        <v>721</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
       <c r="AE60" s="55"/>
       <c r="AF60" s="55"/>
       <c r="AG60" s="55" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="AH60" s="55"/>
       <c r="AI60" s="55"/>
@@ -11151,27 +11142,35 @@
       <c r="AV60" s="55"/>
       <c r="AW60" s="55"/>
       <c r="AX60" s="56" t="s">
-        <v>722</v>
-      </c>
-      <c r="AY60" s="55" t="s">
-        <v>504</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AY60" s="55"/>
       <c r="AZ60" s="57"/>
     </row>
     <row r="61" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
-        <v>723</v>
-      </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+        <v>719</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>720</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>721</v>
+      </c>
       <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
+      <c r="E61" s="55" t="s">
+        <v>722</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>133</v>
+      </c>
       <c r="G61" s="55"/>
       <c r="H61" s="55">
-        <v>800</v>
-      </c>
-      <c r="I61" s="55"/>
+        <v>860</v>
+      </c>
+      <c r="I61" s="55" t="s">
+        <v>723</v>
+      </c>
       <c r="J61" s="55" t="s">
         <v>83</v>
       </c>
@@ -11179,23 +11178,19 @@
         <v>83</v>
       </c>
       <c r="L61" s="56">
-        <v>679</v>
+        <v>2690</v>
       </c>
       <c r="M61" s="56">
-        <v>26089120</v>
+        <v>26089160</v>
       </c>
       <c r="N61" s="56">
         <v>1</v>
       </c>
       <c r="O61" s="56">
-        <v>679</v>
-      </c>
-      <c r="P61" s="56">
-        <v>269</v>
-      </c>
-      <c r="Q61" s="58">
-        <v>26087</v>
-      </c>
+        <v>2690</v>
+      </c>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
       <c r="R61" s="55"/>
       <c r="S61" s="55"/>
       <c r="T61" s="55" t="s">
@@ -11204,8 +11199,12 @@
       <c r="U61" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
+      <c r="V61" s="66" t="s">
+        <v>851</v>
+      </c>
+      <c r="W61" s="66" t="s">
+        <v>720</v>
+      </c>
       <c r="X61" s="55" t="s">
         <v>85</v>
       </c>
@@ -11213,18 +11212,22 @@
         <v>85</v>
       </c>
       <c r="Z61" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AA61" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
+        <v>19</v>
+      </c>
+      <c r="AB61" s="55" t="s">
+        <v>724</v>
+      </c>
+      <c r="AC61" s="55" t="s">
+        <v>725</v>
+      </c>
       <c r="AD61" s="55"/>
       <c r="AE61" s="55"/>
       <c r="AF61" s="55"/>
       <c r="AG61" s="55" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AH61" s="55"/>
       <c r="AI61" s="55"/>
@@ -11243,92 +11246,64 @@
       <c r="AV61" s="55"/>
       <c r="AW61" s="55"/>
       <c r="AX61" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY61" s="55"/>
+        <v>726</v>
+      </c>
+      <c r="AY61" s="55" t="s">
+        <v>727</v>
+      </c>
       <c r="AZ61" s="57"/>
     </row>
     <row r="62" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
-        <v>724</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>725</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>726</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="55"/>
-      <c r="E62" s="55" t="s">
-        <v>727</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>133</v>
-      </c>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="55"/>
       <c r="H62" s="55">
-        <v>860</v>
-      </c>
-      <c r="I62" s="55" t="s">
-        <v>728</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="I62" s="55"/>
       <c r="J62" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K62" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="56">
-        <v>2690</v>
-      </c>
+      <c r="L62" s="56"/>
       <c r="M62" s="56">
-        <v>26089160</v>
+        <v>36581702</v>
       </c>
       <c r="N62" s="56">
         <v>1</v>
       </c>
       <c r="O62" s="56">
-        <v>2690</v>
+        <v>3894</v>
       </c>
       <c r="P62" s="56"/>
       <c r="Q62" s="56"/>
       <c r="R62" s="55"/>
       <c r="S62" s="55"/>
-      <c r="T62" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U62" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V62" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="W62" s="66" t="s">
-        <v>725</v>
-      </c>
-      <c r="X62" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y62" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
       <c r="Z62" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA62" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB62" s="55" t="s">
-        <v>729</v>
-      </c>
-      <c r="AC62" s="55" t="s">
-        <v>730</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
       <c r="AD62" s="55"/>
       <c r="AE62" s="55"/>
       <c r="AF62" s="55"/>
       <c r="AG62" s="55" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="AH62" s="55"/>
       <c r="AI62" s="55"/>
@@ -11346,65 +11321,101 @@
       <c r="AU62" s="55"/>
       <c r="AV62" s="55"/>
       <c r="AW62" s="55"/>
-      <c r="AX62" s="56" t="s">
-        <v>731</v>
-      </c>
-      <c r="AY62" s="55" t="s">
-        <v>732</v>
-      </c>
+      <c r="AX62" s="56"/>
+      <c r="AY62" s="55"/>
       <c r="AZ62" s="57"/>
     </row>
     <row r="63" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>731</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
       <c r="H63" s="55">
-        <v>978</v>
-      </c>
-      <c r="I63" s="55"/>
+        <v>508</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>734</v>
+      </c>
       <c r="J63" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K63" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="56"/>
+      <c r="L63" s="56">
+        <v>6550</v>
+      </c>
       <c r="M63" s="56">
-        <v>36581702</v>
+        <v>25540051</v>
       </c>
       <c r="N63" s="56">
         <v>1</v>
       </c>
       <c r="O63" s="56">
-        <v>3894</v>
-      </c>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
+        <v>6550</v>
+      </c>
+      <c r="P63" s="56">
+        <v>391</v>
+      </c>
+      <c r="Q63" s="58">
+        <v>30438</v>
+      </c>
+      <c r="R63" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="S63" s="55" t="s">
+        <v>730</v>
+      </c>
+      <c r="T63" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U63" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="V63" s="66" t="s">
+        <v>735</v>
+      </c>
+      <c r="W63" s="66" t="s">
+        <v>730</v>
+      </c>
+      <c r="X63" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y63" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z63" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
+      <c r="AA63" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB63" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC63" s="55" t="s">
+        <v>737</v>
+      </c>
       <c r="AD63" s="55"/>
       <c r="AE63" s="55"/>
       <c r="AF63" s="55"/>
       <c r="AG63" s="55" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="AH63" s="55"/>
       <c r="AI63" s="55"/>
@@ -11418,7 +11429,9 @@
       <c r="AQ63" s="55"/>
       <c r="AR63" s="55"/>
       <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
+      <c r="AT63" s="55">
+        <v>2013</v>
+      </c>
       <c r="AU63" s="55"/>
       <c r="AV63" s="55"/>
       <c r="AW63" s="55"/>
@@ -11428,29 +11441,27 @@
     </row>
     <row r="64" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="55" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="55" t="s">
-        <v>738</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G64" s="55"/>
       <c r="H64" s="55">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="J64" s="55" t="s">
         <v>83</v>
@@ -11459,29 +11470,21 @@
         <v>83</v>
       </c>
       <c r="L64" s="56">
-        <v>6550</v>
+        <v>4728</v>
       </c>
       <c r="M64" s="56">
-        <v>25540051</v>
+        <v>26089200</v>
       </c>
       <c r="N64" s="56">
         <v>1</v>
       </c>
       <c r="O64" s="56">
-        <v>6550</v>
-      </c>
-      <c r="P64" s="56">
-        <v>391</v>
-      </c>
-      <c r="Q64" s="58">
-        <v>30438</v>
-      </c>
-      <c r="R64" s="55" t="s">
-        <v>740</v>
-      </c>
-      <c r="S64" s="55" t="s">
-        <v>735</v>
-      </c>
+        <v>4728</v>
+      </c>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
       <c r="T64" s="55" t="s">
         <v>85</v>
       </c>
@@ -11489,10 +11492,10 @@
         <v>85</v>
       </c>
       <c r="V64" s="66" t="s">
+        <v>744</v>
+      </c>
+      <c r="W64" s="66" t="s">
         <v>740</v>
-      </c>
-      <c r="W64" s="66" t="s">
-        <v>735</v>
       </c>
       <c r="X64" s="55" t="s">
         <v>85</v>
@@ -11501,22 +11504,24 @@
         <v>85</v>
       </c>
       <c r="Z64" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AA64" s="55" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="AB64" s="55" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AC64" s="55" t="s">
-        <v>742</v>
-      </c>
-      <c r="AD64" s="55"/>
+        <v>740</v>
+      </c>
+      <c r="AD64" s="55" t="s">
+        <v>745</v>
+      </c>
       <c r="AE64" s="55"/>
       <c r="AF64" s="55"/>
       <c r="AG64" s="55" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="AH64" s="55"/>
       <c r="AI64" s="55"/>
@@ -11530,39 +11535,43 @@
       <c r="AQ64" s="55"/>
       <c r="AR64" s="55"/>
       <c r="AS64" s="55"/>
-      <c r="AT64" s="55">
-        <v>2013</v>
-      </c>
+      <c r="AT64" s="55"/>
       <c r="AU64" s="55"/>
       <c r="AV64" s="55"/>
       <c r="AW64" s="55"/>
-      <c r="AX64" s="56"/>
-      <c r="AY64" s="55"/>
+      <c r="AX64" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="AY64" s="55" t="s">
+        <v>636</v>
+      </c>
       <c r="AZ64" s="57"/>
     </row>
     <row r="65" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="55" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="55"/>
+        <v>102</v>
+      </c>
+      <c r="G65" s="55" t="s">
+        <v>751</v>
+      </c>
       <c r="H65" s="55">
-        <v>203</v>
+        <v>401</v>
       </c>
       <c r="I65" s="55" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="J65" s="55" t="s">
         <v>83</v>
@@ -11571,21 +11580,29 @@
         <v>83</v>
       </c>
       <c r="L65" s="56">
-        <v>4728</v>
+        <v>5938</v>
       </c>
       <c r="M65" s="56">
-        <v>26089200</v>
+        <v>25540013</v>
       </c>
       <c r="N65" s="56">
         <v>1</v>
       </c>
       <c r="O65" s="56">
-        <v>4728</v>
-      </c>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="56"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
+        <v>5938</v>
+      </c>
+      <c r="P65" s="56">
+        <v>203</v>
+      </c>
+      <c r="Q65" s="58">
+        <v>25332</v>
+      </c>
+      <c r="R65" s="55" t="s">
+        <v>753</v>
+      </c>
+      <c r="S65" s="55" t="s">
+        <v>748</v>
+      </c>
       <c r="T65" s="55" t="s">
         <v>85</v>
       </c>
@@ -11593,10 +11610,10 @@
         <v>85</v>
       </c>
       <c r="V65" s="66" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="W65" s="66" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="X65" s="55" t="s">
         <v>85</v>
@@ -11611,18 +11628,16 @@
         <v>19</v>
       </c>
       <c r="AB65" s="55" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="AC65" s="55" t="s">
-        <v>745</v>
-      </c>
-      <c r="AD65" s="55" t="s">
-        <v>750</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="AD65" s="55"/>
       <c r="AE65" s="55"/>
       <c r="AF65" s="55"/>
       <c r="AG65" s="55" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="AH65" s="55"/>
       <c r="AI65" s="55"/>
@@ -11634,45 +11649,45 @@
       <c r="AO65" s="55"/>
       <c r="AP65" s="55"/>
       <c r="AQ65" s="55"/>
-      <c r="AR65" s="55"/>
+      <c r="AR65" s="55">
+        <v>2019</v>
+      </c>
       <c r="AS65" s="55"/>
       <c r="AT65" s="55"/>
       <c r="AU65" s="55"/>
       <c r="AV65" s="55"/>
       <c r="AW65" s="55"/>
       <c r="AX65" s="56" t="s">
-        <v>751</v>
-      </c>
-      <c r="AY65" s="55" t="s">
-        <v>641</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AY65" s="55"/>
       <c r="AZ65" s="57"/>
     </row>
     <row r="66" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D66" s="55"/>
       <c r="E66" s="55" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="H66" s="55">
-        <v>401</v>
-      </c>
-      <c r="I66" s="55" t="s">
-        <v>757</v>
+        <v>860</v>
+      </c>
+      <c r="I66" s="55">
+        <v>6117</v>
       </c>
       <c r="J66" s="55" t="s">
         <v>83</v>
@@ -11681,64 +11696,48 @@
         <v>83</v>
       </c>
       <c r="L66" s="56">
-        <v>5938</v>
+        <v>6178</v>
       </c>
       <c r="M66" s="56">
-        <v>25540013</v>
+        <v>25539914</v>
       </c>
       <c r="N66" s="56">
         <v>1</v>
       </c>
       <c r="O66" s="56">
-        <v>5938</v>
-      </c>
-      <c r="P66" s="56">
-        <v>203</v>
-      </c>
-      <c r="Q66" s="58">
-        <v>25332</v>
-      </c>
+        <v>6178</v>
+      </c>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
       <c r="R66" s="55" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="S66" s="55" t="s">
-        <v>753</v>
-      </c>
-      <c r="T66" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U66" s="55" t="s">
-        <v>85</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
       <c r="V66" s="66" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="W66" s="66" t="s">
-        <v>753</v>
-      </c>
-      <c r="X66" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y66" s="55" t="s">
-        <v>85</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="X66" s="55"/>
+      <c r="Y66" s="55"/>
       <c r="Z66" s="55" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="AA66" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB66" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="AC66" s="55" t="s">
-        <v>760</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="AB66" s="55"/>
+      <c r="AC66" s="55"/>
       <c r="AD66" s="55"/>
       <c r="AE66" s="55"/>
       <c r="AF66" s="55"/>
       <c r="AG66" s="55" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="AH66" s="55"/>
       <c r="AI66" s="55"/>
@@ -11750,45 +11749,39 @@
       <c r="AO66" s="55"/>
       <c r="AP66" s="55"/>
       <c r="AQ66" s="55"/>
-      <c r="AR66" s="55">
-        <v>2019</v>
-      </c>
+      <c r="AR66" s="55"/>
       <c r="AS66" s="55"/>
       <c r="AT66" s="55"/>
       <c r="AU66" s="55"/>
       <c r="AV66" s="55"/>
       <c r="AW66" s="55"/>
-      <c r="AX66" s="56" t="s">
-        <v>97</v>
-      </c>
+      <c r="AX66" s="56"/>
       <c r="AY66" s="55"/>
       <c r="AZ66" s="57"/>
     </row>
     <row r="67" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D67" s="55"/>
       <c r="E67" s="55" t="s">
-        <v>727</v>
+        <v>765</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" s="55" t="s">
-        <v>764</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G67" s="55"/>
       <c r="H67" s="55">
-        <v>860</v>
-      </c>
-      <c r="I67" s="55">
-        <v>6117</v>
+        <v>800</v>
+      </c>
+      <c r="I67" s="55" t="s">
+        <v>766</v>
       </c>
       <c r="J67" s="55" t="s">
         <v>83</v>
@@ -11797,48 +11790,56 @@
         <v>83</v>
       </c>
       <c r="L67" s="56">
-        <v>6178</v>
+        <v>6607</v>
       </c>
       <c r="M67" s="56">
-        <v>25539914</v>
+        <v>26089258</v>
       </c>
       <c r="N67" s="56">
         <v>1</v>
       </c>
       <c r="O67" s="56">
-        <v>6178</v>
+        <v>6607</v>
       </c>
       <c r="P67" s="56"/>
       <c r="Q67" s="56"/>
-      <c r="R67" s="55" t="s">
-        <v>765</v>
-      </c>
-      <c r="S67" s="55" t="s">
-        <v>766</v>
-      </c>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="U67" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="V67" s="66" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="W67" s="66" t="s">
-        <v>762</v>
-      </c>
-      <c r="X67" s="55"/>
-      <c r="Y67" s="55"/>
+        <v>763</v>
+      </c>
+      <c r="X67" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y67" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="Z67" s="55" t="s">
         <v>124</v>
       </c>
       <c r="AA67" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AB67" s="55"/>
-      <c r="AC67" s="55"/>
+      <c r="AB67" s="55" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC67" s="55" t="s">
+        <v>768</v>
+      </c>
       <c r="AD67" s="55"/>
       <c r="AE67" s="55"/>
       <c r="AF67" s="55"/>
       <c r="AG67" s="55" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AH67" s="55"/>
       <c r="AI67" s="55"/>
@@ -11856,33 +11857,37 @@
       <c r="AU67" s="55"/>
       <c r="AV67" s="55"/>
       <c r="AW67" s="55"/>
-      <c r="AX67" s="56"/>
+      <c r="AX67" s="56" t="s">
+        <v>769</v>
+      </c>
       <c r="AY67" s="55"/>
       <c r="AZ67" s="57"/>
     </row>
     <row r="68" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="G68" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>774</v>
+      </c>
       <c r="H68" s="55">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="I68" s="55" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="J68" s="55" t="s">
         <v>83</v>
@@ -11891,21 +11896,29 @@
         <v>83</v>
       </c>
       <c r="L68" s="56">
-        <v>6607</v>
+        <v>7911</v>
       </c>
       <c r="M68" s="56">
-        <v>26089258</v>
+        <v>25540115</v>
       </c>
       <c r="N68" s="56">
         <v>1</v>
       </c>
       <c r="O68" s="56">
-        <v>6607</v>
-      </c>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
+        <v>7911</v>
+      </c>
+      <c r="P68" s="56">
+        <v>424</v>
+      </c>
+      <c r="Q68" s="58">
+        <v>32258</v>
+      </c>
+      <c r="R68" s="55" t="s">
+        <v>776</v>
+      </c>
+      <c r="S68" s="55" t="s">
+        <v>771</v>
+      </c>
       <c r="T68" s="55" t="s">
         <v>85</v>
       </c>
@@ -11913,10 +11926,10 @@
         <v>85</v>
       </c>
       <c r="V68" s="66" t="s">
-        <v>858</v>
+        <v>776</v>
       </c>
       <c r="W68" s="66" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="X68" s="55" t="s">
         <v>85</v>
@@ -11931,64 +11944,86 @@
         <v>124</v>
       </c>
       <c r="AB68" s="55" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="AC68" s="55" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
+      <c r="AE68" s="55" t="s">
+        <v>779</v>
+      </c>
       <c r="AF68" s="55"/>
       <c r="AG68" s="55" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="AH68" s="55"/>
       <c r="AI68" s="55"/>
-      <c r="AJ68" s="55"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="55"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="55"/>
-      <c r="AS68" s="55"/>
+      <c r="AJ68" s="55" t="s">
+        <v>780</v>
+      </c>
+      <c r="AK68" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="AL68" s="55" t="s">
+        <v>782</v>
+      </c>
+      <c r="AM68" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="AN68" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="AO68" s="55" t="s">
+        <v>785</v>
+      </c>
+      <c r="AP68" s="55" t="s">
+        <v>786</v>
+      </c>
+      <c r="AQ68" s="55" t="s">
+        <v>787</v>
+      </c>
+      <c r="AR68" s="55" t="s">
+        <v>788</v>
+      </c>
+      <c r="AS68" s="55">
+        <v>2013</v>
+      </c>
       <c r="AT68" s="55"/>
       <c r="AU68" s="55"/>
       <c r="AV68" s="55"/>
       <c r="AW68" s="55"/>
       <c r="AX68" s="56" t="s">
-        <v>774</v>
-      </c>
-      <c r="AY68" s="55"/>
+        <v>789</v>
+      </c>
+      <c r="AY68" s="55">
+        <v>2016</v>
+      </c>
       <c r="AZ68" s="57"/>
     </row>
     <row r="69" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="55" t="s">
-        <v>779</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G69" s="55"/>
       <c r="H69" s="55">
-        <v>781</v>
+        <v>860</v>
       </c>
       <c r="I69" s="55" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="J69" s="55" t="s">
         <v>83</v>
@@ -11997,29 +12032,21 @@
         <v>83</v>
       </c>
       <c r="L69" s="56">
-        <v>7911</v>
+        <v>7920</v>
       </c>
       <c r="M69" s="56">
-        <v>25540115</v>
+        <v>26089292</v>
       </c>
       <c r="N69" s="56">
         <v>1</v>
       </c>
       <c r="O69" s="56">
-        <v>7911</v>
-      </c>
-      <c r="P69" s="56">
-        <v>424</v>
-      </c>
-      <c r="Q69" s="58">
-        <v>32258</v>
-      </c>
-      <c r="R69" s="55" t="s">
-        <v>781</v>
-      </c>
-      <c r="S69" s="55" t="s">
-        <v>776</v>
-      </c>
+        <v>7920</v>
+      </c>
+      <c r="P69" s="56"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
       <c r="T69" s="55" t="s">
         <v>85</v>
       </c>
@@ -12027,16 +12054,16 @@
         <v>85</v>
       </c>
       <c r="V69" s="66" t="s">
-        <v>781</v>
+        <v>854</v>
       </c>
       <c r="W69" s="66" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="X69" s="55" t="s">
-        <v>85</v>
+        <v>795</v>
       </c>
       <c r="Y69" s="55" t="s">
-        <v>85</v>
+        <v>796</v>
       </c>
       <c r="Z69" s="55" t="s">
         <v>124</v>
@@ -12045,86 +12072,70 @@
         <v>124</v>
       </c>
       <c r="AB69" s="55" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="AC69" s="55" t="s">
-        <v>783</v>
-      </c>
-      <c r="AD69" s="55"/>
+        <v>798</v>
+      </c>
+      <c r="AD69" s="55">
+        <v>8606852046</v>
+      </c>
       <c r="AE69" s="55" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="AF69" s="55"/>
       <c r="AG69" s="55" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="AH69" s="55"/>
       <c r="AI69" s="55"/>
       <c r="AJ69" s="55" t="s">
-        <v>785</v>
-      </c>
-      <c r="AK69" s="55" t="s">
-        <v>786</v>
-      </c>
-      <c r="AL69" s="55" t="s">
-        <v>787</v>
-      </c>
-      <c r="AM69" s="55" t="s">
-        <v>788</v>
-      </c>
-      <c r="AN69" s="55" t="s">
-        <v>789</v>
-      </c>
-      <c r="AO69" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="AP69" s="55" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ69" s="55" t="s">
-        <v>792</v>
-      </c>
-      <c r="AR69" s="55" t="s">
-        <v>793</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="AK69" s="55"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="55"/>
+      <c r="AP69" s="55"/>
+      <c r="AQ69" s="55"/>
+      <c r="AR69" s="55"/>
       <c r="AS69" s="55">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="AT69" s="55"/>
       <c r="AU69" s="55"/>
       <c r="AV69" s="55"/>
       <c r="AW69" s="55"/>
       <c r="AX69" s="56" t="s">
-        <v>794</v>
-      </c>
-      <c r="AY69" s="55">
-        <v>2016</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="AY69" s="55"/>
       <c r="AZ69" s="57"/>
     </row>
     <row r="70" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="D70" s="55"/>
       <c r="E70" s="55" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="F70" s="55" t="s">
         <v>133</v>
       </c>
       <c r="G70" s="55"/>
       <c r="H70" s="55">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="I70" s="55" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="J70" s="55" t="s">
         <v>83</v>
@@ -12133,16 +12144,16 @@
         <v>83</v>
       </c>
       <c r="L70" s="56">
-        <v>7920</v>
+        <v>8028</v>
       </c>
       <c r="M70" s="56">
-        <v>26089292</v>
+        <v>26089294</v>
       </c>
       <c r="N70" s="56">
         <v>1</v>
       </c>
       <c r="O70" s="56">
-        <v>7920</v>
+        <v>8028</v>
       </c>
       <c r="P70" s="56"/>
       <c r="Q70" s="56"/>
@@ -12155,16 +12166,16 @@
         <v>85</v>
       </c>
       <c r="V70" s="66" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="W70" s="66" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="X70" s="55" t="s">
-        <v>800</v>
+        <v>85</v>
       </c>
       <c r="Y70" s="55" t="s">
-        <v>801</v>
+        <v>85</v>
       </c>
       <c r="Z70" s="55" t="s">
         <v>124</v>
@@ -12173,26 +12184,20 @@
         <v>124</v>
       </c>
       <c r="AB70" s="55" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="AC70" s="55" t="s">
-        <v>803</v>
-      </c>
-      <c r="AD70" s="55">
-        <v>8606852046</v>
-      </c>
-      <c r="AE70" s="55" t="s">
-        <v>804</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="AD70" s="55"/>
+      <c r="AE70" s="55"/>
       <c r="AF70" s="55"/>
       <c r="AG70" s="55" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="AH70" s="55"/>
       <c r="AI70" s="55"/>
-      <c r="AJ70" s="55" t="s">
-        <v>805</v>
-      </c>
+      <c r="AJ70" s="55"/>
       <c r="AK70" s="55"/>
       <c r="AL70" s="55"/>
       <c r="AM70" s="55"/>
@@ -12201,100 +12206,68 @@
       <c r="AP70" s="55"/>
       <c r="AQ70" s="55"/>
       <c r="AR70" s="55"/>
-      <c r="AS70" s="55">
-        <v>2016</v>
-      </c>
+      <c r="AS70" s="55"/>
       <c r="AT70" s="55"/>
       <c r="AU70" s="55"/>
       <c r="AV70" s="55"/>
       <c r="AW70" s="55"/>
       <c r="AX70" s="56" t="s">
-        <v>806</v>
+        <v>416</v>
       </c>
       <c r="AY70" s="55"/>
       <c r="AZ70" s="57"/>
     </row>
     <row r="71" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
-        <v>807</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>808</v>
-      </c>
-      <c r="C71" s="55" t="s">
         <v>809</v>
       </c>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="55"/>
-      <c r="E71" s="55" t="s">
-        <v>810</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>133</v>
-      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
       <c r="G71" s="55"/>
       <c r="H71" s="55">
-        <v>877</v>
-      </c>
-      <c r="I71" s="55" t="s">
-        <v>811</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="I71" s="55"/>
       <c r="J71" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K71" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L71" s="56">
-        <v>8028</v>
-      </c>
+      <c r="L71" s="56"/>
       <c r="M71" s="56">
-        <v>26089294</v>
+        <v>36581819</v>
       </c>
       <c r="N71" s="56">
         <v>1</v>
       </c>
       <c r="O71" s="56">
-        <v>8028</v>
+        <v>8085</v>
       </c>
       <c r="P71" s="56"/>
       <c r="Q71" s="56"/>
       <c r="R71" s="55"/>
       <c r="S71" s="55"/>
-      <c r="T71" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="U71" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="V71" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="W71" s="66" t="s">
-        <v>808</v>
-      </c>
-      <c r="X71" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y71" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="55"/>
+      <c r="Y71" s="55"/>
       <c r="Z71" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="AA71" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB71" s="55" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC71" s="55" t="s">
-        <v>813</v>
-      </c>
+      <c r="AA71" s="55"/>
+      <c r="AB71" s="55"/>
+      <c r="AC71" s="55"/>
       <c r="AD71" s="55"/>
       <c r="AE71" s="55"/>
       <c r="AF71" s="55"/>
       <c r="AG71" s="55" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AH71" s="55"/>
       <c r="AI71" s="55"/>
@@ -12312,41 +12285,53 @@
       <c r="AU71" s="55"/>
       <c r="AV71" s="55"/>
       <c r="AW71" s="55"/>
-      <c r="AX71" s="56" t="s">
-        <v>416</v>
-      </c>
+      <c r="AX71" s="56"/>
       <c r="AY71" s="55"/>
       <c r="AZ71" s="57"/>
     </row>
     <row r="72" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
+        <v>810</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>812</v>
+      </c>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55" t="s">
+        <v>813</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
       <c r="H72" s="55">
         <v>413</v>
       </c>
-      <c r="I72" s="55"/>
+      <c r="I72" s="55" t="s">
+        <v>815</v>
+      </c>
       <c r="J72" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K72" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L72" s="56"/>
+      <c r="L72" s="56">
+        <v>8253</v>
+      </c>
       <c r="M72" s="56">
-        <v>36581819</v>
+        <v>29345753</v>
       </c>
       <c r="N72" s="56">
         <v>1</v>
       </c>
       <c r="O72" s="56">
-        <v>8085</v>
+        <v>8253</v>
       </c>
       <c r="P72" s="56"/>
       <c r="Q72" s="56"/>
@@ -12354,21 +12339,29 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="66"/>
-      <c r="W72" s="66"/>
+      <c r="V72" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="W72" s="66" t="s">
+        <v>811</v>
+      </c>
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
-      <c r="Z72" s="55" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z72" s="55"/>
       <c r="AA72" s="55"/>
-      <c r="AB72" s="55"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
+      <c r="AB72" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="AC72" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="AD72" s="55" t="s">
+        <v>817</v>
+      </c>
       <c r="AE72" s="55"/>
       <c r="AF72" s="55"/>
       <c r="AG72" s="55" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AH72" s="55"/>
       <c r="AI72" s="55"/>
@@ -12386,53 +12379,41 @@
       <c r="AU72" s="55"/>
       <c r="AV72" s="55"/>
       <c r="AW72" s="55"/>
-      <c r="AX72" s="56"/>
+      <c r="AX72" s="56" t="s">
+        <v>97</v>
+      </c>
       <c r="AY72" s="55"/>
       <c r="AZ72" s="57"/>
     </row>
     <row r="73" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
-        <v>815</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>817</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="55"/>
-      <c r="E73" s="55" t="s">
-        <v>818</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>819</v>
-      </c>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="55">
-        <v>413</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>820</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="I73" s="55"/>
       <c r="J73" s="55" t="s">
         <v>83</v>
       </c>
       <c r="K73" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L73" s="56">
-        <v>8253</v>
-      </c>
+      <c r="L73" s="56"/>
       <c r="M73" s="56">
-        <v>29345753</v>
+        <v>36581834</v>
       </c>
       <c r="N73" s="56">
         <v>1</v>
       </c>
       <c r="O73" s="56">
-        <v>8253</v>
+        <v>8415</v>
       </c>
       <c r="P73" s="56"/>
       <c r="Q73" s="56"/>
@@ -12440,29 +12421,21 @@
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
-      <c r="V73" s="66" t="s">
-        <v>821</v>
-      </c>
-      <c r="W73" s="66" t="s">
-        <v>816</v>
-      </c>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
-      <c r="Z73" s="55"/>
+      <c r="Z73" s="55" t="s">
+        <v>19</v>
+      </c>
       <c r="AA73" s="55"/>
-      <c r="AB73" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="AC73" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="AD73" s="55" t="s">
-        <v>822</v>
-      </c>
+      <c r="AB73" s="55"/>
+      <c r="AC73" s="55"/>
+      <c r="AD73" s="55"/>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
       <c r="AG73" s="55" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="AH73" s="55"/>
       <c r="AI73" s="55"/>
@@ -12480,85 +12453,65 @@
       <c r="AU73" s="55"/>
       <c r="AV73" s="55"/>
       <c r="AW73" s="55"/>
-      <c r="AX73" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY73" s="55"/>
+      <c r="AX73" s="56"/>
+      <c r="AY73" s="55" t="s">
+        <v>819</v>
+      </c>
       <c r="AZ73" s="57"/>
     </row>
-    <row r="74" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
-        <v>823</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55">
-        <v>508</v>
-      </c>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="K74" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56">
-        <v>36581834</v>
-      </c>
-      <c r="N74" s="56">
-        <v>1</v>
-      </c>
-      <c r="O74" s="56">
-        <v>8415</v>
-      </c>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="66"/>
-      <c r="W74" s="66"/>
-      <c r="X74" s="55"/>
-      <c r="Y74" s="55"/>
-      <c r="Z74" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA74" s="55"/>
-      <c r="AB74" s="55"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55" t="s">
-        <v>823</v>
-      </c>
-      <c r="AH74" s="55"/>
-      <c r="AI74" s="55"/>
-      <c r="AJ74" s="55"/>
-      <c r="AK74" s="55"/>
-      <c r="AL74" s="55"/>
-      <c r="AM74" s="55"/>
-      <c r="AN74" s="55"/>
-      <c r="AO74" s="55"/>
-      <c r="AP74" s="55"/>
-      <c r="AQ74" s="55"/>
-      <c r="AR74" s="55"/>
-      <c r="AS74" s="55"/>
-      <c r="AT74" s="55"/>
-      <c r="AU74" s="55"/>
-      <c r="AV74" s="55"/>
-      <c r="AW74" s="55"/>
-      <c r="AX74" s="56"/>
-      <c r="AY74" s="55" t="s">
-        <v>824</v>
-      </c>
-      <c r="AZ74" s="57"/>
+    <row r="74" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="4"/>
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="4"/>
+      <c r="AQ74" s="4"/>
+      <c r="AR74" s="4"/>
+      <c r="AS74" s="4"/>
+      <c r="AT74" s="4"/>
+      <c r="AU74" s="4"/>
+      <c r="AV74" s="4"/>
+      <c r="AW74" s="4"/>
+      <c r="AX74" s="4"/>
+      <c r="AY74" s="4"/>
+      <c r="AZ74" s="4"/>
     </row>
     <row r="75" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
@@ -62510,60 +62463,6 @@
       <c r="AY999" s="4"/>
       <c r="AZ999" s="4"/>
     </row>
-    <row r="1000" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-      <c r="AA1000" s="4"/>
-      <c r="AB1000" s="4"/>
-      <c r="AC1000" s="4"/>
-      <c r="AD1000" s="4"/>
-      <c r="AE1000" s="4"/>
-      <c r="AF1000" s="4"/>
-      <c r="AG1000" s="4"/>
-      <c r="AH1000" s="4"/>
-      <c r="AI1000" s="4"/>
-      <c r="AJ1000" s="4"/>
-      <c r="AK1000" s="4"/>
-      <c r="AL1000" s="4"/>
-      <c r="AM1000" s="4"/>
-      <c r="AN1000" s="4"/>
-      <c r="AO1000" s="4"/>
-      <c r="AP1000" s="4"/>
-      <c r="AQ1000" s="4"/>
-      <c r="AR1000" s="4"/>
-      <c r="AS1000" s="4"/>
-      <c r="AT1000" s="4"/>
-      <c r="AU1000" s="4"/>
-      <c r="AV1000" s="4"/>
-      <c r="AW1000" s="4"/>
-      <c r="AX1000" s="4"/>
-      <c r="AY1000" s="4"/>
-      <c r="AZ1000" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AC4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13795DA8-0833-4543-8172-424BA1664941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67F1B9-E239-6544-8A32-D86F55B61DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3220" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -2994,10 +2994,6 @@
     <xf numFmtId="46" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3009,6 +3005,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3446,21 +3446,21 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -4547,10 +4547,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF52" sqref="AF52"/>
+      <selection pane="bottomRight" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4828,7 +4828,7 @@
       <c r="V2" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="60" t="s">
         <v>77</v>
       </c>
       <c r="X2" s="23" t="s">
@@ -4957,10 +4957,10 @@
       <c r="U3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="W3" s="62" t="s">
+      <c r="W3" s="60" t="s">
         <v>106</v>
       </c>
       <c r="X3" s="23" t="s">
@@ -5077,10 +5077,10 @@
       <c r="U4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="61" t="s">
         <v>821</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="61" t="s">
         <v>856</v>
       </c>
       <c r="X4" s="23" t="s">
@@ -5191,10 +5191,10 @@
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-      <c r="V5" s="62" t="s">
+      <c r="V5" s="60" t="s">
         <v>822</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="60" t="s">
         <v>130</v>
       </c>
       <c r="X5" s="23"/>
@@ -5301,10 +5301,10 @@
       <c r="U6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="62" t="s">
+      <c r="V6" s="60" t="s">
         <v>823</v>
       </c>
-      <c r="W6" s="62" t="s">
+      <c r="W6" s="60" t="s">
         <v>142</v>
       </c>
       <c r="X6" s="23"/>
@@ -5425,10 +5425,10 @@
       <c r="U7" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="V7" s="62" t="s">
+      <c r="V7" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="W7" s="62" t="s">
+      <c r="W7" s="60" t="s">
         <v>857</v>
       </c>
       <c r="X7" s="23" t="s">
@@ -5925,10 +5925,10 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="62" t="s">
+      <c r="V11" s="60" t="s">
         <v>827</v>
       </c>
-      <c r="W11" s="62" t="s">
+      <c r="W11" s="60" t="s">
         <v>227</v>
       </c>
       <c r="X11" s="23"/>
@@ -6055,10 +6055,10 @@
       <c r="U12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="62" t="s">
+      <c r="V12" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="W12" s="62" t="s">
+      <c r="W12" s="60" t="s">
         <v>250</v>
       </c>
       <c r="X12" s="23" t="s">
@@ -6183,10 +6183,10 @@
       <c r="U13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="62" t="s">
+      <c r="V13" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="W13" s="62" t="s">
+      <c r="W13" s="60" t="s">
         <v>264</v>
       </c>
       <c r="X13" s="23" t="s">
@@ -6307,10 +6307,10 @@
       <c r="U14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="W14" s="62" t="s">
+      <c r="W14" s="60" t="s">
         <v>277</v>
       </c>
       <c r="X14" s="23"/>
@@ -6437,10 +6437,10 @@
       <c r="U15" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="V15" s="63" t="s">
+      <c r="V15" s="61" t="s">
         <v>828</v>
       </c>
-      <c r="W15" s="63" t="s">
+      <c r="W15" s="61" t="s">
         <v>860</v>
       </c>
       <c r="X15" s="23" t="s">
@@ -6577,10 +6577,10 @@
       <c r="U16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="63" t="s">
+      <c r="V16" s="61" t="s">
         <v>829</v>
       </c>
-      <c r="W16" s="63" t="s">
+      <c r="W16" s="61" t="s">
         <v>317</v>
       </c>
       <c r="X16" s="23"/>
@@ -6695,10 +6695,10 @@
       <c r="U17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="62" t="s">
+      <c r="V17" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="W17" s="62" t="s">
+      <c r="W17" s="60" t="s">
         <v>334</v>
       </c>
       <c r="X17" s="23" t="s">
@@ -6827,10 +6827,10 @@
       <c r="U18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="62" t="s">
+      <c r="V18" s="60" t="s">
         <v>830</v>
       </c>
-      <c r="W18" s="62" t="s">
+      <c r="W18" s="60" t="s">
         <v>347</v>
       </c>
       <c r="X18" s="23" t="s">
@@ -6947,10 +6947,10 @@
       <c r="U19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="62" t="s">
+      <c r="V19" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="W19" s="62" t="s">
+      <c r="W19" s="60" t="s">
         <v>365</v>
       </c>
       <c r="X19" s="23" t="s">
@@ -7205,10 +7205,10 @@
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="63" t="s">
+      <c r="V21" s="61" t="s">
         <v>832</v>
       </c>
-      <c r="W21" s="63" t="s">
+      <c r="W21" s="61" t="s">
         <v>862</v>
       </c>
       <c r="X21" s="24"/>
@@ -7319,10 +7319,10 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
-      <c r="V22" s="64" t="s">
+      <c r="V22" s="62" t="s">
         <v>833</v>
       </c>
-      <c r="W22" s="64" t="s">
+      <c r="W22" s="62" t="s">
         <v>419</v>
       </c>
       <c r="X22" s="45"/>
@@ -7429,10 +7429,10 @@
       <c r="U23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="65" t="s">
+      <c r="V23" s="63" t="s">
         <v>834</v>
       </c>
-      <c r="W23" s="65" t="s">
+      <c r="W23" s="63" t="s">
         <v>428</v>
       </c>
       <c r="X23" s="50"/>
@@ -7551,10 +7551,10 @@
       <c r="U24" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V24" s="65" t="s">
+      <c r="V24" s="63" t="s">
         <v>835</v>
       </c>
-      <c r="W24" s="65" t="s">
+      <c r="W24" s="63" t="s">
         <v>863</v>
       </c>
       <c r="X24" s="50"/>
@@ -7677,10 +7677,10 @@
       <c r="U25" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="65" t="s">
+      <c r="V25" s="63" t="s">
         <v>836</v>
       </c>
-      <c r="W25" s="65" t="s">
+      <c r="W25" s="63" t="s">
         <v>470</v>
       </c>
       <c r="X25" s="50"/>
@@ -7805,10 +7805,10 @@
       <c r="U26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V26" s="65" t="s">
+      <c r="V26" s="63" t="s">
         <v>837</v>
       </c>
-      <c r="W26" s="65" t="s">
+      <c r="W26" s="63" t="s">
         <v>487</v>
       </c>
       <c r="X26" s="50" t="s">
@@ -7923,10 +7923,10 @@
       <c r="U27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="62" t="s">
         <v>838</v>
       </c>
-      <c r="W27" s="64" t="s">
+      <c r="W27" s="62" t="s">
         <v>493</v>
       </c>
       <c r="X27" s="45" t="s">
@@ -8241,8 +8241,8 @@
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
       <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="55" t="s">
@@ -8315,8 +8315,8 @@
       <c r="S31" s="55"/>
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
       <c r="X31" s="55"/>
       <c r="Y31" s="55"/>
       <c r="Z31" s="55" t="s">
@@ -8403,10 +8403,10 @@
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="66" t="s">
+      <c r="V32" s="64" t="s">
         <v>840</v>
       </c>
-      <c r="W32" s="66" t="s">
+      <c r="W32" s="64" t="s">
         <v>535</v>
       </c>
       <c r="X32" s="55"/>
@@ -8485,8 +8485,8 @@
       <c r="S33" s="55"/>
       <c r="T33" s="55"/>
       <c r="U33" s="55"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
       <c r="X33" s="55"/>
       <c r="Y33" s="55"/>
       <c r="Z33" s="55" t="s">
@@ -8559,8 +8559,8 @@
       <c r="S34" s="55"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
       <c r="X34" s="55"/>
       <c r="Y34" s="55"/>
       <c r="Z34" s="55" t="s">
@@ -8649,10 +8649,10 @@
       <c r="S35" s="55"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="66" t="s">
+      <c r="V35" s="64" t="s">
         <v>841</v>
       </c>
-      <c r="W35" s="66" t="s">
+      <c r="W35" s="64" t="s">
         <v>547</v>
       </c>
       <c r="X35" s="55"/>
@@ -8757,10 +8757,10 @@
       <c r="U36" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="66" t="s">
+      <c r="V36" s="64" t="s">
         <v>842</v>
       </c>
-      <c r="W36" s="66" t="s">
+      <c r="W36" s="64" t="s">
         <v>864</v>
       </c>
       <c r="X36" s="55" t="s">
@@ -8843,8 +8843,8 @@
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
       <c r="U37" s="55"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
       <c r="X37" s="55"/>
       <c r="Y37" s="55"/>
       <c r="Z37" s="55" t="s">
@@ -8943,10 +8943,10 @@
       <c r="U38" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V38" s="66" t="s">
+      <c r="V38" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="W38" s="66" t="s">
+      <c r="W38" s="64" t="s">
         <v>567</v>
       </c>
       <c r="X38" s="55" t="s">
@@ -9061,10 +9061,10 @@
       <c r="U39" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V39" s="66" t="s">
+      <c r="V39" s="64" t="s">
         <v>843</v>
       </c>
-      <c r="W39" s="66" t="s">
+      <c r="W39" s="64" t="s">
         <v>578</v>
       </c>
       <c r="X39" s="55" t="s">
@@ -9173,10 +9173,10 @@
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
-      <c r="V40" s="66" t="s">
+      <c r="V40" s="64" t="s">
         <v>593</v>
       </c>
-      <c r="W40" s="66" t="s">
+      <c r="W40" s="64" t="s">
         <v>594</v>
       </c>
       <c r="X40" s="55"/>
@@ -9285,10 +9285,10 @@
       <c r="U41" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V41" s="66" t="s">
+      <c r="V41" s="64" t="s">
         <v>600</v>
       </c>
-      <c r="W41" s="66" t="s">
+      <c r="W41" s="64" t="s">
         <v>596</v>
       </c>
       <c r="X41" s="55" t="s">
@@ -9401,10 +9401,10 @@
       <c r="U42" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V42" s="66" t="s">
+      <c r="V42" s="64" t="s">
         <v>844</v>
       </c>
-      <c r="W42" s="66" t="s">
+      <c r="W42" s="64" t="s">
         <v>604</v>
       </c>
       <c r="X42" s="55" t="s">
@@ -9509,10 +9509,10 @@
       <c r="U43" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V43" s="66" t="s">
+      <c r="V43" s="64" t="s">
         <v>845</v>
       </c>
-      <c r="W43" s="66" t="s">
+      <c r="W43" s="64" t="s">
         <v>613</v>
       </c>
       <c r="X43" s="55" t="s">
@@ -9595,8 +9595,8 @@
       <c r="S44" s="55"/>
       <c r="T44" s="55"/>
       <c r="U44" s="55"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55" t="s">
@@ -9667,8 +9667,8 @@
       <c r="S45" s="55"/>
       <c r="T45" s="55"/>
       <c r="U45" s="55"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
       <c r="X45" s="55"/>
       <c r="Y45" s="55"/>
       <c r="Z45" s="55" t="s">
@@ -9741,8 +9741,8 @@
       <c r="S46" s="55"/>
       <c r="T46" s="55"/>
       <c r="U46" s="55"/>
-      <c r="V46" s="66"/>
-      <c r="W46" s="66"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
       <c r="X46" s="55"/>
       <c r="Y46" s="55"/>
       <c r="Z46" s="55" t="s">
@@ -9839,10 +9839,10 @@
       <c r="U47" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="66" t="s">
+      <c r="V47" s="64" t="s">
         <v>630</v>
       </c>
-      <c r="W47" s="66" t="s">
+      <c r="W47" s="64" t="s">
         <v>625</v>
       </c>
       <c r="X47" s="55" t="s">
@@ -9957,10 +9957,10 @@
       <c r="U48" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V48" s="66" t="s">
+      <c r="V48" s="64" t="s">
         <v>846</v>
       </c>
-      <c r="W48" s="66" t="s">
+      <c r="W48" s="64" t="s">
         <v>638</v>
       </c>
       <c r="X48" s="55" t="s">
@@ -10053,8 +10053,8 @@
       <c r="S49" s="55"/>
       <c r="T49" s="55"/>
       <c r="U49" s="55"/>
-      <c r="V49" s="66"/>
-      <c r="W49" s="66"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
       <c r="X49" s="55"/>
       <c r="Y49" s="55"/>
       <c r="Z49" s="55" t="s">
@@ -10137,8 +10137,8 @@
       <c r="S50" s="55"/>
       <c r="T50" s="55"/>
       <c r="U50" s="55"/>
-      <c r="V50" s="66"/>
-      <c r="W50" s="66"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
       <c r="X50" s="55"/>
       <c r="Y50" s="55"/>
       <c r="Z50" s="55" t="s">
@@ -10227,8 +10227,8 @@
       <c r="S51" s="55"/>
       <c r="T51" s="55"/>
       <c r="U51" s="55"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
       <c r="X51" s="55"/>
       <c r="Y51" s="55"/>
       <c r="Z51" s="55" t="s">
@@ -10329,10 +10329,10 @@
       <c r="U52" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="V52" s="66" t="s">
+      <c r="V52" s="64" t="s">
         <v>669</v>
       </c>
-      <c r="W52" s="66" t="s">
+      <c r="W52" s="64" t="s">
         <v>665</v>
       </c>
       <c r="X52" s="55" t="s">
@@ -10435,10 +10435,10 @@
       <c r="S53" s="55"/>
       <c r="T53" s="55"/>
       <c r="U53" s="55"/>
-      <c r="V53" s="66" t="s">
+      <c r="V53" s="64" t="s">
         <v>847</v>
       </c>
-      <c r="W53" s="66" t="s">
+      <c r="W53" s="64" t="s">
         <v>675</v>
       </c>
       <c r="X53" s="55"/>
@@ -10519,8 +10519,8 @@
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
-      <c r="V54" s="66"/>
-      <c r="W54" s="66"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="64"/>
       <c r="X54" s="55"/>
       <c r="Y54" s="55"/>
       <c r="Z54" s="55" t="s">
@@ -10607,10 +10607,10 @@
       <c r="U55" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V55" s="66" t="s">
+      <c r="V55" s="64" t="s">
         <v>848</v>
       </c>
-      <c r="W55" s="66" t="s">
+      <c r="W55" s="64" t="s">
         <v>685</v>
       </c>
       <c r="X55" s="55" t="s">
@@ -10697,8 +10697,8 @@
       <c r="S56" s="55"/>
       <c r="T56" s="55"/>
       <c r="U56" s="55"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
       <c r="X56" s="55"/>
       <c r="Y56" s="55"/>
       <c r="Z56" s="55" t="s">
@@ -10791,10 +10791,10 @@
       <c r="U57" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V57" s="66" t="s">
+      <c r="V57" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="W57" s="66" t="s">
+      <c r="W57" s="64" t="s">
         <v>695</v>
       </c>
       <c r="X57" s="55" t="s">
@@ -10901,10 +10901,10 @@
       <c r="S58" s="55"/>
       <c r="T58" s="55"/>
       <c r="U58" s="55"/>
-      <c r="V58" s="66" t="s">
+      <c r="V58" s="64" t="s">
         <v>849</v>
       </c>
-      <c r="W58" s="66" t="s">
+      <c r="W58" s="64" t="s">
         <v>701</v>
       </c>
       <c r="X58" s="55"/>
@@ -11001,10 +11001,10 @@
       <c r="U59" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V59" s="66" t="s">
+      <c r="V59" s="64" t="s">
         <v>850</v>
       </c>
-      <c r="W59" s="66" t="s">
+      <c r="W59" s="64" t="s">
         <v>711</v>
       </c>
       <c r="X59" s="55" t="s">
@@ -11103,8 +11103,8 @@
       <c r="U60" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
       <c r="X60" s="55" t="s">
         <v>85</v>
       </c>
@@ -11199,10 +11199,10 @@
       <c r="U61" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="66" t="s">
+      <c r="V61" s="64" t="s">
         <v>851</v>
       </c>
-      <c r="W61" s="66" t="s">
+      <c r="W61" s="64" t="s">
         <v>720</v>
       </c>
       <c r="X61" s="55" t="s">
@@ -11289,8 +11289,8 @@
       <c r="S62" s="55"/>
       <c r="T62" s="55"/>
       <c r="U62" s="55"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
       <c r="X62" s="55"/>
       <c r="Y62" s="55"/>
       <c r="Z62" s="55" t="s">
@@ -11387,10 +11387,10 @@
       <c r="U63" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V63" s="66" t="s">
+      <c r="V63" s="64" t="s">
         <v>735</v>
       </c>
-      <c r="W63" s="66" t="s">
+      <c r="W63" s="64" t="s">
         <v>730</v>
       </c>
       <c r="X63" s="55" t="s">
@@ -11491,10 +11491,10 @@
       <c r="U64" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="66" t="s">
+      <c r="V64" s="64" t="s">
         <v>744</v>
       </c>
-      <c r="W64" s="66" t="s">
+      <c r="W64" s="64" t="s">
         <v>740</v>
       </c>
       <c r="X64" s="55" t="s">
@@ -11609,10 +11609,10 @@
       <c r="U65" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="66" t="s">
+      <c r="V65" s="64" t="s">
         <v>753</v>
       </c>
-      <c r="W65" s="66" t="s">
+      <c r="W65" s="64" t="s">
         <v>748</v>
       </c>
       <c r="X65" s="55" t="s">
@@ -11717,10 +11717,10 @@
       </c>
       <c r="T66" s="55"/>
       <c r="U66" s="55"/>
-      <c r="V66" s="66" t="s">
+      <c r="V66" s="64" t="s">
         <v>852</v>
       </c>
-      <c r="W66" s="66" t="s">
+      <c r="W66" s="64" t="s">
         <v>757</v>
       </c>
       <c r="X66" s="55"/>
@@ -11811,10 +11811,10 @@
       <c r="U67" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V67" s="66" t="s">
+      <c r="V67" s="64" t="s">
         <v>853</v>
       </c>
-      <c r="W67" s="66" t="s">
+      <c r="W67" s="64" t="s">
         <v>763</v>
       </c>
       <c r="X67" s="55" t="s">
@@ -11925,10 +11925,10 @@
       <c r="U68" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V68" s="66" t="s">
+      <c r="V68" s="64" t="s">
         <v>776</v>
       </c>
-      <c r="W68" s="66" t="s">
+      <c r="W68" s="64" t="s">
         <v>771</v>
       </c>
       <c r="X68" s="55" t="s">
@@ -12053,10 +12053,10 @@
       <c r="U69" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V69" s="66" t="s">
+      <c r="V69" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="W69" s="66" t="s">
+      <c r="W69" s="64" t="s">
         <v>791</v>
       </c>
       <c r="X69" s="55" t="s">
@@ -12165,10 +12165,10 @@
       <c r="U70" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V70" s="66" t="s">
+      <c r="V70" s="64" t="s">
         <v>855</v>
       </c>
-      <c r="W70" s="66" t="s">
+      <c r="W70" s="64" t="s">
         <v>803</v>
       </c>
       <c r="X70" s="55" t="s">
@@ -12253,8 +12253,8 @@
       <c r="S71" s="55"/>
       <c r="T71" s="55"/>
       <c r="U71" s="55"/>
-      <c r="V71" s="66"/>
-      <c r="W71" s="66"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
       <c r="X71" s="55"/>
       <c r="Y71" s="55"/>
       <c r="Z71" s="55" t="s">
@@ -12339,10 +12339,10 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="66" t="s">
+      <c r="V72" s="64" t="s">
         <v>816</v>
       </c>
-      <c r="W72" s="66" t="s">
+      <c r="W72" s="64" t="s">
         <v>811</v>
       </c>
       <c r="X72" s="55"/>
@@ -12421,8 +12421,8 @@
       <c r="S73" s="55"/>
       <c r="T73" s="55"/>
       <c r="U73" s="55"/>
-      <c r="V73" s="66"/>
-      <c r="W73" s="66"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
       <c r="X73" s="55"/>
       <c r="Y73" s="55"/>
       <c r="Z73" s="55" t="s">

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67F1B9-E239-6544-8A32-D86F55B61DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999BA5F-5D47-0E47-8E85-66F9A37F5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4547,10 +4547,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI18" sqref="AI18"/>
+      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999BA5F-5D47-0E47-8E85-66F9A37F5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33811DA0-8DEA-5346-AC5E-B5B9D256F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1360" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-860" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -3347,7 +3347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4547,10 +4549,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
+      <selection pane="bottomRight" activeCell="BA22" sqref="BA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33811DA0-8DEA-5346-AC5E-B5B9D256F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C062A4-1DA4-B745-9269-BFB85D19D6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-860" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -4552,7 +4552,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA22" sqref="BA22"/>
+      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C062A4-1DA4-B745-9269-BFB85D19D6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2688ED-19FF-394B-861C-59CE4B8252FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4549,10 +4549,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY22" sqref="AY22"/>
+      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2688ED-19FF-394B-861C-59CE4B8252FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BC2D4-472A-9D41-8F14-4829F3F2BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="820">
   <si>
     <t>2022 Zone Activity Review</t>
   </si>
@@ -2497,144 +2497,6 @@
   </si>
   <si>
     <t>2019;2021</t>
-  </si>
-  <si>
-    <t>Professor Rudra Kafle</t>
-  </si>
-  <si>
-    <t>Kristina A. Lynch</t>
-  </si>
-  <si>
-    <t>Robert Cordery</t>
-  </si>
-  <si>
-    <t>David Morin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joe Checkelsky
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spencer Smith
-</t>
-  </si>
-  <si>
-    <t>Professor William Karstens</t>
-  </si>
-  <si>
-    <t>Joyce Palmer-Fortune</t>
-  </si>
-  <si>
-    <t>Frank Dudish</t>
-  </si>
-  <si>
-    <t>Sumientra Rampersad</t>
-  </si>
-  <si>
-    <t>Dr. Benjamin Chandran</t>
-  </si>
-  <si>
-    <t>Rudra Kafle</t>
-  </si>
-  <si>
-    <t>Sarah Demers</t>
-  </si>
-  <si>
-    <t>William Loinaz</t>
-  </si>
-  <si>
-    <t>Robert Carey</t>
-  </si>
-  <si>
-    <t>Dr. Thayaparan Paramanathan</t>
-  </si>
-  <si>
-    <t>Thomas Burton</t>
-  </si>
-  <si>
-    <t>Joseph Ribaudo</t>
-  </si>
-  <si>
-    <t>Matt Guthrie</t>
-  </si>
-  <si>
-    <t>Ben Brau</t>
-  </si>
-  <si>
-    <t>John Smedley</t>
-  </si>
-  <si>
-    <t>Mark O. Battle</t>
-  </si>
-  <si>
-    <t>Richard Fell</t>
-  </si>
-  <si>
-    <t>Dr. Michael Boyer</t>
-  </si>
-  <si>
-    <t>Dr. Michael Weinstein</t>
-  </si>
-  <si>
-    <t>Dr. Cornely</t>
-  </si>
-  <si>
-    <t>Dr. Steven Harfenist</t>
-  </si>
-  <si>
-    <t>Richard Hyde</t>
-  </si>
-  <si>
-    <t>Nancy Lee</t>
-  </si>
-  <si>
-    <t>Sps Advisor</t>
-  </si>
-  <si>
-    <t>Loraine Allen</t>
-  </si>
-  <si>
-    <t>James McDonald</t>
-  </si>
-  <si>
-    <t>Gerald Darling</t>
-  </si>
-  <si>
-    <t>Paul Nakroshis</t>
-  </si>
-  <si>
-    <t>Candice Etson</t>
-  </si>
-  <si>
-    <t>Alica Chance</t>
-  </si>
-  <si>
-    <t>Kristina.A.Lynch@dartmouth.edu</t>
-  </si>
-  <si>
-    <t>checkelsky@mit.edu</t>
-  </si>
-  <si>
-    <t>smiths@mtholyoke.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngugliucci@anselm.edu
-</t>
-  </si>
-  <si>
-    <t>frank.dudish@maine.edu</t>
-  </si>
-  <si>
-    <t>rpk101@wpi.edu</t>
-  </si>
-  <si>
-    <t>sarah.demers@yale.edu</t>
-  </si>
-  <si>
-    <t>TPARAMANATHAN@bridgew.edu</t>
-  </si>
-  <si>
-    <t>fell@brandeis.edu</t>
   </si>
 </sst>
 </file>
@@ -4549,10 +4411,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH14" sqref="AH14"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4576,8 +4438,8 @@
     <col min="17" max="17" width="56" customWidth="1"/>
     <col min="18" max="19" width="53.5" customWidth="1"/>
     <col min="20" max="20" width="55.83203125" customWidth="1"/>
-    <col min="21" max="21" width="55" customWidth="1"/>
-    <col min="22" max="22" width="48.83203125" customWidth="1"/>
+    <col min="21" max="21" width="49.6640625" customWidth="1"/>
+    <col min="22" max="22" width="42.33203125" customWidth="1"/>
     <col min="23" max="23" width="49.5" customWidth="1"/>
     <col min="24" max="24" width="52.33203125" customWidth="1"/>
     <col min="25" max="25" width="52.83203125" customWidth="1"/>
@@ -4827,12 +4689,8 @@
       <c r="U2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>77</v>
-      </c>
+      <c r="V2" s="39"/>
+      <c r="W2" s="60"/>
       <c r="X2" s="23" t="s">
         <v>85</v>
       </c>
@@ -4959,12 +4817,8 @@
       <c r="U3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="60" t="s">
-        <v>106</v>
-      </c>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="23" t="s">
         <v>85</v>
       </c>
@@ -5079,12 +4933,8 @@
       <c r="U4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="W4" s="61" t="s">
-        <v>856</v>
-      </c>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
       <c r="X4" s="23" t="s">
         <v>85</v>
       </c>
@@ -5193,12 +5043,8 @@
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-      <c r="V5" s="60" t="s">
-        <v>822</v>
-      </c>
-      <c r="W5" s="60" t="s">
-        <v>130</v>
-      </c>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23" t="s">
@@ -5303,12 +5149,8 @@
       <c r="U6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V6" s="60" t="s">
-        <v>823</v>
-      </c>
-      <c r="W6" s="60" t="s">
-        <v>142</v>
-      </c>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23" t="s">
@@ -5427,12 +5269,8 @@
       <c r="U7" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="V7" s="60" t="s">
-        <v>824</v>
-      </c>
-      <c r="W7" s="60" t="s">
-        <v>857</v>
-      </c>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
       <c r="X7" s="23" t="s">
         <v>161</v>
       </c>
@@ -5563,12 +5401,8 @@
       <c r="U8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="V8" s="26" t="s">
-        <v>825</v>
-      </c>
-      <c r="W8" s="26" t="s">
-        <v>858</v>
-      </c>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
       <c r="X8" s="26" t="s">
         <v>85</v>
       </c>
@@ -5691,12 +5525,8 @@
       </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
-      <c r="V9" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="W9" s="26" t="s">
-        <v>859</v>
-      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23" t="s">
@@ -5811,12 +5641,8 @@
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
-      <c r="V10" s="26" t="s">
-        <v>826</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>214</v>
-      </c>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23" t="s">
@@ -5927,12 +5753,8 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="60" t="s">
-        <v>827</v>
-      </c>
-      <c r="W11" s="60" t="s">
-        <v>227</v>
-      </c>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23" t="s">
@@ -6057,12 +5879,8 @@
       <c r="U12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V12" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="W12" s="60" t="s">
-        <v>250</v>
-      </c>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
       <c r="X12" s="23" t="s">
         <v>85</v>
       </c>
@@ -6185,12 +6003,8 @@
       <c r="U13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="W13" s="60" t="s">
-        <v>264</v>
-      </c>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
       <c r="X13" s="23" t="s">
         <v>85</v>
       </c>
@@ -6309,12 +6123,8 @@
       <c r="U14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V14" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="W14" s="60" t="s">
-        <v>277</v>
-      </c>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23" t="s">
@@ -6439,12 +6249,8 @@
       <c r="U15" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="V15" s="61" t="s">
-        <v>828</v>
-      </c>
-      <c r="W15" s="61" t="s">
-        <v>860</v>
-      </c>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
       <c r="X15" s="23" t="s">
         <v>300</v>
       </c>
@@ -6579,12 +6385,8 @@
       <c r="U16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V16" s="61" t="s">
-        <v>829</v>
-      </c>
-      <c r="W16" s="61" t="s">
-        <v>317</v>
-      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="23" t="s">
         <v>85</v>
@@ -6697,12 +6499,8 @@
       <c r="U17" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="W17" s="60" t="s">
-        <v>334</v>
-      </c>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
       <c r="X17" s="23" t="s">
         <v>85</v>
       </c>
@@ -6829,12 +6627,8 @@
       <c r="U18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V18" s="60" t="s">
-        <v>830</v>
-      </c>
-      <c r="W18" s="60" t="s">
-        <v>347</v>
-      </c>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
       <c r="X18" s="23" t="s">
         <v>85</v>
       </c>
@@ -6949,12 +6743,8 @@
       <c r="U19" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="V19" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="W19" s="60" t="s">
-        <v>365</v>
-      </c>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
       <c r="X19" s="23" t="s">
         <v>85</v>
       </c>
@@ -7079,12 +6869,8 @@
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
-      <c r="V20" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>861</v>
-      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23" t="s">
@@ -7207,12 +6993,8 @@
       </c>
       <c r="T21" s="24"/>
       <c r="U21" s="24"/>
-      <c r="V21" s="61" t="s">
-        <v>832</v>
-      </c>
-      <c r="W21" s="61" t="s">
-        <v>862</v>
-      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
       <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24" t="s">
@@ -7321,12 +7103,8 @@
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
       <c r="U22" s="45"/>
-      <c r="V22" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="W22" s="62" t="s">
-        <v>419</v>
-      </c>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
       <c r="X22" s="45"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
@@ -7431,12 +7209,8 @@
       <c r="U23" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="63" t="s">
-        <v>834</v>
-      </c>
-      <c r="W23" s="63" t="s">
-        <v>428</v>
-      </c>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
       <c r="X23" s="50"/>
       <c r="Y23" s="50"/>
       <c r="Z23" s="50" t="s">
@@ -7553,12 +7327,8 @@
       <c r="U24" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V24" s="63" t="s">
-        <v>835</v>
-      </c>
-      <c r="W24" s="63" t="s">
-        <v>863</v>
-      </c>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
       <c r="X24" s="50"/>
       <c r="Y24" s="50"/>
       <c r="Z24" s="50" t="s">
@@ -7679,12 +7449,8 @@
       <c r="U25" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="63" t="s">
-        <v>836</v>
-      </c>
-      <c r="W25" s="63" t="s">
-        <v>470</v>
-      </c>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50" t="s">
@@ -7807,12 +7573,8 @@
       <c r="U26" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V26" s="63" t="s">
-        <v>837</v>
-      </c>
-      <c r="W26" s="63" t="s">
-        <v>487</v>
-      </c>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
       <c r="X26" s="50" t="s">
         <v>85</v>
       </c>
@@ -7925,12 +7687,8 @@
       <c r="U27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="62" t="s">
-        <v>838</v>
-      </c>
-      <c r="W27" s="62" t="s">
-        <v>493</v>
-      </c>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
       <c r="X27" s="45" t="s">
         <v>85</v>
       </c>
@@ -8037,12 +7795,8 @@
       <c r="U28" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="V28" s="51" t="s">
-        <v>839</v>
-      </c>
-      <c r="W28" s="51" t="s">
-        <v>506</v>
-      </c>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
       <c r="X28" s="51" t="s">
         <v>85</v>
       </c>
@@ -8405,12 +8159,8 @@
       <c r="S32" s="55"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="64" t="s">
-        <v>840</v>
-      </c>
-      <c r="W32" s="64" t="s">
-        <v>535</v>
-      </c>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
       <c r="X32" s="55"/>
       <c r="Y32" s="55"/>
       <c r="Z32" s="55" t="s">
@@ -8651,12 +8401,8 @@
       <c r="S35" s="55"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
-      <c r="V35" s="64" t="s">
-        <v>841</v>
-      </c>
-      <c r="W35" s="64" t="s">
-        <v>547</v>
-      </c>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
       <c r="X35" s="55"/>
       <c r="Y35" s="55"/>
       <c r="Z35" s="55" t="s">
@@ -8759,12 +8505,8 @@
       <c r="U36" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="64" t="s">
-        <v>842</v>
-      </c>
-      <c r="W36" s="64" t="s">
-        <v>864</v>
-      </c>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
       <c r="X36" s="55" t="s">
         <v>85</v>
       </c>
@@ -8945,12 +8687,8 @@
       <c r="U38" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V38" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="W38" s="64" t="s">
-        <v>567</v>
-      </c>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
       <c r="X38" s="55" t="s">
         <v>85</v>
       </c>
@@ -9063,12 +8801,8 @@
       <c r="U39" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V39" s="64" t="s">
-        <v>843</v>
-      </c>
-      <c r="W39" s="64" t="s">
-        <v>578</v>
-      </c>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
       <c r="X39" s="55" t="s">
         <v>85</v>
       </c>
@@ -9175,12 +8909,8 @@
       </c>
       <c r="T40" s="55"/>
       <c r="U40" s="55"/>
-      <c r="V40" s="64" t="s">
-        <v>593</v>
-      </c>
-      <c r="W40" s="64" t="s">
-        <v>594</v>
-      </c>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
       <c r="X40" s="55"/>
       <c r="Y40" s="55"/>
       <c r="Z40" s="55" t="s">
@@ -9287,12 +9017,8 @@
       <c r="U41" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V41" s="64" t="s">
-        <v>600</v>
-      </c>
-      <c r="W41" s="64" t="s">
-        <v>596</v>
-      </c>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
       <c r="X41" s="55" t="s">
         <v>85</v>
       </c>
@@ -9403,12 +9129,8 @@
       <c r="U42" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V42" s="64" t="s">
-        <v>844</v>
-      </c>
-      <c r="W42" s="64" t="s">
-        <v>604</v>
-      </c>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
       <c r="X42" s="55" t="s">
         <v>85</v>
       </c>
@@ -9511,12 +9233,8 @@
       <c r="U43" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V43" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="W43" s="64" t="s">
-        <v>613</v>
-      </c>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
       <c r="X43" s="55" t="s">
         <v>85</v>
       </c>
@@ -9841,12 +9559,8 @@
       <c r="U47" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="64" t="s">
-        <v>630</v>
-      </c>
-      <c r="W47" s="64" t="s">
-        <v>625</v>
-      </c>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
       <c r="X47" s="55" t="s">
         <v>85</v>
       </c>
@@ -9959,12 +9673,8 @@
       <c r="U48" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V48" s="64" t="s">
-        <v>846</v>
-      </c>
-      <c r="W48" s="64" t="s">
-        <v>638</v>
-      </c>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
       <c r="X48" s="55" t="s">
         <v>85</v>
       </c>
@@ -10331,12 +10041,8 @@
       <c r="U52" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="V52" s="64" t="s">
-        <v>669</v>
-      </c>
-      <c r="W52" s="64" t="s">
-        <v>665</v>
-      </c>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
       <c r="X52" s="55" t="s">
         <v>85</v>
       </c>
@@ -10437,12 +10143,8 @@
       <c r="S53" s="55"/>
       <c r="T53" s="55"/>
       <c r="U53" s="55"/>
-      <c r="V53" s="64" t="s">
-        <v>847</v>
-      </c>
-      <c r="W53" s="64" t="s">
-        <v>675</v>
-      </c>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
       <c r="X53" s="55"/>
       <c r="Y53" s="55"/>
       <c r="Z53" s="55" t="s">
@@ -10609,12 +10311,8 @@
       <c r="U55" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V55" s="64" t="s">
-        <v>848</v>
-      </c>
-      <c r="W55" s="64" t="s">
-        <v>685</v>
-      </c>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
       <c r="X55" s="55" t="s">
         <v>85</v>
       </c>
@@ -10793,12 +10491,8 @@
       <c r="U57" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V57" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="W57" s="64" t="s">
-        <v>695</v>
-      </c>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
       <c r="X57" s="55" t="s">
         <v>85</v>
       </c>
@@ -10903,12 +10597,8 @@
       <c r="S58" s="55"/>
       <c r="T58" s="55"/>
       <c r="U58" s="55"/>
-      <c r="V58" s="64" t="s">
-        <v>849</v>
-      </c>
-      <c r="W58" s="64" t="s">
-        <v>701</v>
-      </c>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
       <c r="X58" s="55"/>
       <c r="Y58" s="55"/>
       <c r="Z58" s="55" t="s">
@@ -11003,12 +10693,8 @@
       <c r="U59" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V59" s="64" t="s">
-        <v>850</v>
-      </c>
-      <c r="W59" s="64" t="s">
-        <v>711</v>
-      </c>
+      <c r="V59" s="64"/>
+      <c r="W59" s="64"/>
       <c r="X59" s="55" t="s">
         <v>85</v>
       </c>
@@ -11201,12 +10887,8 @@
       <c r="U61" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V61" s="64" t="s">
-        <v>851</v>
-      </c>
-      <c r="W61" s="64" t="s">
-        <v>720</v>
-      </c>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
       <c r="X61" s="55" t="s">
         <v>85</v>
       </c>
@@ -11389,12 +11071,8 @@
       <c r="U63" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V63" s="64" t="s">
-        <v>735</v>
-      </c>
-      <c r="W63" s="64" t="s">
-        <v>730</v>
-      </c>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
       <c r="X63" s="55" t="s">
         <v>85</v>
       </c>
@@ -11493,12 +11171,8 @@
       <c r="U64" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V64" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="W64" s="64" t="s">
-        <v>740</v>
-      </c>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
       <c r="X64" s="55" t="s">
         <v>85</v>
       </c>
@@ -11611,12 +11285,8 @@
       <c r="U65" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V65" s="64" t="s">
-        <v>753</v>
-      </c>
-      <c r="W65" s="64" t="s">
-        <v>748</v>
-      </c>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
       <c r="X65" s="55" t="s">
         <v>85</v>
       </c>
@@ -11719,12 +11389,8 @@
       </c>
       <c r="T66" s="55"/>
       <c r="U66" s="55"/>
-      <c r="V66" s="64" t="s">
-        <v>852</v>
-      </c>
-      <c r="W66" s="64" t="s">
-        <v>757</v>
-      </c>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
       <c r="X66" s="55"/>
       <c r="Y66" s="55"/>
       <c r="Z66" s="55" t="s">
@@ -11813,12 +11479,8 @@
       <c r="U67" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V67" s="64" t="s">
-        <v>853</v>
-      </c>
-      <c r="W67" s="64" t="s">
-        <v>763</v>
-      </c>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
       <c r="X67" s="55" t="s">
         <v>85</v>
       </c>
@@ -11927,12 +11589,8 @@
       <c r="U68" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V68" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="W68" s="64" t="s">
-        <v>771</v>
-      </c>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
       <c r="X68" s="55" t="s">
         <v>85</v>
       </c>
@@ -12055,12 +11713,8 @@
       <c r="U69" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V69" s="64" t="s">
-        <v>854</v>
-      </c>
-      <c r="W69" s="64" t="s">
-        <v>791</v>
-      </c>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
       <c r="X69" s="55" t="s">
         <v>795</v>
       </c>
@@ -12167,12 +11821,8 @@
       <c r="U70" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="V70" s="64" t="s">
-        <v>855</v>
-      </c>
-      <c r="W70" s="64" t="s">
-        <v>803</v>
-      </c>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
       <c r="X70" s="55" t="s">
         <v>85</v>
       </c>
@@ -12341,12 +11991,8 @@
       <c r="S72" s="55"/>
       <c r="T72" s="55"/>
       <c r="U72" s="55"/>
-      <c r="V72" s="64" t="s">
-        <v>816</v>
-      </c>
-      <c r="W72" s="64" t="s">
-        <v>811</v>
-      </c>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
       <c r="X72" s="55"/>
       <c r="Y72" s="55"/>
       <c r="Z72" s="55"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BC2D4-472A-9D41-8F14-4829F3F2BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180BFF75-546B-A741-8B2F-21EA7F499E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4411,10 +4411,10 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Zone 1 Activity.xlsx
+++ b/Zone 1 Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/munenekariuki/Downloads/GitHub/SPS-Report-Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180BFF75-546B-A741-8B2F-21EA7F499E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B490B6-9358-6C49-AF6B-8F2E14464A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Overview" sheetId="1" r:id="rId1"/>
@@ -4411,15 +4411,15 @@
   <dimension ref="A1:AZ999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight" activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" customWidth="1"/>
@@ -4452,11 +4452,9 @@
     <col min="32" max="32" width="54" customWidth="1"/>
     <col min="33" max="33" width="61.1640625" customWidth="1"/>
     <col min="34" max="34" width="70.33203125" customWidth="1"/>
-    <col min="35" max="35" width="74.6640625" customWidth="1"/>
-    <col min="36" max="36" width="75.1640625" customWidth="1"/>
-    <col min="37" max="37" width="75" customWidth="1"/>
-    <col min="38" max="38" width="70.33203125" customWidth="1"/>
-    <col min="39" max="39" width="70.1640625" customWidth="1"/>
+    <col min="35" max="35" width="53" customWidth="1"/>
+    <col min="36" max="37" width="57" customWidth="1"/>
+    <col min="38" max="39" width="53.33203125" customWidth="1"/>
     <col min="40" max="40" width="70.33203125" customWidth="1"/>
     <col min="41" max="41" width="70.1640625" customWidth="1"/>
     <col min="42" max="42" width="135.83203125" customWidth="1"/>
